--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Estado!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Estado M$'!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1195,7 +1195,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1204,28 +1203,24 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1234,14 +1229,12 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1250,74 +1243,63 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1325,54 +1307,46 @@
       <sz val="8"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1380,27 +1354,23 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1408,28 +1378,24 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1437,7 +1403,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1446,7 +1411,6 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1454,7 +1418,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1463,7 +1426,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="Cambria"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="major"/>
     </font>
@@ -1472,7 +1434,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1481,7 +1442,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1490,7 +1450,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1499,7 +1458,6 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1507,7 +1465,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1516,7 +1473,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1525,7 +1481,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1534,7 +1489,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1542,7 +1496,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1550,7 +1503,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1558,7 +1510,6 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1566,7 +1517,6 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1574,7 +1524,6 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Czcionka tekstu podstawowego"/>
-      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -1585,7 +1534,6 @@
     <font>
       <sz val="10"/>
       <name val="Courier"/>
-      <family val="3"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1600,7 +1548,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1807,12 +1755,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1831,12 +1773,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1850,18 +1786,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,12 +1846,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2621,12 +2539,16 @@
     <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2637,13 +2559,9 @@
     <xf numFmtId="0" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3843,46 +3761,6 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="6">
-          <cell r="V6">
-            <v>32493414952.22</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="V7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="V8">
-            <v>1230818898.66</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="V9">
-            <v>15308078505.2884</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="V10">
-            <v>-1.16415321826935e-10</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="V11">
-            <v>1000125165.56</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="V12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="V13">
-            <v>2375792829.46</v>
-          </cell>
-        </row>
         <row r="19">
           <cell r="W19" t="str">
             <v>Gramado (Otros Activos)</v>
@@ -3907,9 +3785,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="V20">
-            <v>10397155079.081</v>
-          </cell>
           <cell r="W20">
             <v>4068236.2833624</v>
           </cell>
@@ -3930,16 +3805,6 @@
           </cell>
           <cell r="AC20">
             <v>-1250</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="V21">
-            <v>8084649734</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="V22">
-            <v>0</v>
           </cell>
         </row>
         <row r="22">
@@ -3969,9 +3834,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="V23">
-            <v>9732389270.53566</v>
-          </cell>
           <cell r="W23">
             <v>135991696</v>
           </cell>
@@ -4036,9 +3898,6 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="V24">
-            <v>9745429649.46466</v>
-          </cell>
           <cell r="W24">
             <v>-522271</v>
           </cell>
@@ -4071,11 +3930,6 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="V25">
-            <v>1080749265</v>
-          </cell>
-        </row>
-        <row r="25">
           <cell r="AE25" t="str">
             <v>Cont Alt Arg</v>
           </cell>
@@ -4084,68 +3938,8 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="V26">
-            <v>403110</v>
-          </cell>
-        </row>
-        <row r="26">
           <cell r="AF26" t="str">
             <v>CCFilms SAC</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="V27">
-            <v>17068623227.42</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="V28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="V29">
-            <v>2106581917.46</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="V30">
-            <v>2214328962</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="V37">
-            <v>2037377107.28</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="V38">
-            <v>13083193159.78</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="V39">
-            <v>-1.90921127796173e-8</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="V40">
-            <v>463737719</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="V41">
-            <v>1237126797</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="V42">
-            <v>1272171619</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="V43">
-            <v>1646245921.67</v>
           </cell>
         </row>
         <row r="46">
@@ -4180,9 +3974,6 @@
           </cell>
         </row>
         <row r="48">
-          <cell r="V48">
-            <v>2162755124.11419</v>
-          </cell>
           <cell r="W48">
             <v>14979258.28</v>
           </cell>
@@ -4203,19 +3994,11 @@
           </cell>
         </row>
         <row r="49">
-          <cell r="V49">
-            <v>908295196</v>
-          </cell>
-        </row>
-        <row r="49">
           <cell r="AA49" t="str">
             <v>Andinas</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="V50">
-            <v>4325775236.51468</v>
-          </cell>
           <cell r="W50">
             <v>581664636</v>
           </cell>
@@ -4252,56 +4035,6 @@
             <v>10535959.7758793</v>
           </cell>
         </row>
-        <row r="51">
-          <cell r="V51">
-            <v>128379000</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="V52">
-            <v>2395398086</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="V53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="V54">
-            <v>274927245</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="V58">
-            <v>28743629969</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="V59">
-            <v>51023010062</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="V60">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="V61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="V62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="V63">
-            <v>2411552424</v>
-          </cell>
-        </row>
         <row r="64">
           <cell r="Y64" t="str">
             <v>Audiovisual</v>
@@ -4311,9 +4044,6 @@
           </cell>
         </row>
         <row r="65">
-          <cell r="V65">
-            <v>724965899.810214</v>
-          </cell>
           <cell r="W65">
             <v>1131384817.60128</v>
           </cell>
@@ -5494,7 +5224,7 @@
       <c r="C11" s="307"/>
       <c r="D11" s="308">
         <f>ROUND(+Estado!O6/1000,0)</f>
-        <v>35735123</v>
+        <v>3241708</v>
       </c>
       <c r="E11" s="340"/>
       <c r="F11" s="308">
@@ -5526,7 +5256,7 @@
       <c r="C13" s="307"/>
       <c r="D13" s="308">
         <f>ROUND(+Estado!O8/1000,0)</f>
-        <v>1520754</v>
+        <v>289935</v>
       </c>
       <c r="E13" s="340"/>
       <c r="F13" s="308">
@@ -5543,7 +5273,7 @@
       <c r="C14" s="307"/>
       <c r="D14" s="308">
         <f>ROUND(+Estado!O9/1000,0)</f>
-        <v>16579535</v>
+        <v>1271456</v>
       </c>
       <c r="E14" s="340"/>
       <c r="F14" s="308">
@@ -5576,7 +5306,7 @@
       <c r="C16" s="307"/>
       <c r="D16" s="308">
         <f>ROUND(+Estado!O11/1000,0)-1</f>
-        <v>3255872</v>
+        <v>2255746</v>
       </c>
       <c r="E16" s="340"/>
       <c r="F16" s="308">
@@ -5592,7 +5322,7 @@
       <c r="C17" s="307"/>
       <c r="D17" s="308">
         <f>ROUND(+Estado!O13/1000,0)</f>
-        <v>2982275</v>
+        <v>606482</v>
       </c>
       <c r="E17" s="340"/>
       <c r="F17" s="308">
@@ -5608,7 +5338,7 @@
       <c r="C18" s="341"/>
       <c r="D18" s="343">
         <f>SUM(D11:D17)</f>
-        <v>60073559</v>
+        <v>7665327</v>
       </c>
       <c r="E18" s="344"/>
       <c r="F18" s="343">
@@ -5673,7 +5403,7 @@
       <c r="C22" s="348"/>
       <c r="D22" s="349">
         <f>+D18+D21</f>
-        <v>60073559</v>
+        <v>7665327</v>
       </c>
       <c r="E22" s="350"/>
       <c r="F22" s="349">
@@ -5701,7 +5431,7 @@
       <c r="C24" s="341"/>
       <c r="D24" s="308">
         <f>ROUND(+Estado!O20/1000,0)</f>
-        <v>10397155</v>
+        <v>0</v>
       </c>
       <c r="E24" s="344"/>
       <c r="F24" s="308">
@@ -5717,7 +5447,7 @@
       <c r="C25" s="341"/>
       <c r="D25" s="308">
         <f>ROUND(+Estado!O21/1000,0)</f>
-        <v>8084650</v>
+        <v>0</v>
       </c>
       <c r="E25" s="344"/>
       <c r="F25" s="308">
@@ -5750,7 +5480,7 @@
       <c r="C27" s="341"/>
       <c r="D27" s="308">
         <f>ROUND(+Estado!O23/1000,0)</f>
-        <v>2935717</v>
+        <v>-6796673</v>
       </c>
       <c r="E27" s="344"/>
       <c r="F27" s="308">
@@ -5766,7 +5496,7 @@
       <c r="C28" s="341"/>
       <c r="D28" s="308">
         <f>ROUND(+Estado!O24/1000,0)</f>
-        <v>5414957</v>
+        <v>-4330473</v>
       </c>
       <c r="E28" s="344"/>
       <c r="F28" s="308">
@@ -5782,7 +5512,7 @@
       <c r="C29" s="341"/>
       <c r="D29" s="308">
         <f>ROUND(+Estado!O25/1000,0)</f>
-        <v>1080749</v>
+        <v>0</v>
       </c>
       <c r="E29" s="344"/>
       <c r="F29" s="308">
@@ -5798,7 +5528,7 @@
       <c r="C30" s="341"/>
       <c r="D30" s="308">
         <f>ROUND(+Estado!O26/1000,0)-1</f>
-        <v>2322931</v>
+        <v>2322527</v>
       </c>
       <c r="E30" s="344"/>
       <c r="F30" s="308">
@@ -5814,7 +5544,7 @@
       <c r="C31" s="341"/>
       <c r="D31" s="308">
         <f>ROUND(+Estado!O27/1000,0)</f>
-        <v>17700987</v>
+        <v>632364</v>
       </c>
       <c r="E31" s="344"/>
       <c r="F31" s="308">
@@ -5846,7 +5576,7 @@
       <c r="C33" s="341"/>
       <c r="D33" s="308">
         <f>ROUND(+Estado!O29/1000,0)</f>
-        <v>2106582</v>
+        <v>0</v>
       </c>
       <c r="E33" s="344"/>
       <c r="F33" s="308">
@@ -5862,7 +5592,7 @@
       <c r="C34" s="341"/>
       <c r="D34" s="308">
         <f>ROUND(+Estado!O30/1000,0)</f>
-        <v>2366981</v>
+        <v>152652</v>
       </c>
       <c r="E34" s="344"/>
       <c r="F34" s="308">
@@ -5878,7 +5608,7 @@
       <c r="C35" s="341"/>
       <c r="D35" s="349">
         <f>SUM(D24:D34)+1</f>
-        <v>52410710</v>
+        <v>-8019602</v>
       </c>
       <c r="E35" s="350"/>
       <c r="F35" s="349">
@@ -5895,7 +5625,7 @@
       <c r="C36" s="337"/>
       <c r="D36" s="349">
         <f>+D22+D35</f>
-        <v>112484269</v>
+        <v>-354275</v>
       </c>
       <c r="E36" s="353"/>
       <c r="F36" s="349">
@@ -5954,7 +5684,7 @@
       <c r="C41" s="307"/>
       <c r="D41" s="308">
         <f>ROUND(+Estado!O37/1000,0)</f>
-        <v>2091056</v>
+        <v>53678</v>
       </c>
       <c r="E41" s="340"/>
       <c r="F41" s="308">
@@ -5971,7 +5701,7 @@
       <c r="C42" s="307"/>
       <c r="D42" s="308">
         <f>ROUND(+Estado!O38/1000,0)</f>
-        <v>13883997</v>
+        <v>800804</v>
       </c>
       <c r="E42" s="340"/>
       <c r="F42" s="308">
@@ -6004,7 +5734,7 @@
       <c r="C44" s="307"/>
       <c r="D44" s="308">
         <f>ROUND(+Estado!O40/1000,0)</f>
-        <v>463738</v>
+        <v>0</v>
       </c>
       <c r="E44" s="340"/>
       <c r="F44" s="308">
@@ -6020,7 +5750,7 @@
       <c r="C45" s="307"/>
       <c r="D45" s="308">
         <f>ROUND(+Estado!O41/1000,0)</f>
-        <v>1528704</v>
+        <v>291578</v>
       </c>
       <c r="E45" s="340"/>
       <c r="F45" s="308">
@@ -6037,7 +5767,7 @@
       <c r="C46" s="307"/>
       <c r="D46" s="308">
         <f>ROUND(+Estado!O42/1000,0)-1</f>
-        <v>1329297</v>
+        <v>57125</v>
       </c>
       <c r="E46" s="340"/>
       <c r="F46" s="308">
@@ -6054,7 +5784,7 @@
       <c r="C47" s="307"/>
       <c r="D47" s="308">
         <f>ROUND(+Estado!O43/1000,0)</f>
-        <v>1914548</v>
+        <v>268303</v>
       </c>
       <c r="E47" s="340"/>
       <c r="F47" s="308">
@@ -6070,7 +5800,7 @@
       <c r="C48" s="363"/>
       <c r="D48" s="349">
         <f>SUM(D41:D47)</f>
-        <v>21211340</v>
+        <v>1471488</v>
       </c>
       <c r="E48" s="365"/>
       <c r="F48" s="349">
@@ -6103,7 +5833,7 @@
       <c r="C50" s="311"/>
       <c r="D50" s="349">
         <f>+D48+D49</f>
-        <v>21211340</v>
+        <v>1471488</v>
       </c>
       <c r="E50" s="367"/>
       <c r="F50" s="349">
@@ -6131,7 +5861,7 @@
       <c r="C52" s="307"/>
       <c r="D52" s="308">
         <f>ROUND(+Estado!O48/1000,0)</f>
-        <v>2232105</v>
+        <v>69350</v>
       </c>
       <c r="E52" s="340"/>
       <c r="F52" s="308">
@@ -6163,7 +5893,7 @@
       <c r="C54" s="307"/>
       <c r="D54" s="308">
         <f>ROUND(+Estado!O50/1000,0)+1</f>
-        <v>2980990</v>
+        <v>-1344785</v>
       </c>
       <c r="E54" s="340"/>
       <c r="F54" s="308">
@@ -6179,7 +5909,7 @@
       <c r="C55" s="307"/>
       <c r="D55" s="308">
         <f>ROUND(+Estado!O51/1000,0)</f>
-        <v>128379</v>
+        <v>0</v>
       </c>
       <c r="E55" s="340"/>
       <c r="F55" s="308">
@@ -6196,7 +5926,7 @@
       <c r="C56" s="307"/>
       <c r="D56" s="308">
         <f>ROUND(+Estado!O52/1000,0)+1</f>
-        <v>2571354</v>
+        <v>175956</v>
       </c>
       <c r="E56" s="340"/>
       <c r="F56" s="308">
@@ -6229,7 +5959,7 @@
       <c r="C58" s="307"/>
       <c r="D58" s="308">
         <f>ROUND(+Estado!O54/1000,0)</f>
-        <v>1183222</v>
+        <v>0</v>
       </c>
       <c r="E58" s="340"/>
       <c r="F58" s="308">
@@ -6245,7 +5975,7 @@
       <c r="C59" s="311"/>
       <c r="D59" s="349">
         <f>SUM(D52:D58)</f>
-        <v>9096050</v>
+        <v>-1099479</v>
       </c>
       <c r="E59" s="367"/>
       <c r="F59" s="349">
@@ -6262,7 +5992,7 @@
       <c r="C60" s="368"/>
       <c r="D60" s="349">
         <f>+D50+D59</f>
-        <v>30307390</v>
+        <v>372009</v>
       </c>
       <c r="E60" s="369"/>
       <c r="F60" s="349">
@@ -6290,7 +6020,7 @@
       <c r="C62" s="341"/>
       <c r="D62" s="308">
         <f>ROUND(+Estado!O58/1000,0)</f>
-        <v>31177251</v>
+        <v>2433621</v>
       </c>
       <c r="E62" s="344"/>
       <c r="F62" s="308">
@@ -6306,7 +6036,7 @@
       <c r="C63" s="341"/>
       <c r="D63" s="308">
         <f>ROUND(+Estado!O59/1000,0)</f>
-        <v>59686820</v>
+        <v>8663810</v>
       </c>
       <c r="E63" s="344"/>
       <c r="F63" s="308">
@@ -6370,7 +6100,7 @@
       <c r="C67" s="341"/>
       <c r="D67" s="308">
         <f>ROUND(+Estado!O63/1000,0)</f>
-        <v>-8280773</v>
+        <v>-10692326</v>
       </c>
       <c r="E67" s="344"/>
       <c r="F67" s="308">
@@ -6386,7 +6116,7 @@
       <c r="C68" s="348"/>
       <c r="D68" s="349">
         <f>SUM(D62:D67)</f>
-        <v>82583298</v>
+        <v>405105</v>
       </c>
       <c r="E68" s="350"/>
       <c r="F68" s="349">
@@ -6403,7 +6133,7 @@
       <c r="C69" s="341"/>
       <c r="D69" s="308">
         <f>ROUND(+Estado!O65/1000,0)</f>
-        <v>-406419</v>
+        <v>-1131385</v>
       </c>
       <c r="E69" s="344"/>
       <c r="F69" s="308">
@@ -6419,7 +6149,7 @@
       <c r="C70" s="348"/>
       <c r="D70" s="349">
         <f>+D68+D69</f>
-        <v>82176879</v>
+        <v>-726280</v>
       </c>
       <c r="E70" s="350"/>
       <c r="F70" s="349">
@@ -6436,7 +6166,7 @@
       <c r="C71" s="373"/>
       <c r="D71" s="349">
         <f>+D60+D70</f>
-        <v>112484269</v>
+        <v>-354271</v>
       </c>
       <c r="E71" s="374"/>
       <c r="F71" s="349">
@@ -6461,7 +6191,7 @@
       <c r="C73" s="380"/>
       <c r="D73" s="381">
         <f>+D36-D71</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E73" s="382"/>
       <c r="F73" s="381">
@@ -7119,11 +6849,11 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q66" sqref="Q66"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12.75"/>
@@ -7339,10 +7069,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="176"/>
-      <c r="C6" s="128">
-        <f>+[1]Estado!$V$6</f>
-        <v>32493414952.22</v>
-      </c>
+      <c r="C6" s="128"/>
       <c r="D6" s="128"/>
       <c r="E6" s="128">
         <f>+'[2]Estado$'!$T$6</f>
@@ -7374,7 +7101,7 @@
       <c r="N6" s="129"/>
       <c r="O6" s="128">
         <f t="shared" ref="O6:O13" si="0">SUM(C6:M6)</f>
-        <v>35735123332.22</v>
+        <v>3241708380</v>
       </c>
       <c r="P6" s="110"/>
       <c r="Q6" s="110"/>
@@ -7415,10 +7142,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="176"/>
-      <c r="C7" s="128">
-        <f>+[1]Estado!$V$7</f>
-        <v>0</v>
-      </c>
+      <c r="C7" s="128"/>
       <c r="D7" s="128"/>
       <c r="E7" s="128">
         <f>+'[2]Estado$'!$T$7</f>
@@ -7491,10 +7215,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="176"/>
-      <c r="C8" s="128">
-        <f>+[1]Estado!$V$8</f>
-        <v>1230818898.66</v>
-      </c>
+      <c r="C8" s="128"/>
       <c r="D8" s="128"/>
       <c r="E8" s="128">
         <f>+'[2]Estado$'!$T$8</f>
@@ -7526,7 +7247,7 @@
       <c r="N8" s="129"/>
       <c r="O8" s="128">
         <f t="shared" si="0"/>
-        <v>1520753838.66</v>
+        <v>289934940</v>
       </c>
       <c r="P8" s="110"/>
       <c r="Q8" s="110"/>
@@ -7567,10 +7288,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="176"/>
-      <c r="C9" s="128">
-        <f>+[1]Estado!$V$9</f>
-        <v>15308078505.2884</v>
-      </c>
+      <c r="C9" s="128"/>
       <c r="D9" s="128"/>
       <c r="E9" s="128">
         <f>+'[2]Estado$'!$T$9</f>
@@ -7600,7 +7318,7 @@
       <c r="N9" s="129"/>
       <c r="O9" s="128">
         <f t="shared" si="0"/>
-        <v>16579534810.2884</v>
+        <v>1271456305</v>
       </c>
       <c r="P9" s="110"/>
       <c r="Q9" s="110"/>
@@ -7641,10 +7359,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="176"/>
-      <c r="C10" s="156">
-        <f>+[1]Estado!$V$10</f>
-        <v>-1.16415321826935e-10</v>
-      </c>
+      <c r="C10" s="156"/>
       <c r="D10" s="156"/>
       <c r="E10" s="156">
         <f>+'[2]Estado$'!$T$10</f>
@@ -7660,7 +7375,7 @@
       <c r="H10" s="129"/>
       <c r="I10" s="156">
         <f>-C10</f>
-        <v>1.16415321826935e-10</v>
+        <v>0</v>
       </c>
       <c r="J10" s="156">
         <f>-D10</f>
@@ -7719,10 +7434,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="176"/>
-      <c r="C11" s="128">
-        <f>+[1]Estado!$V$11</f>
-        <v>1000125165.56</v>
-      </c>
+      <c r="C11" s="128"/>
       <c r="D11" s="128"/>
       <c r="E11" s="128">
         <f>+'[2]Estado$'!$T$11</f>
@@ -7754,7 +7466,7 @@
       <c r="N11" s="129"/>
       <c r="O11" s="128">
         <f t="shared" si="0"/>
-        <v>3255872574.56</v>
+        <v>2255747409</v>
       </c>
       <c r="P11" s="110"/>
       <c r="Q11" s="110"/>
@@ -7795,10 +7507,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="176"/>
-      <c r="C12" s="128">
-        <f>+[1]Estado!$V$12</f>
-        <v>0</v>
-      </c>
+      <c r="C12" s="128"/>
       <c r="D12" s="128"/>
       <c r="E12" s="128">
         <f>+'[2]Estado$'!$T$12</f>
@@ -7871,10 +7580,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="176"/>
-      <c r="C13" s="128">
-        <f>+[1]Estado!$V$13</f>
-        <v>2375792829.46</v>
-      </c>
+      <c r="C13" s="128"/>
       <c r="D13" s="128"/>
       <c r="E13" s="128">
         <f>+'[2]Estado$'!$T$13</f>
@@ -7906,7 +7612,7 @@
       <c r="N13" s="129"/>
       <c r="O13" s="128">
         <f t="shared" si="0"/>
-        <v>2982274761.46</v>
+        <v>606481932</v>
       </c>
       <c r="P13" s="110"/>
       <c r="Q13" s="110"/>
@@ -7949,7 +7655,7 @@
       <c r="B14" s="179"/>
       <c r="C14" s="180">
         <f>SUM(C6:C13)</f>
-        <v>52408230351.1884</v>
+        <v>0</v>
       </c>
       <c r="D14" s="180"/>
       <c r="E14" s="180">
@@ -7967,7 +7673,7 @@
       <c r="H14" s="129"/>
       <c r="I14" s="212">
         <f>SUM(I6:I13)</f>
-        <v>1.16415321826935e-10</v>
+        <v>0</v>
       </c>
       <c r="J14" s="212">
         <f>SUM(J6:J13)</f>
@@ -7988,7 +7694,7 @@
       <c r="N14" s="129"/>
       <c r="O14" s="180">
         <f>SUM(O6:O13)</f>
-        <v>60073559317.1884</v>
+        <v>7665328966</v>
       </c>
       <c r="P14" s="110"/>
       <c r="Q14" s="110"/>
@@ -8266,7 +7972,7 @@
       <c r="B18" s="184"/>
       <c r="C18" s="185">
         <f>+C14+C17</f>
-        <v>52408230351.1884</v>
+        <v>0</v>
       </c>
       <c r="D18" s="185"/>
       <c r="E18" s="185">
@@ -8284,7 +7990,7 @@
       <c r="H18" s="119"/>
       <c r="I18" s="185">
         <f>+I14+I17</f>
-        <v>1.16415321826935e-10</v>
+        <v>0</v>
       </c>
       <c r="J18" s="185">
         <f>+J14+J17</f>
@@ -8305,7 +8011,7 @@
       <c r="N18" s="119"/>
       <c r="O18" s="185">
         <f>+O14+O17</f>
-        <v>60073559317.1884</v>
+        <v>7665328966</v>
       </c>
       <c r="P18" s="214"/>
       <c r="Q18" s="214"/>
@@ -8427,10 +8133,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="179"/>
-      <c r="C20" s="187">
-        <f>+[1]Estado!$V$20</f>
-        <v>10397155079.081</v>
-      </c>
+      <c r="C20" s="187"/>
       <c r="D20" s="187"/>
       <c r="E20" s="187">
         <f>+'[2]Estado$'!$T$20</f>
@@ -8452,7 +8155,7 @@
       <c r="N20" s="129"/>
       <c r="O20" s="187">
         <f t="shared" ref="O20:O30" si="1">SUM(C20:M20)</f>
-        <v>10397155079.081</v>
+        <v>0</v>
       </c>
       <c r="P20" s="213">
         <f>+[1]Estado!$W$20</f>
@@ -8492,7 +8195,7 @@
       </c>
       <c r="AB20" s="213">
         <f>+O20-AA20</f>
-        <v>0.243192672729492</v>
+        <v>-10397155078.8378</v>
       </c>
       <c r="AC20" s="213"/>
       <c r="AD20" s="213"/>
@@ -8523,10 +8226,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="179"/>
-      <c r="C21" s="128">
-        <f>+[1]Estado!$V$21</f>
-        <v>8084649734</v>
-      </c>
+      <c r="C21" s="128"/>
       <c r="D21" s="128"/>
       <c r="E21" s="128">
         <f>+'[2]Estado$'!$T$21</f>
@@ -8548,7 +8248,7 @@
       <c r="N21" s="129"/>
       <c r="O21" s="128">
         <f t="shared" si="1"/>
-        <v>8084649734</v>
+        <v>0</v>
       </c>
       <c r="P21" s="213"/>
       <c r="Q21" s="213"/>
@@ -8592,10 +8292,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="179"/>
-      <c r="C22" s="128">
-        <f>+[1]Estado!$V$22</f>
-        <v>0</v>
-      </c>
+      <c r="C22" s="128"/>
       <c r="D22" s="128"/>
       <c r="E22" s="128">
         <f>+'[2]Estado$'!$T$22</f>
@@ -8700,10 +8397,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="179"/>
-      <c r="C23" s="156">
-        <f>+[1]Estado!$V$23</f>
-        <v>9732389270.53566</v>
-      </c>
+      <c r="C23" s="156"/>
       <c r="D23" s="156"/>
       <c r="E23" s="156">
         <f>+'[2]Estado$'!$T$23</f>
@@ -8731,7 +8425,7 @@
       <c r="N23" s="129"/>
       <c r="O23" s="156">
         <f t="shared" si="1"/>
-        <v>2935716691.40916</v>
+        <v>-6796672579.1265</v>
       </c>
       <c r="P23" s="157">
         <f>+'[2]Estado$'!$V$23</f>
@@ -8799,7 +8493,7 @@
       </c>
       <c r="AF23" s="213">
         <f>+AE23-O23</f>
-        <v>0.323243141174316</v>
+        <v>9732389270.8589</v>
       </c>
       <c r="AG23" s="213"/>
       <c r="AH23" s="213"/>
@@ -8826,10 +8520,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="179"/>
-      <c r="C24" s="137">
-        <f>+[1]Estado!$V$24</f>
-        <v>9745429649.46466</v>
-      </c>
+      <c r="C24" s="137"/>
       <c r="D24" s="137"/>
       <c r="E24" s="137">
         <f>+'[2]Estado$'!$T$24</f>
@@ -8857,7 +8548,7 @@
       <c r="N24" s="129"/>
       <c r="O24" s="137">
         <f t="shared" si="1"/>
-        <v>5414956957.90246</v>
+        <v>-4330472691.5622</v>
       </c>
       <c r="Q24" s="157">
         <f>+[1]Estado!$X$24</f>
@@ -8901,7 +8592,7 @@
       </c>
       <c r="AA24" s="110">
         <f>+Z24-O24</f>
-        <v>0.0963354110717773</v>
+        <v>9745429649.561</v>
       </c>
       <c r="AB24" s="227"/>
       <c r="AC24" s="227"/>
@@ -8933,10 +8624,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="179"/>
-      <c r="C25" s="128">
-        <f>+[1]Estado!$V$25</f>
-        <v>1080749265</v>
-      </c>
+      <c r="C25" s="128"/>
       <c r="D25" s="128"/>
       <c r="E25" s="128">
         <f>+'[2]Estado$'!$T$25</f>
@@ -8968,7 +8656,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="128">
         <f t="shared" si="1"/>
-        <v>1080749265</v>
+        <v>0</v>
       </c>
       <c r="P25" s="217"/>
       <c r="Q25" s="223" t="s">
@@ -9034,10 +8722,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="179"/>
-      <c r="C26" s="128">
-        <f>+[1]Estado!$V$26</f>
-        <v>403110</v>
-      </c>
+      <c r="C26" s="128"/>
       <c r="D26" s="128"/>
       <c r="E26" s="128">
         <f>+'[2]Estado$'!$T$26</f>
@@ -9069,7 +8754,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="128">
         <f t="shared" si="1"/>
-        <v>2322931563</v>
+        <v>2322528453</v>
       </c>
       <c r="P26" s="157">
         <f>+[1]Estado!$AD$24</f>
@@ -9118,10 +8803,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="179"/>
-      <c r="C27" s="128">
-        <f>+[1]Estado!$V$27</f>
-        <v>17068623227.42</v>
-      </c>
+      <c r="C27" s="128"/>
       <c r="D27" s="128"/>
       <c r="E27" s="128">
         <f>+'[2]Estado$'!$T$27</f>
@@ -9153,7 +8835,7 @@
       <c r="N27" s="129"/>
       <c r="O27" s="128">
         <f t="shared" si="1"/>
-        <v>17700987132.42</v>
+        <v>632363905</v>
       </c>
       <c r="P27" s="110"/>
       <c r="Q27" s="110"/>
@@ -9193,10 +8875,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="179"/>
-      <c r="C28" s="128">
-        <f>+[1]Estado!$V$28</f>
-        <v>0</v>
-      </c>
+      <c r="C28" s="128"/>
       <c r="D28" s="128"/>
       <c r="E28" s="128">
         <f>+'[2]Estado$'!$T$28</f>
@@ -9269,10 +8948,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="179"/>
-      <c r="C29" s="128">
-        <f>+[1]Estado!$V$29</f>
-        <v>2106581917.46</v>
-      </c>
+      <c r="C29" s="128"/>
       <c r="D29" s="128"/>
       <c r="E29" s="128">
         <f>+'[2]Estado$'!$T$29</f>
@@ -9304,7 +8980,7 @@
       <c r="N29" s="129"/>
       <c r="O29" s="128">
         <f t="shared" si="1"/>
-        <v>2106581917.46</v>
+        <v>0</v>
       </c>
       <c r="P29" s="110"/>
       <c r="Q29" s="110"/>
@@ -9345,10 +9021,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="179"/>
-      <c r="C30" s="128">
-        <f>+[1]Estado!$V$30</f>
-        <v>2214328962</v>
-      </c>
+      <c r="C30" s="128"/>
       <c r="D30" s="128"/>
       <c r="E30" s="128">
         <f>+'[2]Estado$'!$T$30</f>
@@ -9380,7 +9053,7 @@
       <c r="N30" s="129"/>
       <c r="O30" s="128">
         <f t="shared" si="1"/>
-        <v>2366980990</v>
+        <v>152652028</v>
       </c>
       <c r="P30" s="110"/>
       <c r="Q30" s="110"/>
@@ -9423,7 +9096,7 @@
       <c r="B31" s="179"/>
       <c r="C31" s="180">
         <f>SUM(C20:C30)</f>
-        <v>60430310214.9613</v>
+        <v>0</v>
       </c>
       <c r="D31" s="180"/>
       <c r="E31" s="180">
@@ -9462,7 +9135,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="180">
         <f>SUM(O20:O30)</f>
-        <v>52410709330.2726</v>
+        <v>-8019600884.6887</v>
       </c>
       <c r="P31" s="110"/>
       <c r="Q31" s="110"/>
@@ -9505,7 +9178,7 @@
       <c r="B32" s="174"/>
       <c r="C32" s="185">
         <f>+C18+C31</f>
-        <v>112838540566.15</v>
+        <v>0</v>
       </c>
       <c r="D32" s="185"/>
       <c r="E32" s="185">
@@ -9544,7 +9217,7 @@
       <c r="N32" s="119"/>
       <c r="O32" s="185">
         <f>+O18+O31</f>
-        <v>112484268647.461</v>
+        <v>-354271918.688702</v>
       </c>
       <c r="P32" s="110"/>
       <c r="Q32" s="110"/>
@@ -9805,10 +9478,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="184"/>
-      <c r="C37" s="198">
-        <f>+[1]Estado!$V$37</f>
-        <v>2037377107.28</v>
-      </c>
+      <c r="C37" s="198"/>
       <c r="D37" s="198"/>
       <c r="E37" s="198">
         <f>+'[2]Estado$'!$T$37</f>
@@ -9840,11 +9510,11 @@
       <c r="N37" s="184"/>
       <c r="O37" s="198">
         <f t="shared" ref="O37:O43" si="2">SUM(C37:M37)</f>
-        <v>2091055520.28</v>
+        <v>53678413</v>
       </c>
       <c r="P37" s="110">
         <f>+C37</f>
-        <v>2037377107.28</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="110"/>
       <c r="R37" s="110">
@@ -9858,7 +9528,7 @@
       </c>
       <c r="U37" s="157">
         <f>SUM(P37:T37)</f>
-        <v>2091055520.28</v>
+        <v>53678413</v>
       </c>
       <c r="V37" s="232"/>
       <c r="W37" s="110"/>
@@ -9893,10 +9563,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="176"/>
-      <c r="C38" s="128">
-        <f>+[1]Estado!$V$38</f>
-        <v>13083193159.78</v>
-      </c>
+      <c r="C38" s="128"/>
       <c r="D38" s="128"/>
       <c r="E38" s="128">
         <f>+'[2]Estado$'!$T$38</f>
@@ -9926,7 +9593,7 @@
       <c r="N38" s="129"/>
       <c r="O38" s="128">
         <f t="shared" si="2"/>
-        <v>13883997092.78</v>
+        <v>800803933</v>
       </c>
       <c r="P38" s="110"/>
       <c r="Q38" s="110"/>
@@ -9967,10 +9634,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="176"/>
-      <c r="C39" s="156">
-        <f>+[1]Estado!$V$39</f>
-        <v>-1.90921127796173e-8</v>
-      </c>
+      <c r="C39" s="156"/>
       <c r="D39" s="156"/>
       <c r="E39" s="156">
         <f>+'[2]Estado$'!$T$39</f>
@@ -9986,7 +9650,7 @@
       <c r="H39" s="129"/>
       <c r="I39" s="156">
         <f>-C39</f>
-        <v>1.90921127796173e-8</v>
+        <v>0</v>
       </c>
       <c r="J39" s="156"/>
       <c r="K39" s="156">
@@ -10042,10 +9706,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="176"/>
-      <c r="C40" s="128">
-        <f>+[1]Estado!$V$40</f>
-        <v>463737719</v>
-      </c>
+      <c r="C40" s="128"/>
       <c r="D40" s="128"/>
       <c r="E40" s="128">
         <f>+'[2]Estado$'!$T$40</f>
@@ -10077,7 +9738,7 @@
       <c r="N40" s="129"/>
       <c r="O40" s="128">
         <f t="shared" si="2"/>
-        <v>463737719</v>
+        <v>0</v>
       </c>
       <c r="P40" s="110"/>
       <c r="Q40" s="110"/>
@@ -10118,10 +9779,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="176"/>
-      <c r="C41" s="128">
-        <f>+[1]Estado!$V$41</f>
-        <v>1237126797</v>
-      </c>
+      <c r="C41" s="128"/>
       <c r="D41" s="128"/>
       <c r="E41" s="128">
         <f>+'[2]Estado$'!$T$41</f>
@@ -10153,7 +9811,7 @@
       <c r="N41" s="129"/>
       <c r="O41" s="128">
         <f t="shared" si="2"/>
-        <v>1528704399</v>
+        <v>291577602</v>
       </c>
       <c r="P41" s="110"/>
       <c r="Q41" s="110"/>
@@ -10194,10 +9852,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="176"/>
-      <c r="C42" s="128">
-        <f>+[1]Estado!$V$42</f>
-        <v>1272171619</v>
-      </c>
+      <c r="C42" s="128"/>
       <c r="D42" s="128"/>
       <c r="E42" s="128">
         <f>+'[2]Estado$'!$T$42</f>
@@ -10229,7 +9884,7 @@
       <c r="N42" s="129"/>
       <c r="O42" s="128">
         <f t="shared" si="2"/>
-        <v>1329297676</v>
+        <v>57126057</v>
       </c>
       <c r="P42" s="110"/>
       <c r="Q42" s="110"/>
@@ -10270,10 +9925,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="176"/>
-      <c r="C43" s="128">
-        <f>+[1]Estado!$V$43</f>
-        <v>1646245921.67</v>
-      </c>
+      <c r="C43" s="128"/>
       <c r="D43" s="128"/>
       <c r="E43" s="128">
         <f>+'[2]Estado$'!$T$43</f>
@@ -10305,7 +9957,7 @@
       <c r="N43" s="129"/>
       <c r="O43" s="128">
         <f t="shared" si="2"/>
-        <v>1914548429.67</v>
+        <v>268302508</v>
       </c>
       <c r="P43" s="110"/>
       <c r="Q43" s="110"/>
@@ -10348,7 +10000,7 @@
       <c r="B44" s="200"/>
       <c r="C44" s="118">
         <f>SUM(C37:C43)</f>
-        <v>19739852323.73</v>
+        <v>0</v>
       </c>
       <c r="D44" s="118"/>
       <c r="E44" s="118">
@@ -10387,7 +10039,7 @@
       <c r="N44" s="119"/>
       <c r="O44" s="118">
         <f>SUM(O37:O43)</f>
-        <v>21211340836.73</v>
+        <v>1471488513</v>
       </c>
       <c r="P44" s="110"/>
       <c r="Q44" s="110"/>
@@ -10507,7 +10159,7 @@
       <c r="B46" s="202"/>
       <c r="C46" s="118">
         <f>+C44+C45</f>
-        <v>19739852323.73</v>
+        <v>0</v>
       </c>
       <c r="D46" s="118"/>
       <c r="E46" s="118">
@@ -10546,7 +10198,7 @@
       <c r="N46" s="119"/>
       <c r="O46" s="118">
         <f>+O44+O45</f>
-        <v>21211340836.73</v>
+        <v>1471488513</v>
       </c>
       <c r="P46" s="214" t="s">
         <v>120</v>
@@ -10676,10 +10328,7 @@
         <v>123</v>
       </c>
       <c r="B48" s="184"/>
-      <c r="C48" s="198">
-        <f>+[1]Estado!$V$48</f>
-        <v>2162755124.11419</v>
-      </c>
+      <c r="C48" s="198"/>
       <c r="D48" s="198"/>
       <c r="E48" s="198">
         <f>+'[2]Estado$'!$T$48</f>
@@ -10701,7 +10350,7 @@
       <c r="N48" s="125"/>
       <c r="O48" s="221">
         <f t="shared" ref="O48:O54" si="3">SUM(C48:M48)</f>
-        <v>2232104846.11419</v>
+        <v>69349722</v>
       </c>
       <c r="P48" s="222">
         <f>+[3]Ctas!$D$416</f>
@@ -10737,7 +10386,7 @@
       </c>
       <c r="X48" s="241">
         <f>+O48-W48</f>
-        <v>0.162654399871826</v>
+        <v>-2162755123.95153</v>
       </c>
       <c r="Y48" s="241"/>
       <c r="Z48" s="241"/>
@@ -10766,15 +10415,12 @@
       <c r="AW48" s="275"/>
       <c r="AX48" s="276"/>
     </row>
-    <row r="49" ht="13.5" spans="1:49">
+    <row r="49" spans="1:49">
       <c r="A49" s="175" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="176"/>
-      <c r="C49" s="128">
-        <f>+[1]Estado!$V$49</f>
-        <v>908295196</v>
-      </c>
+      <c r="C49" s="128"/>
       <c r="D49" s="128"/>
       <c r="E49" s="128">
         <f>+'[2]Estado$'!$T$49</f>
@@ -10790,7 +10436,7 @@
       <c r="H49" s="129"/>
       <c r="I49" s="128">
         <f>-C49</f>
-        <v>-908295196</v>
+        <v>0</v>
       </c>
       <c r="J49" s="128"/>
       <c r="K49" s="128"/>
@@ -10836,15 +10482,12 @@
       <c r="AV49" s="264"/>
       <c r="AW49" s="274"/>
     </row>
-    <row r="50" ht="13.5" spans="1:49">
+    <row r="50" spans="1:49">
       <c r="A50" s="177" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="176"/>
-      <c r="C50" s="156">
-        <f>+[1]Estado!$V$50</f>
-        <v>4325775236.51468</v>
-      </c>
+      <c r="C50" s="156"/>
       <c r="D50" s="156"/>
       <c r="E50" s="156">
         <f>+'[2]Estado$'!$T$50</f>
@@ -10875,7 +10518,7 @@
       <c r="N50" s="125"/>
       <c r="O50" s="156">
         <f t="shared" si="3"/>
-        <v>2980989089.1632</v>
+        <v>-1344786147.35148</v>
       </c>
       <c r="P50" s="157">
         <f>+[1]Estado!$W$50</f>
@@ -10912,7 +10555,7 @@
       </c>
       <c r="AA50" s="110">
         <f>+O50-Y50</f>
-        <v>-0.658600807189941</v>
+        <v>-4325775237.17328</v>
       </c>
       <c r="AB50" s="110"/>
       <c r="AC50" s="110"/>
@@ -10942,10 +10585,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="176"/>
-      <c r="C51" s="128">
-        <f>+[1]Estado!$V$51</f>
-        <v>128379000</v>
-      </c>
+      <c r="C51" s="128"/>
       <c r="D51" s="128"/>
       <c r="E51" s="128">
         <f>+'[2]Estado$'!$T$51</f>
@@ -10967,7 +10607,7 @@
       <c r="N51" s="129"/>
       <c r="O51" s="128">
         <f t="shared" si="3"/>
-        <v>128379000</v>
+        <v>0</v>
       </c>
       <c r="P51" s="223" t="s">
         <v>101</v>
@@ -11026,10 +10666,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="176"/>
-      <c r="C52" s="128">
-        <f>+[1]Estado!$V$52</f>
-        <v>2395398086</v>
-      </c>
+      <c r="C52" s="128"/>
       <c r="D52" s="128"/>
       <c r="E52" s="128">
         <f>+'[2]Estado$'!$T$52</f>
@@ -11061,7 +10698,7 @@
       <c r="N52" s="129"/>
       <c r="O52" s="128">
         <f t="shared" si="3"/>
-        <v>2571353491</v>
+        <v>175955405</v>
       </c>
       <c r="P52" s="110"/>
       <c r="R52" s="227"/>
@@ -11102,10 +10739,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="176"/>
-      <c r="C53" s="128">
-        <f>+[1]Estado!$V$53</f>
-        <v>0</v>
-      </c>
+      <c r="C53" s="128"/>
       <c r="D53" s="128"/>
       <c r="E53" s="128">
         <f>+'[2]Estado$'!$T$53</f>
@@ -11179,10 +10813,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="176"/>
-      <c r="C54" s="128">
-        <f>+[1]Estado!$V$54</f>
-        <v>274927245</v>
-      </c>
+      <c r="C54" s="128"/>
       <c r="D54" s="128"/>
       <c r="E54" s="128">
         <f>+'[2]Estado$'!$T$54</f>
@@ -11198,7 +10829,7 @@
       <c r="H54" s="129"/>
       <c r="I54" s="109">
         <f>-I49</f>
-        <v>908295196</v>
+        <v>0</v>
       </c>
       <c r="J54" s="128">
         <v>0</v>
@@ -11213,7 +10844,7 @@
       <c r="N54" s="129"/>
       <c r="O54" s="128">
         <f t="shared" si="3"/>
-        <v>1183222441</v>
+        <v>0</v>
       </c>
       <c r="P54" s="110"/>
       <c r="Q54" s="110"/>
@@ -11257,7 +10888,7 @@
       <c r="B55" s="202"/>
       <c r="C55" s="118">
         <f>SUM(C48:C54)</f>
-        <v>10195529887.6289</v>
+        <v>0</v>
       </c>
       <c r="D55" s="118"/>
       <c r="E55" s="118">
@@ -11296,7 +10927,7 @@
       <c r="N55" s="119"/>
       <c r="O55" s="118">
         <f>SUM(O48:O54)</f>
-        <v>9096048867.27738</v>
+        <v>-1099481020.35148</v>
       </c>
       <c r="P55" s="110"/>
       <c r="Q55" s="110"/>
@@ -11340,7 +10971,7 @@
       <c r="B56" s="204"/>
       <c r="C56" s="205">
         <f>+C46+C55</f>
-        <v>29935382211.3589</v>
+        <v>0</v>
       </c>
       <c r="D56" s="205"/>
       <c r="E56" s="205">
@@ -11379,7 +11010,7 @@
       <c r="N56" s="206"/>
       <c r="O56" s="205">
         <f>+O46+O55</f>
-        <v>30307389704.0074</v>
+        <v>372007492.648521</v>
       </c>
       <c r="P56" s="110"/>
       <c r="Q56" s="110"/>
@@ -11472,10 +11103,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="179"/>
-      <c r="C58" s="128">
-        <f>+[1]Estado!$V$58</f>
-        <v>28743629969</v>
-      </c>
+      <c r="C58" s="128"/>
       <c r="D58" s="128"/>
       <c r="E58" s="128">
         <f>+'[2]Estado$'!$T$58</f>
@@ -11501,7 +11129,7 @@
       <c r="N58" s="129"/>
       <c r="O58" s="128">
         <f t="shared" ref="O58:O63" si="4">SUM(C58:M58)</f>
-        <v>31177250794</v>
+        <v>2433620825</v>
       </c>
       <c r="P58" s="110"/>
       <c r="Q58" s="110"/>
@@ -11542,10 +11170,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="179"/>
-      <c r="C59" s="128">
-        <f>+[1]Estado!$V$59</f>
-        <v>51023010062</v>
-      </c>
+      <c r="C59" s="128"/>
       <c r="D59" s="128"/>
       <c r="E59" s="128">
         <f>+'[2]Estado$'!$T$59</f>
@@ -11570,7 +11195,7 @@
       <c r="N59" s="129"/>
       <c r="O59" s="128">
         <f t="shared" si="4"/>
-        <v>59686820175</v>
+        <v>8663810113</v>
       </c>
       <c r="P59" s="110"/>
       <c r="Q59" s="110"/>
@@ -11611,10 +11236,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="179"/>
-      <c r="C60" s="128">
-        <f>+[1]Estado!$V$60</f>
-        <v>0</v>
-      </c>
+      <c r="C60" s="128"/>
       <c r="D60" s="128"/>
       <c r="E60" s="128">
         <f>+'[2]Estado$'!$T$60</f>
@@ -11681,10 +11303,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="179"/>
-      <c r="C61" s="128">
-        <f>+[1]Estado!$V$61</f>
-        <v>0</v>
-      </c>
+      <c r="C61" s="128"/>
       <c r="D61" s="128"/>
       <c r="E61" s="128">
         <f>+'[2]Estado$'!$T$61</f>
@@ -11751,10 +11370,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="179"/>
-      <c r="C62" s="128">
-        <f>+[1]Estado!$V$62</f>
-        <v>0</v>
-      </c>
+      <c r="C62" s="128"/>
       <c r="D62" s="128"/>
       <c r="E62" s="128">
         <f>+'[2]Estado$'!$T$62</f>
@@ -11821,10 +11437,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="179"/>
-      <c r="C63" s="128">
-        <f>+[1]Estado!$V$63</f>
-        <v>2411552424</v>
-      </c>
+      <c r="C63" s="128"/>
       <c r="D63" s="128"/>
       <c r="E63" s="128">
         <f>+'[2]Estado$'!$T$63</f>
@@ -11840,7 +11453,7 @@
       <c r="H63" s="129"/>
       <c r="I63" s="156">
         <f>-I75</f>
-        <v>-980172044.342199</v>
+        <v>-980172044.3422</v>
       </c>
       <c r="J63" s="128">
         <v>0</v>
@@ -11851,7 +11464,7 @@
       <c r="N63" s="129"/>
       <c r="O63" s="128">
         <f t="shared" si="4"/>
-        <v>-8280773107.3422</v>
+        <v>-10692325531.3422</v>
       </c>
       <c r="P63" s="159" t="s">
         <v>128</v>
@@ -11896,7 +11509,7 @@
       <c r="B64" s="184"/>
       <c r="C64" s="118">
         <f>SUM(C58:C63)</f>
-        <v>82178192455</v>
+        <v>0</v>
       </c>
       <c r="D64" s="118"/>
       <c r="E64" s="118">
@@ -11914,7 +11527,7 @@
       <c r="H64" s="119"/>
       <c r="I64" s="219">
         <f>SUM(I58:I63)</f>
-        <v>-980172044.342199</v>
+        <v>-980172044.3422</v>
       </c>
       <c r="J64" s="219">
         <f>SUM(J58:J63)</f>
@@ -11935,7 +11548,7 @@
       <c r="N64" s="119"/>
       <c r="O64" s="118">
         <f>SUM(O58:O63)</f>
-        <v>82583297861.6578</v>
+        <v>405105406.657799</v>
       </c>
       <c r="P64" s="223" t="s">
         <v>101</v>
@@ -11990,10 +11603,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="179"/>
-      <c r="C65" s="128">
-        <f>+[1]Estado!$V$65</f>
-        <v>724965899.810214</v>
-      </c>
+      <c r="C65" s="128"/>
       <c r="D65" s="128"/>
       <c r="E65" s="128">
         <f>+'[2]Estado$'!$T$65</f>
@@ -12025,7 +11635,7 @@
       <c r="N65" s="129"/>
       <c r="O65" s="282">
         <f>SUM(C65:M65)</f>
-        <v>-406418917.791066</v>
+        <v>-1131384817.60128</v>
       </c>
       <c r="P65" s="157">
         <f>+[1]Estado!$X$65</f>
@@ -12052,7 +11662,7 @@
       </c>
       <c r="V65" s="110">
         <f>+O65-U65</f>
-        <v>-0.310465753078461</v>
+        <v>-724965900.12068</v>
       </c>
       <c r="W65" s="110"/>
       <c r="X65" s="110"/>
@@ -12088,7 +11698,7 @@
       <c r="B66" s="184"/>
       <c r="C66" s="118">
         <f>+C64+C65</f>
-        <v>82903158354.8102</v>
+        <v>0</v>
       </c>
       <c r="D66" s="118"/>
       <c r="E66" s="118">
@@ -12127,7 +11737,7 @@
       <c r="N66" s="119"/>
       <c r="O66" s="118">
         <f>+O64+O65</f>
-        <v>82176878943.8667</v>
+        <v>-726279410.943481</v>
       </c>
       <c r="P66" s="110"/>
       <c r="Q66" s="110"/>
@@ -12170,7 +11780,7 @@
       <c r="B67" s="278"/>
       <c r="C67" s="205">
         <f>+C56+C66</f>
-        <v>112838540566.169</v>
+        <v>0</v>
       </c>
       <c r="D67" s="205"/>
       <c r="E67" s="205">
@@ -12209,7 +11819,7 @@
       <c r="N67" s="206"/>
       <c r="O67" s="205">
         <f>+O56+O66</f>
-        <v>112484268647.874</v>
+        <v>-354271918.29496</v>
       </c>
       <c r="P67" s="110"/>
       <c r="Q67" s="110"/>
@@ -12250,7 +11860,7 @@
       <c r="B68" s="279"/>
       <c r="C68" s="280">
         <f>+C32-C67</f>
-        <v>-0.01934814453125</v>
+        <v>0</v>
       </c>
       <c r="D68" s="280"/>
       <c r="E68" s="280">
@@ -12289,7 +11899,7 @@
       <c r="N68" s="280"/>
       <c r="O68" s="283">
         <f>+O32-O67</f>
-        <v>-0.4130859375</v>
+        <v>-0.393741130828857</v>
       </c>
       <c r="P68" s="110"/>
       <c r="Q68" s="110"/>
@@ -12626,7 +12236,7 @@
       <c r="H75" s="109"/>
       <c r="I75" s="109">
         <f>+I73-I74</f>
-        <v>980172044.342199</v>
+        <v>980172044.3422</v>
       </c>
       <c r="J75" s="109"/>
       <c r="K75" s="109" t="s">
@@ -14006,7 +13616,7 @@
       </c>
       <c r="U23" s="157">
         <f>SUM(P23:T23)</f>
-        <v>126695940.068643</v>
+        <v>126695940.068642</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -14576,7 +14186,7 @@
       <c r="N41" s="133"/>
       <c r="O41" s="156">
         <f>SUM(C41:M41)</f>
-        <v>-186925.628599808</v>
+        <v>-186925.628599986</v>
       </c>
       <c r="P41" s="157"/>
       <c r="Q41" s="157"/>
@@ -14590,11 +14200,11 @@
       </c>
       <c r="T41" s="157">
         <f>SUM(P41:S41)</f>
-        <v>-186927.628599809</v>
+        <v>-186927.62859981</v>
       </c>
       <c r="U41" s="110">
         <f>+O41-T41</f>
-        <v>2.00000000116415</v>
+        <v>1.99999982351437</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -18980,7 +18590,7 @@
       <c r="R48" s="5"/>
       <c r="V48" s="64">
         <f>+Estado!O23</f>
-        <v>2935716691.40916</v>
+        <v>-6796672579.1265</v>
       </c>
       <c r="W48" s="5">
         <f>+W47+X47+Y47</f>
@@ -19029,7 +18639,7 @@
       </c>
       <c r="W49" s="5">
         <f>+Estado!C50</f>
-        <v>4325775236.51468</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="17">
         <f>+Estado!D50+Estado!D39</f>
@@ -19050,7 +18660,7 @@
       </c>
       <c r="AN49" s="5">
         <f>+Estado!O50</f>
-        <v>2980989089.1632</v>
+        <v>-1344786147.35148</v>
       </c>
     </row>
     <row r="50" spans="3:40">
@@ -19068,7 +18678,7 @@
       <c r="R50" s="64"/>
       <c r="W50" s="5">
         <f>+W48-W49</f>
-        <v>3793154656.48532</v>
+        <v>8118929893</v>
       </c>
       <c r="Z50" s="5">
         <f>+Z48-Z49</f>
@@ -20900,7 +20510,7 @@
       </c>
       <c r="AN71" s="64">
         <f>+Estado!O50</f>
-        <v>2980989089.1632</v>
+        <v>-1344786147.35148</v>
       </c>
     </row>
     <row r="72" spans="22:22">
@@ -20917,7 +20527,7 @@
       </c>
       <c r="AN73" s="64">
         <f>+AN69-AN71</f>
-        <v>-2467334750.1632</v>
+        <v>1858440486.35148</v>
       </c>
     </row>
     <row r="74" spans="6:6">
@@ -21669,13 +21279,13 @@
       </c>
       <c r="O26" s="5">
         <f>+N26-N27</f>
-        <v>10672675654.7728</v>
+        <v>20418105304.2375</v>
       </c>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="17">
         <f>+Estado!C24</f>
-        <v>9745429649.46466</v>
+        <v>0</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -21695,7 +21305,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17">
         <f>SUM(C27:M27)</f>
-        <v>10876814091.4647</v>
+        <v>1131384442</v>
       </c>
     </row>
     <row r="28" spans="3:16">
@@ -21728,13 +21338,13 @@
       </c>
       <c r="P28" s="5">
         <f>+Estado!O24</f>
-        <v>5414956957.90246</v>
+        <v>-4330472691.5622</v>
       </c>
     </row>
     <row r="29" spans="3:16">
       <c r="C29" s="17">
         <f>+C27-C28</f>
-        <v>6084248666.46466</v>
+        <v>-3661180983</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -21754,15 +21364,15 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17">
         <f>SUM(C29:M29)</f>
-        <v>6400605869.96066</v>
+        <v>-3344823779.504</v>
       </c>
       <c r="O29" s="5">
         <f>+N28-O28</f>
-        <v>85117.2374982834</v>
+        <v>85117.2374992371</v>
       </c>
       <c r="P29" s="5">
         <f>+N28-P28</f>
-        <v>-938748736.398465</v>
+        <v>8806680913.0662</v>
       </c>
     </row>
     <row r="30" spans="3:14">
@@ -22848,7 +22458,7 @@
     <row r="57" spans="3:14">
       <c r="C57" s="19">
         <f>+C27/1000</f>
-        <v>9745429.64946466</v>
+        <v>0</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
@@ -22882,7 +22492,7 @@
     <row r="59" spans="3:14">
       <c r="C59" s="19">
         <f>+C29/1000</f>
-        <v>6084248.66646466</v>
+        <v>-3661180.983</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
@@ -22899,7 +22509,7 @@
     <row r="60" spans="14:14">
       <c r="N60" s="5">
         <f>+'Estado M$'!D28</f>
-        <v>5414957</v>
+        <v>-4330473</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -24992,15 +24602,15 @@
       <c r="E23" s="5"/>
       <c r="Q23" s="5">
         <f>+Estado!O65</f>
-        <v>-406418917.791066</v>
+        <v>-1131384817.60128</v>
       </c>
       <c r="R23" s="5">
         <f>+Resultado!O41</f>
-        <v>-186925.628599808</v>
+        <v>-186925.628599986</v>
       </c>
       <c r="S23" s="5">
         <f>+Q22-Q23</f>
-        <v>388179489.791066</v>
+        <v>1113145389.60128</v>
       </c>
       <c r="T23" s="5"/>
     </row>
@@ -26425,7 +26035,7 @@
     <row r="46" spans="17:18">
       <c r="Q46" s="5">
         <f>+'Estado M$'!D69</f>
-        <v>-406419</v>
+        <v>-1131385</v>
       </c>
       <c r="R46" s="5">
         <f>+'Resultado M$'!D46</f>

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -5555,11 +5555,11 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.4285714285714" defaultRowHeight="12.75"/>
@@ -5843,13 +5843,13 @@
       </c>
       <c r="D6" s="114" t="n"/>
       <c r="E6" s="114" t="n">
-        <v>1380240312</v>
+        <v>678827995</v>
       </c>
       <c r="F6" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="114" t="n">
-        <v>32493414952.22</v>
+        <v>2562880385</v>
       </c>
       <c r="H6" s="115" t="n"/>
       <c r="I6" s="114" t="n">
@@ -5993,13 +5993,13 @@
       </c>
       <c r="D8" s="114" t="n"/>
       <c r="E8" s="114" t="n">
-        <v>235602624</v>
+        <v>287748262</v>
       </c>
       <c r="F8" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="114" t="n">
-        <v>1230818898.66</v>
+        <v>2186678</v>
       </c>
       <c r="H8" s="115" t="n"/>
       <c r="I8" s="114" t="n">
@@ -6068,13 +6068,13 @@
       </c>
       <c r="D9" s="114" t="n"/>
       <c r="E9" s="114" t="n">
-        <v>144022179</v>
+        <v>82459543</v>
       </c>
       <c r="F9" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="114" t="n">
-        <v>15308078505.28844</v>
+        <v>1188996762</v>
       </c>
       <c r="H9" s="115" t="n"/>
       <c r="I9" s="138" t="n"/>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="138" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>0</v>
       </c>
       <c r="H10" s="115" t="n"/>
       <c r="I10" s="138">
@@ -6218,13 +6218,13 @@
       </c>
       <c r="D11" s="114" t="n"/>
       <c r="E11" s="114" t="n">
-        <v>2286976213</v>
+        <v>2255747409</v>
       </c>
       <c r="F11" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="114" t="n">
-        <v>1000125165.56</v>
+        <v>0</v>
       </c>
       <c r="H11" s="115" t="n"/>
       <c r="I11" s="114" t="n">
@@ -6368,13 +6368,13 @@
       </c>
       <c r="D13" s="114" t="n"/>
       <c r="E13" s="114" t="n">
-        <v>291762599</v>
+        <v>364527592</v>
       </c>
       <c r="F13" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="114" t="n">
-        <v>2375792829.46</v>
+        <v>241954340</v>
       </c>
       <c r="H13" s="115" t="n"/>
       <c r="I13" s="114" t="n">
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="169" t="n">
-        <v>10397155079.08098</v>
+        <v>0</v>
       </c>
       <c r="H20" s="115" t="n"/>
       <c r="I20" s="169" t="n"/>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="114" t="n">
-        <v>8084649734</v>
+        <v>0</v>
       </c>
       <c r="H21" s="115" t="n"/>
       <c r="I21" s="138" t="n"/>
@@ -7221,13 +7221,13 @@
       </c>
       <c r="D23" s="138" t="n"/>
       <c r="E23" s="138" t="n">
-        <v>2215203478</v>
+        <v>1299796439</v>
       </c>
       <c r="F23" s="138" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="138" t="n">
-        <v>9732389270.535658</v>
+        <v>0</v>
       </c>
       <c r="H23" s="115" t="n"/>
       <c r="I23" s="138">
@@ -7346,13 +7346,13 @@
       </c>
       <c r="D24" s="123" t="n"/>
       <c r="E24" s="123" t="n">
-        <v>1638879115</v>
+        <v>1131384442</v>
       </c>
       <c r="F24" s="123" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="123" t="n">
-        <v>9745429649.464664</v>
+        <v>0</v>
       </c>
       <c r="H24" s="115" t="n"/>
       <c r="I24" s="123">
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="114" t="n">
-        <v>1080749265</v>
+        <v>0</v>
       </c>
       <c r="H25" s="115" t="n"/>
       <c r="I25" s="114" t="n">
@@ -7568,13 +7568,13 @@
       </c>
       <c r="D26" s="114" t="n"/>
       <c r="E26" s="114" t="n">
-        <v>2156132887</v>
+        <v>2322528453</v>
       </c>
       <c r="F26" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="114" t="n">
-        <v>403110</v>
+        <v>0</v>
       </c>
       <c r="H26" s="115" t="n"/>
       <c r="I26" s="114" t="n">
@@ -7651,13 +7651,13 @@
       </c>
       <c r="D27" s="114" t="n"/>
       <c r="E27" s="114" t="n">
-        <v>678456697</v>
+        <v>617633081</v>
       </c>
       <c r="F27" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="114" t="n">
-        <v>17068623227.42</v>
+        <v>14730824</v>
       </c>
       <c r="H27" s="115" t="n"/>
       <c r="I27" s="114" t="n">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="114" t="n">
-        <v>2106581917.46</v>
+        <v>0</v>
       </c>
       <c r="H29" s="115" t="n"/>
       <c r="I29" s="114" t="n">
@@ -7875,13 +7875,13 @@
       </c>
       <c r="D30" s="114" t="n"/>
       <c r="E30" s="114" t="n">
-        <v>178059807</v>
+        <v>141436000</v>
       </c>
       <c r="F30" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="114" t="n">
-        <v>2214328962</v>
+        <v>11216028</v>
       </c>
       <c r="H30" s="115" t="n"/>
       <c r="I30" s="114" t="n">
@@ -8358,13 +8358,13 @@
       </c>
       <c r="D37" s="180" t="n"/>
       <c r="E37" s="180" t="n">
-        <v>782213878</v>
+        <v>-3</v>
       </c>
       <c r="F37" s="180" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="180" t="n">
-        <v>2037377107.28</v>
+        <v>53678416</v>
       </c>
       <c r="H37" s="166" t="n"/>
       <c r="I37" s="180" t="n">
@@ -8445,13 +8445,13 @@
       </c>
       <c r="D38" s="114" t="n"/>
       <c r="E38" s="114" t="n">
-        <v>654610482</v>
+        <v>496832362</v>
       </c>
       <c r="F38" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="114" t="n">
-        <v>13083193159.78</v>
+        <v>303971571</v>
       </c>
       <c r="H38" s="115" t="n"/>
       <c r="I38" s="114" t="n">
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="138" t="n">
-        <v>-1.909211277961731e-08</v>
+        <v>0</v>
       </c>
       <c r="H39" s="115" t="n"/>
       <c r="I39" s="138">
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="114" t="n">
-        <v>463737719</v>
+        <v>0</v>
       </c>
       <c r="H40" s="115" t="n"/>
       <c r="I40" s="114" t="n">
@@ -8667,13 +8667,13 @@
       </c>
       <c r="D41" s="114" t="n"/>
       <c r="E41" s="114" t="n">
-        <v>68359072</v>
+        <v>116357590</v>
       </c>
       <c r="F41" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="114" t="n">
-        <v>1237126797</v>
+        <v>175220012</v>
       </c>
       <c r="H41" s="115" t="n"/>
       <c r="I41" s="114" t="n">
@@ -8742,13 +8742,13 @@
       </c>
       <c r="D42" s="114" t="n"/>
       <c r="E42" s="114" t="n">
-        <v>20620572</v>
+        <v>15585211</v>
       </c>
       <c r="F42" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="114" t="n">
-        <v>1272171619</v>
+        <v/>
       </c>
       <c r="H42" s="115" t="n"/>
       <c r="I42" s="114" t="n">
@@ -8817,13 +8817,13 @@
       </c>
       <c r="D43" s="114" t="n"/>
       <c r="E43" s="114" t="n">
-        <v>167074614</v>
+        <v>234471406</v>
       </c>
       <c r="F43" s="114" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="114" t="n">
-        <v>1646245921.67</v>
+        <v>41540846</v>
       </c>
       <c r="H43" s="115" t="n"/>
       <c r="I43" s="138">
@@ -9237,11 +9237,9 @@
       <c r="E48" s="180" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="180" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" s="180" t="n"/>
       <c r="G48" s="180" t="n">
-        <v>2162755124.114185</v>
+        <v>0</v>
       </c>
       <c r="H48" s="166" t="n"/>
       <c r="I48" s="180" t="n"/>
@@ -9317,7 +9315,7 @@
       <c r="AW48" s="250" t="n"/>
       <c r="AX48" s="251" t="n"/>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
+    <row r="49">
       <c r="A49" s="157" t="inlineStr">
         <is>
           <t>Pasivos no corrientes</t>
@@ -9331,11 +9329,9 @@
       <c r="E49" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F49" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" s="114" t="n"/>
       <c r="G49" s="114" t="n">
-        <v>908295196</v>
+        <v>69349722</v>
       </c>
       <c r="H49" s="115" t="n"/>
       <c r="I49" s="114">
@@ -9386,7 +9382,7 @@
       <c r="AV49" s="195" t="n"/>
       <c r="AW49" s="249" t="n"/>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
+    <row r="50">
       <c r="A50" s="159" t="inlineStr">
         <is>
           <t>Cuentas por Pagar a Entidades Relacionadas, no corriente</t>
@@ -9398,13 +9394,11 @@
       </c>
       <c r="D50" s="138" t="n"/>
       <c r="E50" s="138" t="n">
-        <v>7665603047</v>
-      </c>
-      <c r="F50" s="138" t="n">
-        <v>0</v>
-      </c>
+        <v>6785513597</v>
+      </c>
+      <c r="F50" s="138" t="n"/>
       <c r="G50" s="138" t="n">
-        <v>4325775236.51468</v>
+        <v>0</v>
       </c>
       <c r="H50" s="115" t="n"/>
       <c r="I50" s="138">
@@ -9500,11 +9494,9 @@
       <c r="E51" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F51" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" s="114" t="n"/>
       <c r="G51" s="114" t="n">
-        <v>128379000</v>
+        <v>0</v>
       </c>
       <c r="H51" s="115" t="n"/>
       <c r="I51" s="114" t="n"/>
@@ -9597,13 +9589,11 @@
       </c>
       <c r="D52" s="114" t="n"/>
       <c r="E52" s="114" t="n">
-        <v>130079726</v>
-      </c>
-      <c r="F52" s="114" t="n">
-        <v>0</v>
-      </c>
+        <v>173071153</v>
+      </c>
+      <c r="F52" s="114" t="n"/>
       <c r="G52" s="114" t="n">
-        <v>2395398086</v>
+        <v>0</v>
       </c>
       <c r="H52" s="115" t="n"/>
       <c r="I52" s="114" t="n">
@@ -9674,11 +9664,9 @@
       <c r="E53" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" s="114" t="n"/>
       <c r="G53" s="114" t="n">
-        <v>0</v>
+        <v>2884252</v>
       </c>
       <c r="H53" s="115" t="n"/>
       <c r="I53" s="114" t="n">
@@ -9750,11 +9738,9 @@
       <c r="E54" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" s="114" t="n"/>
       <c r="G54" s="114" t="n">
-        <v>274927245</v>
+        <v>0</v>
       </c>
       <c r="H54" s="115" t="n"/>
       <c r="I54" s="96">
@@ -10046,13 +10032,11 @@
       </c>
       <c r="D58" s="114" t="n"/>
       <c r="E58" s="114" t="n">
-        <v>2043136054</v>
-      </c>
-      <c r="F58" s="114" t="n">
-        <v>0</v>
-      </c>
+        <v>2070154048</v>
+      </c>
+      <c r="F58" s="114" t="n"/>
       <c r="G58" s="114" t="n">
-        <v>28743629969</v>
+        <v>0</v>
       </c>
       <c r="H58" s="115" t="n"/>
       <c r="I58" s="114" t="n">
@@ -10115,13 +10099,11 @@
       </c>
       <c r="D59" s="114" t="n"/>
       <c r="E59" s="114" t="n">
-        <v>5633012693</v>
-      </c>
-      <c r="F59" s="114" t="n">
-        <v>0</v>
-      </c>
+        <v>5684615691</v>
+      </c>
+      <c r="F59" s="114" t="n"/>
       <c r="G59" s="114" t="n">
-        <v>51023010062</v>
+        <v>363466777</v>
       </c>
       <c r="H59" s="115" t="n"/>
       <c r="I59" s="114" t="n"/>
@@ -10185,11 +10167,9 @@
       <c r="E60" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F60" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" s="114" t="n"/>
       <c r="G60" s="114" t="n">
-        <v>0</v>
+        <v>2979194422</v>
       </c>
       <c r="H60" s="115" t="n"/>
       <c r="I60" s="114" t="n">
@@ -10254,9 +10234,7 @@
       <c r="E61" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F61" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" s="114" t="n"/>
       <c r="G61" s="114" t="n">
         <v>0</v>
       </c>
@@ -10323,9 +10301,7 @@
       <c r="E62" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F62" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" s="114" t="n"/>
       <c r="G62" s="114" t="n">
         <v>0</v>
       </c>
@@ -10390,13 +10366,11 @@
       </c>
       <c r="D63" s="114" t="n"/>
       <c r="E63" s="114" t="n">
-        <v>-9421691502</v>
-      </c>
-      <c r="F63" s="114" t="n">
-        <v>0</v>
-      </c>
+        <v>-9744812486</v>
+      </c>
+      <c r="F63" s="114" t="n"/>
       <c r="G63" s="114" t="n">
-        <v>2411552424</v>
+        <v>0</v>
       </c>
       <c r="H63" s="115" t="n"/>
       <c r="I63" s="138">
@@ -10570,13 +10544,11 @@
       </c>
       <c r="D65" s="114" t="n"/>
       <c r="E65" s="114" t="n">
-        <v>3462317275</v>
-      </c>
-      <c r="F65" s="114" t="n">
-        <v>0</v>
-      </c>
+        <v>3350300647</v>
+      </c>
+      <c r="F65" s="114" t="n"/>
       <c r="G65" s="114" t="n">
-        <v>724965899.8102137</v>
+        <v>32658999</v>
       </c>
       <c r="H65" s="115" t="n"/>
       <c r="I65" s="255">

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -5555,11 +5555,11 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.4285714285714" defaultRowHeight="12.75"/>
@@ -5845,9 +5845,7 @@
       <c r="E6" s="114" t="n">
         <v>678827995</v>
       </c>
-      <c r="F6" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" s="114" t="n"/>
       <c r="G6" s="114" t="n">
         <v>2562880385</v>
       </c>
@@ -5920,9 +5918,7 @@
       <c r="E7" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" s="114" t="n"/>
       <c r="G7" s="114" t="n">
         <v>0</v>
       </c>
@@ -5995,9 +5991,7 @@
       <c r="E8" s="114" t="n">
         <v>287748262</v>
       </c>
-      <c r="F8" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="114" t="n"/>
       <c r="G8" s="114" t="n">
         <v>2186678</v>
       </c>
@@ -6070,9 +6064,7 @@
       <c r="E9" s="114" t="n">
         <v>82459543</v>
       </c>
-      <c r="F9" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" s="114" t="n"/>
       <c r="G9" s="114" t="n">
         <v>1188996762</v>
       </c>
@@ -6143,9 +6135,7 @@
       <c r="E10" s="138" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="138" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" s="138" t="n"/>
       <c r="G10" s="138" t="n">
         <v>0</v>
       </c>
@@ -6220,9 +6210,7 @@
       <c r="E11" s="114" t="n">
         <v>2255747409</v>
       </c>
-      <c r="F11" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" s="114" t="n"/>
       <c r="G11" s="114" t="n">
         <v>0</v>
       </c>
@@ -6295,9 +6283,7 @@
       <c r="E12" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="114" t="n"/>
       <c r="G12" s="114" t="n">
         <v>0</v>
       </c>
@@ -6370,9 +6356,7 @@
       <c r="E13" s="114" t="n">
         <v>364527592</v>
       </c>
-      <c r="F13" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="114" t="n"/>
       <c r="G13" s="114" t="n">
         <v>241954340</v>
       </c>
@@ -6935,9 +6919,7 @@
       <c r="E20" s="169" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="169" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="169" t="n"/>
       <c r="G20" s="169" t="n">
         <v>0</v>
       </c>
@@ -7030,9 +7012,7 @@
       <c r="E21" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="114" t="n"/>
       <c r="G21" s="114" t="n">
         <v>0</v>
       </c>
@@ -7098,9 +7078,7 @@
       <c r="E22" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="114" t="n"/>
       <c r="G22" s="114" t="n">
         <v>0</v>
       </c>
@@ -7209,7 +7187,7 @@
       <c r="AX22" s="249" t="n"/>
       <c r="AY22" s="249" t="n"/>
     </row>
-    <row r="23">
+    <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="171" t="inlineStr">
         <is>
           <t>Cuentas por Cobrar a Entidades Relacionadas, No Corriente</t>
@@ -7223,9 +7201,7 @@
       <c r="E23" s="138" t="n">
         <v>1299796439</v>
       </c>
-      <c r="F23" s="138" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="138" t="n"/>
       <c r="G23" s="138" t="n">
         <v>0</v>
       </c>
@@ -7334,7 +7310,7 @@
       <c r="AX23" s="249" t="n"/>
       <c r="AY23" s="249" t="n"/>
     </row>
-    <row r="24">
+    <row r="24" ht="25.5" customHeight="1">
       <c r="A24" s="172" t="inlineStr">
         <is>
           <t>Inversiones contabilizadas utilizando el método de la participación</t>
@@ -7348,9 +7324,7 @@
       <c r="E24" s="123" t="n">
         <v>1131384442</v>
       </c>
-      <c r="F24" s="123" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="123" t="n"/>
       <c r="G24" s="123" t="n">
         <v>0</v>
       </c>
@@ -7454,9 +7428,7 @@
       <c r="E25" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="114" t="n"/>
       <c r="G25" s="114" t="n">
         <v>0</v>
       </c>
@@ -7570,9 +7542,7 @@
       <c r="E26" s="114" t="n">
         <v>2322528453</v>
       </c>
-      <c r="F26" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" s="114" t="n"/>
       <c r="G26" s="114" t="n">
         <v>0</v>
       </c>
@@ -7653,9 +7623,7 @@
       <c r="E27" s="114" t="n">
         <v>617633081</v>
       </c>
-      <c r="F27" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" s="114" t="n"/>
       <c r="G27" s="114" t="n">
         <v>14730824</v>
       </c>
@@ -7727,9 +7695,7 @@
       <c r="E28" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" s="114" t="n"/>
       <c r="G28" s="114" t="n">
         <v>0</v>
       </c>
@@ -7802,9 +7768,7 @@
       <c r="E29" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" s="114" t="n"/>
       <c r="G29" s="114" t="n">
         <v>0</v>
       </c>
@@ -7877,9 +7841,7 @@
       <c r="E30" s="114" t="n">
         <v>141436000</v>
       </c>
-      <c r="F30" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" s="114" t="n"/>
       <c r="G30" s="114" t="n">
         <v>11216028</v>
       </c>
@@ -8360,9 +8322,7 @@
       <c r="E37" s="180" t="n">
         <v>-3</v>
       </c>
-      <c r="F37" s="180" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" s="180" t="n"/>
       <c r="G37" s="180" t="n">
         <v>53678416</v>
       </c>
@@ -8447,9 +8407,7 @@
       <c r="E38" s="114" t="n">
         <v>496832362</v>
       </c>
-      <c r="F38" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" s="114" t="n"/>
       <c r="G38" s="114" t="n">
         <v>303971571</v>
       </c>
@@ -8520,9 +8478,7 @@
       <c r="E39" s="138" t="n">
         <v>0</v>
       </c>
-      <c r="F39" s="138" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" s="138" t="n"/>
       <c r="G39" s="138" t="n">
         <v>0</v>
       </c>
@@ -8594,9 +8550,7 @@
       <c r="E40" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="F40" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" s="114" t="n"/>
       <c r="G40" s="114" t="n">
         <v>0</v>
       </c>
@@ -8669,9 +8623,7 @@
       <c r="E41" s="114" t="n">
         <v>116357590</v>
       </c>
-      <c r="F41" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" s="114" t="n"/>
       <c r="G41" s="114" t="n">
         <v>175220012</v>
       </c>
@@ -8744,9 +8696,7 @@
       <c r="E42" s="114" t="n">
         <v>15585211</v>
       </c>
-      <c r="F42" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" s="114" t="n"/>
       <c r="G42" s="114" t="n">
         <v/>
       </c>
@@ -8819,9 +8769,7 @@
       <c r="E43" s="114" t="n">
         <v>234471406</v>
       </c>
-      <c r="F43" s="114" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" s="114" t="n"/>
       <c r="G43" s="114" t="n">
         <v>41540846</v>
       </c>
@@ -10426,7 +10374,7 @@
       <c r="AU63" s="97" t="n"/>
       <c r="AV63" s="97" t="n"/>
     </row>
-    <row r="64">
+    <row r="64" ht="25.5" customHeight="1">
       <c r="A64" s="178" t="inlineStr">
         <is>
           <t>Patrimonio atribuible a los propietarios de la controladora</t>

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -5555,7 +5555,7 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
@@ -5837,7 +5837,9 @@
           <t>Efectivo y Equivalentes al Efectivo</t>
         </is>
       </c>
-      <c r="B6" s="158" t="n"/>
+      <c r="B6" s="158" t="n">
+        <v>32493414952.22</v>
+      </c>
       <c r="C6" s="114" t="n">
         <v>32493414952.22</v>
       </c>
@@ -5910,7 +5912,9 @@
           <t>Otros activos financieros corrientes</t>
         </is>
       </c>
-      <c r="B7" s="158" t="n"/>
+      <c r="B7" s="158" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" s="114" t="n">
         <v>0</v>
       </c>
@@ -5983,7 +5987,9 @@
           <t>Otros Activos No Financieros, Corriente</t>
         </is>
       </c>
-      <c r="B8" s="158" t="n"/>
+      <c r="B8" s="158" t="n">
+        <v>1230818898.66</v>
+      </c>
       <c r="C8" s="114" t="n">
         <v>1230818898.66</v>
       </c>
@@ -6056,7 +6062,9 @@
           <t>Deudores comerciales y otras cuentas por cobrar corrientes</t>
         </is>
       </c>
-      <c r="B9" s="158" t="n"/>
+      <c r="B9" s="158" t="n">
+        <v>15308078505.2884</v>
+      </c>
       <c r="C9" s="114" t="n">
         <v>15308078505.28844</v>
       </c>
@@ -6127,7 +6135,9 @@
           <t>Cuentas por Cobrar a Entidades Relacionadas, Corriente</t>
         </is>
       </c>
-      <c r="B10" s="158" t="n"/>
+      <c r="B10" s="158" t="n">
+        <v>-1.16415321826935e-10</v>
+      </c>
       <c r="C10" s="138" t="n">
         <v>-1.164153218269348e-10</v>
       </c>
@@ -6202,7 +6212,9 @@
           <t>Inventarios</t>
         </is>
       </c>
-      <c r="B11" s="158" t="n"/>
+      <c r="B11" s="158" t="n">
+        <v>1000125165.56</v>
+      </c>
       <c r="C11" s="114" t="n">
         <v>1000125165.56</v>
       </c>
@@ -6275,7 +6287,9 @@
           <t>Activos biológicos corrientes</t>
         </is>
       </c>
-      <c r="B12" s="158" t="n"/>
+      <c r="B12" s="158" t="n">
+        <v>0</v>
+      </c>
       <c r="C12" s="114" t="n">
         <v>0</v>
       </c>
@@ -6348,7 +6362,9 @@
           <t>Activos por impuestos corrientes</t>
         </is>
       </c>
-      <c r="B13" s="158" t="n"/>
+      <c r="B13" s="158" t="n">
+        <v>2375792829.46</v>
+      </c>
       <c r="C13" s="114" t="n">
         <v>2375792829.46</v>
       </c>
@@ -6505,11 +6521,15 @@
           <t xml:space="preserve">Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para la venta </t>
         </is>
       </c>
-      <c r="B15" s="164" t="n"/>
+      <c r="B15" s="164" t="n">
+        <v>0</v>
+      </c>
       <c r="C15" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="114" t="n"/>
+      <c r="D15" s="114" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" s="114" t="n">
         <v>0</v>
       </c>
@@ -6580,11 +6600,15 @@
           <t>Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para distribuir a los propietarios</t>
         </is>
       </c>
-      <c r="B16" s="164" t="n"/>
+      <c r="B16" s="164" t="n">
+        <v>0</v>
+      </c>
       <c r="C16" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="114" t="n"/>
+      <c r="D16" s="114" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" s="114" t="n">
         <v>0</v>
       </c>
@@ -6911,7 +6935,9 @@
           <t>Otros activos financieros no corrientes</t>
         </is>
       </c>
-      <c r="B20" s="161" t="n"/>
+      <c r="B20" s="161" t="n">
+        <v>10397155079.081</v>
+      </c>
       <c r="C20" s="169" t="n">
         <v>10397155079.08098</v>
       </c>
@@ -7004,7 +7030,9 @@
           <t>Otros activos no financieros no corrientes</t>
         </is>
       </c>
-      <c r="B21" s="161" t="n"/>
+      <c r="B21" s="161" t="n">
+        <v>8084649734</v>
+      </c>
       <c r="C21" s="114" t="n">
         <v>8084649734</v>
       </c>
@@ -7070,7 +7098,9 @@
           <t>Derechos por cobrar no corrientes</t>
         </is>
       </c>
-      <c r="B22" s="161" t="n"/>
+      <c r="B22" s="161" t="n">
+        <v>0</v>
+      </c>
       <c r="C22" s="114" t="n">
         <v>0</v>
       </c>
@@ -7193,7 +7223,9 @@
           <t>Cuentas por Cobrar a Entidades Relacionadas, No Corriente</t>
         </is>
       </c>
-      <c r="B23" s="161" t="n"/>
+      <c r="B23" s="161" t="n">
+        <v>9732389270.53566</v>
+      </c>
       <c r="C23" s="138" t="n">
         <v>9732389270.535658</v>
       </c>
@@ -7316,7 +7348,9 @@
           <t>Inversiones contabilizadas utilizando el método de la participación</t>
         </is>
       </c>
-      <c r="B24" s="161" t="n"/>
+      <c r="B24" s="161" t="n">
+        <v>9745429649.464661</v>
+      </c>
       <c r="C24" s="123" t="n">
         <v>9745429649.464664</v>
       </c>
@@ -7420,7 +7454,9 @@
           <t>Activos intangibles distintos de la plusvalía</t>
         </is>
       </c>
-      <c r="B25" s="161" t="n"/>
+      <c r="B25" s="161" t="n">
+        <v>1080749265</v>
+      </c>
       <c r="C25" s="114" t="n">
         <v>1080749265</v>
       </c>
@@ -7534,7 +7570,9 @@
           <t>Plusvalía</t>
         </is>
       </c>
-      <c r="B26" s="161" t="n"/>
+      <c r="B26" s="161" t="n">
+        <v>403110</v>
+      </c>
       <c r="C26" s="114" t="n">
         <v>403110</v>
       </c>
@@ -7615,7 +7653,9 @@
           <t>Propiedades, Planta y Equipo</t>
         </is>
       </c>
-      <c r="B27" s="161" t="n"/>
+      <c r="B27" s="161" t="n">
+        <v>17068623227.42</v>
+      </c>
       <c r="C27" s="114" t="n">
         <v>17068623227.42</v>
       </c>
@@ -7687,7 +7727,9 @@
           <t>Activos biológicos, no corrientes</t>
         </is>
       </c>
-      <c r="B28" s="161" t="n"/>
+      <c r="B28" s="161" t="n">
+        <v>0</v>
+      </c>
       <c r="C28" s="114" t="n">
         <v>0</v>
       </c>
@@ -7760,7 +7802,9 @@
           <t>Propiedad de inversión</t>
         </is>
       </c>
-      <c r="B29" s="161" t="n"/>
+      <c r="B29" s="161" t="n">
+        <v>2106581917.46</v>
+      </c>
       <c r="C29" s="114" t="n">
         <v>2106581917.46</v>
       </c>
@@ -7833,7 +7877,9 @@
           <t>Activos por impuestos diferidos</t>
         </is>
       </c>
-      <c r="B30" s="161" t="n"/>
+      <c r="B30" s="161" t="n">
+        <v>2214328962</v>
+      </c>
       <c r="C30" s="114" t="n">
         <v>2214328962</v>
       </c>
@@ -8314,7 +8360,9 @@
           <t>Otros pasivos financieros corrientes</t>
         </is>
       </c>
-      <c r="B37" s="166" t="n"/>
+      <c r="B37" s="166" t="n">
+        <v>2037377107.28</v>
+      </c>
       <c r="C37" s="180" t="n">
         <v>2037377107.28</v>
       </c>
@@ -8399,7 +8447,9 @@
           <t>Cuentas por pagar comerciales y otras cuentas por pagar</t>
         </is>
       </c>
-      <c r="B38" s="158" t="n"/>
+      <c r="B38" s="158" t="n">
+        <v>13083193159.78</v>
+      </c>
       <c r="C38" s="114" t="n">
         <v>13083193159.78</v>
       </c>
@@ -8470,7 +8520,9 @@
           <t>Cuentas por Pagar a Entidades Relacionadas, Corriente</t>
         </is>
       </c>
-      <c r="B39" s="158" t="n"/>
+      <c r="B39" s="158" t="n">
+        <v>-1.90921127796173e-08</v>
+      </c>
       <c r="C39" s="138" t="n">
         <v>-1.909211277961731e-08</v>
       </c>
@@ -8542,7 +8594,9 @@
           <t>Otras provisiones a corto plazo</t>
         </is>
       </c>
-      <c r="B40" s="158" t="n"/>
+      <c r="B40" s="158" t="n">
+        <v>463737719</v>
+      </c>
       <c r="C40" s="114" t="n">
         <v>463737719</v>
       </c>
@@ -8615,7 +8669,9 @@
           <t>Pasivos por Impuestos corrientes</t>
         </is>
       </c>
-      <c r="B41" s="158" t="n"/>
+      <c r="B41" s="158" t="n">
+        <v>1237126797</v>
+      </c>
       <c r="C41" s="114" t="n">
         <v>1237126797</v>
       </c>
@@ -8688,7 +8744,9 @@
           <t>Provisiones corrientes por beneficios a los empleados</t>
         </is>
       </c>
-      <c r="B42" s="158" t="n"/>
+      <c r="B42" s="158" t="n">
+        <v>1272171619</v>
+      </c>
       <c r="C42" s="114" t="n">
         <v>1272171619</v>
       </c>
@@ -8761,7 +8819,9 @@
           <t>Otros pasivos no financieros corrientes</t>
         </is>
       </c>
-      <c r="B43" s="158" t="n"/>
+      <c r="B43" s="158" t="n">
+        <v>1646245921.67</v>
+      </c>
       <c r="C43" s="114" t="n">
         <v>1646245921.67</v>
       </c>
@@ -8920,11 +8980,15 @@
           <t>Pasivos incluidos en grupos de activos para su disposición clasificados como mantenidos para la venta</t>
         </is>
       </c>
-      <c r="B45" s="164" t="n"/>
+      <c r="B45" s="164" t="n">
+        <v>0</v>
+      </c>
       <c r="C45" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="114" t="n"/>
+      <c r="D45" s="114" t="n">
+        <v>0</v>
+      </c>
       <c r="E45" s="114" t="n">
         <v>0</v>
       </c>
@@ -9177,7 +9241,9 @@
           <t>Otros pasivos financieros, no corrientes</t>
         </is>
       </c>
-      <c r="B48" s="166" t="n"/>
+      <c r="B48" s="166" t="n">
+        <v>2162755124.11418</v>
+      </c>
       <c r="C48" s="180" t="n">
         <v>2162755124.114185</v>
       </c>
@@ -9269,7 +9335,9 @@
           <t>Pasivos no corrientes</t>
         </is>
       </c>
-      <c r="B49" s="158" t="n"/>
+      <c r="B49" s="158" t="n">
+        <v>908295196</v>
+      </c>
       <c r="C49" s="114" t="n">
         <v>908295196</v>
       </c>
@@ -9336,7 +9404,9 @@
           <t>Cuentas por Pagar a Entidades Relacionadas, no corriente</t>
         </is>
       </c>
-      <c r="B50" s="158" t="n"/>
+      <c r="B50" s="158" t="n">
+        <v>4325775236.51468</v>
+      </c>
       <c r="C50" s="138" t="n">
         <v>4325775236.51468</v>
       </c>
@@ -9434,7 +9504,9 @@
           <t>Otras provisiones a largo plazo</t>
         </is>
       </c>
-      <c r="B51" s="158" t="n"/>
+      <c r="B51" s="158" t="n">
+        <v>128379000</v>
+      </c>
       <c r="C51" s="114" t="n">
         <v>128379000</v>
       </c>
@@ -9531,7 +9603,9 @@
           <t>Pasivo por impuestos diferidos</t>
         </is>
       </c>
-      <c r="B52" s="158" t="n"/>
+      <c r="B52" s="158" t="n">
+        <v>2395398086</v>
+      </c>
       <c r="C52" s="114" t="n">
         <v>2395398086</v>
       </c>
@@ -9604,7 +9678,9 @@
           <t>Provisiones no corrientes por beneficios a los empleados</t>
         </is>
       </c>
-      <c r="B53" s="158" t="n"/>
+      <c r="B53" s="158" t="n">
+        <v>0</v>
+      </c>
       <c r="C53" s="114" t="n">
         <v>0</v>
       </c>
@@ -9678,7 +9754,9 @@
           <t>Otros pasivos no financieros no corrientes</t>
         </is>
       </c>
-      <c r="B54" s="158" t="n"/>
+      <c r="B54" s="158" t="n">
+        <v>274927245</v>
+      </c>
       <c r="C54" s="114" t="n">
         <v>274927245</v>
       </c>
@@ -9974,7 +10052,9 @@
           <t>Capital emitido</t>
         </is>
       </c>
-      <c r="B58" s="161" t="n"/>
+      <c r="B58" s="161" t="n">
+        <v>28743629969</v>
+      </c>
       <c r="C58" s="114" t="n">
         <v>28743629969</v>
       </c>
@@ -10041,7 +10121,9 @@
           <t>Ganancias (pérdidas) acumuladas</t>
         </is>
       </c>
-      <c r="B59" s="161" t="n"/>
+      <c r="B59" s="161" t="n">
+        <v>51023010062</v>
+      </c>
       <c r="C59" s="114" t="n">
         <v>51023010062</v>
       </c>
@@ -10107,7 +10189,9 @@
           <t>Primas de emisión</t>
         </is>
       </c>
-      <c r="B60" s="161" t="n"/>
+      <c r="B60" s="161" t="n">
+        <v>0</v>
+      </c>
       <c r="C60" s="114" t="n">
         <v>0</v>
       </c>
@@ -10174,7 +10258,9 @@
           <t>Acciones propias en cartera</t>
         </is>
       </c>
-      <c r="B61" s="161" t="n"/>
+      <c r="B61" s="161" t="n">
+        <v>0</v>
+      </c>
       <c r="C61" s="114" t="n">
         <v>0</v>
       </c>
@@ -10241,7 +10327,9 @@
           <t>Otras participaciones en el patrimonio</t>
         </is>
       </c>
-      <c r="B62" s="161" t="n"/>
+      <c r="B62" s="161" t="n">
+        <v>0</v>
+      </c>
       <c r="C62" s="114" t="n">
         <v>0</v>
       </c>
@@ -10308,7 +10396,9 @@
           <t>Otras reservas</t>
         </is>
       </c>
-      <c r="B63" s="161" t="n"/>
+      <c r="B63" s="161" t="n">
+        <v>2411552424</v>
+      </c>
       <c r="C63" s="114" t="n">
         <v>2411552424</v>
       </c>
@@ -10486,7 +10576,9 @@
           <t>Participaciones no controladoras</t>
         </is>
       </c>
-      <c r="B65" s="161" t="n"/>
+      <c r="B65" s="161" t="n">
+        <v>724965899.810214</v>
+      </c>
       <c r="C65" s="114" t="n">
         <v>724965899.8102137</v>
       </c>

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -5555,7 +5555,7 @@
   <dimension ref="A1:AY82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -38,7 +38,6 @@
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
-    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Est M$'!$1:$3</definedName>
@@ -2525,173 +2524,10 @@
     <sheetNames>
       <sheetName val="Estado"/>
       <sheetName val="Resultado"/>
-      <sheetName val="Ctas"/>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Datos"/>
-      <sheetName val="Cta Cte EERR"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="C5">
-            <v>10202391175</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>8863877124</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>404451725</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>6192039</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>107379955</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>-17279115</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>153102815</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>25579789</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>-6201765</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>-165835498</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>1024616468</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="416">
-          <cell r="D416">
-            <v>443150607</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
-      <sheetName val="Estado"/>
-      <sheetName val="Resultado"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="Y6">
-            <v>3826419796.22</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="Y7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="Y8">
-            <v>244845284.66</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Y9">
-            <v>3069928738.72</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Y10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Y11">
-            <v>17627292.56</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Y12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Y13">
-            <v>954474894.46</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="Y15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="Y16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="Y20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="Y21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="Y22">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="23">
-          <cell r="Y23">
-            <v>1923515459.0577</v>
-          </cell>
           <cell r="Z23">
             <v>12600</v>
           </cell>
@@ -2710,9 +2546,6 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="Y24">
-            <v>5256221824.26</v>
-          </cell>
           <cell r="Z24">
             <v>5220283407</v>
           </cell>
@@ -2723,147 +2556,9 @@
             <v>35938417.26</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="Y25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Y26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Y27">
-            <v>539360404.42</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Y28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="Y29">
-            <v>786972684.46</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="Y30">
-            <v>19876930</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="Y37">
-            <v>881974983.28</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="Y38">
-            <v>3727612560.78</v>
-          </cell>
-        </row>
         <row r="39">
-          <cell r="Y39">
-            <v>305542.02</v>
-          </cell>
           <cell r="Z39">
             <v>305542.02</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="Y40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="Y41">
-            <v>32963207</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="Y42">
-            <v>73618259</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="Y43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="Y45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="Y48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="Y49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="Y50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="Y51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="Y52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="Y53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="Y54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="Y58">
-            <v>9406623059</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="Y59">
-            <v>1508925219</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="Y60">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="Y61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="Y62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="Y63">
-            <v>988753254</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="Y65">
-            <v>18467224.74</v>
           </cell>
         </row>
       </sheetData>
@@ -2944,7 +2639,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -2954,223 +2649,7 @@
       <sheetName val="Dato"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>5387933</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>10444966</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>21855290</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>300360854</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>68798365</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>54248821</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>4965044</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>254808755</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>100000</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>1313272</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>91438527</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>-27011</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="5">
           <cell r="C5">
@@ -3235,7 +2714,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -3246,218 +2725,7 @@
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>1093191</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>191674</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>17123867</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>175296882</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>3960531</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>35884384</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>30646</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>1087339</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>160686140</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>-22364</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="5">
           <cell r="C5">
@@ -3523,7 +2791,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -3543,16 +2811,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4">
-        <row r="15">
-          <cell r="AC15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="AC16">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="65">
           <cell r="AD65">
             <v>-240659.273400002</v>
@@ -3579,7 +2837,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -3594,218 +2852,11 @@
       <sheetName val="NoCon"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="C10">
-            <v>-1.16415321826935e-10</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="6">
-          <cell r="AC6">
-            <v>19529113800</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AC7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AC8">
-            <v>918103580</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AC9">
-            <v>8020150772</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AC11">
-            <v>922381337</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AC12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AC13">
-            <v>632874679</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AC20">
-            <v>11222624019</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AC21">
-            <v>16641984</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AC22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AC23">
-            <v>6997365974</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AC24">
-            <v>5275727314</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AC25">
-            <v>6059</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AC26">
-            <v>403110</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AC27">
-            <v>9234185858</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AC28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AC29">
-            <v>98063358</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AC30">
-            <v>1973899479</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="AC37">
-            <v>558046576</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="AC38">
-            <v>5414028694</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="AC39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="AC40">
-            <v>463737719</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="AC41">
-            <v>1112722638</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="AC42">
-            <v>932917018</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="AC43">
-            <v>625311782</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="AC45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="AC48">
-            <v>4652450566</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="AC49">
-            <v>227887275</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="AC50">
-            <v>6806005656</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="AC51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="AC52">
-            <v>1446182627</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="AC53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="AC54">
-            <v>93967634</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="AC58">
-            <v>32296318921</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="AC59">
-            <v>7719195458</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="AC60">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="AC61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="AC62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="AC63">
-            <v>2488253058</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="AC65">
-            <v>4515701</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="5">
           <cell r="AC5">
@@ -3898,7 +2949,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -4054,7 +3105,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -4195,7 +3246,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -4420,7 +3471,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -4444,6 +3495,50 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
+      <sheetName val="6220001 Utilidades empresas rel"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="N12">
+            <v>10569132</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>23950208</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>890084326</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="N15">
+            <v>952630657</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="N16">
+            <v>338180773</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="N17">
+            <v>631879</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4504,50 +3599,6 @@
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
-      <sheetName val="6220001 Utilidades empresas rel"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="12">
-          <cell r="N12">
-            <v>10569132</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>23950208</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>890084326</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>952630657</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>338180773</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>631879</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
       <sheetName val="5220001 Perdidas empresas relac"/>
     </sheetNames>
     <sheetDataSet>
@@ -4578,7 +3629,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -4650,35 +3701,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
-      <sheetName val="Estado"/>
-      <sheetName val="Resultado"/>
-      <sheetName val="Ctas"/>
-      <sheetName val="Dato"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -4878,7 +3900,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -4995,7 +4017,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -5016,7 +4038,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -5212,7 +4234,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -5287,7 +4309,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -5356,6 +4378,101 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
+      <sheetName val="Estado"/>
+      <sheetName val="Resultado"/>
+      <sheetName val="Ctas"/>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Datos"/>
+      <sheetName val="Cta Cte EERR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="C5">
+            <v>10202391175</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>8863877124</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>404451725</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>6192039</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>107379955</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>-17279115</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>153102815</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>25579789</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>-6201765</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>-165835498</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>1024616468</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="416">
+          <cell r="D416">
+            <v>443150607</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7144,11 +6261,11 @@
   <dimension ref="A1:AY91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65:F65"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.4571428571429" defaultRowHeight="12"/>
@@ -7615,13 +6732,11 @@
       <c r="H6" s="129" t="n">
         <v>5387933</v>
       </c>
-      <c r="I6" s="129">
-        <f>+[13]Estado!C6</f>
-        <v/>
-      </c>
-      <c r="J6" s="129">
-        <f>+'[15]Estado$'!$AC$6</f>
-        <v/>
+      <c r="I6" s="129" t="n">
+        <v>1093191</v>
+      </c>
+      <c r="J6" s="129" t="n">
+        <v>19529113800</v>
       </c>
       <c r="K6" s="88" t="n"/>
       <c r="L6" s="129" t="n">
@@ -7680,13 +6795,11 @@
       <c r="H7" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="129">
-        <f>+[3]Estado!C7</f>
-        <v/>
-      </c>
-      <c r="J7" s="129">
-        <f>+'[15]Estado$'!$AC$7</f>
-        <v/>
+      <c r="I7" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K7" s="88" t="n"/>
       <c r="L7" s="129" t="n">
@@ -7745,13 +6858,11 @@
       <c r="H8" s="129" t="n">
         <v>10444966</v>
       </c>
-      <c r="I8" s="129">
-        <f>+[13]Estado!C8</f>
-        <v/>
-      </c>
-      <c r="J8" s="129">
-        <f>+'[15]Estado$'!$AC$8</f>
-        <v/>
+      <c r="I8" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="129" t="n">
+        <v>918103580</v>
       </c>
       <c r="K8" s="88" t="n"/>
       <c r="L8" s="129" t="n">
@@ -7816,17 +6927,15 @@
       <c r="H9" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="129">
-        <f>+[13]Estado!C9</f>
-        <v/>
-      </c>
-      <c r="J9" s="129">
-        <f>+'[15]Estado$'!$AC$9</f>
-        <v/>
+      <c r="I9" s="129" t="n">
+        <v>191674</v>
+      </c>
+      <c r="J9" s="129" t="n">
+        <v>8020150772</v>
       </c>
       <c r="K9" s="88" t="n"/>
       <c r="L9" s="142">
-        <f>+'[18]Detalle Cta Cte  Reclasi(Final)'!$BM$43</f>
+        <f>+'[17]Detalle Cta Cte  Reclasi(Final)'!$BM$43</f>
         <v/>
       </c>
       <c r="M9" s="129" t="n">
@@ -7882,13 +6991,11 @@
       <c r="H10" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="132">
-        <f>+[13]Estado!C10</f>
-        <v/>
-      </c>
-      <c r="J10" s="132">
-        <f>+'[15]Est US$'!$C$10</f>
-        <v/>
+      <c r="I10" s="132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="132" t="n">
+        <v>0</v>
       </c>
       <c r="K10" s="165" t="n"/>
       <c r="L10" s="132" t="n">
@@ -7947,13 +7054,11 @@
       <c r="H11" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="129">
-        <f>+[13]Estado!C11</f>
-        <v/>
-      </c>
-      <c r="J11" s="129">
-        <f>+'[15]Estado$'!$AC$11</f>
-        <v/>
+      <c r="I11" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="129" t="n">
+        <v>922381337</v>
       </c>
       <c r="K11" s="88" t="n"/>
       <c r="L11" s="129" t="n">
@@ -8012,13 +7117,11 @@
       <c r="H12" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="129">
-        <f>+[13]Estado!C12</f>
-        <v/>
-      </c>
-      <c r="J12" s="129">
-        <f>+'[15]Estado$'!$AC$12</f>
-        <v/>
+      <c r="I12" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K12" s="88" t="n"/>
       <c r="L12" s="129" t="n">
@@ -8077,13 +7180,11 @@
       <c r="H13" s="129" t="n">
         <v>21855290</v>
       </c>
-      <c r="I13" s="129">
-        <f>+[13]Estado!C13</f>
-        <v/>
-      </c>
-      <c r="J13" s="129">
-        <f>+'[15]Estado$'!$AC$13</f>
-        <v/>
+      <c r="I13" s="129" t="n">
+        <v>17123867</v>
+      </c>
+      <c r="J13" s="129" t="n">
+        <v>632874679</v>
       </c>
       <c r="K13" s="88" t="n"/>
       <c r="L13" s="129" t="n">
@@ -8221,13 +7322,11 @@
       <c r="H15" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="129">
-        <f>+[13]Estado!C15</f>
-        <v/>
-      </c>
-      <c r="J15" s="129">
-        <f>+'[14]Estado$'!$AC$15</f>
-        <v/>
+      <c r="I15" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K15" s="88" t="n"/>
       <c r="L15" s="129" t="n">
@@ -8286,13 +7385,11 @@
       <c r="H16" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="129">
-        <f>+[13]Estado!C16</f>
-        <v/>
-      </c>
-      <c r="J16" s="129">
-        <f>+'[14]Estado$'!$AC$16</f>
-        <v/>
+      <c r="I16" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K16" s="88" t="n"/>
       <c r="L16" s="129" t="n">
@@ -8596,13 +7693,11 @@
       <c r="H20" s="139" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="139">
-        <f>+[13]Estado!C20</f>
-        <v/>
-      </c>
-      <c r="J20" s="139">
-        <f>+'[15]Estado$'!$AC$20</f>
-        <v/>
+      <c r="I20" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="139" t="n">
+        <v>11222624019</v>
       </c>
       <c r="K20" s="88" t="n"/>
       <c r="L20" s="139" t="n"/>
@@ -8610,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="139">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$J$55-'[18]cta cte  (Ajustes) (Final)'!$R$55</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$J$55-'[17]cta cte  (Ajustes) (Final)'!$R$55</f>
         <v/>
       </c>
       <c r="O20" s="139" t="n">
@@ -8626,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="139">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AO$55-'[18]cta cte  (Ajustes) (Final)'!$AQ$55</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AO$55-'[17]cta cte  (Ajustes) (Final)'!$AQ$55</f>
         <v/>
       </c>
       <c r="T20" s="129" t="n">
@@ -8638,31 +7733,31 @@
         <v/>
       </c>
       <c r="W20" s="179">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$J$54</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$J$54</f>
         <v/>
       </c>
       <c r="X20" s="180">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$N$49</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$N$49</f>
         <v/>
       </c>
       <c r="Y20" s="204">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$AM$46</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$AM$46</f>
         <v/>
       </c>
       <c r="Z20" s="205">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$AO$47</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$AO$47</f>
         <v/>
       </c>
       <c r="AA20" s="324">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$BI$49</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$BI$49</f>
         <v/>
       </c>
       <c r="AB20" s="325">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$AQ$49</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$AQ$49</f>
         <v/>
       </c>
       <c r="AC20" s="208">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$R$49</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$R$49</f>
         <v/>
       </c>
       <c r="AD20" s="119" t="n"/>
@@ -8707,13 +7802,11 @@
       <c r="H21" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="129">
-        <f>+[13]Estado!C21</f>
-        <v/>
-      </c>
-      <c r="J21" s="129">
-        <f>+'[15]Estado$'!$AC$21</f>
-        <v/>
+      <c r="I21" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="129" t="n">
+        <v>16641984</v>
       </c>
       <c r="K21" s="88" t="n"/>
       <c r="L21" s="167">
@@ -8812,13 +7905,11 @@
       <c r="H22" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="129">
-        <f>+[13]Estado!C22</f>
-        <v/>
-      </c>
-      <c r="J22" s="129">
-        <f>+'[15]Estado$'!$AC$22</f>
-        <v/>
+      <c r="I22" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K22" s="88" t="n"/>
       <c r="M22" s="129" t="n">
@@ -8854,7 +7945,7 @@
         </is>
       </c>
       <c r="X22" s="183">
-        <f>+[16]Estado!$Z$22</f>
+        <f>+[15]Estado!$Z$22</f>
         <v/>
       </c>
       <c r="Y22" s="209" t="inlineStr">
@@ -8910,7 +8001,7 @@
       <c r="AJ22" s="226" t="n"/>
       <c r="AK22" s="227" t="n"/>
       <c r="AL22" s="198">
-        <f>+[6]Estado!$AG$22</f>
+        <f>+[5]Estado!$AG$22</f>
         <v/>
       </c>
       <c r="AM22" s="228" t="inlineStr">
@@ -8929,15 +8020,15 @@
         </is>
       </c>
       <c r="AP22" s="233">
-        <f>+'[5]Estado$'!$AG$22</f>
+        <f>+'[4]Estado$'!$AG$22</f>
         <v/>
       </c>
       <c r="AQ22" s="233">
-        <f>+'[5]Estado$'!$AL$22</f>
+        <f>+'[4]Estado$'!$AL$22</f>
         <v/>
       </c>
       <c r="AR22" s="234">
-        <f>+'[5]Estado$'!$AM$22</f>
+        <f>+'[4]Estado$'!$AM$22</f>
         <v/>
       </c>
       <c r="AS22" s="235" t="inlineStr">
@@ -8946,7 +8037,7 @@
         </is>
       </c>
       <c r="AT22" s="236">
-        <f>+'[5]Estado$'!$AE$22</f>
+        <f>+'[4]Estado$'!$AE$22</f>
         <v/>
       </c>
       <c r="AV22" s="237" t="inlineStr">
@@ -8980,45 +8071,43 @@
       <c r="H23" s="142" t="n">
         <v>300360854</v>
       </c>
-      <c r="I23" s="142">
-        <f>+[13]Estado!C23</f>
-        <v/>
-      </c>
-      <c r="J23" s="142">
-        <f>+'[15]Estado$'!$AC$23</f>
-        <v/>
+      <c r="I23" s="142" t="n">
+        <v>175296882</v>
+      </c>
+      <c r="J23" s="142" t="n">
+        <v>6997365974</v>
       </c>
       <c r="K23" s="168" t="n"/>
       <c r="L23" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$B$43-'[18]Detalle Cta Cte  Reclasi(Final)'!$BM$57+417</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$B$43-'[17]Detalle Cta Cte  Reclasi(Final)'!$BM$57+417</f>
         <v/>
       </c>
       <c r="M23" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$D$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$D$43</f>
         <v/>
       </c>
       <c r="N23" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$F$43-'[18]cta cte  (Ajustes) (Final)'!$H$43-'[18]cta cte  (Ajustes) (Final)'!$T$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$F$43-'[17]cta cte  (Ajustes) (Final)'!$H$43-'[17]cta cte  (Ajustes) (Final)'!$T$43</f>
         <v/>
       </c>
       <c r="O23" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AA$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AA$43</f>
         <v/>
       </c>
       <c r="P23" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AC$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AC$43</f>
         <v/>
       </c>
       <c r="Q23" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AI$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AI$43</f>
         <v/>
       </c>
       <c r="R23" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AK$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AK$43</f>
         <v/>
       </c>
       <c r="S23" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AM$43-'[18]cta cte  (Ajustes) (Final)'!$BG$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AM$43-'[17]cta cte  (Ajustes) (Final)'!$BG$43</f>
         <v/>
       </c>
       <c r="T23" s="142" t="n">
@@ -9030,82 +8119,82 @@
         <v/>
       </c>
       <c r="W23" s="175">
-        <f>+[16]Estado!$AE$23</f>
+        <f>+[15]Estado!$AE$23</f>
         <v/>
       </c>
       <c r="X23" s="326">
-        <f>+[16]Estado!$Z$23</f>
+        <f>+[15]Estado!$Z$23</f>
         <v/>
       </c>
       <c r="Y23" s="327">
-        <f>+[7]Ctas!$D$197</f>
+        <f>+[6]Ctas!$D$197</f>
         <v/>
       </c>
       <c r="Z23" s="327">
-        <f>+[7]Ctas!$D$198</f>
+        <f>+[6]Ctas!$D$198</f>
         <v/>
       </c>
       <c r="AA23" s="327">
-        <f>+[7]Ctas!$D$199</f>
+        <f>+[6]Ctas!$D$199</f>
         <v/>
       </c>
       <c r="AB23" s="214" t="n">
         <v>0</v>
       </c>
       <c r="AC23" s="214">
-        <f>+[7]Ctas!$D$208</f>
+        <f>+[6]Ctas!$D$208</f>
         <v/>
       </c>
       <c r="AD23" s="214">
-        <f>+[7]Ctas!$D$211</f>
+        <f>+[6]Ctas!$D$211</f>
         <v/>
       </c>
       <c r="AE23" s="214">
-        <f>+[7]Ctas!$D$220</f>
+        <f>+[6]Ctas!$D$220</f>
         <v/>
       </c>
       <c r="AF23" s="214">
-        <f>+[7]Ctas!$D$235</f>
+        <f>+[6]Ctas!$D$235</f>
         <v/>
       </c>
       <c r="AG23" s="327">
-        <f>+[7]Ctas!$D$228</f>
+        <f>+[6]Ctas!$D$228</f>
         <v/>
       </c>
       <c r="AH23" s="327">
-        <f>+[7]Ctas!$D$230</f>
+        <f>+[6]Ctas!$D$230</f>
         <v/>
       </c>
       <c r="AJ23" s="226" t="n"/>
       <c r="AK23" s="226" t="n"/>
       <c r="AL23" s="199">
-        <f>+[11]Estado!$AH$23</f>
+        <f>+[10]Estado!$AH$23</f>
         <v/>
       </c>
       <c r="AM23" s="328">
-        <f>+[11]Estado!$Z$23</f>
+        <f>+[10]Estado!$Z$23</f>
         <v/>
       </c>
       <c r="AN23" s="328">
-        <f>+[11]Estado!$AB$23</f>
+        <f>+[10]Estado!$AB$23</f>
         <v/>
       </c>
       <c r="AO23" s="326">
-        <f>+[11]Estado!$AC$23</f>
+        <f>+[10]Estado!$AC$23</f>
         <v/>
       </c>
       <c r="AP23" s="234" t="n"/>
       <c r="AQ23" s="234">
-        <f>+'[17]Estado$'!$AL$23+'[17]Estado$'!$AP$23+'[17]Estado$'!$AR$23</f>
+        <f>+'[16]Estado$'!$AL$23+'[16]Estado$'!$AP$23+'[16]Estado$'!$AR$23</f>
         <v/>
       </c>
       <c r="AR23" s="234" t="n"/>
       <c r="AS23" s="329">
-        <f>+'[17]Estado$'!$AN$23</f>
+        <f>+'[16]Estado$'!$AN$23</f>
         <v/>
       </c>
       <c r="AT23" s="234">
-        <f>+'[17]Estado$'!$AE$23</f>
+        <f>+'[16]Estado$'!$AE$23</f>
         <v/>
       </c>
       <c r="AU23" s="326" t="n"/>
@@ -9118,7 +8207,7 @@
         <v/>
       </c>
       <c r="AX23" s="119">
-        <f>+'[18]Detalle Cta Cte  Reclasi(Final)'!$BM$43</f>
+        <f>+'[17]Detalle Cta Cte  Reclasi(Final)'!$BM$43</f>
         <v/>
       </c>
       <c r="AY23" s="119">
@@ -9151,29 +8240,27 @@
       <c r="H24" s="144" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="144">
-        <f>+[13]Estado!C24</f>
-        <v/>
-      </c>
-      <c r="J24" s="144">
-        <f>+'[15]Estado$'!$AC$24</f>
-        <v/>
+      <c r="I24" s="144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="144" t="n">
+        <v>5275727314</v>
       </c>
       <c r="K24" s="88" t="n"/>
       <c r="L24" s="169">
-        <f>-'[19]Invers. Ajuste Consol.'!$B$40</f>
+        <f>-'[18]Invers. Ajuste Consol.'!$B$40</f>
         <v/>
       </c>
       <c r="M24" s="167" t="n"/>
       <c r="N24" s="169">
-        <f>-[16]Estado!$Y$24</f>
+        <f>-[15]Estado!$Y$24</f>
         <v/>
       </c>
       <c r="O24" s="169" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="169">
-        <f>-[11]Estado!$Z$24-[11]Estado!$AB$24</f>
+        <f>-[10]Estado!$Z$24-[10]Estado!$AB$24</f>
         <v/>
       </c>
       <c r="Q24" s="169" t="n">
@@ -9183,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="169">
-        <f>-'[17]Estado$'!$AL$24</f>
+        <f>-'[16]Estado$'!$AL$24</f>
         <v/>
       </c>
       <c r="T24" s="169">
@@ -9196,43 +8283,43 @@
         <v/>
       </c>
       <c r="W24" s="175">
-        <f>+[7]Ctas!$D$257</f>
+        <f>+[6]Ctas!$D$257</f>
         <v/>
       </c>
       <c r="X24" s="175">
-        <f>+[7]Ctas!$D$256</f>
+        <f>+[6]Ctas!$D$256</f>
         <v/>
       </c>
       <c r="Y24" s="119">
-        <f>+[7]Ctas!$D$249</f>
+        <f>+[6]Ctas!$D$249</f>
         <v/>
       </c>
       <c r="Z24" s="119">
-        <f>+[7]Ctas!$D$243</f>
+        <f>+[6]Ctas!$D$243</f>
         <v/>
       </c>
       <c r="AA24" s="119">
-        <f>+'[17]Estado$'!$AE$24</f>
+        <f>+'[16]Estado$'!$AE$24</f>
         <v/>
       </c>
       <c r="AB24" s="119">
-        <f>+'[17]Estado$'!$AH$24</f>
+        <f>+'[16]Estado$'!$AH$24</f>
         <v/>
       </c>
       <c r="AC24" s="119">
-        <f>+'[17]Estado$'!$AJ$24</f>
+        <f>+'[16]Estado$'!$AJ$24</f>
         <v/>
       </c>
       <c r="AD24" s="119">
-        <f>+'[17]Estado$'!$AK$24</f>
+        <f>+'[16]Estado$'!$AK$24</f>
         <v/>
       </c>
       <c r="AE24" s="326">
-        <f>+'[17]Estado$'!$AI$24+1</f>
+        <f>+'[16]Estado$'!$AI$24+1</f>
         <v/>
       </c>
       <c r="AF24" s="326">
-        <f>+[11]Estado!$AA$24</f>
+        <f>+[10]Estado!$AA$24</f>
         <v/>
       </c>
       <c r="AH24" s="331">
@@ -9273,13 +8360,11 @@
       <c r="H25" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="129">
-        <f>+[13]Estado!C25</f>
-        <v/>
-      </c>
-      <c r="J25" s="129">
-        <f>+'[15]Estado$'!$AC$25</f>
-        <v/>
+      <c r="I25" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="129" t="n">
+        <v>6059</v>
       </c>
       <c r="K25" s="88" t="n"/>
       <c r="L25" s="129" t="n">
@@ -9333,23 +8418,23 @@
         </is>
       </c>
       <c r="AA25" s="215">
-        <f>+'[5]Estado$'!$AE$25</f>
+        <f>+'[4]Estado$'!$AE$25</f>
         <v/>
       </c>
       <c r="AB25" s="215">
-        <f>+'[5]Estado$'!$AH$25</f>
+        <f>+'[4]Estado$'!$AH$25</f>
         <v/>
       </c>
       <c r="AC25" s="216">
-        <f>+'[5]Estado$'!$AJ$25</f>
+        <f>+'[4]Estado$'!$AJ$25</f>
         <v/>
       </c>
       <c r="AD25" s="217">
-        <f>+'[17]Estado$'!$AK$25</f>
+        <f>+'[16]Estado$'!$AK$25</f>
         <v/>
       </c>
       <c r="AE25" s="215">
-        <f>+'[17]Estado$'!$AI$25</f>
+        <f>+'[16]Estado$'!$AI$25</f>
         <v/>
       </c>
       <c r="AF25" s="218" t="inlineStr">
@@ -9388,13 +8473,11 @@
       <c r="H26" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="129">
-        <f>+[13]Estado!C26</f>
-        <v/>
-      </c>
-      <c r="J26" s="129">
-        <f>+'[15]Estado$'!$AC$26</f>
-        <v/>
+      <c r="I26" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="129" t="n">
+        <v>403110</v>
       </c>
       <c r="K26" s="88" t="n"/>
       <c r="L26" s="129" t="n">
@@ -9470,13 +8553,11 @@
       <c r="H27" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="129">
-        <f>+[13]Estado!C27</f>
-        <v/>
-      </c>
-      <c r="J27" s="129">
-        <f>+'[15]Estado$'!$AC$27</f>
-        <v/>
+      <c r="I27" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="129" t="n">
+        <v>9234185858</v>
       </c>
       <c r="K27" s="88" t="n"/>
       <c r="L27" s="129" t="n">
@@ -9544,13 +8625,11 @@
       <c r="H28" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="129">
-        <f>+[13]Estado!C28</f>
-        <v/>
-      </c>
-      <c r="J28" s="129">
-        <f>+'[15]Estado$'!$AC$28</f>
-        <v/>
+      <c r="I28" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K28" s="88" t="n"/>
       <c r="L28" s="129" t="n">
@@ -9618,13 +8697,11 @@
       <c r="H29" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="129">
-        <f>+[13]Estado!C29</f>
-        <v/>
-      </c>
-      <c r="J29" s="129">
-        <f>+'[15]Estado$'!$AC$29</f>
-        <v/>
+      <c r="I29" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="129" t="n">
+        <v>98063358</v>
       </c>
       <c r="K29" s="88" t="n"/>
       <c r="L29" s="129" t="n">
@@ -9691,13 +8768,11 @@
       <c r="H30" s="129" t="n">
         <v>68798365</v>
       </c>
-      <c r="I30" s="129">
-        <f>+[13]Estado!C30</f>
-        <v/>
-      </c>
-      <c r="J30" s="129">
-        <f>+'[15]Estado$'!$AC$30</f>
-        <v/>
+      <c r="I30" s="129" t="n">
+        <v>3960531</v>
+      </c>
+      <c r="J30" s="129" t="n">
+        <v>1973899479</v>
       </c>
       <c r="K30" s="88" t="n"/>
       <c r="L30" s="129" t="n">
@@ -10028,13 +9103,11 @@
       <c r="H37" s="150" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="150">
-        <f>+[13]Estado!C37</f>
-        <v/>
-      </c>
-      <c r="J37" s="150">
-        <f>+'[15]Estado$'!$AC$37</f>
-        <v/>
+      <c r="I37" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="150" t="n">
+        <v>558046576</v>
       </c>
       <c r="K37" s="170" t="n"/>
       <c r="L37" s="150" t="n"/>
@@ -10091,13 +9164,11 @@
       <c r="H38" s="129" t="n">
         <v>54248821</v>
       </c>
-      <c r="I38" s="129">
-        <f>+[13]Estado!C38</f>
-        <v/>
-      </c>
-      <c r="J38" s="129">
-        <f>+'[15]Estado$'!$AC$38</f>
-        <v/>
+      <c r="I38" s="129" t="n">
+        <v>35884384</v>
+      </c>
+      <c r="J38" s="129" t="n">
+        <v>5414028694</v>
       </c>
       <c r="K38" s="88" t="n"/>
       <c r="L38" s="142" t="n"/>
@@ -10156,13 +9227,11 @@
       <c r="H39" s="142" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="142">
-        <f>+[13]Estado!C39</f>
-        <v/>
-      </c>
-      <c r="J39" s="142">
-        <f>+'[15]Estado$'!$AC$39</f>
-        <v/>
+      <c r="I39" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="142" t="n">
+        <v>0</v>
       </c>
       <c r="K39" s="168" t="n"/>
       <c r="L39" s="142" t="n">
@@ -10175,11 +9244,11 @@
         <v>0</v>
       </c>
       <c r="O39" s="142">
-        <f>-[10]Ctas!$D$416</f>
+        <f>-[9]Ctas!$D$416</f>
         <v/>
       </c>
       <c r="P39" s="142">
-        <f>-[11]Estado!$Z$39</f>
+        <f>-[10]Estado!$Z$39</f>
         <v/>
       </c>
       <c r="Q39" s="142" t="n">
@@ -10228,13 +9297,11 @@
       <c r="H40" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="129">
-        <f>+[13]Estado!C40</f>
-        <v/>
-      </c>
-      <c r="J40" s="129">
-        <f>+'[15]Estado$'!$AC$40</f>
-        <v/>
+      <c r="I40" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="129" t="n">
+        <v>463737719</v>
       </c>
       <c r="K40" s="88" t="n"/>
       <c r="L40" s="129" t="n">
@@ -10296,13 +9363,11 @@
       <c r="H41" s="129" t="n">
         <v>4965044</v>
       </c>
-      <c r="I41" s="129">
-        <f>+[13]Estado!C41</f>
-        <v/>
-      </c>
-      <c r="J41" s="129">
-        <f>+'[15]Estado$'!$AC$41</f>
-        <v/>
+      <c r="I41" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="129" t="n">
+        <v>1112722638</v>
       </c>
       <c r="K41" s="88" t="n"/>
       <c r="L41" s="129" t="n">
@@ -10365,13 +9430,11 @@
       <c r="H42" s="154" t="n">
         <v>254808755</v>
       </c>
-      <c r="I42" s="154">
-        <f>+[13]Estado!C42</f>
-        <v/>
-      </c>
-      <c r="J42" s="154">
-        <f>+'[15]Estado$'!$AC$42</f>
-        <v/>
+      <c r="I42" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="154" t="n">
+        <v>932917018</v>
       </c>
       <c r="K42" s="171" t="n"/>
       <c r="L42" s="154">
@@ -10432,17 +9495,15 @@
       <c r="H43" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="129">
-        <f>+[13]Estado!C43</f>
-        <v/>
-      </c>
-      <c r="J43" s="129">
-        <f>+'[15]Estado$'!$AC$43</f>
-        <v/>
+      <c r="I43" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="129" t="n">
+        <v>625311782</v>
       </c>
       <c r="K43" s="88" t="n"/>
       <c r="L43" s="142">
-        <f>+'[18]Detalle Cta Cte  Reclasi(Final)'!$BN$57+9647327</f>
+        <f>+'[17]Detalle Cta Cte  Reclasi(Final)'!$BN$57+9647327</f>
         <v/>
       </c>
       <c r="M43" s="142" t="n"/>
@@ -10575,13 +9636,11 @@
       <c r="H45" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="129">
-        <f>+[13]Estado!C45</f>
-        <v/>
-      </c>
-      <c r="J45" s="129">
-        <f>+'[15]Estado$'!$AC$45</f>
-        <v/>
+      <c r="I45" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K45" s="88" t="n"/>
       <c r="L45" s="129" t="n">
@@ -10747,7 +9806,7 @@
       <c r="U47" s="88" t="n"/>
       <c r="V47" s="126" t="n"/>
       <c r="W47" s="186">
-        <f>+'[5]Estado$'!$AD$47</f>
+        <f>+'[4]Estado$'!$AD$47</f>
         <v/>
       </c>
       <c r="X47" s="186" t="inlineStr">
@@ -10756,7 +9815,7 @@
         </is>
       </c>
       <c r="Y47" s="186">
-        <f>+'[5]Estado$'!$AI$47</f>
+        <f>+'[4]Estado$'!$AI$47</f>
         <v/>
       </c>
       <c r="Z47" s="222" t="inlineStr">
@@ -10809,13 +9868,11 @@
       <c r="H48" s="150" t="n">
         <v>0</v>
       </c>
-      <c r="I48" s="150">
-        <f>+[13]Estado!C48</f>
-        <v/>
-      </c>
-      <c r="J48" s="159">
-        <f>+'[15]Estado$'!$AC$48</f>
-        <v/>
+      <c r="I48" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="159" t="n">
+        <v>4652450566</v>
       </c>
       <c r="K48" s="170" t="n"/>
       <c r="L48" s="150" t="n">
@@ -10825,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="159">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$K$55-'[18]cta cte  (Ajustes) (Final)'!$O$55-'[18]cta cte  (Ajustes) (Final)'!$S$55</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$K$55-'[17]cta cte  (Ajustes) (Final)'!$O$55-'[17]cta cte  (Ajustes) (Final)'!$S$55</f>
         <v/>
       </c>
       <c r="O48" s="150" t="n">
@@ -10841,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="159">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AR$55</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AR$55</f>
         <v/>
       </c>
       <c r="T48" s="150" t="n">
@@ -10853,19 +9910,19 @@
         <v/>
       </c>
       <c r="W48" s="193">
-        <f>+'[18]Cta Cte  (Acumuladas Consol)'!$BJ$54</f>
+        <f>+'[17]Cta Cte  (Acumuladas Consol)'!$BJ$54</f>
         <v/>
       </c>
       <c r="X48" s="193">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$AT$54</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$AT$54</f>
         <v/>
       </c>
       <c r="Y48" s="193">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$AR$54</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$AR$54</f>
         <v/>
       </c>
       <c r="Z48" s="193">
-        <f>+'[18]cta cte  (Final) (Quedan)'!$S$56</f>
+        <f>+'[17]cta cte  (Final) (Quedan)'!$S$56</f>
         <v/>
       </c>
       <c r="AA48" s="193">
@@ -10918,13 +9975,11 @@
       <c r="H49" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="129">
-        <f>+[13]Estado!C49</f>
-        <v/>
-      </c>
-      <c r="J49" s="129">
-        <f>+'[15]Estado$'!$AC$49</f>
-        <v/>
+      <c r="I49" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="129" t="n">
+        <v>227887275</v>
       </c>
       <c r="K49" s="88" t="n"/>
       <c r="L49" s="132" t="n"/>
@@ -10956,7 +10011,7 @@
       </c>
       <c r="X49" s="194" t="n"/>
       <c r="Y49" s="194">
-        <f>+'[17]Estado$'!$AJ$51</f>
+        <f>+'[16]Estado$'!$AJ$51</f>
         <v/>
       </c>
       <c r="Z49" s="120" t="inlineStr">
@@ -10975,23 +10030,23 @@
         </is>
       </c>
       <c r="AC49" s="194">
-        <f>+'[5]Estado$'!$AE$52</f>
+        <f>+'[4]Estado$'!$AE$52</f>
         <v/>
       </c>
       <c r="AD49" s="194">
-        <f>+'[5]Estado$'!$AF$52</f>
+        <f>+'[4]Estado$'!$AF$52</f>
         <v/>
       </c>
       <c r="AE49" s="194">
-        <f>+'[5]Estado$'!$AG$52</f>
+        <f>+'[4]Estado$'!$AG$52</f>
         <v/>
       </c>
       <c r="AF49" s="119">
-        <f>+'[5]Estado$'!$AH$52</f>
+        <f>+'[4]Estado$'!$AH$52</f>
         <v/>
       </c>
       <c r="AG49" s="119">
-        <f>+'[5]Estado$'!$AI$52</f>
+        <f>+'[4]Estado$'!$AI$52</f>
         <v/>
       </c>
       <c r="AH49" s="192" t="inlineStr">
@@ -11030,44 +10085,42 @@
       <c r="H50" s="142" t="n">
         <v>100000</v>
       </c>
-      <c r="I50" s="142">
-        <f>+[13]Estado!C50</f>
-        <v/>
-      </c>
-      <c r="J50" s="142">
-        <f>+'[15]Estado$'!$AC$50</f>
-        <v/>
+      <c r="I50" s="142" t="n">
+        <v>30646</v>
+      </c>
+      <c r="J50" s="142" t="n">
+        <v>6806005656</v>
       </c>
       <c r="K50" s="88" t="n"/>
       <c r="L50" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$C$43+'[18]cta cte  (Final) (Quedan)'!$BR$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$C$43+'[17]cta cte  (Final) (Quedan)'!$BR$43</f>
         <v/>
       </c>
       <c r="M50" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$E$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$E$43</f>
         <v/>
       </c>
       <c r="N50" s="142" t="n">
         <v>0</v>
       </c>
       <c r="O50" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AB$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AB$43</f>
         <v/>
       </c>
       <c r="P50" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AD$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AD$43</f>
         <v/>
       </c>
       <c r="Q50" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AJ$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AJ$43</f>
         <v/>
       </c>
       <c r="R50" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AL$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AL$43</f>
         <v/>
       </c>
       <c r="S50" s="142">
-        <f>-'[18]cta cte  (Ajustes) (Final)'!$AN$43-'[18]cta cte  (Ajustes) (Final)'!$AX$43-'[18]cta cte  (Ajustes) (Final)'!$BB$43-'[18]cta cte  (Ajustes) (Final)'!$BH$43</f>
+        <f>-'[17]cta cte  (Ajustes) (Final)'!$AN$43-'[17]cta cte  (Ajustes) (Final)'!$AX$43-'[17]cta cte  (Ajustes) (Final)'!$BB$43-'[17]cta cte  (Ajustes) (Final)'!$BH$43</f>
         <v/>
       </c>
       <c r="T50" s="142" t="n">
@@ -11079,48 +10132,48 @@
         <v/>
       </c>
       <c r="W50" s="335">
-        <f>+[7]Ctas!$D$458</f>
+        <f>+[6]Ctas!$D$458</f>
         <v/>
       </c>
       <c r="X50" s="335" t="n"/>
       <c r="Y50" s="225">
-        <f>+'[17]Estado$'!$AJ$50</f>
+        <f>+'[16]Estado$'!$AJ$50</f>
         <v/>
       </c>
       <c r="Z50" s="225">
-        <f>+'[17]Estado$'!$AN$50</f>
+        <f>+'[16]Estado$'!$AN$50</f>
         <v/>
       </c>
       <c r="AA50" s="225">
-        <f>+'[17]Estado$'!$AQ$50</f>
+        <f>+'[16]Estado$'!$AQ$50</f>
         <v/>
       </c>
       <c r="AB50" s="225">
-        <f>+'[17]Estado$'!$AP$50</f>
+        <f>+'[16]Estado$'!$AP$50</f>
         <v/>
       </c>
       <c r="AC50" s="225">
-        <f>+'[17]Estado$'!$AE$50</f>
+        <f>+'[16]Estado$'!$AE$50</f>
         <v/>
       </c>
       <c r="AD50" s="225">
-        <f>+'[17]Estado$'!$AF$50</f>
+        <f>+'[16]Estado$'!$AF$50</f>
         <v/>
       </c>
       <c r="AE50" s="225">
-        <f>+'[17]Estado$'!$AG$50</f>
+        <f>+'[16]Estado$'!$AG$50</f>
         <v/>
       </c>
       <c r="AF50" s="225">
-        <f>+'[17]Estado$'!$AH$50</f>
+        <f>+'[16]Estado$'!$AH$50</f>
         <v/>
       </c>
       <c r="AG50" s="225">
-        <f>+'[17]Estado$'!$AI$50</f>
+        <f>+'[16]Estado$'!$AI$50</f>
         <v/>
       </c>
       <c r="AH50" s="119">
-        <f>+'[17]Estado$'!$AK$50</f>
+        <f>+'[16]Estado$'!$AK$50</f>
         <v/>
       </c>
       <c r="AI50" s="119">
@@ -11157,13 +10210,11 @@
       <c r="H51" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I51" s="129">
-        <f>+[13]Estado!C51</f>
-        <v/>
-      </c>
-      <c r="J51" s="129">
-        <f>+'[15]Estado$'!$AC$51</f>
-        <v/>
+      <c r="I51" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K51" s="88" t="n"/>
       <c r="L51" s="129" t="n">
@@ -11222,13 +10273,11 @@
       <c r="H52" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="129">
-        <f>+[13]Estado!C52</f>
-        <v/>
-      </c>
-      <c r="J52" s="129">
-        <f>+'[15]Estado$'!$AC$52</f>
-        <v/>
+      <c r="I52" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="129" t="n">
+        <v>1446182627</v>
       </c>
       <c r="K52" s="88" t="n"/>
       <c r="L52" s="129" t="n">
@@ -11287,13 +10336,11 @@
       <c r="H53" s="154" t="n">
         <v>0</v>
       </c>
-      <c r="I53" s="154">
-        <f>+[13]Estado!C53</f>
-        <v/>
-      </c>
-      <c r="J53" s="154">
-        <f>+'[15]Estado$'!$AC$53</f>
-        <v/>
+      <c r="I53" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="154" t="n">
+        <v>0</v>
       </c>
       <c r="K53" s="171" t="n"/>
       <c r="L53" s="154" t="n"/>
@@ -11350,13 +10397,11 @@
       <c r="H54" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I54" s="129">
-        <f>+[13]Estado!C54</f>
-        <v/>
-      </c>
-      <c r="J54" s="129">
-        <f>+'[15]Estado$'!$AC$54</f>
-        <v/>
+      <c r="I54" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="129" t="n">
+        <v>93967634</v>
       </c>
       <c r="K54" s="88" t="n"/>
       <c r="L54" s="132">
@@ -11600,13 +10645,11 @@
       <c r="H58" s="129" t="n">
         <v>1313272</v>
       </c>
-      <c r="I58" s="129">
-        <f>+[13]Estado!C58</f>
-        <v/>
-      </c>
-      <c r="J58" s="129">
-        <f>+'[15]Estado$'!$AC$58</f>
-        <v/>
+      <c r="I58" s="129" t="n">
+        <v>1087339</v>
+      </c>
+      <c r="J58" s="129" t="n">
+        <v>32296318921</v>
       </c>
       <c r="K58" s="88" t="n"/>
       <c r="L58" s="129" t="n">
@@ -11675,13 +10718,11 @@
       <c r="H59" s="129" t="n">
         <v>91438527</v>
       </c>
-      <c r="I59" s="129">
-        <f>+[13]Estado!C59</f>
-        <v/>
-      </c>
-      <c r="J59" s="129">
-        <f>+'[15]Estado$'!$AC$59</f>
-        <v/>
+      <c r="I59" s="129" t="n">
+        <v>160686140</v>
+      </c>
+      <c r="J59" s="129" t="n">
+        <v>7719195458</v>
       </c>
       <c r="K59" s="88" t="n"/>
       <c r="L59" s="129" t="n">
@@ -11750,13 +10791,11 @@
       <c r="H60" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I60" s="129">
-        <f>+[13]Estado!C60</f>
-        <v/>
-      </c>
-      <c r="J60" s="129">
-        <f>+'[15]Estado$'!$AC$60</f>
-        <v/>
+      <c r="I60" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K60" s="88" t="n"/>
       <c r="L60" s="129" t="n">
@@ -11825,13 +10864,11 @@
       <c r="H61" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I61" s="129">
-        <f>+[13]Estado!C61</f>
-        <v/>
-      </c>
-      <c r="J61" s="129">
-        <f>+'[15]Estado$'!$AC$61</f>
-        <v/>
+      <c r="I61" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K61" s="88" t="n"/>
       <c r="L61" s="129" t="n">
@@ -11900,13 +10937,11 @@
       <c r="H62" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I62" s="129">
-        <f>+[13]Estado!C62</f>
-        <v/>
-      </c>
-      <c r="J62" s="129">
-        <f>+'[15]Estado$'!$AC$62</f>
-        <v/>
+      <c r="I62" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="129" t="n">
+        <v>0</v>
       </c>
       <c r="K62" s="88" t="n"/>
       <c r="L62" s="129" t="n">
@@ -11975,13 +11010,11 @@
       <c r="H63" s="129" t="n">
         <v>-27011</v>
       </c>
-      <c r="I63" s="129">
-        <f>+[13]Estado!C63</f>
-        <v/>
-      </c>
-      <c r="J63" s="129">
-        <f>+'[15]Estado$'!$AC$63</f>
-        <v/>
+      <c r="I63" s="129" t="n">
+        <v>-22364</v>
+      </c>
+      <c r="J63" s="129" t="n">
+        <v>2488253058</v>
       </c>
       <c r="K63" s="88" t="n"/>
       <c r="L63" s="129" t="n">
@@ -12116,11 +11149,11 @@
         <v/>
       </c>
       <c r="X64" s="197">
-        <f>+'[5]Estado$'!$AE$64</f>
+        <f>+'[4]Estado$'!$AE$64</f>
         <v/>
       </c>
       <c r="Y64" s="197">
-        <f>+'[5]Estado$'!$AG$64</f>
+        <f>+'[4]Estado$'!$AG$64</f>
         <v/>
       </c>
       <c r="Z64" s="197" t="inlineStr">
@@ -12167,19 +11200,17 @@
       <c r="H65" s="129" t="n">
         <v>0</v>
       </c>
-      <c r="I65" s="129">
-        <f>+[13]Estado!C65</f>
-        <v/>
-      </c>
-      <c r="J65" s="129">
-        <f>+'[15]Estado$'!$AC$65</f>
-        <v/>
+      <c r="I65" s="129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="129" t="n">
+        <v>4515701</v>
       </c>
       <c r="K65" s="88" t="n"/>
       <c r="L65" s="260" t="n"/>
       <c r="M65" s="261" t="n"/>
       <c r="N65" s="261">
-        <f>-[16]Estado!$AH$65</f>
+        <f>-[15]Estado!$AH$65</f>
         <v/>
       </c>
       <c r="O65" s="261" t="n"/>
@@ -12190,7 +11221,7 @@
       <c r="Q65" s="261" t="n"/>
       <c r="R65" s="261" t="n"/>
       <c r="S65" s="261">
-        <f>-'[17]Estado$'!$AG$65-'[17]Estado$'!$AJ$65-'[17]Estado$'!$AN$65</f>
+        <f>-'[16]Estado$'!$AG$65-'[16]Estado$'!$AJ$65-'[16]Estado$'!$AN$65</f>
         <v/>
       </c>
       <c r="T65" s="261">
@@ -12207,23 +11238,23 @@
         <v/>
       </c>
       <c r="X65" s="268">
-        <f>+'[14]Estado$'!$AD$65</f>
+        <f>+'[13]Estado$'!$AD$65</f>
         <v/>
       </c>
       <c r="Y65" s="268">
-        <f>+'[14]Estado$'!$AF$65</f>
+        <f>+'[13]Estado$'!$AF$65</f>
         <v/>
       </c>
       <c r="Z65" s="337">
-        <f>+[16]Estado!$AG$65</f>
+        <f>+[15]Estado!$AG$65</f>
         <v/>
       </c>
       <c r="AA65" s="337">
-        <f>+[16]Estado!$AB$65</f>
+        <f>+[15]Estado!$AB$65</f>
         <v/>
       </c>
       <c r="AB65" s="119">
-        <f>+'[17]Estado$'!$AI$65</f>
+        <f>+'[16]Estado$'!$AI$65</f>
         <v/>
       </c>
       <c r="AC65" s="334">
@@ -12820,7 +11851,7 @@
       <c r="L75" s="255" t="n"/>
       <c r="M75" s="255" t="n"/>
       <c r="N75" s="255">
-        <f>+'[19]Inversione  (Acumuladas Consol)'!$D$39</f>
+        <f>+'[18]Inversione  (Acumuladas Consol)'!$D$39</f>
         <v/>
       </c>
       <c r="U75" s="275" t="n"/>
@@ -12894,31 +11925,31 @@
       </c>
       <c r="B78" s="122" t="n"/>
       <c r="D78" s="254">
-        <f>+[7]Ctas!$D$238</f>
+        <f>+[6]Ctas!$D$238</f>
         <v/>
       </c>
       <c r="E78" s="254">
-        <f>+[7]Ctas!$D$239</f>
+        <f>+[6]Ctas!$D$239</f>
         <v/>
       </c>
       <c r="F78" s="254">
-        <f>+[7]Ctas!$D$245</f>
+        <f>+[6]Ctas!$D$245</f>
         <v/>
       </c>
       <c r="G78" s="254">
-        <f>+[7]Ctas!$D$242</f>
+        <f>+[6]Ctas!$D$242</f>
         <v/>
       </c>
       <c r="H78" s="254">
-        <f>+[7]Ctas!$D$247</f>
+        <f>+[6]Ctas!$D$247</f>
         <v/>
       </c>
       <c r="I78" s="254">
-        <f>+[7]Ctas!$D$253</f>
+        <f>+[6]Ctas!$D$253</f>
         <v/>
       </c>
       <c r="J78" s="254">
-        <f>+[7]Ctas!$D$246</f>
+        <f>+[6]Ctas!$D$246</f>
         <v/>
       </c>
       <c r="K78" s="88" t="n"/>
@@ -13043,14 +12074,14 @@
       </c>
       <c r="B83" s="122" t="n"/>
       <c r="D83" s="242">
-        <f>+[9]Ctas!$D$209</f>
+        <f>+[8]Ctas!$D$209</f>
         <v/>
       </c>
       <c r="E83" s="242" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="242">
-        <f>+[9]Ctas!$D$216</f>
+        <f>+[8]Ctas!$D$216</f>
         <v/>
       </c>
       <c r="G83" s="242">
@@ -13058,11 +12089,11 @@
         <v/>
       </c>
       <c r="H83" s="242">
-        <f>+[9]Ctas!$D$218</f>
+        <f>+[8]Ctas!$D$218</f>
         <v/>
       </c>
       <c r="I83" s="242">
-        <f>+[9]Ctas!$D$223</f>
+        <f>+[8]Ctas!$D$223</f>
         <v/>
       </c>
       <c r="J83" s="255" t="n"/>
@@ -13654,44 +12685,44 @@
       </c>
       <c r="B5" s="49" t="n"/>
       <c r="C5" s="50">
-        <f>+[7]Resultado!C9</f>
+        <f>+[6]Resultado!C9</f>
         <v/>
       </c>
       <c r="D5" s="50">
-        <f>+[8]Resultado!C5</f>
+        <f>+[7]Resultado!C5</f>
         <v/>
       </c>
       <c r="E5" s="50">
-        <f>+[16]Resultado!Y5</f>
+        <f>+[15]Resultado!Y5</f>
         <v/>
       </c>
       <c r="F5" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="50">
-        <f>+[10]Resultado!$C$5</f>
+        <f>+[9]Resultado!$C$5</f>
         <v/>
       </c>
       <c r="H5" s="50">
-        <f>+[11]Resultado!$Y$5</f>
+        <f>+[10]Resultado!$Y$5</f>
         <v/>
       </c>
       <c r="I5" s="50">
+        <f>+[11]Resultado!C5</f>
+        <v/>
+      </c>
+      <c r="J5" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="50">
         <f>+[12]Resultado!C5</f>
         <v/>
       </c>
-      <c r="J5" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="50">
-        <f>+[13]Resultado!C5</f>
-        <v/>
-      </c>
       <c r="L5" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="50">
-        <f>+'[15]Resultado$'!$AC$5</f>
+        <f>+'[14]Resultado$'!$AC$5</f>
         <v/>
       </c>
       <c r="N5" s="96" t="n"/>
@@ -13704,14 +12735,14 @@
         <v/>
       </c>
       <c r="Q5" s="58">
-        <f>-[16]Resultado!$C$5</f>
+        <f>-[15]Resultado!$C$5</f>
         <v/>
       </c>
       <c r="R5" s="50" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="50">
-        <f>-'[22]Bce Matriz'!$D$511</f>
+        <f>-'[21]Bce Matriz'!$D$511</f>
         <v/>
       </c>
       <c r="U5" s="50">
@@ -13806,44 +12837,44 @@
       </c>
       <c r="B7" s="49" t="n"/>
       <c r="C7" s="50">
-        <f>+[7]Resultado!C11</f>
+        <f>+[6]Resultado!C11</f>
         <v/>
       </c>
       <c r="D7" s="50">
-        <f>+[8]Resultado!C7</f>
+        <f>+[7]Resultado!C7</f>
         <v/>
       </c>
       <c r="E7" s="50">
-        <f>+[16]Resultado!Y7</f>
+        <f>+[15]Resultado!Y7</f>
         <v/>
       </c>
       <c r="F7" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="50">
-        <f>+[10]Resultado!$C$7</f>
+        <f>+[9]Resultado!$C$7</f>
         <v/>
       </c>
       <c r="H7" s="50">
-        <f>+[11]Resultado!$Y$7</f>
+        <f>+[10]Resultado!$Y$7</f>
         <v/>
       </c>
       <c r="I7" s="50">
+        <f>+[11]Resultado!C7</f>
+        <v/>
+      </c>
+      <c r="J7" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="50">
         <f>+[12]Resultado!C7</f>
         <v/>
       </c>
-      <c r="J7" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="50">
-        <f>+[13]Resultado!C7</f>
-        <v/>
-      </c>
       <c r="L7" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="50">
-        <f>+'[15]Resultado$'!$AC$7</f>
+        <f>+'[14]Resultado$'!$AC$7</f>
         <v/>
       </c>
       <c r="N7" s="96" t="n"/>
@@ -14129,44 +13160,44 @@
       </c>
       <c r="B11" s="49" t="n"/>
       <c r="C11" s="50">
-        <f>-[7]Resultado!C15</f>
+        <f>-[6]Resultado!C15</f>
         <v/>
       </c>
       <c r="D11" s="50">
-        <f>-[8]Resultado!C11</f>
+        <f>-[7]Resultado!C11</f>
         <v/>
       </c>
       <c r="E11" s="50">
-        <f>+[16]Resultado!Y11</f>
+        <f>+[15]Resultado!Y11</f>
         <v/>
       </c>
       <c r="F11" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="50">
-        <f>+[10]Resultado!$C$11</f>
+        <f>+[9]Resultado!$C$11</f>
         <v/>
       </c>
       <c r="H11" s="50">
-        <f>+[11]Resultado!$Y$11</f>
+        <f>+[10]Resultado!$Y$11</f>
         <v/>
       </c>
       <c r="I11" s="50">
-        <f>-[12]Resultado!C11</f>
+        <f>-[11]Resultado!C11</f>
         <v/>
       </c>
       <c r="J11" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="50">
-        <f>+[13]Resultado!C11</f>
+        <f>+[12]Resultado!C11</f>
         <v/>
       </c>
       <c r="L11" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="50">
-        <f>+'[15]Resultado$'!$AC$11</f>
+        <f>+'[14]Resultado$'!$AC$11</f>
         <v/>
       </c>
       <c r="N11" s="96" t="n"/>
@@ -14249,42 +13280,42 @@
       </c>
       <c r="B12" s="52" t="n"/>
       <c r="C12" s="50">
-        <f>-[7]Resultado!$C$19</f>
+        <f>-[6]Resultado!$C$19</f>
         <v/>
       </c>
       <c r="D12" s="50">
-        <f>+[8]Resultado!C12</f>
+        <f>+[7]Resultado!C12</f>
         <v/>
       </c>
       <c r="E12" s="50">
-        <f>+[16]Resultado!Y12</f>
+        <f>+[15]Resultado!Y12</f>
         <v/>
       </c>
       <c r="F12" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="50">
-        <f>+[10]Resultado!$C$12</f>
+        <f>+[9]Resultado!$C$12</f>
         <v/>
       </c>
       <c r="H12" s="50">
-        <f>+[11]Resultado!$Y$12</f>
+        <f>+[10]Resultado!$Y$12</f>
         <v/>
       </c>
       <c r="I12" s="50">
+        <f>+[11]Resultado!C12</f>
+        <v/>
+      </c>
+      <c r="J12" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="50">
         <f>+[12]Resultado!C12</f>
-        <v/>
-      </c>
-      <c r="J12" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="50">
-        <f>+[13]Resultado!C12</f>
         <v/>
       </c>
       <c r="L12" s="50" t="n"/>
       <c r="M12" s="50">
-        <f>+'[15]Resultado$'!$AC$12</f>
+        <f>+'[14]Resultado$'!$AC$12</f>
         <v/>
       </c>
       <c r="N12" s="96" t="n"/>
@@ -14528,44 +13559,44 @@
       </c>
       <c r="B15" s="49" t="n"/>
       <c r="C15" s="50">
-        <f>+[7]Resultado!$C$23</f>
+        <f>+[6]Resultado!$C$23</f>
         <v/>
       </c>
       <c r="D15" s="50">
-        <f>+[8]Resultado!C15</f>
+        <f>+[7]Resultado!C15</f>
         <v/>
       </c>
       <c r="E15" s="50">
-        <f>+[16]Resultado!Y15</f>
+        <f>+[15]Resultado!Y15</f>
         <v/>
       </c>
       <c r="F15" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="50">
-        <f>+[10]Resultado!$C$15</f>
+        <f>+[9]Resultado!$C$15</f>
         <v/>
       </c>
       <c r="H15" s="50">
-        <f>+[11]Resultado!$Y$15</f>
+        <f>+[10]Resultado!$Y$15</f>
         <v/>
       </c>
       <c r="I15" s="50">
+        <f>+[11]Resultado!C15</f>
+        <v/>
+      </c>
+      <c r="J15" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="50">
         <f>+[12]Resultado!C15</f>
         <v/>
       </c>
-      <c r="J15" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="50">
-        <f>+[13]Resultado!C15</f>
-        <v/>
-      </c>
       <c r="L15" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="50">
-        <f>+'[15]Resultado$'!$AC$15</f>
+        <f>+'[14]Resultado$'!$AC$15</f>
         <v/>
       </c>
       <c r="N15" s="96" t="n"/>
@@ -14637,44 +13668,44 @@
       </c>
       <c r="B17" s="49" t="n"/>
       <c r="C17" s="50">
-        <f>+[7]Resultado!$C$25</f>
+        <f>+[6]Resultado!$C$25</f>
         <v/>
       </c>
       <c r="D17" s="50">
-        <f>+[8]Resultado!C17</f>
+        <f>+[7]Resultado!C17</f>
         <v/>
       </c>
       <c r="E17" s="50">
-        <f>+[16]Resultado!Y17</f>
+        <f>+[15]Resultado!Y17</f>
         <v/>
       </c>
       <c r="F17" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="50">
-        <f>+[10]Resultado!$C$17</f>
+        <f>+[9]Resultado!$C$17</f>
         <v/>
       </c>
       <c r="H17" s="50">
-        <f>+[11]Resultado!$Y$17</f>
+        <f>+[10]Resultado!$Y$17</f>
         <v/>
       </c>
       <c r="I17" s="50">
+        <f>+[11]Resultado!C17</f>
+        <v/>
+      </c>
+      <c r="J17" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="50">
         <f>+[12]Resultado!C17</f>
         <v/>
       </c>
-      <c r="J17" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="50">
-        <f>+[13]Resultado!C17</f>
-        <v/>
-      </c>
       <c r="L17" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="50">
-        <f>+'[15]Resultado$'!$AC$17</f>
+        <f>+'[14]Resultado$'!$AC$17</f>
         <v/>
       </c>
       <c r="N17" s="96" t="n"/>
@@ -14711,15 +13742,15 @@
         <v/>
       </c>
       <c r="Z17" s="103">
-        <f>+'[5]Resultado$'!$AD$18</f>
+        <f>+'[4]Resultado$'!$AD$18</f>
         <v/>
       </c>
       <c r="AA17" s="103">
-        <f>+'[5]Resultado$'!$AE$18</f>
+        <f>+'[4]Resultado$'!$AE$18</f>
         <v/>
       </c>
       <c r="AB17" s="103">
-        <f>+'[5]Resultado$'!$AF$18</f>
+        <f>+'[4]Resultado$'!$AF$18</f>
         <v/>
       </c>
       <c r="AC17" s="103" t="n"/>
@@ -14783,44 +13814,44 @@
       </c>
       <c r="B19" s="49" t="n"/>
       <c r="C19" s="58">
-        <f>+[7]Resultado!$C$27</f>
+        <f>+[6]Resultado!$C$27</f>
         <v/>
       </c>
       <c r="D19" s="58">
-        <f>+[8]Resultado!C19</f>
+        <f>+[7]Resultado!C19</f>
         <v/>
       </c>
       <c r="E19" s="58">
-        <f>+[16]Resultado!Y19</f>
+        <f>+[15]Resultado!Y19</f>
         <v/>
       </c>
       <c r="F19" s="58" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="58">
-        <f>+[10]Resultado!$C$19</f>
+        <f>+[9]Resultado!$C$19</f>
         <v/>
       </c>
       <c r="H19" s="58">
-        <f>+[11]Resultado!$Y$19</f>
+        <f>+[10]Resultado!$Y$19</f>
         <v/>
       </c>
       <c r="I19" s="58">
+        <f>+[11]Resultado!C19</f>
+        <v/>
+      </c>
+      <c r="J19" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="58">
         <f>+[12]Resultado!C19</f>
         <v/>
       </c>
-      <c r="J19" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="58">
-        <f>+[13]Resultado!C19</f>
-        <v/>
-      </c>
       <c r="L19" s="58" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="58">
-        <f>+'[15]Resultado$'!$AC$19</f>
+        <f>+'[14]Resultado$'!$AC$19</f>
         <v/>
       </c>
       <c r="N19" s="96" t="n"/>
@@ -14832,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="58">
-        <f>-[16]Resultado!$AI$20</f>
+        <f>-[15]Resultado!$AI$20</f>
         <v/>
       </c>
       <c r="R19" s="58" t="n">
@@ -14860,28 +13891,28 @@
         <v/>
       </c>
       <c r="Z19" s="106">
-        <f>+'[15]Resultado$'!$AD$19</f>
+        <f>+'[14]Resultado$'!$AD$19</f>
         <v/>
       </c>
       <c r="AA19" s="106">
-        <f>+'[15]Resultado$'!$AE$19</f>
+        <f>+'[14]Resultado$'!$AE$19</f>
         <v/>
       </c>
       <c r="AB19" s="106">
-        <f>+'[15]Resultado$'!$AF$19</f>
+        <f>+'[14]Resultado$'!$AF$19</f>
         <v/>
       </c>
       <c r="AC19" s="106" t="n"/>
       <c r="AD19" s="107">
-        <f>+'[20]6220001 Utilidades empresas rel'!$N$17</f>
+        <f>+'[19]6220001 Utilidades empresas rel'!$N$17</f>
         <v/>
       </c>
       <c r="AE19" s="107">
-        <f>+'[20]6220001 Utilidades empresas rel'!$N$16</f>
+        <f>+'[19]6220001 Utilidades empresas rel'!$N$16</f>
         <v/>
       </c>
       <c r="AF19" s="35">
-        <f>-'[21]5220001 Perdidas empresas relac'!$M$15</f>
+        <f>-'[20]5220001 Perdidas empresas relac'!$M$15</f>
         <v/>
       </c>
       <c r="AI19" s="35">
@@ -14929,44 +13960,44 @@
       </c>
       <c r="B21" s="49" t="n"/>
       <c r="C21" s="50">
-        <f>+[7]Resultado!$C$29</f>
+        <f>+[6]Resultado!$C$29</f>
         <v/>
       </c>
       <c r="D21" s="50">
-        <f>+[8]Resultado!C21</f>
+        <f>+[7]Resultado!C21</f>
         <v/>
       </c>
       <c r="E21" s="50">
-        <f>+[16]Resultado!Y21</f>
+        <f>+[15]Resultado!Y21</f>
         <v/>
       </c>
       <c r="F21" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="50">
-        <f>+[10]Resultado!$C$21</f>
+        <f>+[9]Resultado!$C$21</f>
         <v/>
       </c>
       <c r="H21" s="50">
-        <f>+[11]Resultado!$Y$21</f>
+        <f>+[10]Resultado!$Y$21</f>
         <v/>
       </c>
       <c r="I21" s="50">
+        <f>+[11]Resultado!C21</f>
+        <v/>
+      </c>
+      <c r="J21" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="50">
         <f>+[12]Resultado!C21</f>
         <v/>
       </c>
-      <c r="J21" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="50">
-        <f>+[13]Resultado!C21</f>
-        <v/>
-      </c>
       <c r="L21" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M21" s="50">
-        <f>+'[15]Resultado$'!$AC$21</f>
+        <f>+'[14]Resultado$'!$AC$21</f>
         <v/>
       </c>
       <c r="N21" s="96" t="n"/>
@@ -15036,44 +14067,44 @@
       </c>
       <c r="B23" s="49" t="n"/>
       <c r="C23" s="50">
-        <f>+[7]Resultado!$C$31</f>
+        <f>+[6]Resultado!$C$31</f>
         <v/>
       </c>
       <c r="D23" s="50">
-        <f>+[8]Resultado!C23</f>
+        <f>+[7]Resultado!C23</f>
         <v/>
       </c>
       <c r="E23" s="50">
-        <f>+[16]Resultado!Y23</f>
+        <f>+[15]Resultado!Y23</f>
         <v/>
       </c>
       <c r="F23" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="50">
-        <f>+[10]Resultado!$C$23</f>
+        <f>+[9]Resultado!$C$23</f>
         <v/>
       </c>
       <c r="H23" s="50">
-        <f>+[11]Resultado!$Y$23</f>
+        <f>+[10]Resultado!$Y$23</f>
         <v/>
       </c>
       <c r="I23" s="50">
+        <f>+[11]Resultado!C23</f>
+        <v/>
+      </c>
+      <c r="J23" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="50">
         <f>+[12]Resultado!C23</f>
         <v/>
       </c>
-      <c r="J23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="50">
-        <f>+[13]Resultado!C23</f>
-        <v/>
-      </c>
       <c r="L23" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="50">
-        <f>+'[15]Resultado$'!$AC$23</f>
+        <f>+'[14]Resultado$'!$AC$23</f>
         <v/>
       </c>
       <c r="N23" s="96" t="n"/>
@@ -15137,44 +14168,44 @@
       </c>
       <c r="B25" s="49" t="n"/>
       <c r="C25" s="50">
-        <f>+[7]Resultado!$C$33</f>
+        <f>+[6]Resultado!$C$33</f>
         <v/>
       </c>
       <c r="D25" s="50">
-        <f>+[8]Resultado!C25</f>
+        <f>+[7]Resultado!C25</f>
         <v/>
       </c>
       <c r="E25" s="50">
-        <f>+[16]Resultado!Y25</f>
+        <f>+[15]Resultado!Y25</f>
         <v/>
       </c>
       <c r="F25" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="50">
-        <f>+[10]Resultado!$C$25</f>
+        <f>+[9]Resultado!$C$25</f>
         <v/>
       </c>
       <c r="H25" s="50">
-        <f>+[11]Resultado!$Y$25</f>
+        <f>+[10]Resultado!$Y$25</f>
         <v/>
       </c>
       <c r="I25" s="50">
+        <f>+[11]Resultado!C25</f>
+        <v/>
+      </c>
+      <c r="J25" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="50">
         <f>+[12]Resultado!C25</f>
         <v/>
       </c>
-      <c r="J25" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="50">
-        <f>+[13]Resultado!C25</f>
-        <v/>
-      </c>
       <c r="L25" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M25" s="50">
-        <f>+'[15]Resultado$'!$AC$25</f>
+        <f>+'[14]Resultado$'!$AC$25</f>
         <v/>
       </c>
       <c r="N25" s="96" t="n"/>
@@ -15245,44 +14276,44 @@
       </c>
       <c r="B27" s="49" t="n"/>
       <c r="C27" s="50">
-        <f>+[7]Resultado!$C$35</f>
+        <f>+[6]Resultado!$C$35</f>
         <v/>
       </c>
       <c r="D27" s="50">
-        <f>+[8]Resultado!C27</f>
+        <f>+[7]Resultado!C27</f>
         <v/>
       </c>
       <c r="E27" s="50">
-        <f>+[16]Resultado!Y27</f>
+        <f>+[15]Resultado!Y27</f>
         <v/>
       </c>
       <c r="F27" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="50">
-        <f>+[10]Resultado!$C$27</f>
+        <f>+[9]Resultado!$C$27</f>
         <v/>
       </c>
       <c r="H27" s="50">
-        <f>+[11]Resultado!$Y$27</f>
+        <f>+[10]Resultado!$Y$27</f>
         <v/>
       </c>
       <c r="I27" s="50">
+        <f>+[11]Resultado!C27</f>
+        <v/>
+      </c>
+      <c r="J27" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="50">
         <f>+[12]Resultado!C27</f>
         <v/>
       </c>
-      <c r="J27" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="50">
-        <f>+[13]Resultado!C27</f>
-        <v/>
-      </c>
       <c r="L27" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="50">
-        <f>+'[15]Resultado$'!$AC$27</f>
+        <f>+'[14]Resultado$'!$AC$27</f>
         <v/>
       </c>
       <c r="N27" s="96" t="n"/>
@@ -15475,44 +14506,44 @@
       </c>
       <c r="B31" s="49" t="n"/>
       <c r="C31" s="50">
-        <f>+[7]Resultado!$C$39</f>
+        <f>+[6]Resultado!$C$39</f>
         <v/>
       </c>
       <c r="D31" s="50">
-        <f>+[8]Resultado!C31</f>
+        <f>+[7]Resultado!C31</f>
         <v/>
       </c>
       <c r="E31" s="50">
-        <f>+[16]Resultado!Y31</f>
+        <f>+[15]Resultado!Y31</f>
         <v/>
       </c>
       <c r="F31" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="50">
-        <f>+[10]Resultado!$C$31</f>
+        <f>+[9]Resultado!$C$31</f>
         <v/>
       </c>
       <c r="H31" s="50">
-        <f>+[11]Resultado!$Y$31</f>
+        <f>+[10]Resultado!$Y$31</f>
         <v/>
       </c>
       <c r="I31" s="50">
+        <f>+[11]Resultado!C31</f>
+        <v/>
+      </c>
+      <c r="J31" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="50">
         <f>+[12]Resultado!C31</f>
         <v/>
       </c>
-      <c r="J31" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="50">
-        <f>+[13]Resultado!C31</f>
-        <v/>
-      </c>
       <c r="L31" s="50" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="50">
-        <f>+'[15]Resultado$'!$AC$31</f>
+        <f>+'[14]Resultado$'!$AC$31</f>
         <v/>
       </c>
       <c r="N31" s="96" t="n"/>
@@ -15713,18 +14744,18 @@
         <v/>
       </c>
       <c r="E35" s="50">
-        <f>+[16]Resultado!Y35</f>
+        <f>+[15]Resultado!Y35</f>
         <v/>
       </c>
       <c r="F35" s="50" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="50">
-        <f>+[10]Resultado!$C$33</f>
+        <f>+[9]Resultado!$C$33</f>
         <v/>
       </c>
       <c r="H35" s="50">
-        <f>+[11]Resultado!$Y$35</f>
+        <f>+[10]Resultado!$Y$35</f>
         <v/>
       </c>
       <c r="I35" s="50">
@@ -15742,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="50">
-        <f>+'[15]Resultado$'!$AC$35</f>
+        <f>+'[14]Resultado$'!$AC$35</f>
         <v/>
       </c>
       <c r="N35" s="99" t="n"/>
@@ -15787,7 +14818,7 @@
         <v/>
       </c>
       <c r="AB35" s="36">
-        <f>+[6]Resultado!$AG$35</f>
+        <f>+[5]Resultado!$AG$35</f>
         <v/>
       </c>
     </row>
@@ -15830,7 +14861,7 @@
       </c>
       <c r="AA36" s="109" t="n"/>
       <c r="AB36" s="110">
-        <f>+[6]Resultado!$AG$36</f>
+        <f>+[5]Resultado!$AG$36</f>
         <v/>
       </c>
       <c r="AC36" s="103" t="inlineStr">
@@ -15839,7 +14870,7 @@
         </is>
       </c>
       <c r="AD36" s="109">
-        <f>+'[5]Resultado$'!$AD$36</f>
+        <f>+'[4]Resultado$'!$AD$36</f>
         <v/>
       </c>
       <c r="AE36" s="109" t="n"/>
@@ -15868,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="50">
-        <f>+[16]Resultado!Y37</f>
+        <f>+[15]Resultado!Y37</f>
         <v/>
       </c>
       <c r="F37" s="50" t="n">
@@ -15879,7 +14910,7 @@
         <v/>
       </c>
       <c r="H37" s="50">
-        <f>+[11]Resultado!$Y$37</f>
+        <f>+[10]Resultado!$Y$37</f>
         <v/>
       </c>
       <c r="I37" s="50" t="n">
@@ -15895,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="50">
-        <f>+'[15]Resultado$'!$AC$37</f>
+        <f>+'[14]Resultado$'!$AC$37</f>
         <v/>
       </c>
       <c r="N37" s="98" t="n"/>
@@ -15904,7 +14935,7 @@
       </c>
       <c r="P37" s="58" t="n"/>
       <c r="Q37" s="58">
-        <f>-[16]Resultado!$AH$37</f>
+        <f>-[15]Resultado!$AH$37</f>
         <v/>
       </c>
       <c r="R37" s="58" t="n"/>
@@ -15916,7 +14947,7 @@
       <c r="U37" s="58" t="n"/>
       <c r="V37" s="58" t="n"/>
       <c r="W37" s="58">
-        <f>-M37+'[15]Resultado$'!$AD$37</f>
+        <f>-M37+'[14]Resultado$'!$AD$37</f>
         <v/>
       </c>
       <c r="X37" s="98" t="n"/>
@@ -15930,15 +14961,15 @@
       </c>
       <c r="AA37" s="112" t="n"/>
       <c r="AB37" s="113">
-        <f>+[16]Resultado!$AG$37</f>
+        <f>+[15]Resultado!$AG$37</f>
         <v/>
       </c>
       <c r="AC37" s="113">
-        <f>+[6]Resultado!$AD$37</f>
+        <f>+[5]Resultado!$AD$37</f>
         <v/>
       </c>
       <c r="AD37" s="113">
-        <f>+'[14]Resultado$'!$AD$37</f>
+        <f>+'[13]Resultado$'!$AD$37</f>
         <v/>
       </c>
       <c r="AE37" s="112" t="n"/>
@@ -16488,40 +15519,40 @@
         </is>
       </c>
       <c r="D50" s="82">
-        <f>+'[20]6220001 Utilidades empresas rel'!$N$13</f>
+        <f>+'[19]6220001 Utilidades empresas rel'!$N$13</f>
         <v/>
       </c>
       <c r="E50" s="82">
-        <f>-'[21]5220001 Perdidas empresas relac'!$M$13</f>
+        <f>-'[20]5220001 Perdidas empresas relac'!$M$13</f>
         <v/>
       </c>
       <c r="F50" s="82" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="82">
-        <f>+'[20]6220001 Utilidades empresas rel'!$N$14</f>
+        <f>+'[19]6220001 Utilidades empresas rel'!$N$14</f>
         <v/>
       </c>
       <c r="H50" s="82">
-        <f>+'[20]6220001 Utilidades empresas rel'!$N$15</f>
+        <f>+'[19]6220001 Utilidades empresas rel'!$N$15</f>
         <v/>
       </c>
       <c r="I50" s="82">
-        <f>-'[21]5220001 Perdidas empresas relac'!$M$12</f>
+        <f>-'[20]5220001 Perdidas empresas relac'!$M$12</f>
         <v/>
       </c>
       <c r="J50" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K50" s="82">
-        <f>+'[20]6220001 Utilidades empresas rel'!$N$12</f>
+        <f>+'[19]6220001 Utilidades empresas rel'!$N$12</f>
         <v/>
       </c>
       <c r="L50" s="82" t="n">
         <v>0</v>
       </c>
       <c r="M50" s="82">
-        <f>-'[21]5220001 Perdidas empresas relac'!$M$14</f>
+        <f>-'[20]5220001 Perdidas empresas relac'!$M$14</f>
         <v/>
       </c>
       <c r="O50" s="47">
@@ -16609,22 +15640,22 @@
     </row>
     <row r="54">
       <c r="D54" s="47">
-        <f>+[16]Resultado!$AG$20</f>
+        <f>+[15]Resultado!$AG$20</f>
         <v/>
       </c>
       <c r="G54" s="47">
-        <f>+[16]Resultado!$Z$20</f>
+        <f>+[15]Resultado!$Z$20</f>
         <v/>
       </c>
       <c r="H54" s="34" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="47">
-        <f>+[16]Resultado!$AD$20</f>
+        <f>+[15]Resultado!$AD$20</f>
         <v/>
       </c>
       <c r="K54" s="47">
-        <f>+[16]Resultado!$AE$20</f>
+        <f>+[15]Resultado!$AE$20</f>
         <v/>
       </c>
       <c r="O54" s="47">
@@ -24179,7 +23210,7 @@
         </is>
       </c>
       <c r="C3" s="2">
-        <f>+[4]Ctas!$D$193</f>
+        <f>+[3]Ctas!$D$193</f>
         <v/>
       </c>
       <c r="D3" s="23" t="n"/>
@@ -24208,7 +23239,7 @@
         </is>
       </c>
       <c r="C4" s="2">
-        <f>+[4]Ctas!$D$196</f>
+        <f>+[3]Ctas!$D$196</f>
         <v/>
       </c>
       <c r="D4" s="24" t="n">
@@ -24241,7 +23272,7 @@
         </is>
       </c>
       <c r="C5" s="2">
-        <f>+[4]Ctas!$D$197</f>
+        <f>+[3]Ctas!$D$197</f>
         <v/>
       </c>
       <c r="D5" s="2" t="n">
@@ -24274,7 +23305,7 @@
         </is>
       </c>
       <c r="C6" s="2">
-        <f>+[4]Ctas!$D$198</f>
+        <f>+[3]Ctas!$D$198</f>
         <v/>
       </c>
       <c r="D6" s="2" t="n">
@@ -24369,7 +23400,7 @@
         </is>
       </c>
       <c r="C9" s="2">
-        <f>+[4]Ctas!$D$206</f>
+        <f>+[3]Ctas!$D$206</f>
         <v/>
       </c>
       <c r="D9" s="2" t="n">
@@ -24401,7 +23432,7 @@
         </is>
       </c>
       <c r="C10" s="2">
-        <f>+[4]Ctas!$D$207</f>
+        <f>+[3]Ctas!$D$207</f>
         <v/>
       </c>
       <c r="D10" s="2" t="n"/>
@@ -24460,7 +23491,7 @@
         </is>
       </c>
       <c r="C12" s="2">
-        <f>+[4]Ctas!$D$210</f>
+        <f>+[3]Ctas!$D$210</f>
         <v/>
       </c>
       <c r="D12" s="2" t="n"/>
@@ -24488,7 +23519,7 @@
         </is>
       </c>
       <c r="C13" s="2">
-        <f>+[4]Ctas!$D$213</f>
+        <f>+[3]Ctas!$D$213</f>
         <v/>
       </c>
       <c r="D13" s="2" t="n">
@@ -24555,7 +23586,7 @@
         </is>
       </c>
       <c r="C15" s="2">
-        <f>+[4]Ctas!$D$217</f>
+        <f>+[3]Ctas!$D$217</f>
         <v/>
       </c>
       <c r="D15" s="2" t="n"/>
@@ -24583,7 +23614,7 @@
         </is>
       </c>
       <c r="C16" s="2">
-        <f>+[4]Ctas!$D$219</f>
+        <f>+[3]Ctas!$D$219</f>
         <v/>
       </c>
       <c r="D16" s="2" t="n">
@@ -24622,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <f>+'[17]Estado$'!$D$215</f>
+        <f>+'[16]Estado$'!$D$215</f>
         <v/>
       </c>
       <c r="E17" s="2">
@@ -24656,7 +23687,7 @@
         </is>
       </c>
       <c r="C18" s="2">
-        <f>+[4]Ctas!$D$226</f>
+        <f>+[3]Ctas!$D$226</f>
         <v/>
       </c>
       <c r="D18" s="2" t="n">
@@ -24688,7 +23719,7 @@
         </is>
       </c>
       <c r="C19" s="2">
-        <f>+[4]Ctas!$D$230</f>
+        <f>+[3]Ctas!$D$230</f>
         <v/>
       </c>
       <c r="D19" s="2" t="n"/>
@@ -24741,7 +23772,7 @@
         </is>
       </c>
       <c r="C21" s="2">
-        <f>+[4]Ctas!$D$223</f>
+        <f>+[3]Ctas!$D$223</f>
         <v/>
       </c>
       <c r="D21" s="2" t="n"/>
@@ -24769,7 +23800,7 @@
         </is>
       </c>
       <c r="C22" s="2">
-        <f>+[4]Ctas!$D$228</f>
+        <f>+[3]Ctas!$D$228</f>
         <v/>
       </c>
       <c r="D22" s="2" t="n"/>
@@ -24797,7 +23828,7 @@
         </is>
       </c>
       <c r="C23" s="2">
-        <f>+[4]Ctas!$D$232</f>
+        <f>+[3]Ctas!$D$232</f>
         <v/>
       </c>
       <c r="D23" s="2" t="n"/>
@@ -24825,7 +23856,7 @@
         </is>
       </c>
       <c r="C24" s="2">
-        <f>+[4]Ctas!$D$231</f>
+        <f>+[3]Ctas!$D$231</f>
         <v/>
       </c>
       <c r="D24" s="2" t="n"/>
@@ -25071,7 +24102,7 @@
     </row>
     <row r="34">
       <c r="C34" s="2">
-        <f>+[4]Ctas!$D$232</f>
+        <f>+[3]Ctas!$D$232</f>
         <v/>
       </c>
       <c r="D34" s="2" t="n"/>
@@ -25251,7 +24282,7 @@
         </is>
       </c>
       <c r="C40" s="2">
-        <f>+[4]Ctas!$D$448</f>
+        <f>+[3]Ctas!$D$448</f>
         <v/>
       </c>
       <c r="M40" s="2">
@@ -25271,7 +24302,7 @@
         </is>
       </c>
       <c r="C41" s="2">
-        <f>+[4]Ctas!$D$449</f>
+        <f>+[3]Ctas!$D$449</f>
         <v/>
       </c>
       <c r="M41" s="2" t="n"/>
@@ -25288,7 +24319,7 @@
         </is>
       </c>
       <c r="C42" s="2">
-        <f>+[4]Ctas!$D$450</f>
+        <f>+[3]Ctas!$D$450</f>
         <v/>
       </c>
       <c r="M42" s="2" t="n"/>
@@ -25305,7 +24336,7 @@
         </is>
       </c>
       <c r="C43" s="2">
-        <f>+[4]Ctas!$D$451</f>
+        <f>+[3]Ctas!$D$451</f>
         <v/>
       </c>
       <c r="M43" s="2" t="n"/>
@@ -25322,7 +24353,7 @@
         </is>
       </c>
       <c r="C44" s="2">
-        <f>+[4]Ctas!$D$452</f>
+        <f>+[3]Ctas!$D$452</f>
         <v/>
       </c>
       <c r="E44" s="2">
@@ -25350,7 +24381,7 @@
         </is>
       </c>
       <c r="C45" s="2">
-        <f>+[4]Ctas!$D$454</f>
+        <f>+[3]Ctas!$D$454</f>
         <v/>
       </c>
       <c r="E45" s="2" t="n"/>
@@ -25374,7 +24405,7 @@
         </is>
       </c>
       <c r="C46" s="2">
-        <f>+[4]Ctas!$D$462</f>
+        <f>+[3]Ctas!$D$462</f>
         <v/>
       </c>
       <c r="H46" s="2" t="n"/>
@@ -25395,7 +24426,7 @@
         </is>
       </c>
       <c r="C47" s="2">
-        <f>+[4]Ctas!$D$463</f>
+        <f>+[3]Ctas!$D$463</f>
         <v/>
       </c>
       <c r="M47" s="2">
@@ -25415,7 +24446,7 @@
         </is>
       </c>
       <c r="C48" s="2">
-        <f>+[4]Ctas!$D$465</f>
+        <f>+[3]Ctas!$D$465</f>
         <v/>
       </c>
       <c r="M48" s="2" t="n"/>
@@ -25432,7 +24463,7 @@
         </is>
       </c>
       <c r="C49" s="2">
-        <f>+[4]Ctas!$D$466</f>
+        <f>+[3]Ctas!$D$466</f>
         <v/>
       </c>
       <c r="M49" s="2" t="n"/>
@@ -25449,7 +24480,7 @@
         </is>
       </c>
       <c r="C50" s="2">
-        <f>+[4]Ctas!$D$467</f>
+        <f>+[3]Ctas!$D$467</f>
         <v/>
       </c>
       <c r="M50" s="2" t="n"/>
@@ -25466,7 +24497,7 @@
         </is>
       </c>
       <c r="C51" s="2">
-        <f>+[4]Ctas!$D$469</f>
+        <f>+[3]Ctas!$D$469</f>
         <v/>
       </c>
       <c r="M51" s="2" t="n"/>
@@ -25483,7 +24514,7 @@
         </is>
       </c>
       <c r="C52" s="2">
-        <f>+[4]Ctas!$D$471</f>
+        <f>+[3]Ctas!$D$471</f>
         <v/>
       </c>
       <c r="M52" s="2" t="n"/>
@@ -25500,7 +24531,7 @@
         </is>
       </c>
       <c r="C53" s="2">
-        <f>+[4]Ctas!$D$473</f>
+        <f>+[3]Ctas!$D$473</f>
         <v/>
       </c>
       <c r="M53" s="2">
@@ -27970,7 +27001,7 @@
         </is>
       </c>
       <c r="C3" s="2">
-        <f>+[4]Ctas!$D$240</f>
+        <f>+[3]Ctas!$D$240</f>
         <v/>
       </c>
       <c r="D3" s="2" t="n">
@@ -28054,7 +27085,7 @@
         </is>
       </c>
       <c r="C5" s="2">
-        <f>+[4]Ctas!$D$237</f>
+        <f>+[3]Ctas!$D$237</f>
         <v/>
       </c>
       <c r="D5" s="2" t="n">
@@ -28304,7 +27335,7 @@
         </is>
       </c>
       <c r="C11" s="2">
-        <f>+[4]Ctas!$D$246</f>
+        <f>+[3]Ctas!$D$246</f>
         <v/>
       </c>
       <c r="D11" s="2" t="n"/>
@@ -28325,7 +27356,7 @@
         </is>
       </c>
       <c r="C12" s="2">
-        <f>+[4]Ctas!$D$249</f>
+        <f>+[3]Ctas!$D$249</f>
         <v/>
       </c>
       <c r="D12" s="2" t="n">

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B6" s="122" t="n"/>
       <c r="C6" s="129" t="n">
-        <v>3991436469</v>
+        <v>0</v>
       </c>
       <c r="D6" s="129" t="n">
         <v>3117802</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="B7" s="122" t="n"/>
       <c r="C7" s="129" t="n">
-        <v>0</v>
+        <v>3255872574.56</v>
       </c>
       <c r="D7" s="129" t="n">
         <v>0</v>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B8" s="122" t="n"/>
       <c r="C8" s="129" t="n">
-        <v>28670407</v>
+        <v>0</v>
       </c>
       <c r="D8" s="129" t="n">
         <v>0</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B9" s="122" t="n"/>
       <c r="C9" s="129" t="n">
-        <v>544775395</v>
+        <v>2982274761.46</v>
       </c>
       <c r="D9" s="129" t="n">
         <v>2340104</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B10" s="131" t="n"/>
       <c r="C10" s="132" t="n">
-        <v>0</v>
+        <v>60073559317.1884</v>
       </c>
       <c r="D10" s="132" t="n">
         <v>0</v>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="B11" s="122" t="n"/>
       <c r="C11" s="129" t="n">
-        <v>53135152</v>
+        <v>0</v>
       </c>
       <c r="D11" s="129" t="n">
         <v>0</v>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B13" s="122" t="n"/>
       <c r="C13" s="129" t="n">
-        <v>668517589</v>
+        <v>0</v>
       </c>
       <c r="D13" s="129" t="n">
         <v>0</v>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B15" s="122" t="n"/>
       <c r="C15" s="129" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="D15" s="129" t="n">
         <v>0</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B16" s="122" t="n"/>
       <c r="C16" s="129" t="n">
-        <v>0</v>
+        <v>10397155079.081</v>
       </c>
       <c r="D16" s="129" t="n">
         <v>0</v>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B20" s="122" t="n"/>
       <c r="C20" s="139" t="n">
-        <v>0</v>
+        <v>5414956957.90246</v>
       </c>
       <c r="D20" s="139" t="n">
         <v>0</v>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B21" s="122" t="n"/>
       <c r="C21" s="129" t="n">
-        <v>7244332690</v>
+        <v>1080749265</v>
       </c>
       <c r="D21" s="129" t="n">
         <v>0</v>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B22" s="122" t="n"/>
       <c r="C22" s="129" t="n">
-        <v>0</v>
+        <v>2322931563</v>
       </c>
       <c r="D22" s="129" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="B23" s="122" t="n"/>
       <c r="C23" s="142" t="n">
-        <v>3706892400</v>
+        <v>17700987132.42</v>
       </c>
       <c r="D23" s="142" t="n">
         <v>212649967</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="B24" s="122" t="n"/>
       <c r="C24" s="144" t="n">
-        <v>66927963658</v>
+        <v>0</v>
       </c>
       <c r="D24" s="144" t="n">
         <v>0</v>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="B25" s="122" t="n"/>
       <c r="C25" s="129" t="n">
-        <v>0</v>
+        <v>2106581917.46</v>
       </c>
       <c r="D25" s="129" t="n">
         <v>0</v>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="B26" s="122" t="n"/>
       <c r="C26" s="129" t="n">
-        <v>0</v>
+        <v>2366980990</v>
       </c>
       <c r="D26" s="129" t="n">
         <v>0</v>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B27" s="122" t="n"/>
       <c r="C27" s="129" t="n">
-        <v>7219481303</v>
+        <v>52410709330.2726</v>
       </c>
       <c r="D27" s="129" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B28" s="122" t="n"/>
       <c r="C28" s="129" t="n">
-        <v>0</v>
+        <v>112484268647.461</v>
       </c>
       <c r="D28" s="129" t="n">
         <v>0</v>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B29" s="122" t="n"/>
       <c r="C29" s="129" t="n">
-        <v>1221545875</v>
+        <v/>
       </c>
       <c r="D29" s="129" t="n">
         <v>0</v>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="B30" s="122" t="n"/>
       <c r="C30" s="129" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="D30" s="129" t="n">
         <v>7393024</v>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B37" s="122" t="n"/>
       <c r="C37" s="150" t="n">
-        <v>409483261</v>
+        <v>1528704399</v>
       </c>
       <c r="D37" s="150" t="n">
         <v>0</v>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="B38" s="122" t="n"/>
       <c r="C38" s="129" t="n">
-        <v>556915101</v>
+        <v>1329297676</v>
       </c>
       <c r="D38" s="129" t="n">
         <v>1099353</v>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="B39" s="152" t="n"/>
       <c r="C39" s="142" t="n">
-        <v>0</v>
+        <v>1914548429.67</v>
       </c>
       <c r="D39" s="142" t="n">
         <v>0</v>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="B40" s="122" t="n"/>
       <c r="C40" s="129" t="n">
-        <v>0</v>
+        <v>21211340836.73</v>
       </c>
       <c r="D40" s="129" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="B41" s="122" t="n"/>
       <c r="C41" s="129" t="n">
-        <v>74649635</v>
+        <v>0</v>
       </c>
       <c r="D41" s="129" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="B42" s="122" t="n"/>
       <c r="C42" s="154" t="n">
-        <v>0</v>
+        <v>19739852323.73</v>
       </c>
       <c r="D42" s="154" t="n">
         <v>0</v>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="B43" s="122" t="n"/>
       <c r="C43" s="129" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="D43" s="129" t="n">
         <v>0</v>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="B45" s="122" t="n"/>
       <c r="C45" s="129" t="n">
-        <v>0</v>
+        <v>908295196</v>
       </c>
       <c r="D45" s="129" t="n">
         <v>0</v>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="B48" s="158" t="n"/>
       <c r="C48" s="150" t="n">
-        <v>783863096</v>
+        <v>2571353491</v>
       </c>
       <c r="D48" s="150" t="n">
         <v>0</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B50" s="122" t="n"/>
       <c r="C50" s="142" t="n">
-        <v>6473472320</v>
+        <v>1183222441</v>
       </c>
       <c r="D50" s="142" t="n">
         <v>91754</v>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="B51" s="122" t="n"/>
       <c r="C51" s="129" t="n">
-        <v>0</v>
+        <v>9096048867.27738</v>
       </c>
       <c r="D51" s="129" t="n">
         <v>0</v>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B52" s="122" t="n"/>
       <c r="C52" s="129" t="n">
-        <v>949215459</v>
+        <v>30307389704.0074</v>
       </c>
       <c r="D52" s="129" t="n">
         <v>0</v>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B53" s="160" t="n"/>
       <c r="C53" s="154" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="D53" s="154" t="n">
         <v>0</v>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="B54" s="122" t="n"/>
       <c r="C54" s="129" t="n">
-        <v>180959611</v>
+        <v>28743629969</v>
       </c>
       <c r="D54" s="129" t="n">
         <v>0</v>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B58" s="122" t="n"/>
       <c r="C58" s="129" t="n">
-        <v>28743629969</v>
+        <v>0</v>
       </c>
       <c r="D58" s="129" t="n">
         <v>89385225</v>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B59" s="122" t="n"/>
       <c r="C59" s="129" t="n">
-        <v>51023010062</v>
+        <v>-8280773107.3422</v>
       </c>
       <c r="D59" s="129" t="n">
         <v>98349992</v>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="B60" s="122" t="n"/>
       <c r="C60" s="129" t="n">
-        <v>0</v>
+        <v>82583297861.65781</v>
       </c>
       <c r="D60" s="129" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B61" s="122" t="n"/>
       <c r="C61" s="129" t="n">
-        <v>0</v>
+        <v>-406418917.791066</v>
       </c>
       <c r="D61" s="129" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="B62" s="122" t="n"/>
       <c r="C62" s="129" t="n">
-        <v>0</v>
+        <v>82903158354.8102</v>
       </c>
       <c r="D62" s="129" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B63" s="122" t="n"/>
       <c r="C63" s="129" t="n">
-        <v>2411552424</v>
+        <v>112484268647.874</v>
       </c>
       <c r="D63" s="129" t="n">
         <v>36574573</v>

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B6" s="122" t="n"/>
       <c r="C6" s="129" t="n">
-        <v>0</v>
+        <v>3991436469</v>
       </c>
       <c r="D6" s="129" t="n">
         <v>3117802</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="B7" s="122" t="n"/>
       <c r="C7" s="129" t="n">
-        <v>3255872574.56</v>
+        <v>0</v>
       </c>
       <c r="D7" s="129" t="n">
         <v>0</v>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B8" s="122" t="n"/>
       <c r="C8" s="129" t="n">
-        <v>0</v>
+        <v>28670407</v>
       </c>
       <c r="D8" s="129" t="n">
         <v>0</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B9" s="122" t="n"/>
       <c r="C9" s="129" t="n">
-        <v>2982274761.46</v>
+        <v>544775395</v>
       </c>
       <c r="D9" s="129" t="n">
         <v>2340104</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B10" s="131" t="n"/>
       <c r="C10" s="132" t="n">
-        <v>60073559317.1884</v>
+        <v>0</v>
       </c>
       <c r="D10" s="132" t="n">
         <v>0</v>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="B11" s="122" t="n"/>
       <c r="C11" s="129" t="n">
-        <v>0</v>
+        <v>53135152</v>
       </c>
       <c r="D11" s="129" t="n">
         <v>0</v>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B13" s="122" t="n"/>
       <c r="C13" s="129" t="n">
-        <v>0</v>
+        <v>668517589</v>
       </c>
       <c r="D13" s="129" t="n">
         <v>0</v>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B15" s="122" t="n"/>
       <c r="C15" s="129" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D15" s="129" t="n">
         <v>0</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B16" s="122" t="n"/>
       <c r="C16" s="129" t="n">
-        <v>10397155079.081</v>
+        <v>0</v>
       </c>
       <c r="D16" s="129" t="n">
         <v>0</v>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B20" s="122" t="n"/>
       <c r="C20" s="139" t="n">
-        <v>5414956957.90246</v>
+        <v>0</v>
       </c>
       <c r="D20" s="139" t="n">
         <v>0</v>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B21" s="122" t="n"/>
       <c r="C21" s="129" t="n">
-        <v>1080749265</v>
+        <v>7244332690</v>
       </c>
       <c r="D21" s="129" t="n">
         <v>0</v>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B22" s="122" t="n"/>
       <c r="C22" s="129" t="n">
-        <v>2322931563</v>
+        <v>0</v>
       </c>
       <c r="D22" s="129" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="B23" s="122" t="n"/>
       <c r="C23" s="142" t="n">
-        <v>17700987132.42</v>
+        <v>3706892400</v>
       </c>
       <c r="D23" s="142" t="n">
         <v>212649967</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="B24" s="122" t="n"/>
       <c r="C24" s="144" t="n">
-        <v>0</v>
+        <v>66927963658</v>
       </c>
       <c r="D24" s="144" t="n">
         <v>0</v>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="B25" s="122" t="n"/>
       <c r="C25" s="129" t="n">
-        <v>2106581917.46</v>
+        <v>0</v>
       </c>
       <c r="D25" s="129" t="n">
         <v>0</v>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="B26" s="122" t="n"/>
       <c r="C26" s="129" t="n">
-        <v>2366980990</v>
+        <v>0</v>
       </c>
       <c r="D26" s="129" t="n">
         <v>0</v>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B27" s="122" t="n"/>
       <c r="C27" s="129" t="n">
-        <v>52410709330.2726</v>
+        <v>7219481303</v>
       </c>
       <c r="D27" s="129" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B28" s="122" t="n"/>
       <c r="C28" s="129" t="n">
-        <v>112484268647.461</v>
+        <v>0</v>
       </c>
       <c r="D28" s="129" t="n">
         <v>0</v>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B29" s="122" t="n"/>
       <c r="C29" s="129" t="n">
-        <v/>
+        <v>1221545875</v>
       </c>
       <c r="D29" s="129" t="n">
         <v>0</v>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="B30" s="122" t="n"/>
       <c r="C30" s="129" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D30" s="129" t="n">
         <v>7393024</v>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B37" s="122" t="n"/>
       <c r="C37" s="150" t="n">
-        <v>1528704399</v>
+        <v>409483261</v>
       </c>
       <c r="D37" s="150" t="n">
         <v>0</v>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="B38" s="122" t="n"/>
       <c r="C38" s="129" t="n">
-        <v>1329297676</v>
+        <v>556915101</v>
       </c>
       <c r="D38" s="129" t="n">
         <v>1099353</v>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="B39" s="152" t="n"/>
       <c r="C39" s="142" t="n">
-        <v>1914548429.67</v>
+        <v>0</v>
       </c>
       <c r="D39" s="142" t="n">
         <v>0</v>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="B40" s="122" t="n"/>
       <c r="C40" s="129" t="n">
-        <v>21211340836.73</v>
+        <v>0</v>
       </c>
       <c r="D40" s="129" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="B41" s="122" t="n"/>
       <c r="C41" s="129" t="n">
-        <v>0</v>
+        <v>74649635</v>
       </c>
       <c r="D41" s="129" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="B42" s="122" t="n"/>
       <c r="C42" s="154" t="n">
-        <v>19739852323.73</v>
+        <v>0</v>
       </c>
       <c r="D42" s="154" t="n">
         <v>0</v>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="B43" s="122" t="n"/>
       <c r="C43" s="129" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D43" s="129" t="n">
         <v>0</v>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="B45" s="122" t="n"/>
       <c r="C45" s="129" t="n">
-        <v>908295196</v>
+        <v>0</v>
       </c>
       <c r="D45" s="129" t="n">
         <v>0</v>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="B48" s="158" t="n"/>
       <c r="C48" s="150" t="n">
-        <v>2571353491</v>
+        <v>783863096</v>
       </c>
       <c r="D48" s="150" t="n">
         <v>0</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B50" s="122" t="n"/>
       <c r="C50" s="142" t="n">
-        <v>1183222441</v>
+        <v>6473472320</v>
       </c>
       <c r="D50" s="142" t="n">
         <v>91754</v>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="B51" s="122" t="n"/>
       <c r="C51" s="129" t="n">
-        <v>9096048867.27738</v>
+        <v>0</v>
       </c>
       <c r="D51" s="129" t="n">
         <v>0</v>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B52" s="122" t="n"/>
       <c r="C52" s="129" t="n">
-        <v>30307389704.0074</v>
+        <v>949215459</v>
       </c>
       <c r="D52" s="129" t="n">
         <v>0</v>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B53" s="160" t="n"/>
       <c r="C53" s="154" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D53" s="154" t="n">
         <v>0</v>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="B54" s="122" t="n"/>
       <c r="C54" s="129" t="n">
-        <v>28743629969</v>
+        <v>180959611</v>
       </c>
       <c r="D54" s="129" t="n">
         <v>0</v>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B58" s="122" t="n"/>
       <c r="C58" s="129" t="n">
-        <v>0</v>
+        <v>28743629969</v>
       </c>
       <c r="D58" s="129" t="n">
         <v>89385225</v>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B59" s="122" t="n"/>
       <c r="C59" s="129" t="n">
-        <v>-8280773107.3422</v>
+        <v>51023010062</v>
       </c>
       <c r="D59" s="129" t="n">
         <v>98349992</v>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="B60" s="122" t="n"/>
       <c r="C60" s="129" t="n">
-        <v>82583297861.65781</v>
+        <v>0</v>
       </c>
       <c r="D60" s="129" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B61" s="122" t="n"/>
       <c r="C61" s="129" t="n">
-        <v>-406418917.791066</v>
+        <v>0</v>
       </c>
       <c r="D61" s="129" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="B62" s="122" t="n"/>
       <c r="C62" s="129" t="n">
-        <v>82903158354.8102</v>
+        <v>0</v>
       </c>
       <c r="D62" s="129" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B63" s="122" t="n"/>
       <c r="C63" s="129" t="n">
-        <v>112484268647.874</v>
+        <v>2411552424</v>
       </c>
       <c r="D63" s="129" t="n">
         <v>36574573</v>

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -8603,7 +8603,7 @@
       <c r="K6" s="101" t="n"/>
       <c r="L6" s="142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hola buenas </t>
+          <t>200</t>
         </is>
       </c>
       <c r="M6" s="142" t="n">

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7200" tabRatio="590" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7200" tabRatio="590" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Est M$" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,6 +23,13 @@
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Est M$'!$1:$3</definedName>
@@ -47,7 +54,7 @@
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="45">
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -133,13 +140,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <charset val="0"/>
       <color theme="1"/>
@@ -155,6 +155,20 @@
       <name val="Arial"/>
       <charset val="0"/>
       <color theme="0"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="9"/>
     </font>
     <font>
@@ -321,6 +335,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Czcionka tekstu podstawowego"/>
       <charset val="238"/>
       <color indexed="9"/>
@@ -337,7 +358,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill/>
     </fill>
@@ -448,6 +469,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -545,12 +578,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,63 +888,63 @@
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="13"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="13"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="17"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="18"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="17"/>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="19"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="17"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="18"/>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="17"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="19"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="43" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1164,28 +1191,19 @@
     <xf numFmtId="3" fontId="7" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
@@ -1194,19 +1212,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="9" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="15" fillId="9" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1233,10 +1251,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="15" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="15" fillId="15" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1260,16 +1278,16 @@
     <xf numFmtId="3" fontId="10" fillId="17" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1290,13 +1308,13 @@
     <xf numFmtId="3" fontId="10" fillId="13" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="15" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
@@ -1308,10 +1326,10 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="16" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1320,55 +1338,46 @@
     <xf numFmtId="3" fontId="10" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="15" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="15" fillId="17" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="15" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="9" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="17" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1377,7 +1386,22 @@
     <xf numFmtId="3" fontId="10" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="17" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1386,34 +1410,34 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="15" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="15" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="3" fontId="20" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="20" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1437,10 +1461,10 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1461,25 +1485,25 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="49">
@@ -1593,19 +1617,19 @@
     <xf numFmtId="3" fontId="7" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="22" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1623,16 +1647,25 @@
     <xf numFmtId="167" fontId="8" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="15" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="166" fontId="20" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
@@ -1657,9 +1690,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1818,6 +1848,12 @@
 Diferencia VP $77916732
 Menos Dif. Cta. EERR 
 $714</t>
+      </text>
+    </comment>
+    <comment ref="Y22" authorId="0" shapeId="0">
+      <text>
+        <t>Supervisor Contable:
+Ahora es CN Holding, los informes convertidos no viene con el cambio CFIF-CFII</t>
       </text>
     </comment>
     <comment ref="D23" authorId="0" shapeId="0">
@@ -2108,6 +2144,239 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
+      <sheetName val="Estado"/>
+      <sheetName val="Resultado"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="Z20">
+            <v>134532142</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AD20">
+            <v>-2690</v>
+          </cell>
+          <cell r="AE20">
+            <v>106759</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AG20">
+            <v>109473</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="Y35">
+            <v>-265824234</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="Y37">
+            <v>-579106026</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AH37">
+            <v>-577378133</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
+      <sheetName val="Est US$"/>
+      <sheetName val="Res US$"/>
+      <sheetName val="Estado"/>
+      <sheetName val="Resultado"/>
+      <sheetName val="Estado$"/>
+      <sheetName val="Resultado$"/>
+      <sheetName val="CtasCtes"/>
+      <sheetName val="Inv"/>
+      <sheetName val="NoCon"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="23">
+          <cell r="AE23">
+            <v>5719297707.2714</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AL23">
+            <v>135069420.2334</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AN23">
+            <v>666599398.9</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AP23">
+            <v>7873090.3744</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AR23">
+            <v>15339244.9946</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
+      <sheetName val="cta cte "/>
+      <sheetName val="chile films"/>
+      <sheetName val="CCE"/>
+      <sheetName val="Conate II"/>
+      <sheetName val="Global Gyll"/>
+      <sheetName val="Serv Integrales"/>
+      <sheetName val="Serviart"/>
+      <sheetName val="Cta Cte  (Acumuladas Consol)"/>
+      <sheetName val="cta cte  (Ajustes)"/>
+      <sheetName val="TD Ajuste"/>
+      <sheetName val="cta cte  (Final) (Quedan)"/>
+      <sheetName val="Base Datos Ajuste"/>
+      <sheetName val="cta cte  (Ajustes) (Final)"/>
+      <sheetName val="Detalle Cta Cte  Reclasi(Final)"/>
+      <sheetName val="TD Ajuste (Final)"/>
+      <sheetName val="Base Datos Ajuste (Final)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
+      <sheetName val="Inversione  (Acumuladas Consol)"/>
+      <sheetName val="Invers. Ajuste Consol."/>
+      <sheetName val="Invers. que quedan"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="39">
+          <cell r="D39">
+            <v>287360463</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
+      <sheetName val="6220001 Utilidades empresas rel"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="N12">
+            <v>10569132</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>23950208</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>890084326</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="N15">
+            <v>952630657</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
+      <sheetName val="5220001 Perdidas empresas relac"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="M12">
+            <v>2687720</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>144322410</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>562617287</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
@@ -2147,7 +2416,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="37">
+          <cell r="Y37">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2357,6 +2632,54 @@
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
+      <sheetName val="Est US$"/>
+      <sheetName val="Res US$"/>
+      <sheetName val="Estado"/>
+      <sheetName val="Resultado"/>
+      <sheetName val="Estado$"/>
+      <sheetName val="Resultado$"/>
+      <sheetName val="CtasCtes"/>
+      <sheetName val="Inv"/>
+      <sheetName val="NoCon"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="22">
+          <cell r="AE22" t="str">
+            <v>CHF Internacional</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AG22" t="str">
+            <v>CCLicencias</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AL22" t="str">
+            <v>Inv.Andinas</v>
+          </cell>
+          <cell r="AM22" t="str">
+            <v>Cine y Color Intern. Mex.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
       <sheetName val="Estado"/>
       <sheetName val="Estado (2)"/>
       <sheetName val="Resultado"/>
@@ -2418,7 +2741,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -2445,9 +2768,9 @@
       <sheetName val="Segmentos"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="209">
           <cell r="D209">
             <v>1020612</v>
@@ -2469,30 +2792,59 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
+    <sheetNames>
+      <sheetName val="Estado"/>
+      <sheetName val="Resultado"/>
+      <sheetName val="Ctas"/>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Datos"/>
+      <sheetName val="Cta Cte EERR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="C33">
+            <v>1024616468</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -2501,19 +2853,30 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="65">
-          <cell r="AH65">
-            <v>5220283407</v>
+        <row r="23">
+          <cell r="AC23">
+            <v>16800</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="35">
+          <cell r="Y35">
+            <v>1058513792</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="Y37">
+            <v>9112455.5999999</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
     <sheetNames>
@@ -2532,45 +2895,25 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="65">
-          <cell r="AJ65">
-            <v>190403.174203762</v>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="35">
+          <cell r="AC35">
+            <v>-562617047</v>
           </cell>
         </row>
-        <row r="65">
-          <cell r="AN65">
-            <v>2980.10586240337</v>
+        <row r="37">
+          <cell r="AC37">
+            <v>3799056</v>
+          </cell>
+          <cell r="AD37">
+            <v>1540967.37140019</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
-      <sheetName val="Inversione  (Acumuladas Consol)"/>
-      <sheetName val="Invers. Ajuste Consol."/>
-      <sheetName val="Invers. que quedan"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="39">
-          <cell r="D39">
-            <v>287360463</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2869,11 +3212,11 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10:G11"/>
+      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.4571428571429" defaultRowHeight="11.25"/>
@@ -2887,74 +3230,74 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="204" t="inlineStr">
+      <c r="A1" s="203" t="inlineStr">
         <is>
           <t>CHILE FILMS SPA Y  AFILIADAS</t>
         </is>
       </c>
       <c r="B1" s="27" t="n"/>
-      <c r="C1" s="205" t="inlineStr">
+      <c r="C1" s="204" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E1" s="205" t="inlineStr">
+      <c r="E1" s="204" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="204" t="inlineStr">
+      <c r="A2" s="203" t="inlineStr">
         <is>
           <t>Estado Financiero Consolidado</t>
         </is>
       </c>
       <c r="B2" s="30" t="n"/>
-      <c r="C2" s="206" t="n">
+      <c r="C2" s="205" t="n">
         <v>2022</v>
       </c>
-      <c r="E2" s="206" t="n">
+      <c r="E2" s="205" t="n">
         <v>2021</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="207" t="inlineStr">
+      <c r="A3" s="206" t="inlineStr">
         <is>
           <t>Estado de Situación Financiera</t>
         </is>
       </c>
-      <c r="B3" s="208" t="n"/>
-      <c r="C3" s="209" t="inlineStr">
+      <c r="B3" s="207" t="n"/>
+      <c r="C3" s="208" t="inlineStr">
         <is>
           <t>M$</t>
         </is>
       </c>
-      <c r="E3" s="209" t="inlineStr">
+      <c r="E3" s="208" t="inlineStr">
         <is>
           <t>M$</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="210" t="inlineStr">
+      <c r="A4" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">Activos </t>
         </is>
       </c>
-      <c r="B4" s="211" t="n"/>
-      <c r="C4" s="212" t="n"/>
-      <c r="E4" s="212" t="n"/>
+      <c r="B4" s="210" t="n"/>
+      <c r="C4" s="211" t="n"/>
+      <c r="E4" s="211" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="213" t="inlineStr">
+      <c r="A5" s="212" t="inlineStr">
         <is>
           <t>Activos corrientes</t>
         </is>
       </c>
-      <c r="B5" s="214" t="n"/>
-      <c r="C5" s="212" t="n"/>
-      <c r="E5" s="212" t="n"/>
+      <c r="B5" s="213" t="n"/>
+      <c r="C5" s="211" t="n"/>
+      <c r="E5" s="211" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="60" t="inlineStr">
@@ -3076,28 +3419,28 @@
         <v>1353039</v>
       </c>
     </row>
-    <row r="14" ht="45" customHeight="1">
-      <c r="A14" s="215" t="inlineStr">
+    <row r="14" ht="33.75" customHeight="1">
+      <c r="A14" s="214" t="inlineStr">
         <is>
           <t>Total de activos corrientes distintos de los activos o grupos de activos para su disposición clasificados como mantenidos para la venta o como mantenidos para distribuir a los propietarios</t>
         </is>
       </c>
-      <c r="B14" s="216" t="n"/>
-      <c r="C14" s="217">
+      <c r="B14" s="215" t="n"/>
+      <c r="C14" s="216">
         <f>SUM(C6:C13)</f>
         <v/>
       </c>
-      <c r="E14" s="217" t="n">
+      <c r="E14" s="216" t="n">
         <v>43501518</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="218" t="inlineStr">
+      <c r="A15" s="217" t="inlineStr">
         <is>
           <t xml:space="preserve">Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para la venta </t>
         </is>
       </c>
-      <c r="B15" s="219" t="n"/>
+      <c r="B15" s="218" t="n"/>
       <c r="C15" s="40">
         <f>+ROUND(Estado!V15/1000,0)</f>
         <v/>
@@ -3106,13 +3449,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="33.75" customHeight="1">
-      <c r="A16" s="218" t="inlineStr">
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="217" t="inlineStr">
         <is>
           <t>Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para distribuir a los propietarios</t>
         </is>
       </c>
-      <c r="B16" s="219" t="n"/>
+      <c r="B16" s="218" t="n"/>
       <c r="C16" s="40">
         <f>+ROUND(Estado!V16/1000,0)</f>
         <v/>
@@ -3122,52 +3465,52 @@
       </c>
     </row>
     <row r="17" ht="33.75" customHeight="1">
-      <c r="A17" s="215" t="inlineStr">
+      <c r="A17" s="214" t="inlineStr">
         <is>
           <t>Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para la venta o como mantenidos para distribuir a los propietarios</t>
         </is>
       </c>
-      <c r="B17" s="216" t="n"/>
-      <c r="C17" s="217">
+      <c r="B17" s="215" t="n"/>
+      <c r="C17" s="216">
         <f>+C15+C16</f>
         <v/>
       </c>
-      <c r="E17" s="217" t="n">
+      <c r="E17" s="216" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="220" t="inlineStr">
+      <c r="A18" s="219" t="inlineStr">
         <is>
           <t>Activos corrientes totales</t>
         </is>
       </c>
-      <c r="B18" s="221" t="n"/>
-      <c r="C18" s="222">
+      <c r="B18" s="220" t="n"/>
+      <c r="C18" s="221">
         <f>+C14+C17</f>
         <v/>
       </c>
-      <c r="E18" s="222" t="n">
+      <c r="E18" s="221" t="n">
         <v>43501518</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="213" t="inlineStr">
+      <c r="A19" s="212" t="inlineStr">
         <is>
           <t>Activos no corrientes</t>
         </is>
       </c>
-      <c r="B19" s="214" t="n"/>
-      <c r="C19" s="212" t="n"/>
-      <c r="E19" s="212" t="n"/>
+      <c r="B19" s="213" t="n"/>
+      <c r="C19" s="211" t="n"/>
+      <c r="E19" s="211" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="223" t="inlineStr">
+      <c r="A20" s="222" t="inlineStr">
         <is>
           <t>Otros activos financieros no corrientes</t>
         </is>
       </c>
-      <c r="B20" s="216" t="n"/>
+      <c r="B20" s="215" t="n"/>
       <c r="C20" s="40">
         <f>+ROUND(Estado!V20/1000,0)</f>
         <v/>
@@ -3177,12 +3520,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="223" t="inlineStr">
+      <c r="A21" s="222" t="inlineStr">
         <is>
           <t>Otros activos no financieros no corrientes</t>
         </is>
       </c>
-      <c r="B21" s="216" t="n"/>
+      <c r="B21" s="215" t="n"/>
       <c r="C21" s="40">
         <f>+ROUND(Estado!V21/1000,0)</f>
         <v/>
@@ -3192,12 +3535,12 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="223" t="inlineStr">
+      <c r="A22" s="222" t="inlineStr">
         <is>
           <t>Derechos por cobrar no corrientes</t>
         </is>
       </c>
-      <c r="B22" s="216" t="n"/>
+      <c r="B22" s="215" t="n"/>
       <c r="C22" s="40">
         <f>+ROUND(Estado!V22/1000,0)</f>
         <v/>
@@ -3206,13 +3549,13 @@
         <v>471786</v>
       </c>
     </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="223" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="222" t="inlineStr">
         <is>
           <t>Cuentas por Cobrar a Entidades Relacionadas, No Corriente</t>
         </is>
       </c>
-      <c r="B23" s="216" t="n"/>
+      <c r="B23" s="215" t="n"/>
       <c r="C23" s="40">
         <f>+ROUND(Estado!V23/1000,0)</f>
         <v/>
@@ -3221,13 +3564,13 @@
         <v>9503096</v>
       </c>
     </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="223" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="222" t="inlineStr">
         <is>
           <t>Inversiones contabilizadas utilizando el método de la participación</t>
         </is>
       </c>
-      <c r="B24" s="216" t="n"/>
+      <c r="B24" s="215" t="n"/>
       <c r="C24" s="40">
         <f>+ROUND(Estado!V24/1000,0)</f>
         <v/>
@@ -3237,12 +3580,12 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="223" t="inlineStr">
+      <c r="A25" s="222" t="inlineStr">
         <is>
           <t>Activos intangibles distintos de la plusvalía</t>
         </is>
       </c>
-      <c r="B25" s="216" t="n"/>
+      <c r="B25" s="215" t="n"/>
       <c r="C25" s="40">
         <f>+ROUND(Estado!V25/1000,0)</f>
         <v/>
@@ -3252,12 +3595,12 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="223" t="inlineStr">
+      <c r="A26" s="222" t="inlineStr">
         <is>
           <t>Plusvalía</t>
         </is>
       </c>
-      <c r="B26" s="216" t="n"/>
+      <c r="B26" s="215" t="n"/>
       <c r="C26" s="40">
         <f>+ROUND(Estado!V26/1000,0)</f>
         <v/>
@@ -3267,12 +3610,12 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="223" t="inlineStr">
+      <c r="A27" s="222" t="inlineStr">
         <is>
           <t>Propiedades, Planta y Equipo</t>
         </is>
       </c>
-      <c r="B27" s="216" t="n"/>
+      <c r="B27" s="215" t="n"/>
       <c r="C27" s="40">
         <f>+ROUND(Estado!V27/1000,0)</f>
         <v/>
@@ -3282,12 +3625,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="223" t="inlineStr">
+      <c r="A28" s="222" t="inlineStr">
         <is>
           <t>Activos biológicos, no corrientes</t>
         </is>
       </c>
-      <c r="B28" s="216" t="n"/>
+      <c r="B28" s="215" t="n"/>
       <c r="C28" s="40">
         <f>+ROUND(Estado!V28/1000,0)</f>
         <v/>
@@ -3297,12 +3640,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="223" t="inlineStr">
+      <c r="A29" s="222" t="inlineStr">
         <is>
           <t>Propiedad de inversión</t>
         </is>
       </c>
-      <c r="B29" s="216" t="n"/>
+      <c r="B29" s="215" t="n"/>
       <c r="C29" s="40">
         <f>+ROUND(Estado!V29/1000,0)</f>
         <v/>
@@ -3312,12 +3655,12 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="223" t="inlineStr">
+      <c r="A30" s="222" t="inlineStr">
         <is>
           <t>Activos por impuestos diferidos</t>
         </is>
       </c>
-      <c r="B30" s="216" t="n"/>
+      <c r="B30" s="215" t="n"/>
       <c r="C30" s="40">
         <f>+ROUND(Estado!V30/1000,0)</f>
         <v/>
@@ -3327,70 +3670,70 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="215" t="inlineStr">
+      <c r="A31" s="214" t="inlineStr">
         <is>
           <t>Total de activos no corrientes</t>
         </is>
       </c>
-      <c r="B31" s="216" t="n"/>
-      <c r="C31" s="217">
+      <c r="B31" s="215" t="n"/>
+      <c r="C31" s="216">
         <f>SUM(C20:C30)</f>
         <v/>
       </c>
-      <c r="E31" s="217" t="n">
+      <c r="E31" s="216" t="n">
         <v>66751237</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="224" t="inlineStr">
+      <c r="A32" s="223" t="inlineStr">
         <is>
           <t>Total de activos</t>
         </is>
       </c>
-      <c r="B32" s="214" t="n"/>
-      <c r="C32" s="222">
+      <c r="B32" s="213" t="n"/>
+      <c r="C32" s="221">
         <f>+C18+C31</f>
         <v/>
       </c>
-      <c r="E32" s="222" t="n">
+      <c r="E32" s="221" t="n">
         <v>110252755</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="225" t="n"/>
-      <c r="B33" s="226" t="n"/>
-      <c r="C33" s="212" t="n"/>
-      <c r="E33" s="212" t="n"/>
+      <c r="A33" s="224" t="n"/>
+      <c r="B33" s="225" t="n"/>
+      <c r="C33" s="211" t="n"/>
+      <c r="E33" s="211" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="227" t="inlineStr">
+      <c r="A34" s="226" t="inlineStr">
         <is>
           <t>Patrimonio y pasivos</t>
         </is>
       </c>
-      <c r="B34" s="228" t="n"/>
-      <c r="C34" s="212" t="n"/>
-      <c r="E34" s="212" t="n"/>
+      <c r="B34" s="227" t="n"/>
+      <c r="C34" s="211" t="n"/>
+      <c r="E34" s="211" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="213" t="inlineStr">
+      <c r="A35" s="212" t="inlineStr">
         <is>
           <t>Pasivos</t>
         </is>
       </c>
-      <c r="B35" s="214" t="n"/>
-      <c r="C35" s="212" t="n"/>
-      <c r="E35" s="212" t="n"/>
+      <c r="B35" s="213" t="n"/>
+      <c r="C35" s="211" t="n"/>
+      <c r="E35" s="211" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="229" t="inlineStr">
+      <c r="A36" s="228" t="inlineStr">
         <is>
           <t>Pasivos corrientes</t>
         </is>
       </c>
-      <c r="B36" s="221" t="n"/>
-      <c r="C36" s="212" t="n"/>
-      <c r="E36" s="212" t="n"/>
+      <c r="B36" s="220" t="n"/>
+      <c r="C36" s="211" t="n"/>
+      <c r="E36" s="211" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="60" t="inlineStr">
@@ -3492,28 +3835,28 @@
         <v>3240163</v>
       </c>
     </row>
-    <row r="44" ht="45" customHeight="1">
-      <c r="A44" s="230" t="inlineStr">
+    <row r="44" ht="33.75" customHeight="1">
+      <c r="A44" s="229" t="inlineStr">
         <is>
           <t>Total de pasivos corrientes distintos de los pasivos incluidos en grupos de activos para su disposición clasificados como mantenidos para la venta</t>
         </is>
       </c>
-      <c r="B44" s="231" t="n"/>
-      <c r="C44" s="232">
+      <c r="B44" s="230" t="n"/>
+      <c r="C44" s="231">
         <f>SUM(C37:C43)</f>
         <v/>
       </c>
-      <c r="E44" s="232" t="n">
+      <c r="E44" s="231" t="n">
         <v>18134952</v>
       </c>
     </row>
     <row r="45" ht="22.5" customHeight="1">
-      <c r="A45" s="218" t="inlineStr">
+      <c r="A45" s="217" t="inlineStr">
         <is>
           <t>Pasivos incluidos en grupos de activos para su disposición clasificados como mantenidos para la venta</t>
         </is>
       </c>
-      <c r="B45" s="219" t="n"/>
+      <c r="B45" s="218" t="n"/>
       <c r="C45" s="40">
         <f>+ROUND(Estado!V45/1000,0)</f>
         <v/>
@@ -3529,23 +3872,23 @@
         </is>
       </c>
       <c r="B46" s="42" t="n"/>
-      <c r="C46" s="232">
+      <c r="C46" s="231">
         <f>+C44+C45</f>
         <v/>
       </c>
-      <c r="E46" s="232" t="n">
+      <c r="E46" s="231" t="n">
         <v>18134952</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="229" t="inlineStr">
+      <c r="A47" s="228" t="inlineStr">
         <is>
           <t>Pasivos no corrientes</t>
         </is>
       </c>
-      <c r="B47" s="221" t="n"/>
-      <c r="C47" s="212" t="n"/>
-      <c r="E47" s="212" t="n"/>
+      <c r="B47" s="220" t="n"/>
+      <c r="C47" s="211" t="n"/>
+      <c r="E47" s="211" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="60" t="inlineStr">
@@ -3659,46 +4002,46 @@
         </is>
       </c>
       <c r="B55" s="42" t="n"/>
-      <c r="C55" s="232">
+      <c r="C55" s="231">
         <f>SUM(C48:C54)</f>
         <v/>
       </c>
-      <c r="E55" s="232" t="n">
+      <c r="E55" s="231" t="n">
         <v>16892278</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="233" t="inlineStr">
+      <c r="A56" s="232" t="inlineStr">
         <is>
           <t>Total pasivos</t>
         </is>
       </c>
-      <c r="B56" s="234" t="n"/>
-      <c r="C56" s="235">
+      <c r="B56" s="233" t="n"/>
+      <c r="C56" s="234">
         <f>+C46+C55</f>
         <v/>
       </c>
-      <c r="E56" s="235" t="n">
+      <c r="E56" s="234" t="n">
         <v>35027230</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="213" t="inlineStr">
+      <c r="A57" s="212" t="inlineStr">
         <is>
           <t>Patrimonio</t>
         </is>
       </c>
-      <c r="B57" s="214" t="n"/>
-      <c r="C57" s="212" t="n"/>
-      <c r="E57" s="212" t="n"/>
+      <c r="B57" s="213" t="n"/>
+      <c r="C57" s="211" t="n"/>
+      <c r="E57" s="211" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="218" t="inlineStr">
+      <c r="A58" s="217" t="inlineStr">
         <is>
           <t>Capital emitido</t>
         </is>
       </c>
-      <c r="B58" s="216" t="n"/>
+      <c r="B58" s="215" t="n"/>
       <c r="C58" s="40">
         <f>+ROUND(Estado!V58/1000,0)</f>
         <v/>
@@ -3708,12 +4051,12 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="218" t="inlineStr">
+      <c r="A59" s="217" t="inlineStr">
         <is>
           <t>Ganancias (pérdidas) acumuladas</t>
         </is>
       </c>
-      <c r="B59" s="216" t="n"/>
+      <c r="B59" s="215" t="n"/>
       <c r="C59" s="40">
         <f>+ROUND(Estado!V59/1000,0)</f>
         <v/>
@@ -3723,12 +4066,12 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="218" t="inlineStr">
+      <c r="A60" s="217" t="inlineStr">
         <is>
           <t>Primas de emisión</t>
         </is>
       </c>
-      <c r="B60" s="216" t="n"/>
+      <c r="B60" s="215" t="n"/>
       <c r="C60" s="40">
         <f>+ROUND(Estado!V60/1000,0)</f>
         <v/>
@@ -3738,12 +4081,12 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="218" t="inlineStr">
+      <c r="A61" s="217" t="inlineStr">
         <is>
           <t>Acciones propias en cartera</t>
         </is>
       </c>
-      <c r="B61" s="216" t="n"/>
+      <c r="B61" s="215" t="n"/>
       <c r="C61" s="40">
         <f>+ROUND(Estado!V61/1000,0)</f>
         <v/>
@@ -3753,12 +4096,12 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="218" t="inlineStr">
+      <c r="A62" s="217" t="inlineStr">
         <is>
           <t>Otras participaciones en el patrimonio</t>
         </is>
       </c>
-      <c r="B62" s="216" t="n"/>
+      <c r="B62" s="215" t="n"/>
       <c r="C62" s="40">
         <f>+ROUND(Estado!V62/1000,0)</f>
         <v/>
@@ -3768,13 +4111,13 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="218" t="inlineStr">
+      <c r="A63" s="217" t="inlineStr">
         <is>
           <t>Otras reservas</t>
         </is>
       </c>
-      <c r="B63" s="216" t="n"/>
-      <c r="C63" s="238">
+      <c r="B63" s="215" t="n"/>
+      <c r="C63" s="237">
         <f>+ROUND(Estado!V63/1000,0)</f>
         <v/>
       </c>
@@ -3782,28 +4125,28 @@
         <v>-964006</v>
       </c>
     </row>
-    <row r="64" ht="22.5" customHeight="1">
-      <c r="A64" s="213" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="212" t="inlineStr">
         <is>
           <t>Patrimonio atribuible a los propietarios de la controladora</t>
         </is>
       </c>
-      <c r="B64" s="221" t="n"/>
-      <c r="C64" s="232">
+      <c r="B64" s="220" t="n"/>
+      <c r="C64" s="231">
         <f>SUM(C58:C63)</f>
         <v/>
       </c>
-      <c r="E64" s="232" t="n">
+      <c r="E64" s="231" t="n">
         <v>74254381</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="218" t="inlineStr">
+      <c r="A65" s="217" t="inlineStr">
         <is>
           <t>Participaciones no controladoras</t>
         </is>
       </c>
-      <c r="B65" s="216" t="n"/>
+      <c r="B65" s="215" t="n"/>
       <c r="C65" s="40">
         <f>+ROUND(Estado!V65/1000,0)</f>
         <v/>
@@ -3813,32 +4156,32 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="213" t="inlineStr">
+      <c r="A66" s="212" t="inlineStr">
         <is>
           <t>Patrimonio total</t>
         </is>
       </c>
-      <c r="B66" s="221" t="n"/>
-      <c r="C66" s="232">
+      <c r="B66" s="220" t="n"/>
+      <c r="C66" s="231">
         <f>+C64+C65</f>
         <v/>
       </c>
-      <c r="E66" s="232" t="n">
+      <c r="E66" s="231" t="n">
         <v>75225524</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="236" t="inlineStr">
+      <c r="A67" s="235" t="inlineStr">
         <is>
           <t>Total de patrimonio y pasivos</t>
         </is>
       </c>
-      <c r="B67" s="237" t="n"/>
-      <c r="C67" s="235">
+      <c r="B67" s="236" t="n"/>
+      <c r="C67" s="234">
         <f>+C56+C66</f>
         <v/>
       </c>
-      <c r="E67" s="235" t="n">
+      <c r="E67" s="234" t="n">
         <v>110252754</v>
       </c>
     </row>
@@ -3901,12 +4244,12 @@
         <v/>
       </c>
       <c r="B1" s="27" t="n"/>
-      <c r="C1" s="197" t="inlineStr">
+      <c r="C1" s="196" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E1" s="197" t="inlineStr">
+      <c r="E1" s="196" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
@@ -3919,10 +4262,10 @@
         </is>
       </c>
       <c r="B2" s="30" t="n"/>
-      <c r="C2" s="198" t="n">
+      <c r="C2" s="197" t="n">
         <v>2022</v>
       </c>
-      <c r="E2" s="198" t="n">
+      <c r="E2" s="197" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -3947,8 +4290,8 @@
         </is>
       </c>
       <c r="B4" s="36" t="n"/>
-      <c r="C4" s="239" t="n"/>
-      <c r="E4" s="239" t="n"/>
+      <c r="C4" s="238" t="n"/>
+      <c r="E4" s="238" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="38" t="inlineStr">
@@ -3957,19 +4300,19 @@
         </is>
       </c>
       <c r="B5" s="39" t="n"/>
-      <c r="C5" s="238">
+      <c r="C5" s="237">
         <f>+ROUND(Resultado!U5/1000,0)</f>
         <v/>
       </c>
-      <c r="E5" s="238" t="n">
+      <c r="E5" s="237" t="n">
         <v>46991750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="38" t="n"/>
       <c r="B6" s="39" t="n"/>
-      <c r="C6" s="238" t="n"/>
-      <c r="E6" s="238" t="n"/>
+      <c r="C6" s="237" t="n"/>
+      <c r="E6" s="237" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="38" t="inlineStr">
@@ -3978,19 +4321,19 @@
         </is>
       </c>
       <c r="B7" s="39" t="n"/>
-      <c r="C7" s="238">
+      <c r="C7" s="237">
         <f>+ROUND(Resultado!U7/1000,0)</f>
         <v/>
       </c>
-      <c r="E7" s="238" t="n">
+      <c r="E7" s="237" t="n">
         <v>34034069</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="41" t="n"/>
       <c r="B8" s="42" t="n"/>
-      <c r="C8" s="238" t="n"/>
-      <c r="E8" s="238" t="n"/>
+      <c r="C8" s="237" t="n"/>
+      <c r="E8" s="237" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="43" t="inlineStr">
@@ -3999,19 +4342,19 @@
         </is>
       </c>
       <c r="B9" s="44" t="n"/>
-      <c r="C9" s="240">
+      <c r="C9" s="239">
         <f>+C5-C7</f>
         <v/>
       </c>
-      <c r="E9" s="240" t="n">
+      <c r="E9" s="239" t="n">
         <v>12957681</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="41" t="n"/>
       <c r="B10" s="42" t="n"/>
-      <c r="C10" s="238" t="n"/>
-      <c r="E10" s="238" t="n"/>
+      <c r="C10" s="237" t="n"/>
+      <c r="E10" s="237" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="38" t="inlineStr">
@@ -4020,11 +4363,11 @@
         </is>
       </c>
       <c r="B11" s="39" t="n"/>
-      <c r="C11" s="238">
+      <c r="C11" s="237">
         <f>+ROUND(Resultado!U11/1000,0)</f>
         <v/>
       </c>
-      <c r="E11" s="238" t="n">
+      <c r="E11" s="237" t="n">
         <v>6217567</v>
       </c>
     </row>
@@ -4035,11 +4378,11 @@
         </is>
       </c>
       <c r="B12" s="42" t="n"/>
-      <c r="C12" s="238">
+      <c r="C12" s="237">
         <f>+ROUND(Resultado!U12/1000,0)</f>
         <v/>
       </c>
-      <c r="E12" s="238" t="n">
+      <c r="E12" s="237" t="n">
         <v>1798705</v>
       </c>
     </row>
@@ -4050,19 +4393,19 @@
         </is>
       </c>
       <c r="B13" s="44" t="n"/>
-      <c r="C13" s="240">
+      <c r="C13" s="239">
         <f>+C9-C11-C12</f>
         <v/>
       </c>
-      <c r="E13" s="240" t="n">
+      <c r="E13" s="239" t="n">
         <v>4941409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="41" t="n"/>
       <c r="B14" s="42" t="n"/>
-      <c r="C14" s="238" t="n"/>
-      <c r="E14" s="238" t="n"/>
+      <c r="C14" s="237" t="n"/>
+      <c r="E14" s="237" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="38" t="inlineStr">
@@ -4071,19 +4414,19 @@
         </is>
       </c>
       <c r="B15" s="39" t="n"/>
-      <c r="C15" s="238">
+      <c r="C15" s="237">
         <f>+ROUND(Resultado!U15/1000,0)</f>
         <v/>
       </c>
-      <c r="E15" s="238" t="n">
+      <c r="E15" s="237" t="n">
         <v>512445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38" t="n"/>
       <c r="B16" s="39" t="n"/>
-      <c r="C16" s="238" t="n"/>
-      <c r="E16" s="238" t="n"/>
+      <c r="C16" s="237" t="n"/>
+      <c r="E16" s="237" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="38" t="inlineStr">
@@ -4092,19 +4435,19 @@
         </is>
       </c>
       <c r="B17" s="39" t="n"/>
-      <c r="C17" s="238">
+      <c r="C17" s="237">
         <f>+ROUND(Resultado!U17/1000,0)</f>
         <v/>
       </c>
-      <c r="E17" s="238" t="n">
+      <c r="E17" s="237" t="n">
         <v>-202228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="n"/>
       <c r="B18" s="39" t="n"/>
-      <c r="C18" s="238" t="n"/>
-      <c r="E18" s="238" t="n"/>
+      <c r="C18" s="237" t="n"/>
+      <c r="E18" s="237" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="38" t="inlineStr">
@@ -4113,19 +4456,19 @@
         </is>
       </c>
       <c r="B19" s="39" t="n"/>
-      <c r="C19" s="238">
+      <c r="C19" s="237">
         <f>+ROUND(Resultado!U19/1000,0)</f>
         <v/>
       </c>
-      <c r="E19" s="238" t="n">
+      <c r="E19" s="237" t="n">
         <v>122935</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="49" t="n"/>
       <c r="B20" s="50" t="n"/>
-      <c r="C20" s="238" t="n"/>
-      <c r="E20" s="238" t="n"/>
+      <c r="C20" s="237" t="n"/>
+      <c r="E20" s="237" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="38" t="inlineStr">
@@ -4134,19 +4477,19 @@
         </is>
       </c>
       <c r="B21" s="39" t="n"/>
-      <c r="C21" s="238">
+      <c r="C21" s="237">
         <f>+ROUND(Resultado!U21/1000,0)-1</f>
         <v/>
       </c>
-      <c r="E21" s="238" t="n">
+      <c r="E21" s="237" t="n">
         <v>2846792</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="38" t="n"/>
       <c r="B22" s="39" t="n"/>
-      <c r="C22" s="238" t="n"/>
-      <c r="E22" s="238" t="n"/>
+      <c r="C22" s="237" t="n"/>
+      <c r="E22" s="237" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="38" t="inlineStr">
@@ -4155,19 +4498,19 @@
         </is>
       </c>
       <c r="B23" s="39" t="n"/>
-      <c r="C23" s="238">
+      <c r="C23" s="237">
         <f>+ROUND(Resultado!U23/1000,0)</f>
         <v/>
       </c>
-      <c r="E23" s="238" t="n">
+      <c r="E23" s="237" t="n">
         <v>-2263575</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="38" t="n"/>
       <c r="B24" s="39" t="n"/>
-      <c r="C24" s="238" t="n"/>
-      <c r="E24" s="238" t="n"/>
+      <c r="C24" s="237" t="n"/>
+      <c r="E24" s="237" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="38" t="inlineStr">
@@ -4176,19 +4519,19 @@
         </is>
       </c>
       <c r="B25" s="39" t="n"/>
-      <c r="C25" s="238">
+      <c r="C25" s="237">
         <f>+ROUND(Resultado!U25/1000,0)+1</f>
         <v/>
       </c>
-      <c r="E25" s="238" t="n">
+      <c r="E25" s="237" t="n">
         <v>-3803161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38" t="n"/>
       <c r="B26" s="39" t="n"/>
-      <c r="C26" s="238" t="n"/>
-      <c r="E26" s="238" t="n"/>
+      <c r="C26" s="237" t="n"/>
+      <c r="E26" s="237" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="38" t="inlineStr">
@@ -4197,19 +4540,19 @@
         </is>
       </c>
       <c r="B27" s="39" t="n"/>
-      <c r="C27" s="238">
+      <c r="C27" s="237">
         <f>+ROUND(Resultado!U27/1000,0)</f>
         <v/>
       </c>
-      <c r="E27" s="238" t="n">
+      <c r="E27" s="237" t="n">
         <v>-9875546</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="51" t="n"/>
       <c r="B28" s="52" t="n"/>
-      <c r="C28" s="238" t="n"/>
-      <c r="E28" s="238" t="n"/>
+      <c r="C28" s="237" t="n"/>
+      <c r="E28" s="237" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="43" t="inlineStr">
@@ -4218,19 +4561,19 @@
         </is>
       </c>
       <c r="B29" s="44" t="n"/>
-      <c r="C29" s="240">
+      <c r="C29" s="239">
         <f>SUM(C13:C28)</f>
         <v/>
       </c>
-      <c r="E29" s="240" t="n">
+      <c r="E29" s="239" t="n">
         <v>-7720929</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="51" t="n"/>
       <c r="B30" s="52" t="n"/>
-      <c r="C30" s="238" t="n"/>
-      <c r="E30" s="238" t="n"/>
+      <c r="C30" s="237" t="n"/>
+      <c r="E30" s="237" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="inlineStr">
@@ -4239,19 +4582,19 @@
         </is>
       </c>
       <c r="B31" s="39" t="n"/>
-      <c r="C31" s="238">
+      <c r="C31" s="237">
         <f>+ROUND(Resultado!U31/1000,0)</f>
         <v/>
       </c>
-      <c r="E31" s="238" t="n">
+      <c r="E31" s="237" t="n">
         <v>-2046344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="41" t="n"/>
       <c r="B32" s="42" t="n"/>
-      <c r="C32" s="238" t="n"/>
-      <c r="E32" s="238" t="n"/>
+      <c r="C32" s="237" t="n"/>
+      <c r="E32" s="237" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="43" t="inlineStr">
@@ -4260,19 +4603,19 @@
         </is>
       </c>
       <c r="B33" s="44" t="n"/>
-      <c r="C33" s="240">
+      <c r="C33" s="239">
         <f>+C29+C31</f>
         <v/>
       </c>
-      <c r="E33" s="240" t="n">
+      <c r="E33" s="239" t="n">
         <v>-9767273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="53" t="n"/>
       <c r="B34" s="44" t="n"/>
-      <c r="C34" s="241" t="n"/>
-      <c r="E34" s="241" t="n"/>
+      <c r="C34" s="240" t="n"/>
+      <c r="E34" s="240" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="55" t="inlineStr">
@@ -4281,19 +4624,19 @@
         </is>
       </c>
       <c r="B35" s="44" t="n"/>
-      <c r="C35" s="238">
+      <c r="C35" s="237">
         <f>+ROUND(Resultado!U35/1000,0)</f>
         <v/>
       </c>
-      <c r="E35" s="238" t="n">
+      <c r="E35" s="237" t="n">
         <v>-9730843</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="53" t="n"/>
       <c r="B36" s="44" t="n"/>
-      <c r="C36" s="241" t="n"/>
-      <c r="E36" s="241" t="n"/>
+      <c r="C36" s="240" t="n"/>
+      <c r="E36" s="240" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="55" t="inlineStr">
@@ -4302,19 +4645,19 @@
         </is>
       </c>
       <c r="B37" s="44" t="n"/>
-      <c r="C37" s="238">
+      <c r="C37" s="237">
         <f>+ROUND(Resultado!U37/1000,0)</f>
         <v/>
       </c>
-      <c r="E37" s="238" t="n">
+      <c r="E37" s="237" t="n">
         <v>-36428</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="53" t="n"/>
       <c r="B38" s="44" t="n"/>
-      <c r="C38" s="241" t="n"/>
-      <c r="E38" s="241" t="n"/>
+      <c r="C38" s="240" t="n"/>
+      <c r="E38" s="240" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="43" t="inlineStr">
@@ -4323,11 +4666,11 @@
         </is>
       </c>
       <c r="B39" s="44" t="n"/>
-      <c r="C39" s="242">
+      <c r="C39" s="241">
         <f>+C35+C37</f>
         <v/>
       </c>
-      <c r="E39" s="242" t="n">
+      <c r="E39" s="241" t="n">
         <v>-9767271</v>
       </c>
     </row>
@@ -4356,48 +4699,56 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF91"/>
+  <dimension ref="A1:AG91"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="S66" sqref="S66"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.4571428571429" defaultRowHeight="12"/>
   <cols>
-    <col width="51.4571428571429" customWidth="1" style="95" min="1" max="1"/>
-    <col width="0.542857142857143" customWidth="1" style="95" min="2" max="2"/>
-    <col width="13.4571428571429" customWidth="1" style="95" min="3" max="3"/>
-    <col width="14.5428571428571" customWidth="1" style="95" min="4" max="4"/>
-    <col width="15.8190476190476" customWidth="1" style="95" min="5" max="6"/>
-    <col width="19.8190476190476" customWidth="1" style="95" min="7" max="7"/>
-    <col width="14.5428571428571" customWidth="1" style="95" min="8" max="8"/>
-    <col width="14" customWidth="1" style="95" min="9" max="9"/>
-    <col width="18" customWidth="1" style="95" min="10" max="10"/>
-    <col width="0.542857142857143" customWidth="1" style="95" min="11" max="11"/>
-    <col width="15.5428571428571" customWidth="1" style="95" min="12" max="13"/>
-    <col width="15.4571428571429" customWidth="1" style="95" min="14" max="14"/>
-    <col width="13.5428571428571" customWidth="1" style="95" min="15" max="15"/>
-    <col width="14.5428571428571" customWidth="1" style="95" min="16" max="17"/>
-    <col width="12.4571428571429" customWidth="1" style="95" min="18" max="18"/>
-    <col width="14.5428571428571" customWidth="1" style="95" min="19" max="19"/>
-    <col hidden="1" width="16.4571428571429" customWidth="1" style="96" min="20" max="20"/>
-    <col width="0.542857142857143" customWidth="1" style="96" min="21" max="21"/>
-    <col width="14.5428571428571" customWidth="1" style="97" min="22" max="22"/>
-    <col width="11.4571428571429" customWidth="1" style="97" min="23" max="16354"/>
-    <col width="11.4571428571429" customWidth="1" style="97" min="16355" max="16384"/>
+    <col width="51.4571428571429" customWidth="1" style="92" min="1" max="1"/>
+    <col width="0.542857142857143" customWidth="1" style="92" min="2" max="2"/>
+    <col width="13.4571428571429" customWidth="1" style="92" min="3" max="3"/>
+    <col width="14.5428571428571" customWidth="1" style="92" min="4" max="4"/>
+    <col width="15.8190476190476" customWidth="1" style="92" min="5" max="6"/>
+    <col width="19.8190476190476" customWidth="1" style="92" min="7" max="7"/>
+    <col width="14.5428571428571" customWidth="1" style="92" min="8" max="8"/>
+    <col width="14" customWidth="1" style="92" min="9" max="9"/>
+    <col width="18" customWidth="1" style="92" min="10" max="10"/>
+    <col width="0.542857142857143" customWidth="1" style="92" min="11" max="11"/>
+    <col width="15.5428571428571" customWidth="1" style="92" min="12" max="13"/>
+    <col width="15.4571428571429" customWidth="1" style="92" min="14" max="14"/>
+    <col width="13.5428571428571" customWidth="1" style="92" min="15" max="15"/>
+    <col width="14.5428571428571" customWidth="1" style="92" min="16" max="17"/>
+    <col width="12.4571428571429" customWidth="1" style="92" min="18" max="18"/>
+    <col width="14.5428571428571" customWidth="1" style="92" min="19" max="19"/>
+    <col hidden="1" width="16.4571428571429" customWidth="1" style="93" min="20" max="20"/>
+    <col width="0.542857142857143" customWidth="1" style="93" min="21" max="21"/>
+    <col width="14.5428571428571" customWidth="1" style="94" min="22" max="22"/>
+    <col width="15.1809523809524" customWidth="1" style="94" min="23" max="23"/>
+    <col width="13.8190476190476" customWidth="1" style="94" min="24" max="24"/>
+    <col width="14.4571428571429" customWidth="1" style="94" min="25" max="25"/>
+    <col width="15" customWidth="1" style="94" min="26" max="26"/>
+    <col width="16.8190476190476" customWidth="1" style="94" min="27" max="27"/>
+    <col width="14.1809523809524" customWidth="1" style="94" min="28" max="28"/>
+    <col width="17.1809523809524" customWidth="1" style="94" min="29" max="29"/>
+    <col width="15.4571428571429" customWidth="1" style="94" min="30" max="30"/>
+    <col width="17.5428571428571" customWidth="1" style="94" min="31" max="31"/>
+    <col width="11.4571428571429" customWidth="1" style="94" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="98" t="inlineStr">
+      <c r="A1" s="95" t="inlineStr">
         <is>
           <t>CHILE FILMS SPA Y AFILIADAS</t>
         </is>
       </c>
-      <c r="B1" s="99" t="n"/>
+      <c r="B1" s="96" t="n"/>
       <c r="C1" s="28" t="inlineStr">
         <is>
           <t>Chilefilms</t>
@@ -4480,12 +4831,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="98" t="inlineStr">
+      <c r="A2" s="95" t="inlineStr">
         <is>
           <t>Estado Financiero Consolidado</t>
         </is>
       </c>
-      <c r="B2" s="99" t="n"/>
+      <c r="B2" s="96" t="n"/>
       <c r="C2" s="31" t="inlineStr">
         <is>
           <t>Individual</t>
@@ -4565,3559 +4916,4003 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="100" t="inlineStr">
+      <c r="A3" s="97" t="inlineStr">
         <is>
           <t>Estado de Situación Financiera</t>
         </is>
       </c>
-      <c r="B3" s="99" t="n"/>
-      <c r="C3" s="101" t="inlineStr">
+      <c r="B3" s="96" t="n"/>
+      <c r="C3" s="98" t="inlineStr">
         <is>
           <t>Matriz</t>
         </is>
       </c>
-      <c r="D3" s="101" t="inlineStr">
+      <c r="D3" s="98" t="inlineStr">
         <is>
           <t>Filiales</t>
         </is>
       </c>
-      <c r="E3" s="101" t="inlineStr">
+      <c r="E3" s="98" t="inlineStr">
         <is>
           <t>Filiales</t>
         </is>
       </c>
-      <c r="F3" s="101" t="inlineStr">
+      <c r="F3" s="98" t="inlineStr">
         <is>
           <t>Filiales</t>
         </is>
       </c>
-      <c r="G3" s="101" t="n"/>
-      <c r="H3" s="101" t="inlineStr">
+      <c r="G3" s="98" t="n"/>
+      <c r="H3" s="98" t="inlineStr">
         <is>
           <t>Filiales</t>
         </is>
       </c>
-      <c r="I3" s="101" t="inlineStr">
+      <c r="I3" s="98" t="inlineStr">
         <is>
           <t>Filiales</t>
         </is>
       </c>
-      <c r="J3" s="101" t="n"/>
+      <c r="J3" s="98" t="n"/>
       <c r="K3" s="77" t="n"/>
-      <c r="L3" s="140" t="inlineStr">
+      <c r="L3" s="137" t="inlineStr">
         <is>
           <t>Ajuste</t>
         </is>
       </c>
-      <c r="M3" s="140" t="inlineStr">
+      <c r="M3" s="137" t="inlineStr">
         <is>
           <t>Ajuste</t>
         </is>
       </c>
-      <c r="N3" s="140" t="inlineStr">
+      <c r="N3" s="137" t="inlineStr">
         <is>
           <t>Ajuste</t>
         </is>
       </c>
-      <c r="O3" s="140" t="inlineStr">
+      <c r="O3" s="137" t="inlineStr">
         <is>
           <t>Ajuste</t>
         </is>
       </c>
-      <c r="P3" s="140" t="inlineStr">
+      <c r="P3" s="137" t="inlineStr">
         <is>
           <t>Ajuste</t>
         </is>
       </c>
-      <c r="Q3" s="140" t="inlineStr">
+      <c r="Q3" s="137" t="inlineStr">
         <is>
           <t>Ajuste</t>
         </is>
       </c>
-      <c r="R3" s="140" t="inlineStr">
+      <c r="R3" s="137" t="inlineStr">
         <is>
           <t>Ajuste</t>
         </is>
       </c>
-      <c r="S3" s="140" t="n"/>
-      <c r="T3" s="140" t="inlineStr">
+      <c r="S3" s="137" t="n"/>
+      <c r="T3" s="137" t="inlineStr">
         <is>
           <t>Ajuste</t>
         </is>
       </c>
       <c r="U3" s="77" t="n"/>
-      <c r="V3" s="156" t="n"/>
+      <c r="V3" s="147" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="102" t="inlineStr">
+      <c r="A4" s="99" t="inlineStr">
         <is>
           <t xml:space="preserve">Activos </t>
         </is>
       </c>
-      <c r="B4" s="99" t="n"/>
-      <c r="C4" s="103" t="n"/>
-      <c r="D4" s="103" t="n"/>
-      <c r="E4" s="103" t="n"/>
-      <c r="F4" s="103" t="n"/>
-      <c r="G4" s="103" t="n"/>
-      <c r="H4" s="103" t="n"/>
-      <c r="I4" s="103" t="n"/>
-      <c r="J4" s="103" t="n"/>
+      <c r="B4" s="96" t="n"/>
+      <c r="C4" s="100" t="n"/>
+      <c r="D4" s="100" t="n"/>
+      <c r="E4" s="100" t="n"/>
+      <c r="F4" s="100" t="n"/>
+      <c r="G4" s="100" t="n"/>
+      <c r="H4" s="100" t="n"/>
+      <c r="I4" s="100" t="n"/>
+      <c r="J4" s="100" t="n"/>
       <c r="K4" s="77" t="n"/>
-      <c r="L4" s="141" t="n"/>
-      <c r="M4" s="141" t="n"/>
-      <c r="N4" s="141" t="n"/>
-      <c r="O4" s="141" t="n"/>
-      <c r="P4" s="141" t="n"/>
-      <c r="Q4" s="141" t="n"/>
-      <c r="R4" s="141" t="n"/>
-      <c r="S4" s="141" t="n"/>
-      <c r="T4" s="141" t="n"/>
+      <c r="L4" s="138" t="n"/>
+      <c r="M4" s="138" t="n"/>
+      <c r="N4" s="138" t="n"/>
+      <c r="O4" s="138" t="n"/>
+      <c r="P4" s="138" t="n"/>
+      <c r="Q4" s="138" t="n"/>
+      <c r="R4" s="138" t="n"/>
+      <c r="S4" s="138" t="n"/>
+      <c r="T4" s="138" t="n"/>
       <c r="U4" s="77" t="n"/>
-      <c r="V4" s="103" t="n"/>
+      <c r="V4" s="100" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="104" t="inlineStr">
+      <c r="A5" s="101" t="inlineStr">
         <is>
           <t>Activos corrientes</t>
         </is>
       </c>
-      <c r="B5" s="99" t="n"/>
-      <c r="C5" s="103" t="n"/>
-      <c r="D5" s="103" t="n"/>
-      <c r="E5" s="103" t="n"/>
-      <c r="F5" s="103" t="n"/>
-      <c r="G5" s="103" t="n"/>
-      <c r="H5" s="103" t="n"/>
-      <c r="I5" s="103" t="n"/>
-      <c r="J5" s="103" t="n"/>
+      <c r="B5" s="96" t="n"/>
+      <c r="C5" s="100" t="n"/>
+      <c r="D5" s="100" t="n"/>
+      <c r="E5" s="100" t="n"/>
+      <c r="F5" s="100" t="n"/>
+      <c r="G5" s="100" t="n"/>
+      <c r="H5" s="100" t="n"/>
+      <c r="I5" s="100" t="n"/>
+      <c r="J5" s="100" t="n"/>
       <c r="K5" s="77" t="n"/>
-      <c r="L5" s="141" t="n"/>
-      <c r="M5" s="141" t="n"/>
-      <c r="N5" s="141" t="n"/>
-      <c r="O5" s="141" t="n"/>
-      <c r="P5" s="141" t="n"/>
-      <c r="Q5" s="141" t="n"/>
-      <c r="R5" s="141" t="n"/>
-      <c r="S5" s="141" t="n"/>
-      <c r="T5" s="141" t="n"/>
+      <c r="L5" s="138" t="n"/>
+      <c r="M5" s="138" t="n"/>
+      <c r="N5" s="138" t="n"/>
+      <c r="O5" s="138" t="n"/>
+      <c r="P5" s="138" t="n"/>
+      <c r="Q5" s="138" t="n"/>
+      <c r="R5" s="138" t="n"/>
+      <c r="S5" s="138" t="n"/>
+      <c r="T5" s="138" t="n"/>
       <c r="U5" s="77" t="n"/>
-      <c r="V5" s="103" t="n"/>
+      <c r="V5" s="100" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="105" t="inlineStr">
+      <c r="A6" s="102" t="inlineStr">
         <is>
           <t>Efectivo y Equivalentes al Efectivo</t>
         </is>
       </c>
-      <c r="B6" s="99" t="n"/>
-      <c r="C6" s="106" t="n">
+      <c r="B6" s="96" t="n"/>
+      <c r="C6" s="103" t="n">
         <v>3991436469</v>
       </c>
-      <c r="D6" s="106" t="n">
+      <c r="D6" s="103" t="n">
         <v>3117802</v>
       </c>
-      <c r="E6" s="106" t="n"/>
-      <c r="F6" s="106" t="n"/>
-      <c r="G6" s="106" t="n"/>
-      <c r="H6" s="106" t="n"/>
-      <c r="I6" s="106" t="n"/>
-      <c r="J6" s="106" t="n"/>
+      <c r="E6" s="103" t="n">
+        <v>1890802177</v>
+      </c>
+      <c r="F6" s="103" t="n">
+        <v>3246043784</v>
+      </c>
+      <c r="G6" s="103" t="n">
+        <v>3826419796.22</v>
+      </c>
+      <c r="H6" s="103" t="n">
+        <v>5387933</v>
+      </c>
+      <c r="I6" s="103" t="n">
+        <v>1093191</v>
+      </c>
+      <c r="J6" s="103" t="n">
+        <v>19529113800</v>
+      </c>
       <c r="K6" s="77" t="n"/>
-      <c r="L6" s="142" t="n"/>
-      <c r="M6" s="142" t="n"/>
-      <c r="N6" s="142" t="n"/>
-      <c r="O6" s="142" t="n"/>
-      <c r="P6" s="142" t="n"/>
-      <c r="Q6" s="142" t="n"/>
-      <c r="R6" s="142" t="n"/>
-      <c r="S6" s="142" t="n"/>
-      <c r="T6" s="106" t="n">
+      <c r="L6" s="103">
+        <f>+'C:\Users\Usuario\Desktop\Proyecto\recursos\103Cnt II y Filiales\01Conate II\[Estado Financiero Conate II  2022.xls]Ctas'!$D$209</f>
+        <v/>
+      </c>
+      <c r="M6" s="103" t="n"/>
+      <c r="N6" s="103" t="n"/>
+      <c r="O6" s="103" t="n"/>
+      <c r="P6" s="103" t="n"/>
+      <c r="Q6" s="103" t="n"/>
+      <c r="R6" s="103" t="n"/>
+      <c r="S6" s="103" t="n"/>
+      <c r="T6" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U6" s="77" t="n"/>
-      <c r="V6" s="106">
+      <c r="V6" s="103">
         <f>SUM(C6:T6)</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="105" t="inlineStr">
+      <c r="A7" s="102" t="inlineStr">
         <is>
           <t>Otros activos financieros corrientes</t>
         </is>
       </c>
-      <c r="B7" s="99" t="n"/>
-      <c r="C7" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="106" t="n"/>
-      <c r="F7" s="106" t="n"/>
-      <c r="G7" s="106" t="n"/>
-      <c r="H7" s="106" t="n"/>
-      <c r="I7" s="106" t="n"/>
-      <c r="J7" s="106" t="n"/>
+      <c r="B7" s="96" t="n"/>
+      <c r="C7" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" s="77" t="n"/>
-      <c r="L7" s="142" t="n"/>
-      <c r="M7" s="142" t="n"/>
-      <c r="N7" s="142" t="n"/>
-      <c r="O7" s="142" t="n"/>
-      <c r="P7" s="142" t="n"/>
-      <c r="Q7" s="142" t="n"/>
-      <c r="R7" s="142" t="n"/>
-      <c r="S7" s="142" t="n"/>
-      <c r="T7" s="106" t="n">
+      <c r="L7" s="103" t="n"/>
+      <c r="M7" s="103" t="n"/>
+      <c r="N7" s="103" t="n"/>
+      <c r="O7" s="103" t="n"/>
+      <c r="P7" s="103" t="n"/>
+      <c r="Q7" s="103" t="n"/>
+      <c r="R7" s="103" t="n"/>
+      <c r="S7" s="103" t="n"/>
+      <c r="T7" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="77" t="n"/>
-      <c r="V7" s="106">
+      <c r="V7" s="103">
         <f>SUM(C7:T7)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="105" t="inlineStr">
+      <c r="A8" s="102" t="inlineStr">
         <is>
           <t>Otros Activos No Financieros, Corriente</t>
         </is>
       </c>
-      <c r="B8" s="99" t="n"/>
-      <c r="C8" s="106" t="n">
+      <c r="B8" s="96" t="n"/>
+      <c r="C8" s="103" t="n">
         <v>28670407</v>
       </c>
-      <c r="D8" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="106" t="n"/>
-      <c r="F8" s="106" t="n"/>
-      <c r="G8" s="106" t="n"/>
-      <c r="H8" s="106" t="n"/>
-      <c r="I8" s="106" t="n"/>
-      <c r="J8" s="106" t="n"/>
+      <c r="D8" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="103" t="n">
+        <v>28288613</v>
+      </c>
+      <c r="F8" s="103" t="n">
+        <v>466048</v>
+      </c>
+      <c r="G8" s="103" t="n">
+        <v>244845284.66</v>
+      </c>
+      <c r="H8" s="103" t="n">
+        <v>10444966</v>
+      </c>
+      <c r="I8" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="103" t="n">
+        <v>918103580</v>
+      </c>
       <c r="K8" s="77" t="n"/>
-      <c r="L8" s="142" t="n"/>
-      <c r="M8" s="142" t="n"/>
-      <c r="N8" s="142" t="n"/>
-      <c r="O8" s="142" t="n"/>
-      <c r="P8" s="142" t="n"/>
-      <c r="Q8" s="142" t="n"/>
-      <c r="R8" s="142" t="n"/>
-      <c r="S8" s="142" t="n"/>
-      <c r="T8" s="106" t="n">
+      <c r="L8" s="103" t="n"/>
+      <c r="M8" s="103" t="n"/>
+      <c r="N8" s="103" t="n"/>
+      <c r="O8" s="103" t="n"/>
+      <c r="P8" s="103" t="n"/>
+      <c r="Q8" s="103" t="n"/>
+      <c r="R8" s="103" t="n"/>
+      <c r="S8" s="103" t="n"/>
+      <c r="T8" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U8" s="77" t="n"/>
-      <c r="V8" s="106">
+      <c r="V8" s="103">
         <f>SUM(C8:T8)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="105" t="inlineStr">
+      <c r="A9" s="102" t="inlineStr">
         <is>
           <t>Deudores comerciales y otras cuentas por cobrar corrientes</t>
         </is>
       </c>
-      <c r="B9" s="99" t="n"/>
-      <c r="C9" s="106" t="n">
+      <c r="B9" s="96" t="n"/>
+      <c r="C9" s="103" t="n">
         <v>544775395</v>
       </c>
-      <c r="D9" s="106" t="n">
+      <c r="D9" s="103" t="n">
         <v>2340104</v>
       </c>
-      <c r="E9" s="106" t="n"/>
-      <c r="F9" s="106" t="n"/>
-      <c r="G9" s="106" t="n"/>
-      <c r="H9" s="106" t="n"/>
-      <c r="I9" s="106" t="n"/>
-      <c r="J9" s="106" t="n"/>
+      <c r="E9" s="103" t="n">
+        <v>496838638</v>
+      </c>
+      <c r="F9" s="103" t="n">
+        <v>2555362919</v>
+      </c>
+      <c r="G9" s="103" t="n">
+        <v>3069928738.72</v>
+      </c>
+      <c r="H9" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="103" t="n">
+        <v>191674</v>
+      </c>
+      <c r="J9" s="103" t="n">
+        <v>8020150772</v>
+      </c>
       <c r="K9" s="77" t="n"/>
-      <c r="L9" s="143" t="n"/>
-      <c r="M9" s="142" t="n"/>
-      <c r="N9" s="142" t="n"/>
-      <c r="O9" s="142" t="n"/>
-      <c r="P9" s="142" t="n"/>
-      <c r="Q9" s="142" t="n"/>
-      <c r="R9" s="142" t="n"/>
-      <c r="S9" s="142" t="n"/>
-      <c r="T9" s="106" t="n">
+      <c r="L9" s="116" t="n"/>
+      <c r="M9" s="103" t="n"/>
+      <c r="N9" s="103" t="n"/>
+      <c r="O9" s="103" t="n"/>
+      <c r="P9" s="103" t="n"/>
+      <c r="Q9" s="103" t="n"/>
+      <c r="R9" s="103" t="n"/>
+      <c r="S9" s="103" t="n"/>
+      <c r="T9" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U9" s="77" t="n"/>
-      <c r="V9" s="106">
+      <c r="V9" s="103">
         <f>SUM(C9:T9)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="107" t="inlineStr">
+      <c r="A10" s="104" t="inlineStr">
         <is>
           <t>Cuentas por Cobrar a Entidades Relacionadas, Corriente</t>
         </is>
       </c>
-      <c r="B10" s="108" t="n"/>
-      <c r="C10" s="109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="109" t="n"/>
-      <c r="F10" s="109" t="n"/>
-      <c r="G10" s="109" t="n"/>
-      <c r="H10" s="109" t="n"/>
-      <c r="I10" s="109" t="n"/>
-      <c r="J10" s="109" t="n"/>
-      <c r="K10" s="144" t="n"/>
-      <c r="L10" s="145" t="n"/>
-      <c r="M10" s="145" t="n"/>
-      <c r="N10" s="145" t="n"/>
-      <c r="O10" s="145" t="n"/>
-      <c r="P10" s="145" t="n"/>
-      <c r="Q10" s="145" t="n"/>
-      <c r="R10" s="145" t="n"/>
-      <c r="S10" s="145" t="n"/>
-      <c r="T10" s="109" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="144" t="n"/>
-      <c r="V10" s="109">
+      <c r="B10" s="105" t="n"/>
+      <c r="C10" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="139" t="n"/>
+      <c r="L10" s="106" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M10" s="106" t="n"/>
+      <c r="N10" s="106" t="n"/>
+      <c r="O10" s="106" t="n"/>
+      <c r="P10" s="106" t="n"/>
+      <c r="Q10" s="106" t="n"/>
+      <c r="R10" s="106" t="n"/>
+      <c r="S10" s="106" t="n"/>
+      <c r="T10" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="139" t="n"/>
+      <c r="V10" s="106">
         <f>SUM(C10:T10)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="105" t="inlineStr">
+      <c r="A11" s="102" t="inlineStr">
         <is>
           <t>Inventarios</t>
         </is>
       </c>
-      <c r="B11" s="99" t="n"/>
-      <c r="C11" s="106" t="n">
+      <c r="B11" s="96" t="n"/>
+      <c r="C11" s="103" t="n">
         <v>53135152</v>
       </c>
-      <c r="D11" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="106" t="n"/>
-      <c r="F11" s="106" t="n"/>
-      <c r="G11" s="106" t="n"/>
-      <c r="H11" s="106" t="n"/>
-      <c r="I11" s="106" t="n"/>
-      <c r="J11" s="106" t="n"/>
+      <c r="D11" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="103" t="n">
+        <v>6981384</v>
+      </c>
+      <c r="G11" s="103" t="n">
+        <v>17627292.56</v>
+      </c>
+      <c r="H11" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="103" t="n">
+        <v>922381337</v>
+      </c>
       <c r="K11" s="77" t="n"/>
-      <c r="L11" s="142" t="n"/>
-      <c r="M11" s="142" t="n"/>
-      <c r="N11" s="142" t="n"/>
-      <c r="O11" s="142" t="n"/>
-      <c r="P11" s="142" t="n"/>
-      <c r="Q11" s="142" t="n"/>
-      <c r="R11" s="142" t="n"/>
-      <c r="S11" s="142" t="n"/>
-      <c r="T11" s="106" t="n">
+      <c r="L11" s="103">
+        <f>C6+D6</f>
+        <v/>
+      </c>
+      <c r="M11" s="103" t="n"/>
+      <c r="N11" s="103" t="n"/>
+      <c r="O11" s="103" t="n"/>
+      <c r="P11" s="103" t="n"/>
+      <c r="Q11" s="103" t="n"/>
+      <c r="R11" s="103" t="n"/>
+      <c r="S11" s="103" t="n"/>
+      <c r="T11" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U11" s="77" t="n"/>
-      <c r="V11" s="106">
+      <c r="V11" s="103">
         <f>SUM(C11:T11)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="105" t="inlineStr">
+      <c r="A12" s="102" t="inlineStr">
         <is>
           <t>Activos biológicos corrientes</t>
         </is>
       </c>
-      <c r="B12" s="99" t="n"/>
-      <c r="C12" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="106" t="n"/>
-      <c r="F12" s="106" t="n"/>
-      <c r="G12" s="106" t="n"/>
-      <c r="H12" s="106" t="n"/>
-      <c r="I12" s="106" t="n"/>
-      <c r="J12" s="106" t="n"/>
+      <c r="B12" s="96" t="n"/>
+      <c r="C12" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" s="77" t="n"/>
-      <c r="L12" s="142" t="n"/>
-      <c r="M12" s="142" t="n"/>
-      <c r="N12" s="142" t="n"/>
-      <c r="O12" s="142" t="n"/>
-      <c r="P12" s="142" t="n"/>
-      <c r="Q12" s="142" t="n"/>
-      <c r="R12" s="142" t="n"/>
-      <c r="S12" s="142" t="n"/>
-      <c r="T12" s="106" t="n">
+      <c r="L12" s="103" t="n"/>
+      <c r="M12" s="103" t="n"/>
+      <c r="N12" s="103" t="n"/>
+      <c r="O12" s="103" t="n"/>
+      <c r="P12" s="103" t="n"/>
+      <c r="Q12" s="103" t="n"/>
+      <c r="R12" s="103" t="n"/>
+      <c r="S12" s="103" t="n"/>
+      <c r="T12" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U12" s="77" t="n"/>
-      <c r="V12" s="106">
+      <c r="V12" s="103">
         <f>SUM(C12:T12)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="105" t="inlineStr">
+      <c r="A13" s="102" t="inlineStr">
         <is>
           <t>Activos por impuestos corrientes</t>
         </is>
       </c>
-      <c r="B13" s="99" t="n"/>
-      <c r="C13" s="106" t="n">
+      <c r="B13" s="96" t="n"/>
+      <c r="C13" s="103" t="n">
         <v>668517589</v>
       </c>
-      <c r="D13" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="106" t="n"/>
-      <c r="F13" s="106" t="n"/>
-      <c r="G13" s="106" t="n"/>
-      <c r="H13" s="106" t="n"/>
-      <c r="I13" s="106" t="n"/>
-      <c r="J13" s="106" t="n"/>
+      <c r="D13" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="103" t="n">
+        <v>4633528</v>
+      </c>
+      <c r="F13" s="103" t="n">
+        <v>76312982</v>
+      </c>
+      <c r="G13" s="103" t="n">
+        <v>954474894.46</v>
+      </c>
+      <c r="H13" s="103" t="n">
+        <v>21855290</v>
+      </c>
+      <c r="I13" s="103" t="n">
+        <v>17123867</v>
+      </c>
+      <c r="J13" s="103" t="n">
+        <v>632874679</v>
+      </c>
       <c r="K13" s="77" t="n"/>
-      <c r="L13" s="142" t="n"/>
-      <c r="M13" s="142" t="n"/>
-      <c r="N13" s="142" t="n"/>
-      <c r="O13" s="142" t="n"/>
-      <c r="P13" s="142" t="n"/>
-      <c r="Q13" s="142" t="n"/>
-      <c r="R13" s="142" t="n"/>
-      <c r="S13" s="142" t="n"/>
-      <c r="T13" s="106" t="n">
+      <c r="L13" s="103" t="n"/>
+      <c r="M13" s="103" t="n"/>
+      <c r="N13" s="103" t="n"/>
+      <c r="O13" s="103" t="n"/>
+      <c r="P13" s="103" t="n"/>
+      <c r="Q13" s="103" t="n"/>
+      <c r="R13" s="103" t="n"/>
+      <c r="S13" s="103" t="n"/>
+      <c r="T13" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U13" s="77" t="n"/>
-      <c r="V13" s="106">
+      <c r="V13" s="103">
         <f>SUM(C13:T13)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="48" customHeight="1">
-      <c r="A14" s="110" t="inlineStr">
+    <row r="14" ht="36" customHeight="1">
+      <c r="A14" s="107" t="inlineStr">
         <is>
           <t>Total de activos corrientes distintos de los activos o grupos de activos para su disposición clasificados como mantenidos para la venta o como mantenidos para distribuir a los propietarios</t>
         </is>
       </c>
-      <c r="B14" s="99" t="n"/>
-      <c r="C14" s="111">
+      <c r="B14" s="96" t="n"/>
+      <c r="C14" s="108">
         <f>SUM(C6:C13)</f>
         <v/>
       </c>
-      <c r="D14" s="111">
+      <c r="D14" s="108">
         <f>SUM(D6:D13)</f>
         <v/>
       </c>
-      <c r="E14" s="111">
+      <c r="E14" s="108">
         <f>SUM(E6:E13)</f>
         <v/>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="108">
         <f>SUM(F6:F13)</f>
         <v/>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="108">
         <f>SUM(G6:G13)</f>
         <v/>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="108">
         <f>SUM(H6:H13)</f>
         <v/>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="108">
         <f>SUM(I6:I13)</f>
         <v/>
       </c>
-      <c r="J14" s="111">
+      <c r="J14" s="108">
         <f>SUM(J6:J13)</f>
         <v/>
       </c>
       <c r="K14" s="77" t="n"/>
-      <c r="L14" s="146">
+      <c r="L14" s="140">
         <f>SUM(L6:L13)</f>
         <v/>
       </c>
-      <c r="M14" s="146">
+      <c r="M14" s="140">
         <f>SUM(M6:M13)</f>
         <v/>
       </c>
-      <c r="N14" s="146">
+      <c r="N14" s="140">
         <f>SUM(N6:N13)</f>
         <v/>
       </c>
-      <c r="O14" s="146">
+      <c r="O14" s="140">
         <f>SUM(O6:O13)</f>
         <v/>
       </c>
-      <c r="P14" s="146">
+      <c r="P14" s="140">
         <f>SUM(P6:P13)</f>
         <v/>
       </c>
-      <c r="Q14" s="146">
+      <c r="Q14" s="140">
         <f>SUM(Q6:Q13)</f>
         <v/>
       </c>
-      <c r="R14" s="146">
+      <c r="R14" s="140">
         <f>SUM(R6:R13)</f>
         <v/>
       </c>
-      <c r="S14" s="146" t="n"/>
-      <c r="T14" s="146">
+      <c r="S14" s="140" t="n"/>
+      <c r="T14" s="140">
         <f>SUM(T6:T13)</f>
         <v/>
       </c>
       <c r="U14" s="77" t="n"/>
-      <c r="V14" s="111">
+      <c r="V14" s="108">
         <f>SUM(V6:V13)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="36" customHeight="1">
-      <c r="A15" s="112" t="inlineStr">
+    <row r="15" ht="24" customHeight="1">
+      <c r="A15" s="109" t="inlineStr">
         <is>
           <t xml:space="preserve">Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para la venta </t>
         </is>
       </c>
-      <c r="B15" s="99" t="n"/>
-      <c r="C15" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="106" t="n"/>
-      <c r="F15" s="106" t="n"/>
-      <c r="G15" s="106" t="n"/>
-      <c r="H15" s="106" t="n"/>
-      <c r="I15" s="106" t="n"/>
-      <c r="J15" s="106" t="n"/>
+      <c r="B15" s="96" t="n"/>
+      <c r="C15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" s="77" t="n"/>
-      <c r="L15" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="142" t="n"/>
-      <c r="T15" s="106" t="n">
+      <c r="L15" s="103" t="n"/>
+      <c r="M15" s="103" t="n"/>
+      <c r="N15" s="103" t="n"/>
+      <c r="O15" s="103" t="n"/>
+      <c r="P15" s="103" t="n"/>
+      <c r="Q15" s="103" t="n"/>
+      <c r="R15" s="103" t="n"/>
+      <c r="S15" s="103" t="n"/>
+      <c r="T15" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U15" s="77" t="n"/>
-      <c r="V15" s="106">
+      <c r="V15" s="103">
         <f>SUM(C15:T15)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="36" customHeight="1">
-      <c r="A16" s="112" t="inlineStr">
+    <row r="16" ht="24" customHeight="1">
+      <c r="A16" s="109" t="inlineStr">
         <is>
           <t>Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para distribuir a los propietarios</t>
         </is>
       </c>
-      <c r="B16" s="99" t="n"/>
-      <c r="C16" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="106" t="n"/>
-      <c r="F16" s="106" t="n"/>
-      <c r="G16" s="106" t="n"/>
-      <c r="H16" s="106" t="n"/>
-      <c r="I16" s="106" t="n"/>
-      <c r="J16" s="106" t="n"/>
+      <c r="B16" s="96" t="n"/>
+      <c r="C16" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" s="77" t="n"/>
-      <c r="L16" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="142" t="n"/>
-      <c r="T16" s="106" t="n">
+      <c r="L16" s="103" t="n"/>
+      <c r="M16" s="103" t="n"/>
+      <c r="N16" s="103" t="n"/>
+      <c r="O16" s="103" t="n"/>
+      <c r="P16" s="103" t="n"/>
+      <c r="Q16" s="103" t="n"/>
+      <c r="R16" s="103" t="n"/>
+      <c r="S16" s="103" t="n"/>
+      <c r="T16" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U16" s="77" t="n"/>
-      <c r="V16" s="106">
+      <c r="V16" s="103">
         <f>SUM(C16:T16)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="48" customHeight="1">
-      <c r="A17" s="110" t="inlineStr">
+    <row r="17" ht="36" customHeight="1">
+      <c r="A17" s="107" t="inlineStr">
         <is>
           <t>Activos no corrientes o grupos de activos para su disposición clasificados como mantenidos para la venta o como mantenidos para distribuir a los propietarios</t>
         </is>
       </c>
-      <c r="B17" s="99" t="n"/>
-      <c r="C17" s="111">
+      <c r="B17" s="96" t="n"/>
+      <c r="C17" s="108">
         <f>+C15+C16</f>
         <v/>
       </c>
-      <c r="D17" s="111">
+      <c r="D17" s="108">
         <f>+D15+D16</f>
         <v/>
       </c>
-      <c r="E17" s="111">
+      <c r="E17" s="108">
         <f>+E15+E16</f>
         <v/>
       </c>
-      <c r="F17" s="111">
+      <c r="F17" s="108">
         <f>+F15+F16</f>
         <v/>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="108">
         <f>+G15+G16</f>
         <v/>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="108">
         <f>+H15+H16</f>
         <v/>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="108">
         <f>+I15+I16</f>
         <v/>
       </c>
-      <c r="J17" s="111" t="n"/>
+      <c r="J17" s="108" t="n"/>
       <c r="K17" s="77" t="n"/>
-      <c r="L17" s="146">
+      <c r="L17" s="140">
         <f>+L15+L16</f>
         <v/>
       </c>
-      <c r="M17" s="146">
+      <c r="M17" s="140">
         <f>+M15+M16</f>
         <v/>
       </c>
-      <c r="N17" s="146">
+      <c r="N17" s="140">
         <f>+N15+N16</f>
         <v/>
       </c>
-      <c r="O17" s="146">
+      <c r="O17" s="140">
         <f>+O15+O16</f>
         <v/>
       </c>
-      <c r="P17" s="146">
+      <c r="P17" s="140">
         <f>+P15+P16</f>
         <v/>
       </c>
-      <c r="Q17" s="146">
+      <c r="Q17" s="140">
         <f>+Q15+Q16</f>
         <v/>
       </c>
-      <c r="R17" s="146">
+      <c r="R17" s="140">
         <f>+R15+R16</f>
         <v/>
       </c>
-      <c r="S17" s="146" t="n"/>
-      <c r="T17" s="146">
+      <c r="S17" s="140" t="n"/>
+      <c r="T17" s="140">
         <f>+T15+T16</f>
         <v/>
       </c>
       <c r="U17" s="77" t="n"/>
-      <c r="V17" s="111">
+      <c r="V17" s="108">
         <f>+V15+V16</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="113" t="inlineStr">
+      <c r="A18" s="110" t="inlineStr">
         <is>
           <t>Activos corrientes totales</t>
         </is>
       </c>
-      <c r="B18" s="99" t="n"/>
-      <c r="C18" s="114">
+      <c r="B18" s="96" t="n"/>
+      <c r="C18" s="111">
         <f>+C14+C17</f>
         <v/>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="111">
         <f>+D14+D17</f>
         <v/>
       </c>
-      <c r="E18" s="114">
+      <c r="E18" s="111">
         <f>+E14+E17</f>
         <v/>
       </c>
-      <c r="F18" s="114">
+      <c r="F18" s="111">
         <f>+F14+F17</f>
         <v/>
       </c>
-      <c r="G18" s="114">
+      <c r="G18" s="111">
         <f>+G14+G17</f>
         <v/>
       </c>
-      <c r="H18" s="114">
+      <c r="H18" s="111">
         <f>+H14+H17</f>
         <v/>
       </c>
-      <c r="I18" s="114">
+      <c r="I18" s="111">
         <f>+I14+I17</f>
         <v/>
       </c>
-      <c r="J18" s="114">
+      <c r="J18" s="111">
         <f>+J14+J17</f>
         <v/>
       </c>
       <c r="K18" s="77" t="n"/>
-      <c r="L18" s="114">
+      <c r="L18" s="111">
         <f>+L14+L17</f>
         <v/>
       </c>
-      <c r="M18" s="114">
+      <c r="M18" s="111">
         <f>+M14+M17</f>
         <v/>
       </c>
-      <c r="N18" s="114">
+      <c r="N18" s="111">
         <f>+N14+N17</f>
         <v/>
       </c>
-      <c r="O18" s="114">
+      <c r="O18" s="111">
         <f>+O14+O17</f>
         <v/>
       </c>
-      <c r="P18" s="114">
+      <c r="P18" s="111">
         <f>+P14+P17</f>
         <v/>
       </c>
-      <c r="Q18" s="114">
+      <c r="Q18" s="111">
         <f>+Q14+Q17</f>
         <v/>
       </c>
-      <c r="R18" s="114">
+      <c r="R18" s="111">
         <f>+R14+R17</f>
         <v/>
       </c>
-      <c r="S18" s="114" t="n"/>
-      <c r="T18" s="114">
+      <c r="S18" s="111" t="n"/>
+      <c r="T18" s="111">
         <f>+T14+T17</f>
         <v/>
       </c>
       <c r="U18" s="77" t="n"/>
-      <c r="V18" s="114">
+      <c r="V18" s="111">
         <f>+V14+V17</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="45" customHeight="1">
-      <c r="A19" s="104" t="inlineStr">
+      <c r="A19" s="101" t="inlineStr">
         <is>
           <t>Activos no corrientes</t>
         </is>
       </c>
-      <c r="B19" s="99" t="n"/>
-      <c r="C19" s="103" t="n"/>
-      <c r="D19" s="103" t="n"/>
-      <c r="E19" s="103" t="n"/>
-      <c r="F19" s="103" t="n"/>
-      <c r="G19" s="103" t="n"/>
-      <c r="H19" s="103" t="n"/>
-      <c r="I19" s="103" t="n"/>
-      <c r="J19" s="103" t="n"/>
+      <c r="B19" s="96" t="n"/>
+      <c r="C19" s="100" t="n"/>
+      <c r="D19" s="100" t="n"/>
+      <c r="E19" s="100" t="n"/>
+      <c r="F19" s="100" t="n"/>
+      <c r="G19" s="100" t="n"/>
+      <c r="H19" s="100" t="n"/>
+      <c r="I19" s="100" t="n"/>
+      <c r="J19" s="100" t="n"/>
       <c r="K19" s="77" t="n"/>
-      <c r="L19" s="141" t="n"/>
-      <c r="M19" s="141" t="n"/>
-      <c r="N19" s="141" t="n"/>
-      <c r="O19" s="141" t="n"/>
-      <c r="P19" s="141" t="n"/>
-      <c r="Q19" s="141" t="n"/>
-      <c r="R19" s="141" t="n"/>
-      <c r="S19" s="141" t="n"/>
-      <c r="T19" s="141" t="n"/>
+      <c r="L19" s="138" t="n"/>
+      <c r="M19" s="138" t="n"/>
+      <c r="N19" s="138" t="n"/>
+      <c r="O19" s="138" t="n"/>
+      <c r="P19" s="138" t="n"/>
+      <c r="Q19" s="138" t="n"/>
+      <c r="R19" s="138" t="n"/>
+      <c r="S19" s="138" t="n"/>
+      <c r="T19" s="138" t="n"/>
       <c r="U19" s="77" t="n"/>
-      <c r="V19" s="103" t="n"/>
+      <c r="V19" s="100" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="115" t="inlineStr">
+      <c r="A20" s="112" t="inlineStr">
         <is>
           <t>Otros activos financieros no corrientes</t>
         </is>
       </c>
-      <c r="B20" s="99" t="n"/>
-      <c r="C20" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="116" t="n"/>
-      <c r="F20" s="116" t="n"/>
-      <c r="G20" s="116" t="n"/>
-      <c r="H20" s="116" t="n"/>
-      <c r="I20" s="116" t="n"/>
-      <c r="J20" s="116" t="n"/>
+      <c r="B20" s="96" t="n"/>
+      <c r="C20" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="113" t="n">
+        <v>2072568436.67</v>
+      </c>
+      <c r="F20" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="113" t="n">
+        <v>11222624019</v>
+      </c>
       <c r="K20" s="77" t="n"/>
-      <c r="L20" s="147" t="n"/>
-      <c r="M20" s="147" t="n"/>
-      <c r="N20" s="147" t="n"/>
-      <c r="O20" s="147" t="n"/>
-      <c r="P20" s="147" t="n"/>
-      <c r="Q20" s="147" t="n"/>
-      <c r="R20" s="147" t="n"/>
-      <c r="S20" s="147" t="n"/>
-      <c r="T20" s="106" t="n">
+      <c r="L20" s="113" t="n"/>
+      <c r="M20" s="113" t="n"/>
+      <c r="N20" s="113" t="n"/>
+      <c r="O20" s="113" t="n"/>
+      <c r="P20" s="113" t="n"/>
+      <c r="Q20" s="113" t="n"/>
+      <c r="R20" s="113" t="n"/>
+      <c r="S20" s="113" t="n"/>
+      <c r="T20" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="77" t="n"/>
-      <c r="V20" s="116">
+      <c r="V20" s="113">
         <f>SUM(C20:T20)</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="117" t="inlineStr">
+      <c r="A21" s="114" t="inlineStr">
         <is>
           <t>Otros activos no financieros no corrientes</t>
         </is>
       </c>
-      <c r="B21" s="99" t="n"/>
-      <c r="C21" s="106" t="n">
+      <c r="B21" s="96" t="n"/>
+      <c r="C21" s="103" t="n">
         <v>7244332690</v>
       </c>
-      <c r="D21" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="106" t="n"/>
-      <c r="F21" s="106" t="n"/>
-      <c r="G21" s="106" t="n"/>
-      <c r="H21" s="106" t="n"/>
-      <c r="I21" s="106" t="n"/>
-      <c r="J21" s="106" t="n"/>
+      <c r="D21" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="103" t="n">
+        <v>745758745</v>
+      </c>
+      <c r="F21" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="103" t="n">
+        <v>16641984</v>
+      </c>
       <c r="K21" s="77" t="n"/>
-      <c r="L21" s="148" t="n"/>
-      <c r="M21" s="142" t="n"/>
-      <c r="N21" s="142" t="n"/>
-      <c r="O21" s="142" t="n"/>
-      <c r="P21" s="142" t="n"/>
-      <c r="Q21" s="157" t="n"/>
-      <c r="R21" s="142" t="n"/>
-      <c r="S21" s="157" t="n"/>
-      <c r="T21" s="106" t="n">
+      <c r="L21" s="141" t="n"/>
+      <c r="M21" s="103" t="n"/>
+      <c r="N21" s="103" t="n"/>
+      <c r="O21" s="103" t="n"/>
+      <c r="P21" s="103" t="n"/>
+      <c r="Q21" s="148" t="n"/>
+      <c r="R21" s="103" t="n"/>
+      <c r="S21" s="148" t="n"/>
+      <c r="T21" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U21" s="77" t="n"/>
-      <c r="V21" s="106">
+      <c r="V21" s="103">
         <f>SUM(C21:T21)</f>
         <v/>
       </c>
+      <c r="W21" s="149" t="inlineStr">
+        <is>
+          <t>Sonus</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="117" t="inlineStr">
+      <c r="A22" s="114" t="inlineStr">
         <is>
           <t>Derechos por cobrar no corrientes</t>
         </is>
       </c>
-      <c r="B22" s="99" t="n"/>
-      <c r="C22" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="106" t="n"/>
-      <c r="F22" s="106" t="n"/>
-      <c r="G22" s="106" t="n"/>
-      <c r="H22" s="106" t="n"/>
-      <c r="I22" s="106" t="n"/>
-      <c r="J22" s="106" t="n"/>
+      <c r="B22" s="96" t="n"/>
+      <c r="C22" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" s="77" t="n"/>
-      <c r="M22" s="142" t="n"/>
-      <c r="N22" s="142" t="n"/>
-      <c r="O22" s="142" t="n"/>
-      <c r="P22" s="142" t="n"/>
-      <c r="Q22" s="142" t="n"/>
-      <c r="R22" s="142" t="n"/>
-      <c r="S22" s="142" t="n"/>
-      <c r="T22" s="106" t="n">
+      <c r="M22" s="103" t="n"/>
+      <c r="N22" s="103" t="n"/>
+      <c r="O22" s="103" t="n"/>
+      <c r="P22" s="103" t="n"/>
+      <c r="Q22" s="103" t="n"/>
+      <c r="R22" s="103" t="n"/>
+      <c r="S22" s="103" t="n"/>
+      <c r="T22" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="77" t="n"/>
-      <c r="V22" s="106">
+      <c r="V22" s="103">
         <f>SUM(C22:T22)</f>
         <v/>
       </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="A23" s="118" t="inlineStr">
+      <c r="W22" s="149" t="inlineStr">
+        <is>
+          <t>Fundación</t>
+        </is>
+      </c>
+      <c r="X22" s="150">
+        <f>+'[4]Estado$'!$AG$22</f>
+        <v/>
+      </c>
+      <c r="Y22" s="150">
+        <f>+'[4]Estado$'!$AL$22</f>
+        <v/>
+      </c>
+      <c r="Z22" s="152">
+        <f>+'[4]Estado$'!$AM$22</f>
+        <v/>
+      </c>
+      <c r="AA22" s="155" t="inlineStr">
+        <is>
+          <t>Surface</t>
+        </is>
+      </c>
+      <c r="AB22" s="156">
+        <f>+'[4]Estado$'!$AE$22</f>
+        <v/>
+      </c>
+      <c r="AD22" s="157" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="115" t="inlineStr">
         <is>
           <t>Cuentas por Cobrar a Entidades Relacionadas, No Corriente</t>
         </is>
       </c>
-      <c r="B23" s="99" t="n"/>
-      <c r="C23" s="119" t="n">
+      <c r="B23" s="96" t="n"/>
+      <c r="C23" s="116" t="n">
         <v>3706892400</v>
       </c>
-      <c r="D23" s="119" t="n">
+      <c r="D23" s="116" t="n">
         <v>212649967</v>
       </c>
-      <c r="E23" s="119" t="n"/>
-      <c r="F23" s="119" t="n"/>
-      <c r="G23" s="119" t="n"/>
-      <c r="H23" s="119" t="n"/>
-      <c r="I23" s="119" t="n"/>
-      <c r="J23" s="119" t="n"/>
-      <c r="K23" s="149" t="n"/>
-      <c r="L23" s="143" t="n"/>
-      <c r="M23" s="143" t="n"/>
-      <c r="N23" s="143" t="n"/>
-      <c r="O23" s="143" t="n"/>
-      <c r="P23" s="143" t="n"/>
-      <c r="Q23" s="143" t="n"/>
-      <c r="R23" s="143" t="n"/>
-      <c r="S23" s="143" t="n"/>
-      <c r="T23" s="119" t="n">
+      <c r="E23" s="116" t="n">
+        <v>8586449380</v>
+      </c>
+      <c r="F23" s="116" t="n">
+        <v>271744</v>
+      </c>
+      <c r="G23" s="116" t="n">
+        <v>1923515459.057696</v>
+      </c>
+      <c r="H23" s="116" t="n">
+        <v>300360854</v>
+      </c>
+      <c r="I23" s="116" t="n">
+        <v>175296882</v>
+      </c>
+      <c r="J23" s="116" t="n">
+        <v>6997365974</v>
+      </c>
+      <c r="K23" s="142" t="n"/>
+      <c r="L23" s="116" t="n"/>
+      <c r="M23" s="116" t="n"/>
+      <c r="N23" s="116" t="n"/>
+      <c r="O23" s="116" t="n"/>
+      <c r="P23" s="116" t="n"/>
+      <c r="Q23" s="116" t="n"/>
+      <c r="R23" s="116" t="n"/>
+      <c r="S23" s="116" t="n"/>
+      <c r="T23" s="116" t="n">
         <v>0</v>
       </c>
       <c r="U23" s="77" t="n"/>
-      <c r="V23" s="119">
+      <c r="V23" s="116">
         <f>SUM(C23:T23)</f>
         <v/>
       </c>
+      <c r="W23" s="242">
+        <f>+[8]Estado!$AC$23</f>
+        <v/>
+      </c>
+      <c r="X23" s="152" t="n"/>
+      <c r="Y23" s="152">
+        <f>+'[11]Estado$'!$AL$23+'[11]Estado$'!$AP$23+'[11]Estado$'!$AR$23</f>
+        <v/>
+      </c>
+      <c r="Z23" s="152" t="n"/>
+      <c r="AA23" s="243">
+        <f>+'[11]Estado$'!$AN$23</f>
+        <v/>
+      </c>
+      <c r="AB23" s="152">
+        <f>+'[11]Estado$'!$AE$23</f>
+        <v/>
+      </c>
+      <c r="AC23" s="242" t="n"/>
+      <c r="AD23" s="244">
+        <f>SUM(W23:AC23)</f>
+        <v/>
+      </c>
+      <c r="AE23" s="242">
+        <f>+V23-AD23</f>
+        <v/>
+      </c>
+      <c r="AF23" s="93">
+        <f>+'[12]Detalle Cta Cte  Reclasi(Final)'!$BM$43</f>
+        <v/>
+      </c>
+      <c r="AG23" s="93">
+        <f>+AE23-AF23</f>
+        <v/>
+      </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
-      <c r="A24" s="120" t="inlineStr">
+      <c r="A24" s="117" t="inlineStr">
         <is>
           <t>Inversiones contabilizadas utilizando el método de la participación</t>
         </is>
       </c>
-      <c r="B24" s="99" t="n"/>
-      <c r="C24" s="121" t="n">
+      <c r="B24" s="96" t="n"/>
+      <c r="C24" s="118" t="n">
         <v>66927963658</v>
       </c>
-      <c r="D24" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="121" t="n"/>
-      <c r="F24" s="121" t="n"/>
-      <c r="G24" s="121" t="n"/>
-      <c r="H24" s="121" t="n"/>
-      <c r="I24" s="121" t="n"/>
-      <c r="J24" s="121" t="n"/>
+      <c r="D24" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="118" t="n">
+        <v>287360463</v>
+      </c>
+      <c r="F24" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="118" t="n">
+        <v>5256221824.26</v>
+      </c>
+      <c r="H24" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="118" t="n">
+        <v>5275727314</v>
+      </c>
       <c r="K24" s="77" t="n"/>
-      <c r="L24" s="150" t="n"/>
-      <c r="M24" s="148" t="n"/>
-      <c r="N24" s="150" t="n"/>
-      <c r="O24" s="150" t="n"/>
-      <c r="P24" s="150" t="n"/>
-      <c r="Q24" s="150" t="n"/>
-      <c r="R24" s="150" t="n"/>
-      <c r="S24" s="150" t="n"/>
-      <c r="T24" s="158">
+      <c r="L24" s="143" t="n"/>
+      <c r="M24" s="141" t="n"/>
+      <c r="N24" s="143" t="n"/>
+      <c r="O24" s="143" t="n"/>
+      <c r="P24" s="143" t="n"/>
+      <c r="Q24" s="143" t="n"/>
+      <c r="R24" s="143" t="n"/>
+      <c r="S24" s="143" t="n"/>
+      <c r="T24" s="143">
         <f>-#REF!</f>
         <v/>
       </c>
       <c r="U24" s="77" t="n"/>
-      <c r="V24" s="119">
+      <c r="V24" s="116">
         <f>SUM(B24:S24)</f>
         <v/>
       </c>
+      <c r="AE24" s="242">
+        <f>+#REF!</f>
+        <v/>
+      </c>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="117" t="inlineStr">
+      <c r="A25" s="114" t="inlineStr">
         <is>
           <t>Activos intangibles distintos de la plusvalía</t>
         </is>
       </c>
-      <c r="B25" s="99" t="n"/>
-      <c r="C25" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="106" t="n"/>
-      <c r="F25" s="106" t="n"/>
-      <c r="G25" s="106" t="n"/>
-      <c r="H25" s="106" t="n"/>
-      <c r="I25" s="106" t="n"/>
-      <c r="J25" s="106" t="n"/>
+      <c r="B25" s="96" t="n"/>
+      <c r="C25" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="103" t="n">
+        <v>1080743206</v>
+      </c>
+      <c r="F25" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="103" t="n">
+        <v>6059</v>
+      </c>
       <c r="K25" s="77" t="n"/>
-      <c r="L25" s="142" t="n"/>
-      <c r="M25" s="142" t="n"/>
-      <c r="N25" s="142" t="n"/>
-      <c r="O25" s="142" t="n"/>
-      <c r="P25" s="142" t="n"/>
-      <c r="Q25" s="142" t="n"/>
-      <c r="R25" s="142" t="n"/>
-      <c r="S25" s="142" t="n"/>
-      <c r="T25" s="106" t="n">
+      <c r="L25" s="103" t="n"/>
+      <c r="M25" s="103" t="n"/>
+      <c r="N25" s="103" t="n"/>
+      <c r="O25" s="103" t="n"/>
+      <c r="P25" s="103" t="n"/>
+      <c r="Q25" s="103" t="n"/>
+      <c r="R25" s="103" t="n"/>
+      <c r="S25" s="103" t="n"/>
+      <c r="T25" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U25" s="77" t="n"/>
-      <c r="V25" s="106">
+      <c r="V25" s="103">
         <f>SUM(C25:T25)</f>
         <v/>
       </c>
+      <c r="X25" s="150" t="n"/>
+      <c r="AE25" s="242">
+        <f>+AE23-AE24</f>
+        <v/>
+      </c>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="117" t="inlineStr">
+      <c r="A26" s="114" t="inlineStr">
         <is>
           <t>Plusvalía</t>
         </is>
       </c>
-      <c r="B26" s="99" t="n"/>
-      <c r="C26" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="106" t="n"/>
-      <c r="F26" s="106" t="n"/>
-      <c r="G26" s="106" t="n"/>
-      <c r="H26" s="106" t="n"/>
-      <c r="I26" s="106" t="n"/>
-      <c r="J26" s="106" t="n"/>
+      <c r="B26" s="96" t="n"/>
+      <c r="C26" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="103" t="n">
+        <v>403110</v>
+      </c>
       <c r="K26" s="77" t="n"/>
-      <c r="L26" s="142" t="n"/>
-      <c r="M26" s="142" t="n"/>
-      <c r="N26" s="142" t="n"/>
-      <c r="O26" s="142" t="n"/>
-      <c r="P26" s="142" t="n"/>
-      <c r="Q26" s="142" t="n"/>
-      <c r="R26" s="142" t="n"/>
-      <c r="S26" s="142" t="n"/>
-      <c r="T26" s="106" t="n">
+      <c r="L26" s="103" t="n"/>
+      <c r="M26" s="103" t="n"/>
+      <c r="N26" s="103" t="n"/>
+      <c r="O26" s="103" t="n"/>
+      <c r="P26" s="103" t="n"/>
+      <c r="Q26" s="103" t="n"/>
+      <c r="R26" s="103" t="n"/>
+      <c r="S26" s="103" t="n"/>
+      <c r="T26" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="77" t="n"/>
-      <c r="V26" s="106">
+      <c r="V26" s="103">
         <f>SUM(C26:T26)</f>
         <v/>
       </c>
+      <c r="X26" s="152" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="117" t="inlineStr">
+      <c r="A27" s="114" t="inlineStr">
         <is>
           <t>Propiedades, Planta y Equipo</t>
         </is>
       </c>
-      <c r="B27" s="99" t="n"/>
-      <c r="C27" s="106" t="n">
+      <c r="B27" s="96" t="n"/>
+      <c r="C27" s="103" t="n">
         <v>7219481303</v>
       </c>
-      <c r="D27" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="106" t="n"/>
-      <c r="F27" s="106" t="n"/>
-      <c r="G27" s="106" t="n"/>
-      <c r="H27" s="106" t="n"/>
-      <c r="I27" s="106" t="n"/>
-      <c r="J27" s="106" t="n"/>
+      <c r="D27" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="103" t="n">
+        <v>74429346</v>
+      </c>
+      <c r="F27" s="103" t="n">
+        <v>1166316</v>
+      </c>
+      <c r="G27" s="103" t="n">
+        <v>539360404.4200001</v>
+      </c>
+      <c r="H27" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="103" t="n">
+        <v>9234185858</v>
+      </c>
       <c r="K27" s="77" t="n"/>
-      <c r="L27" s="142" t="n"/>
-      <c r="M27" s="142" t="n"/>
-      <c r="N27" s="142" t="n"/>
-      <c r="O27" s="142" t="n"/>
-      <c r="P27" s="142" t="n"/>
-      <c r="Q27" s="142" t="n"/>
-      <c r="R27" s="142" t="n"/>
-      <c r="S27" s="142" t="n"/>
-      <c r="T27" s="106" t="n">
+      <c r="L27" s="103" t="n"/>
+      <c r="M27" s="103" t="n"/>
+      <c r="N27" s="103" t="n"/>
+      <c r="O27" s="103" t="n"/>
+      <c r="P27" s="103" t="n"/>
+      <c r="Q27" s="103" t="n"/>
+      <c r="R27" s="103" t="n"/>
+      <c r="S27" s="103" t="n"/>
+      <c r="T27" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U27" s="77" t="n"/>
-      <c r="V27" s="106">
+      <c r="V27" s="103">
         <f>SUM(C27:T27)</f>
         <v/>
       </c>
+      <c r="AB27" s="94" t="inlineStr">
+        <is>
+          <t>x cobrar</t>
+        </is>
+      </c>
+      <c r="AC27" s="94" t="n">
+        <v>20453842507.58</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="117" t="inlineStr">
+      <c r="A28" s="114" t="inlineStr">
         <is>
           <t>Activos biológicos, no corrientes</t>
         </is>
       </c>
-      <c r="B28" s="99" t="n"/>
-      <c r="C28" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="106" t="n"/>
-      <c r="F28" s="106" t="n"/>
-      <c r="G28" s="106" t="n"/>
-      <c r="H28" s="106" t="n"/>
-      <c r="I28" s="106" t="n"/>
-      <c r="J28" s="106" t="n"/>
+      <c r="B28" s="96" t="n"/>
+      <c r="C28" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" s="77" t="n"/>
-      <c r="L28" s="142" t="n"/>
-      <c r="M28" s="142" t="n"/>
-      <c r="N28" s="142" t="n"/>
-      <c r="O28" s="142" t="n"/>
-      <c r="P28" s="142" t="n"/>
-      <c r="Q28" s="142" t="n"/>
-      <c r="R28" s="142" t="n"/>
-      <c r="S28" s="142" t="n"/>
-      <c r="T28" s="106" t="n">
+      <c r="L28" s="103" t="n"/>
+      <c r="M28" s="103" t="n"/>
+      <c r="N28" s="103" t="n"/>
+      <c r="O28" s="103" t="n"/>
+      <c r="P28" s="103" t="n"/>
+      <c r="Q28" s="103" t="n"/>
+      <c r="R28" s="103" t="n"/>
+      <c r="S28" s="103" t="n"/>
+      <c r="T28" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="77" t="n"/>
-      <c r="V28" s="106">
+      <c r="V28" s="103">
         <f>SUM(C28:T28)</f>
         <v/>
       </c>
+      <c r="AB28" s="94" t="inlineStr">
+        <is>
+          <t>x Pagar</t>
+        </is>
+      </c>
+      <c r="AC28" s="94" t="n">
+        <v>16810190106</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="117" t="inlineStr">
+      <c r="A29" s="114" t="inlineStr">
         <is>
           <t>Propiedad de inversión</t>
         </is>
       </c>
-      <c r="B29" s="99" t="n"/>
-      <c r="C29" s="106" t="n">
+      <c r="B29" s="96" t="n"/>
+      <c r="C29" s="103" t="n">
         <v>1221545875</v>
       </c>
-      <c r="D29" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="106" t="n"/>
-      <c r="F29" s="106" t="n"/>
-      <c r="G29" s="106" t="n"/>
-      <c r="H29" s="106" t="n"/>
-      <c r="I29" s="106" t="n"/>
-      <c r="J29" s="106" t="n"/>
+      <c r="D29" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="103" t="n">
+        <v>786972684.46</v>
+      </c>
+      <c r="H29" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="103" t="n">
+        <v>98063358</v>
+      </c>
       <c r="K29" s="77" t="n"/>
-      <c r="L29" s="142" t="n"/>
-      <c r="M29" s="142" t="n"/>
-      <c r="N29" s="142" t="n"/>
-      <c r="O29" s="142" t="n"/>
-      <c r="P29" s="142" t="n"/>
-      <c r="Q29" s="142" t="n"/>
-      <c r="R29" s="142" t="n"/>
-      <c r="S29" s="142" t="n"/>
-      <c r="T29" s="106" t="n">
+      <c r="L29" s="103" t="n"/>
+      <c r="M29" s="103" t="n"/>
+      <c r="N29" s="103" t="n"/>
+      <c r="O29" s="103" t="n"/>
+      <c r="P29" s="103" t="n"/>
+      <c r="Q29" s="103" t="n"/>
+      <c r="R29" s="103" t="n"/>
+      <c r="S29" s="103" t="n"/>
+      <c r="T29" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U29" s="77" t="n"/>
-      <c r="V29" s="106">
+      <c r="V29" s="103">
         <f>SUM(C29:T29)</f>
         <v/>
       </c>
+      <c r="AB29" s="94" t="inlineStr">
+        <is>
+          <t>Diferencia a reclasificar</t>
+        </is>
+      </c>
+      <c r="AC29" s="94" t="n">
+        <v>3643652401.58</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="117" t="inlineStr">
+      <c r="A30" s="114" t="inlineStr">
         <is>
           <t>Activos por impuestos diferidos</t>
         </is>
       </c>
-      <c r="B30" s="99" t="n"/>
-      <c r="C30" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="106" t="n">
+      <c r="B30" s="96" t="n"/>
+      <c r="C30" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="103" t="n">
         <v>7393024</v>
       </c>
-      <c r="E30" s="106" t="n"/>
-      <c r="F30" s="106" t="n"/>
-      <c r="G30" s="106" t="n"/>
-      <c r="H30" s="106" t="n"/>
-      <c r="I30" s="106" t="n"/>
-      <c r="J30" s="106" t="n"/>
+      <c r="E30" s="103" t="n">
+        <v>73811555</v>
+      </c>
+      <c r="F30" s="103" t="n">
+        <v>66589078</v>
+      </c>
+      <c r="G30" s="103" t="n">
+        <v>19876930</v>
+      </c>
+      <c r="H30" s="103" t="n">
+        <v>68798365</v>
+      </c>
+      <c r="I30" s="103" t="n">
+        <v>3960531</v>
+      </c>
+      <c r="J30" s="103" t="n">
+        <v>1973899479</v>
+      </c>
       <c r="K30" s="77" t="n"/>
-      <c r="L30" s="142" t="n"/>
-      <c r="M30" s="142" t="n"/>
-      <c r="N30" s="142" t="n"/>
-      <c r="O30" s="142" t="n"/>
-      <c r="P30" s="142" t="n"/>
-      <c r="Q30" s="142" t="n"/>
-      <c r="R30" s="142" t="n"/>
-      <c r="S30" s="142" t="n"/>
-      <c r="T30" s="106" t="n">
+      <c r="L30" s="103" t="n"/>
+      <c r="M30" s="103" t="n"/>
+      <c r="N30" s="103" t="n"/>
+      <c r="O30" s="103" t="n"/>
+      <c r="P30" s="103" t="n"/>
+      <c r="Q30" s="103" t="n"/>
+      <c r="R30" s="103" t="n"/>
+      <c r="S30" s="103" t="n"/>
+      <c r="T30" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U30" s="77" t="n"/>
-      <c r="V30" s="106">
+      <c r="V30" s="103">
         <f>SUM(C30:T30)</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="110" t="inlineStr">
+      <c r="A31" s="107" t="inlineStr">
         <is>
           <t>Total de activos no corrientes</t>
         </is>
       </c>
-      <c r="B31" s="99" t="n"/>
-      <c r="C31" s="111">
+      <c r="B31" s="96" t="n"/>
+      <c r="C31" s="108">
         <f>SUM(C20:C30)</f>
         <v/>
       </c>
-      <c r="D31" s="111">
+      <c r="D31" s="108">
         <f>SUM(D20:D30)</f>
         <v/>
       </c>
-      <c r="E31" s="111">
+      <c r="E31" s="108">
         <f>SUM(E20:E30)</f>
         <v/>
       </c>
-      <c r="F31" s="111">
+      <c r="F31" s="108">
         <f>SUM(F20:F30)</f>
         <v/>
       </c>
-      <c r="G31" s="111">
+      <c r="G31" s="108">
         <f>SUM(G20:G30)</f>
         <v/>
       </c>
-      <c r="H31" s="111">
+      <c r="H31" s="108">
         <f>SUM(H20:H30)</f>
         <v/>
       </c>
-      <c r="I31" s="111">
+      <c r="I31" s="108">
         <f>SUM(I20:I30)</f>
         <v/>
       </c>
-      <c r="J31" s="111">
+      <c r="J31" s="108">
         <f>SUM(J20:J30)</f>
         <v/>
       </c>
       <c r="K31" s="77" t="n"/>
-      <c r="L31" s="146">
+      <c r="L31" s="140">
         <f>SUM(L20:L30)</f>
         <v/>
       </c>
-      <c r="M31" s="146">
+      <c r="M31" s="140">
         <f>SUM(M20:M30)</f>
         <v/>
       </c>
-      <c r="N31" s="146">
+      <c r="N31" s="140">
         <f>SUM(N20:N30)</f>
         <v/>
       </c>
-      <c r="O31" s="146">
+      <c r="O31" s="140">
         <f>SUM(O20:O30)</f>
         <v/>
       </c>
-      <c r="P31" s="146">
+      <c r="P31" s="140">
         <f>SUM(P20:P30)</f>
         <v/>
       </c>
-      <c r="Q31" s="146">
+      <c r="Q31" s="140">
         <f>SUM(Q20:Q30)</f>
         <v/>
       </c>
-      <c r="R31" s="146">
+      <c r="R31" s="140">
         <f>SUM(R20:R30)</f>
         <v/>
       </c>
-      <c r="S31" s="146">
+      <c r="S31" s="140">
         <f>SUM(S20:S30)</f>
         <v/>
       </c>
-      <c r="T31" s="146">
+      <c r="T31" s="140">
         <f>SUM(T20:T30)</f>
         <v/>
       </c>
       <c r="U31" s="77" t="n"/>
-      <c r="V31" s="111">
+      <c r="V31" s="108">
         <f>SUM(V20:V30)</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="122" t="inlineStr">
+      <c r="A32" s="119" t="inlineStr">
         <is>
           <t>Total de activos</t>
         </is>
       </c>
-      <c r="B32" s="99" t="n"/>
-      <c r="C32" s="114">
+      <c r="B32" s="96" t="n"/>
+      <c r="C32" s="111">
         <f>+C18+C31</f>
         <v/>
       </c>
-      <c r="D32" s="114">
+      <c r="D32" s="111">
         <f>+D18+D31</f>
         <v/>
       </c>
-      <c r="E32" s="114">
+      <c r="E32" s="111">
         <f>+E18+E31</f>
         <v/>
       </c>
-      <c r="F32" s="114">
+      <c r="F32" s="111">
         <f>+F18+F31</f>
         <v/>
       </c>
-      <c r="G32" s="114">
+      <c r="G32" s="111">
         <f>+G18+G31</f>
         <v/>
       </c>
-      <c r="H32" s="114">
+      <c r="H32" s="111">
         <f>+H18+H31</f>
         <v/>
       </c>
-      <c r="I32" s="114">
+      <c r="I32" s="111">
         <f>+I18+I31</f>
         <v/>
       </c>
-      <c r="J32" s="114">
+      <c r="J32" s="111">
         <f>+J18+J31</f>
         <v/>
       </c>
       <c r="K32" s="77" t="n"/>
-      <c r="L32" s="114">
+      <c r="L32" s="111">
         <f>+L18+L31</f>
         <v/>
       </c>
-      <c r="M32" s="114">
+      <c r="M32" s="111">
         <f>+M18+M31</f>
         <v/>
       </c>
-      <c r="N32" s="114">
+      <c r="N32" s="111">
         <f>+N18+N31</f>
         <v/>
       </c>
-      <c r="O32" s="114">
+      <c r="O32" s="111">
         <f>+O18+O31</f>
         <v/>
       </c>
-      <c r="P32" s="114">
+      <c r="P32" s="111">
         <f>+P18+P31</f>
         <v/>
       </c>
-      <c r="Q32" s="114">
+      <c r="Q32" s="111">
         <f>+Q18+Q31</f>
         <v/>
       </c>
-      <c r="R32" s="114">
+      <c r="R32" s="111">
         <f>+R18+R31</f>
         <v/>
       </c>
-      <c r="S32" s="114">
+      <c r="S32" s="111">
         <f>+S18+S31</f>
         <v/>
       </c>
-      <c r="T32" s="114">
+      <c r="T32" s="111">
         <f>+T18+T31</f>
         <v/>
       </c>
       <c r="U32" s="77" t="n"/>
-      <c r="V32" s="114">
+      <c r="V32" s="111">
         <f>+V18+V31</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="123" t="n"/>
-      <c r="B33" s="99" t="n"/>
-      <c r="C33" s="103" t="n"/>
-      <c r="D33" s="103" t="n"/>
-      <c r="E33" s="103" t="n"/>
-      <c r="F33" s="103" t="n"/>
-      <c r="G33" s="103" t="n"/>
-      <c r="H33" s="103" t="n"/>
-      <c r="I33" s="103" t="n"/>
-      <c r="J33" s="103" t="n"/>
+      <c r="A33" s="120" t="n"/>
+      <c r="B33" s="96" t="n"/>
+      <c r="C33" s="100" t="n"/>
+      <c r="D33" s="100" t="n"/>
+      <c r="E33" s="100" t="n"/>
+      <c r="F33" s="100" t="n"/>
+      <c r="G33" s="100" t="n"/>
+      <c r="H33" s="100" t="n"/>
+      <c r="I33" s="100" t="n"/>
+      <c r="J33" s="100" t="n"/>
       <c r="K33" s="77" t="n"/>
-      <c r="L33" s="141" t="n"/>
-      <c r="M33" s="141" t="n"/>
-      <c r="N33" s="141" t="n"/>
-      <c r="O33" s="141" t="n"/>
-      <c r="P33" s="141" t="n"/>
-      <c r="Q33" s="141" t="n"/>
-      <c r="R33" s="141" t="n"/>
-      <c r="S33" s="141" t="n"/>
-      <c r="T33" s="141" t="n"/>
+      <c r="L33" s="138" t="n"/>
+      <c r="M33" s="138" t="n"/>
+      <c r="N33" s="138" t="n"/>
+      <c r="O33" s="138" t="n"/>
+      <c r="P33" s="138" t="n"/>
+      <c r="Q33" s="138" t="n"/>
+      <c r="R33" s="138" t="n"/>
+      <c r="S33" s="138" t="n"/>
+      <c r="T33" s="138" t="n"/>
       <c r="U33" s="77" t="n"/>
-      <c r="V33" s="103" t="n"/>
+      <c r="V33" s="100" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="124" t="inlineStr">
+      <c r="A34" s="121" t="inlineStr">
         <is>
           <t>Patrimonio y pasivos</t>
         </is>
       </c>
-      <c r="B34" s="99" t="n"/>
-      <c r="C34" s="103" t="n"/>
-      <c r="D34" s="103" t="n"/>
-      <c r="E34" s="103" t="n"/>
-      <c r="F34" s="103" t="n"/>
-      <c r="G34" s="103" t="n"/>
-      <c r="H34" s="103" t="n"/>
-      <c r="I34" s="103" t="n"/>
-      <c r="J34" s="103" t="n"/>
+      <c r="B34" s="96" t="n"/>
+      <c r="C34" s="100" t="n"/>
+      <c r="D34" s="100" t="n"/>
+      <c r="E34" s="100" t="n"/>
+      <c r="F34" s="100" t="n"/>
+      <c r="G34" s="100" t="n"/>
+      <c r="H34" s="100" t="n"/>
+      <c r="I34" s="100" t="n"/>
+      <c r="J34" s="100" t="n"/>
       <c r="K34" s="77" t="n"/>
-      <c r="L34" s="141" t="n"/>
-      <c r="M34" s="141" t="n"/>
-      <c r="N34" s="141" t="n"/>
-      <c r="O34" s="141" t="n"/>
-      <c r="P34" s="141" t="n"/>
-      <c r="Q34" s="141" t="n"/>
-      <c r="R34" s="141" t="n"/>
-      <c r="S34" s="141" t="n"/>
-      <c r="T34" s="141" t="n"/>
+      <c r="L34" s="138" t="n"/>
+      <c r="M34" s="138" t="n"/>
+      <c r="N34" s="138" t="n"/>
+      <c r="O34" s="138" t="n"/>
+      <c r="P34" s="138" t="n"/>
+      <c r="Q34" s="138" t="n"/>
+      <c r="R34" s="138" t="n"/>
+      <c r="S34" s="138" t="n"/>
+      <c r="T34" s="138" t="n"/>
       <c r="U34" s="77" t="n"/>
-      <c r="V34" s="103" t="n"/>
+      <c r="V34" s="100" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="104" t="inlineStr">
+      <c r="A35" s="101" t="inlineStr">
         <is>
           <t>Pasivos</t>
         </is>
       </c>
-      <c r="B35" s="99" t="n"/>
-      <c r="C35" s="103" t="n"/>
-      <c r="D35" s="103" t="n"/>
-      <c r="E35" s="103" t="n"/>
-      <c r="F35" s="103" t="n"/>
-      <c r="G35" s="103" t="n"/>
-      <c r="H35" s="103" t="n"/>
-      <c r="I35" s="103" t="n"/>
-      <c r="J35" s="103" t="n"/>
+      <c r="B35" s="96" t="n"/>
+      <c r="C35" s="100" t="n"/>
+      <c r="D35" s="100" t="n"/>
+      <c r="E35" s="100" t="n"/>
+      <c r="F35" s="100" t="n"/>
+      <c r="G35" s="100" t="n"/>
+      <c r="H35" s="100" t="n"/>
+      <c r="I35" s="100" t="n"/>
+      <c r="J35" s="100" t="n"/>
       <c r="K35" s="77" t="n"/>
-      <c r="L35" s="141" t="n"/>
-      <c r="M35" s="141" t="n"/>
-      <c r="N35" s="141" t="n"/>
-      <c r="O35" s="141" t="n"/>
-      <c r="P35" s="141" t="n"/>
-      <c r="Q35" s="141" t="n"/>
-      <c r="R35" s="141" t="n"/>
-      <c r="S35" s="141" t="n"/>
-      <c r="T35" s="141" t="n"/>
+      <c r="L35" s="138" t="n"/>
+      <c r="M35" s="138" t="n"/>
+      <c r="N35" s="138" t="n"/>
+      <c r="O35" s="138" t="n"/>
+      <c r="P35" s="138" t="n"/>
+      <c r="Q35" s="138" t="n"/>
+      <c r="R35" s="138" t="n"/>
+      <c r="S35" s="138" t="n"/>
+      <c r="T35" s="138" t="n"/>
       <c r="U35" s="77" t="n"/>
-      <c r="V35" s="103" t="n"/>
+      <c r="V35" s="100" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="125" t="inlineStr">
+      <c r="A36" s="122" t="inlineStr">
         <is>
           <t>Pasivos corrientes</t>
         </is>
       </c>
-      <c r="B36" s="99" t="n"/>
-      <c r="C36" s="103" t="n"/>
-      <c r="D36" s="103" t="n"/>
-      <c r="E36" s="103" t="n"/>
-      <c r="F36" s="103" t="n"/>
-      <c r="G36" s="103" t="n"/>
-      <c r="H36" s="103" t="n"/>
-      <c r="I36" s="103" t="n"/>
-      <c r="J36" s="103" t="n"/>
+      <c r="B36" s="96" t="n"/>
+      <c r="C36" s="100" t="n"/>
+      <c r="D36" s="100" t="n"/>
+      <c r="E36" s="100" t="n"/>
+      <c r="F36" s="100" t="n"/>
+      <c r="G36" s="100" t="n"/>
+      <c r="H36" s="100" t="n"/>
+      <c r="I36" s="100" t="n"/>
+      <c r="J36" s="100" t="n"/>
       <c r="K36" s="77" t="n"/>
-      <c r="L36" s="141" t="n"/>
-      <c r="M36" s="141" t="n"/>
-      <c r="N36" s="141" t="n"/>
-      <c r="O36" s="141" t="n"/>
-      <c r="P36" s="141" t="n"/>
-      <c r="Q36" s="141" t="n"/>
-      <c r="R36" s="141" t="n"/>
-      <c r="S36" s="141" t="n"/>
-      <c r="T36" s="141" t="n"/>
+      <c r="L36" s="138" t="n"/>
+      <c r="M36" s="138" t="n"/>
+      <c r="N36" s="138" t="n"/>
+      <c r="O36" s="138" t="n"/>
+      <c r="P36" s="138" t="n"/>
+      <c r="Q36" s="138" t="n"/>
+      <c r="R36" s="138" t="n"/>
+      <c r="S36" s="138" t="n"/>
+      <c r="T36" s="138" t="n"/>
       <c r="U36" s="77" t="n"/>
-      <c r="V36" s="103" t="n"/>
-    </row>
-    <row r="37" customFormat="1" s="93">
-      <c r="A37" s="126" t="inlineStr">
+      <c r="V36" s="100" t="n"/>
+    </row>
+    <row r="37" customFormat="1" s="90">
+      <c r="A37" s="123" t="inlineStr">
         <is>
           <t>Otros pasivos financieros corrientes</t>
         </is>
       </c>
-      <c r="B37" s="99" t="n"/>
-      <c r="C37" s="127" t="n">
+      <c r="B37" s="96" t="n"/>
+      <c r="C37" s="124" t="n">
         <v>409483261</v>
       </c>
-      <c r="D37" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="127" t="n"/>
-      <c r="F37" s="127" t="n"/>
-      <c r="G37" s="127" t="n"/>
-      <c r="H37" s="127" t="n"/>
-      <c r="I37" s="127" t="n"/>
-      <c r="J37" s="127" t="n"/>
-      <c r="K37" s="151" t="n"/>
-      <c r="L37" s="152" t="n"/>
-      <c r="M37" s="152" t="n"/>
-      <c r="N37" s="152" t="n"/>
-      <c r="O37" s="152" t="n"/>
-      <c r="P37" s="152" t="n"/>
-      <c r="Q37" s="152" t="n"/>
-      <c r="R37" s="152" t="n"/>
-      <c r="S37" s="152" t="n"/>
-      <c r="T37" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="151" t="n"/>
-      <c r="V37" s="127">
+      <c r="D37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="124" t="n">
+        <v>187872287</v>
+      </c>
+      <c r="G37" s="124" t="n">
+        <v>881974983.28</v>
+      </c>
+      <c r="H37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="124" t="n">
+        <v>558046576</v>
+      </c>
+      <c r="K37" s="144" t="n"/>
+      <c r="L37" s="124" t="n"/>
+      <c r="M37" s="124" t="n"/>
+      <c r="N37" s="124" t="n"/>
+      <c r="O37" s="124" t="n"/>
+      <c r="P37" s="124" t="n"/>
+      <c r="Q37" s="124" t="n"/>
+      <c r="R37" s="124" t="n"/>
+      <c r="S37" s="124" t="n"/>
+      <c r="T37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="144" t="n"/>
+      <c r="V37" s="124">
         <f>SUM(C37:T37)</f>
         <v/>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="105" t="inlineStr">
+      <c r="A38" s="102" t="inlineStr">
         <is>
           <t>Cuentas por pagar comerciales y otras cuentas por pagar</t>
         </is>
       </c>
-      <c r="B38" s="99" t="n"/>
-      <c r="C38" s="106" t="n">
+      <c r="B38" s="96" t="n"/>
+      <c r="C38" s="103" t="n">
         <v>556915101</v>
       </c>
-      <c r="D38" s="106" t="n">
+      <c r="D38" s="103" t="n">
         <v>1099353</v>
       </c>
-      <c r="E38" s="106" t="n"/>
-      <c r="F38" s="106" t="n"/>
-      <c r="G38" s="106" t="n"/>
-      <c r="H38" s="106" t="n"/>
-      <c r="I38" s="106" t="n"/>
-      <c r="J38" s="106" t="n"/>
+      <c r="E38" s="103" t="n">
+        <v>8484843</v>
+      </c>
+      <c r="F38" s="103" t="n">
+        <v>3284919403</v>
+      </c>
+      <c r="G38" s="103" t="n">
+        <v>3727612560.78</v>
+      </c>
+      <c r="H38" s="103" t="n">
+        <v>54248821</v>
+      </c>
+      <c r="I38" s="103" t="n">
+        <v>35884384</v>
+      </c>
+      <c r="J38" s="103" t="n">
+        <v>5414028694</v>
+      </c>
       <c r="K38" s="77" t="n"/>
-      <c r="L38" s="143" t="n"/>
-      <c r="M38" s="142" t="n"/>
-      <c r="N38" s="142" t="n"/>
-      <c r="O38" s="142" t="n"/>
-      <c r="P38" s="142" t="n"/>
-      <c r="Q38" s="142" t="n"/>
-      <c r="R38" s="142" t="n"/>
-      <c r="S38" s="142" t="n"/>
-      <c r="T38" s="106" t="n">
+      <c r="L38" s="116" t="n"/>
+      <c r="M38" s="103" t="n"/>
+      <c r="N38" s="103" t="n"/>
+      <c r="O38" s="103" t="n"/>
+      <c r="P38" s="103" t="n"/>
+      <c r="Q38" s="103" t="n"/>
+      <c r="R38" s="103" t="n"/>
+      <c r="S38" s="103" t="n"/>
+      <c r="T38" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U38" s="77" t="n"/>
-      <c r="V38" s="159">
+      <c r="V38" s="153">
         <f>SUM(C38:T38)</f>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="128" t="inlineStr">
+      <c r="A39" s="125" t="inlineStr">
         <is>
           <t>Cuentas por Pagar a Entidades Relacionadas, Corriente</t>
         </is>
       </c>
-      <c r="B39" s="129" t="n"/>
-      <c r="C39" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="119" t="n"/>
-      <c r="F39" s="119" t="n"/>
-      <c r="G39" s="119" t="n"/>
-      <c r="H39" s="119" t="n"/>
-      <c r="I39" s="119" t="n"/>
-      <c r="J39" s="119" t="n"/>
-      <c r="K39" s="149" t="n"/>
-      <c r="L39" s="143" t="n"/>
-      <c r="M39" s="143" t="n"/>
-      <c r="N39" s="143" t="n"/>
-      <c r="O39" s="143" t="n"/>
-      <c r="P39" s="143" t="n"/>
-      <c r="Q39" s="143" t="n"/>
-      <c r="R39" s="143" t="n"/>
-      <c r="S39" s="143" t="n"/>
-      <c r="T39" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="149" t="n"/>
-      <c r="V39" s="160">
+      <c r="B39" s="126" t="n"/>
+      <c r="C39" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="116" t="n">
+        <v>443150607</v>
+      </c>
+      <c r="G39" s="116" t="n">
+        <v>305542.0199999996</v>
+      </c>
+      <c r="H39" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="142" t="n"/>
+      <c r="L39" s="116" t="n"/>
+      <c r="M39" s="116" t="n"/>
+      <c r="N39" s="116" t="n"/>
+      <c r="O39" s="116" t="n"/>
+      <c r="P39" s="116" t="n"/>
+      <c r="Q39" s="116" t="n"/>
+      <c r="R39" s="116" t="n"/>
+      <c r="S39" s="116" t="n"/>
+      <c r="T39" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="142" t="n"/>
+      <c r="V39" s="154">
         <f>SUM(C39:T39)</f>
         <v/>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="105" t="inlineStr">
+      <c r="A40" s="102" t="inlineStr">
         <is>
           <t>Otras provisiones a corto plazo</t>
         </is>
       </c>
-      <c r="B40" s="99" t="n"/>
-      <c r="C40" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="106" t="n"/>
-      <c r="F40" s="106" t="n"/>
-      <c r="G40" s="106" t="n"/>
-      <c r="H40" s="106" t="n"/>
-      <c r="I40" s="106" t="n"/>
-      <c r="J40" s="106" t="n"/>
+      <c r="B40" s="96" t="n"/>
+      <c r="C40" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="103" t="n">
+        <v>463737719</v>
+      </c>
       <c r="K40" s="77" t="n"/>
-      <c r="L40" s="142" t="n"/>
-      <c r="M40" s="142" t="n"/>
-      <c r="N40" s="142" t="n"/>
-      <c r="O40" s="142" t="n"/>
-      <c r="P40" s="142" t="n"/>
-      <c r="Q40" s="142" t="n"/>
-      <c r="R40" s="142" t="n"/>
-      <c r="S40" s="142" t="n"/>
-      <c r="T40" s="106" t="n">
+      <c r="L40" s="103" t="n"/>
+      <c r="M40" s="103" t="n"/>
+      <c r="N40" s="103" t="n"/>
+      <c r="O40" s="103" t="n"/>
+      <c r="P40" s="103" t="n"/>
+      <c r="Q40" s="103" t="n"/>
+      <c r="R40" s="103" t="n"/>
+      <c r="S40" s="103" t="n"/>
+      <c r="T40" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U40" s="77" t="n"/>
-      <c r="V40" s="159">
+      <c r="V40" s="153">
         <f>SUM(C40:T40)</f>
         <v/>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="105" t="inlineStr">
+      <c r="A41" s="102" t="inlineStr">
         <is>
           <t>Pasivos por Impuestos corrientes</t>
         </is>
       </c>
-      <c r="B41" s="99" t="n"/>
-      <c r="C41" s="106" t="n">
+      <c r="B41" s="96" t="n"/>
+      <c r="C41" s="103" t="n">
         <v>74649635</v>
       </c>
-      <c r="D41" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="106" t="n"/>
-      <c r="F41" s="106" t="n"/>
-      <c r="G41" s="106" t="n"/>
-      <c r="H41" s="106" t="n"/>
-      <c r="I41" s="106" t="n"/>
-      <c r="J41" s="106" t="n"/>
+      <c r="D41" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="103" t="n">
+        <v>11826273</v>
+      </c>
+      <c r="F41" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="103" t="n">
+        <v>32963207</v>
+      </c>
+      <c r="H41" s="103" t="n">
+        <v>4965044</v>
+      </c>
+      <c r="I41" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="103" t="n">
+        <v>1112722638</v>
+      </c>
       <c r="K41" s="77" t="n"/>
-      <c r="L41" s="142" t="n"/>
-      <c r="M41" s="142" t="n"/>
-      <c r="N41" s="142" t="n"/>
-      <c r="O41" s="142" t="n"/>
-      <c r="P41" s="142" t="n"/>
-      <c r="Q41" s="142" t="n"/>
-      <c r="R41" s="142" t="n"/>
-      <c r="S41" s="142" t="n"/>
-      <c r="T41" s="106" t="n">
+      <c r="L41" s="103" t="n"/>
+      <c r="M41" s="103" t="n"/>
+      <c r="N41" s="103" t="n"/>
+      <c r="O41" s="103" t="n"/>
+      <c r="P41" s="103" t="n"/>
+      <c r="Q41" s="103" t="n"/>
+      <c r="R41" s="103" t="n"/>
+      <c r="S41" s="103" t="n"/>
+      <c r="T41" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U41" s="77" t="n"/>
-      <c r="V41" s="159">
+      <c r="V41" s="153">
         <f>SUM(C41:T41)</f>
         <v/>
       </c>
     </row>
-    <row r="42" customFormat="1" s="94">
-      <c r="A42" s="130" t="inlineStr">
+    <row r="42" customFormat="1" s="91">
+      <c r="A42" s="127" t="inlineStr">
         <is>
           <t>Provisiones corrientes por beneficios a los empleados</t>
         </is>
       </c>
-      <c r="B42" s="99" t="n"/>
-      <c r="C42" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="131" t="n"/>
-      <c r="F42" s="131" t="n"/>
-      <c r="G42" s="131" t="n"/>
-      <c r="H42" s="131" t="n"/>
-      <c r="I42" s="131" t="n"/>
-      <c r="J42" s="131" t="n"/>
-      <c r="K42" s="153" t="n"/>
-      <c r="L42" s="154" t="n"/>
-      <c r="M42" s="154" t="n"/>
-      <c r="N42" s="154" t="n"/>
-      <c r="O42" s="154" t="n"/>
-      <c r="P42" s="154" t="n"/>
-      <c r="Q42" s="154" t="n"/>
-      <c r="R42" s="154" t="n"/>
-      <c r="S42" s="154" t="n"/>
-      <c r="T42" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="153" t="n"/>
-      <c r="V42" s="131">
+      <c r="B42" s="96" t="n"/>
+      <c r="C42" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="128" t="n">
+        <v>10827587</v>
+      </c>
+      <c r="G42" s="128" t="n">
+        <v>73618259</v>
+      </c>
+      <c r="H42" s="128" t="n">
+        <v>254808755</v>
+      </c>
+      <c r="I42" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="128" t="n">
+        <v>932917018</v>
+      </c>
+      <c r="K42" s="145" t="n"/>
+      <c r="L42" s="128" t="n"/>
+      <c r="M42" s="128" t="n"/>
+      <c r="N42" s="128" t="n"/>
+      <c r="O42" s="128" t="n"/>
+      <c r="P42" s="128" t="n"/>
+      <c r="Q42" s="128" t="n"/>
+      <c r="R42" s="128" t="n"/>
+      <c r="S42" s="128" t="n"/>
+      <c r="T42" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="145" t="n"/>
+      <c r="V42" s="128">
         <f>SUM(C42:T42)</f>
         <v/>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="105" t="inlineStr">
+      <c r="A43" s="102" t="inlineStr">
         <is>
           <t>Otros pasivos no financieros corrientes</t>
         </is>
       </c>
-      <c r="B43" s="99" t="n"/>
-      <c r="C43" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="106" t="n"/>
-      <c r="F43" s="106" t="n"/>
-      <c r="G43" s="106" t="n"/>
-      <c r="H43" s="106" t="n"/>
-      <c r="I43" s="106" t="n"/>
-      <c r="J43" s="106" t="n"/>
+      <c r="B43" s="96" t="n"/>
+      <c r="C43" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="103" t="n">
+        <v>534903942.67</v>
+      </c>
+      <c r="F43" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="103" t="n">
+        <v>625311782</v>
+      </c>
       <c r="K43" s="77" t="n"/>
-      <c r="L43" s="143" t="n"/>
-      <c r="M43" s="143" t="n"/>
-      <c r="N43" s="142" t="n"/>
-      <c r="O43" s="142" t="n"/>
-      <c r="P43" s="142" t="n"/>
-      <c r="Q43" s="142" t="n"/>
-      <c r="R43" s="142" t="n"/>
-      <c r="S43" s="142" t="n"/>
-      <c r="T43" s="106" t="n">
+      <c r="L43" s="116" t="n"/>
+      <c r="M43" s="116" t="n"/>
+      <c r="N43" s="103" t="n"/>
+      <c r="O43" s="103" t="n"/>
+      <c r="P43" s="103" t="n"/>
+      <c r="Q43" s="103" t="n"/>
+      <c r="R43" s="103" t="n"/>
+      <c r="S43" s="103" t="n"/>
+      <c r="T43" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U43" s="77" t="n"/>
-      <c r="V43" s="106">
+      <c r="V43" s="103">
         <f>SUM(C43:T43)</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="36" customHeight="1">
-      <c r="A44" s="132" t="inlineStr">
+      <c r="A44" s="129" t="inlineStr">
         <is>
           <t>Total de pasivos corrientes distintos de los pasivos incluidos en grupos de activos para su disposición clasificados como mantenidos para la venta</t>
         </is>
       </c>
-      <c r="B44" s="99" t="n"/>
-      <c r="C44" s="133">
+      <c r="B44" s="96" t="n"/>
+      <c r="C44" s="130">
         <f>SUM(C37:C43)</f>
         <v/>
       </c>
-      <c r="D44" s="133">
+      <c r="D44" s="130">
         <f>SUM(D37:D43)</f>
         <v/>
       </c>
-      <c r="E44" s="133">
+      <c r="E44" s="130">
         <f>SUM(E37:E43)</f>
         <v/>
       </c>
-      <c r="F44" s="133">
+      <c r="F44" s="130">
         <f>SUM(F37:F43)</f>
         <v/>
       </c>
-      <c r="G44" s="133">
+      <c r="G44" s="130">
         <f>SUM(G37:G43)</f>
         <v/>
       </c>
-      <c r="H44" s="133">
+      <c r="H44" s="130">
         <f>SUM(H37:H43)</f>
         <v/>
       </c>
-      <c r="I44" s="133">
+      <c r="I44" s="130">
         <f>SUM(I37:I43)</f>
         <v/>
       </c>
-      <c r="J44" s="133">
+      <c r="J44" s="130">
         <f>SUM(J37:J43)</f>
         <v/>
       </c>
       <c r="K44" s="77" t="n"/>
-      <c r="L44" s="155">
+      <c r="L44" s="146">
         <f>SUM(L37:L43)</f>
         <v/>
       </c>
-      <c r="M44" s="155">
+      <c r="M44" s="146">
         <f>SUM(M37:M43)</f>
         <v/>
       </c>
-      <c r="N44" s="155">
+      <c r="N44" s="146">
         <f>SUM(N37:N43)</f>
         <v/>
       </c>
-      <c r="O44" s="155">
+      <c r="O44" s="146">
         <f>SUM(O37:O43)</f>
         <v/>
       </c>
-      <c r="P44" s="155">
+      <c r="P44" s="146">
         <f>SUM(P37:P43)</f>
         <v/>
       </c>
-      <c r="Q44" s="155">
+      <c r="Q44" s="146">
         <f>SUM(Q37:Q43)</f>
         <v/>
       </c>
-      <c r="R44" s="155">
+      <c r="R44" s="146">
         <f>SUM(R37:R43)</f>
         <v/>
       </c>
-      <c r="S44" s="155" t="n"/>
-      <c r="T44" s="155">
+      <c r="S44" s="146" t="n"/>
+      <c r="T44" s="146">
         <f>SUM(T37:T43)</f>
         <v/>
       </c>
       <c r="U44" s="77" t="n"/>
-      <c r="V44" s="133">
+      <c r="V44" s="130">
         <f>SUM(V37:V43)</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="36" customHeight="1">
-      <c r="A45" s="112" t="inlineStr">
+    <row r="45" ht="24" customHeight="1">
+      <c r="A45" s="109" t="inlineStr">
         <is>
           <t>Pasivos incluidos en grupos de activos para su disposición clasificados como mantenidos para la venta</t>
         </is>
       </c>
-      <c r="B45" s="99" t="n"/>
-      <c r="C45" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="106" t="n">
+      <c r="B45" s="96" t="n"/>
+      <c r="C45" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="103" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="77" t="n"/>
-      <c r="L45" s="106" t="n"/>
-      <c r="M45" s="106" t="n"/>
-      <c r="N45" s="106" t="n"/>
-      <c r="O45" s="106" t="n"/>
-      <c r="P45" s="106" t="n"/>
-      <c r="Q45" s="106" t="n"/>
-      <c r="R45" s="106" t="n"/>
-      <c r="S45" s="106" t="n"/>
-      <c r="T45" s="106" t="n">
+      <c r="L45" s="103" t="n"/>
+      <c r="M45" s="103" t="n"/>
+      <c r="N45" s="103" t="n"/>
+      <c r="O45" s="103" t="n"/>
+      <c r="P45" s="103" t="n"/>
+      <c r="Q45" s="103" t="n"/>
+      <c r="R45" s="103" t="n"/>
+      <c r="S45" s="103" t="n"/>
+      <c r="T45" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U45" s="77" t="n"/>
-      <c r="V45" s="106">
+      <c r="V45" s="103">
         <f>SUM(C45:T45)</f>
         <v/>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="134" t="inlineStr">
+      <c r="A46" s="131" t="inlineStr">
         <is>
           <t>Pasivos corrientes totales</t>
         </is>
       </c>
-      <c r="B46" s="99" t="n"/>
-      <c r="C46" s="133">
+      <c r="B46" s="96" t="n"/>
+      <c r="C46" s="130">
         <f>+C44+C45</f>
         <v/>
       </c>
-      <c r="D46" s="133">
+      <c r="D46" s="130">
         <f>+D44+D45</f>
         <v/>
       </c>
-      <c r="E46" s="133">
+      <c r="E46" s="130">
         <f>+E44+E45</f>
         <v/>
       </c>
-      <c r="F46" s="133">
+      <c r="F46" s="130">
         <f>+F44+F45</f>
         <v/>
       </c>
-      <c r="G46" s="133">
+      <c r="G46" s="130">
         <f>+G44+G45</f>
         <v/>
       </c>
-      <c r="H46" s="133">
+      <c r="H46" s="130">
         <f>+H44+H45</f>
         <v/>
       </c>
-      <c r="I46" s="133">
+      <c r="I46" s="130">
         <f>+I44+I45</f>
         <v/>
       </c>
-      <c r="J46" s="133">
+      <c r="J46" s="130">
         <f>+J44+J45</f>
         <v/>
       </c>
       <c r="K46" s="77" t="n"/>
-      <c r="L46" s="155">
+      <c r="L46" s="146">
         <f>+L44+L45</f>
         <v/>
       </c>
-      <c r="M46" s="155">
+      <c r="M46" s="146">
         <f>+M44+M45</f>
         <v/>
       </c>
-      <c r="N46" s="155">
+      <c r="N46" s="146">
         <f>+N44+N45</f>
         <v/>
       </c>
-      <c r="O46" s="155">
+      <c r="O46" s="146">
         <f>+O44+O45</f>
         <v/>
       </c>
-      <c r="P46" s="155">
+      <c r="P46" s="146">
         <f>+P44+P45</f>
         <v/>
       </c>
-      <c r="Q46" s="155">
+      <c r="Q46" s="146">
         <f>+Q44+Q45</f>
         <v/>
       </c>
-      <c r="R46" s="155">
+      <c r="R46" s="146">
         <f>+R44+R45</f>
         <v/>
       </c>
-      <c r="S46" s="155" t="n"/>
-      <c r="T46" s="155">
+      <c r="S46" s="146" t="n"/>
+      <c r="T46" s="146">
         <f>+T44+T45</f>
         <v/>
       </c>
       <c r="U46" s="77" t="n"/>
-      <c r="V46" s="133">
+      <c r="V46" s="130">
         <f>+V44+V45</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="125" t="inlineStr">
+      <c r="A47" s="122" t="inlineStr">
         <is>
           <t>Pasivos no corrientes</t>
         </is>
       </c>
-      <c r="B47" s="99" t="n"/>
-      <c r="C47" s="103" t="n"/>
-      <c r="D47" s="103" t="n"/>
-      <c r="E47" s="103" t="n"/>
-      <c r="F47" s="103" t="n"/>
-      <c r="G47" s="103" t="n"/>
-      <c r="H47" s="103" t="n"/>
-      <c r="I47" s="103" t="n"/>
-      <c r="J47" s="103" t="n"/>
+      <c r="B47" s="96" t="n"/>
+      <c r="C47" s="100" t="n"/>
+      <c r="D47" s="100" t="n"/>
+      <c r="E47" s="100" t="n"/>
+      <c r="F47" s="100" t="n"/>
+      <c r="G47" s="100" t="n"/>
+      <c r="H47" s="100" t="n"/>
+      <c r="I47" s="100" t="n"/>
+      <c r="J47" s="100" t="n"/>
       <c r="K47" s="77" t="n"/>
-      <c r="L47" s="141" t="n"/>
-      <c r="M47" s="141" t="n"/>
-      <c r="N47" s="141" t="n"/>
-      <c r="O47" s="141" t="n"/>
-      <c r="P47" s="141" t="n"/>
-      <c r="Q47" s="141" t="n"/>
-      <c r="R47" s="141" t="n"/>
-      <c r="S47" s="141" t="n"/>
-      <c r="T47" s="141" t="n"/>
+      <c r="L47" s="138" t="n"/>
+      <c r="M47" s="138" t="n"/>
+      <c r="N47" s="138" t="n"/>
+      <c r="O47" s="138" t="n"/>
+      <c r="P47" s="138" t="n"/>
+      <c r="Q47" s="138" t="n"/>
+      <c r="R47" s="138" t="n"/>
+      <c r="S47" s="138" t="n"/>
+      <c r="T47" s="138" t="n"/>
       <c r="U47" s="77" t="n"/>
-      <c r="V47" s="103" t="n"/>
-    </row>
-    <row r="48" customFormat="1" s="93">
-      <c r="A48" s="126" t="inlineStr">
+      <c r="V47" s="100" t="n"/>
+    </row>
+    <row r="48" customFormat="1" s="90">
+      <c r="A48" s="123" t="inlineStr">
         <is>
           <t>Otros pasivos financieros no corrientes</t>
         </is>
       </c>
-      <c r="B48" s="135" t="n"/>
-      <c r="C48" s="127" t="n">
+      <c r="B48" s="132" t="n"/>
+      <c r="C48" s="124" t="n">
         <v>783863096</v>
       </c>
-      <c r="D48" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="136" t="n"/>
-      <c r="F48" s="127" t="n"/>
-      <c r="G48" s="127" t="n"/>
-      <c r="H48" s="127" t="n"/>
-      <c r="I48" s="127" t="n"/>
-      <c r="J48" s="136" t="n"/>
-      <c r="K48" s="151" t="n"/>
-      <c r="L48" s="127" t="n"/>
-      <c r="M48" s="127" t="n"/>
-      <c r="N48" s="136" t="n"/>
-      <c r="O48" s="127" t="n"/>
-      <c r="P48" s="127" t="n"/>
-      <c r="Q48" s="127" t="n"/>
-      <c r="R48" s="127" t="n"/>
-      <c r="S48" s="136" t="n"/>
-      <c r="T48" s="127" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="151" t="n"/>
-      <c r="V48" s="127">
+      <c r="D48" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="133" t="n">
+        <v>1944016932</v>
+      </c>
+      <c r="F48" s="124" t="n">
+        <v>242721216</v>
+      </c>
+      <c r="G48" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="133" t="n">
+        <v>4652450566</v>
+      </c>
+      <c r="K48" s="144" t="n"/>
+      <c r="L48" s="124" t="n"/>
+      <c r="M48" s="124" t="n"/>
+      <c r="N48" s="133" t="n"/>
+      <c r="O48" s="124" t="n"/>
+      <c r="P48" s="124" t="n"/>
+      <c r="Q48" s="124" t="n"/>
+      <c r="R48" s="124" t="n"/>
+      <c r="S48" s="133" t="n"/>
+      <c r="T48" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="144" t="n"/>
+      <c r="V48" s="124">
         <f>SUM(C48:T48)</f>
         <v/>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="105" t="inlineStr">
+      <c r="A49" s="102" t="inlineStr">
         <is>
           <t>Pasivos no corrientes</t>
         </is>
       </c>
-      <c r="B49" s="99" t="n"/>
-      <c r="C49" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="106" t="n"/>
-      <c r="F49" s="106" t="n"/>
-      <c r="G49" s="106" t="n"/>
-      <c r="H49" s="106" t="n"/>
-      <c r="I49" s="106" t="n"/>
-      <c r="J49" s="106" t="n"/>
+      <c r="B49" s="96" t="n"/>
+      <c r="C49" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="103" t="n">
+        <v>680407921</v>
+      </c>
+      <c r="F49" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="103" t="n">
+        <v>227887275</v>
+      </c>
       <c r="K49" s="77" t="n"/>
-      <c r="L49" s="109" t="n"/>
-      <c r="M49" s="106" t="n"/>
-      <c r="N49" s="106" t="n"/>
-      <c r="O49" s="106" t="n"/>
-      <c r="P49" s="106" t="n"/>
-      <c r="Q49" s="106" t="n"/>
-      <c r="R49" s="106" t="n"/>
-      <c r="S49" s="106" t="n"/>
-      <c r="T49" s="106" t="n">
+      <c r="L49" s="106" t="n"/>
+      <c r="M49" s="103" t="n"/>
+      <c r="N49" s="103" t="n"/>
+      <c r="O49" s="103" t="n"/>
+      <c r="P49" s="103" t="n"/>
+      <c r="Q49" s="103" t="n"/>
+      <c r="R49" s="103" t="n"/>
+      <c r="S49" s="103" t="n"/>
+      <c r="T49" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U49" s="77" t="n"/>
-      <c r="V49" s="106">
+      <c r="V49" s="103">
         <f>SUM(C49:T49)</f>
         <v/>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="128" t="inlineStr">
+      <c r="A50" s="125" t="inlineStr">
         <is>
           <t>Cuentas por Pagar a Entidades Relacionadas, no corriente</t>
         </is>
       </c>
-      <c r="B50" s="99" t="n"/>
-      <c r="C50" s="119" t="n">
+      <c r="B50" s="96" t="n"/>
+      <c r="C50" s="116" t="n">
         <v>6473472320</v>
       </c>
-      <c r="D50" s="119" t="n">
+      <c r="D50" s="116" t="n">
         <v>91754</v>
       </c>
-      <c r="E50" s="119" t="n"/>
-      <c r="F50" s="119" t="n"/>
-      <c r="G50" s="119" t="n"/>
-      <c r="H50" s="119" t="n"/>
-      <c r="I50" s="119" t="n"/>
-      <c r="J50" s="119" t="n"/>
+      <c r="E50" s="116" t="n">
+        <v>931</v>
+      </c>
+      <c r="F50" s="116" t="n">
+        <v>78312210</v>
+      </c>
+      <c r="G50" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="116" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I50" s="116" t="n">
+        <v>30646</v>
+      </c>
+      <c r="J50" s="116" t="n">
+        <v>6806005656</v>
+      </c>
       <c r="K50" s="77" t="n"/>
-      <c r="L50" s="119" t="n"/>
-      <c r="M50" s="119" t="n"/>
-      <c r="N50" s="119" t="n"/>
-      <c r="O50" s="119" t="n"/>
-      <c r="P50" s="119" t="n"/>
-      <c r="Q50" s="119" t="n"/>
-      <c r="R50" s="119" t="n"/>
-      <c r="S50" s="119" t="n"/>
-      <c r="T50" s="119" t="n">
+      <c r="L50" s="116" t="n"/>
+      <c r="M50" s="116" t="n"/>
+      <c r="N50" s="116" t="n"/>
+      <c r="O50" s="116" t="n"/>
+      <c r="P50" s="116" t="n"/>
+      <c r="Q50" s="116" t="n"/>
+      <c r="R50" s="116" t="n"/>
+      <c r="S50" s="116" t="n"/>
+      <c r="T50" s="116" t="n">
         <v>0</v>
       </c>
       <c r="U50" s="77" t="n"/>
-      <c r="V50" s="119">
+      <c r="V50" s="116">
         <f>SUM(C50:T50)</f>
         <v/>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="105" t="inlineStr">
+      <c r="A51" s="102" t="inlineStr">
         <is>
           <t>Otras provisiones a largo plazo</t>
         </is>
       </c>
-      <c r="B51" s="99" t="n"/>
-      <c r="C51" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="106" t="n"/>
-      <c r="F51" s="106" t="n"/>
-      <c r="G51" s="106" t="n"/>
-      <c r="H51" s="106" t="n"/>
-      <c r="I51" s="106" t="n"/>
-      <c r="J51" s="106" t="n"/>
+      <c r="B51" s="96" t="n"/>
+      <c r="C51" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="103" t="n">
+        <v>128379000</v>
+      </c>
+      <c r="F51" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" s="77" t="n"/>
-      <c r="L51" s="106" t="n"/>
-      <c r="M51" s="106" t="n"/>
-      <c r="N51" s="106" t="n"/>
-      <c r="O51" s="106" t="n"/>
-      <c r="P51" s="106" t="n"/>
-      <c r="Q51" s="106" t="n"/>
-      <c r="R51" s="106" t="n"/>
-      <c r="S51" s="106" t="n"/>
-      <c r="T51" s="106" t="n">
+      <c r="L51" s="103" t="n"/>
+      <c r="M51" s="103" t="n"/>
+      <c r="N51" s="103" t="n"/>
+      <c r="O51" s="103" t="n"/>
+      <c r="P51" s="103" t="n"/>
+      <c r="Q51" s="103" t="n"/>
+      <c r="R51" s="103" t="n"/>
+      <c r="S51" s="103" t="n"/>
+      <c r="T51" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U51" s="77" t="n"/>
-      <c r="V51" s="106">
+      <c r="V51" s="103">
         <f>SUM(C51:T51)</f>
         <v/>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="105" t="inlineStr">
+      <c r="A52" s="102" t="inlineStr">
         <is>
           <t>Pasivo por impuestos diferidos</t>
         </is>
       </c>
-      <c r="B52" s="99" t="n"/>
-      <c r="C52" s="106" t="n">
+      <c r="B52" s="96" t="n"/>
+      <c r="C52" s="103" t="n">
         <v>949215459</v>
       </c>
-      <c r="D52" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="106" t="n"/>
-      <c r="F52" s="106" t="n"/>
-      <c r="G52" s="106" t="n"/>
-      <c r="H52" s="106" t="n"/>
-      <c r="I52" s="106" t="n"/>
-      <c r="J52" s="106" t="n"/>
+      <c r="D52" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="103" t="n">
+        <v>1446182627</v>
+      </c>
       <c r="K52" s="77" t="n"/>
-      <c r="L52" s="106" t="n"/>
-      <c r="M52" s="106" t="n"/>
-      <c r="N52" s="106" t="n"/>
-      <c r="O52" s="106" t="n"/>
-      <c r="P52" s="106" t="n"/>
-      <c r="Q52" s="106" t="n"/>
-      <c r="R52" s="106" t="n"/>
-      <c r="S52" s="106" t="n"/>
-      <c r="T52" s="106" t="n">
+      <c r="L52" s="103" t="n"/>
+      <c r="M52" s="103" t="n"/>
+      <c r="N52" s="103" t="n"/>
+      <c r="O52" s="103" t="n"/>
+      <c r="P52" s="103" t="n"/>
+      <c r="Q52" s="103" t="n"/>
+      <c r="R52" s="103" t="n"/>
+      <c r="S52" s="103" t="n"/>
+      <c r="T52" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U52" s="77" t="n"/>
-      <c r="V52" s="106">
+      <c r="V52" s="103">
         <f>SUM(C52:T52)</f>
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="1" s="94">
-      <c r="A53" s="130" t="inlineStr">
+    <row r="53" customFormat="1" s="91">
+      <c r="A53" s="127" t="inlineStr">
         <is>
           <t>Provisiones no corrientes por beneficios a los empleados</t>
         </is>
       </c>
-      <c r="B53" s="137" t="n"/>
-      <c r="C53" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="131" t="n"/>
-      <c r="F53" s="131" t="n"/>
-      <c r="G53" s="131" t="n"/>
-      <c r="H53" s="131" t="n"/>
-      <c r="I53" s="131" t="n"/>
-      <c r="J53" s="131" t="n"/>
-      <c r="K53" s="153" t="n"/>
-      <c r="L53" s="131" t="n"/>
-      <c r="M53" s="131" t="n"/>
-      <c r="N53" s="131" t="n"/>
-      <c r="O53" s="131" t="n"/>
-      <c r="P53" s="131" t="n"/>
-      <c r="Q53" s="131" t="n"/>
-      <c r="R53" s="131" t="n"/>
-      <c r="S53" s="131" t="n"/>
-      <c r="T53" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" s="153" t="n"/>
-      <c r="V53" s="131">
+      <c r="B53" s="134" t="n"/>
+      <c r="C53" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="145" t="n"/>
+      <c r="L53" s="128" t="n"/>
+      <c r="M53" s="128" t="n"/>
+      <c r="N53" s="128" t="n"/>
+      <c r="O53" s="128" t="n"/>
+      <c r="P53" s="128" t="n"/>
+      <c r="Q53" s="128" t="n"/>
+      <c r="R53" s="128" t="n"/>
+      <c r="S53" s="128" t="n"/>
+      <c r="T53" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="145" t="n"/>
+      <c r="V53" s="128">
         <f>SUM(C53:T53)</f>
         <v/>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="105" t="inlineStr">
+      <c r="A54" s="102" t="inlineStr">
         <is>
           <t>Otros pasivos no financieros no corrientes</t>
         </is>
       </c>
-      <c r="B54" s="99" t="n"/>
-      <c r="C54" s="106" t="n">
+      <c r="B54" s="96" t="n"/>
+      <c r="C54" s="103" t="n">
         <v>180959611</v>
       </c>
-      <c r="D54" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="106" t="n"/>
-      <c r="F54" s="106" t="n"/>
-      <c r="G54" s="106" t="n"/>
-      <c r="H54" s="106" t="n"/>
-      <c r="I54" s="106" t="n"/>
-      <c r="J54" s="106" t="n"/>
+      <c r="D54" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="103" t="n">
+        <v>93967634</v>
+      </c>
       <c r="K54" s="77" t="n"/>
-      <c r="L54" s="109" t="n"/>
-      <c r="M54" s="106" t="n"/>
-      <c r="N54" s="106" t="n"/>
-      <c r="O54" s="106" t="n"/>
-      <c r="P54" s="106" t="n"/>
-      <c r="Q54" s="106" t="n"/>
-      <c r="R54" s="106" t="n"/>
-      <c r="T54" s="106" t="n">
+      <c r="L54" s="106" t="n"/>
+      <c r="M54" s="103" t="n"/>
+      <c r="N54" s="103" t="n"/>
+      <c r="O54" s="103" t="n"/>
+      <c r="P54" s="103" t="n"/>
+      <c r="Q54" s="103" t="n"/>
+      <c r="R54" s="103" t="n"/>
+      <c r="T54" s="103" t="n">
         <v>0</v>
       </c>
       <c r="U54" s="77" t="n"/>
-      <c r="V54" s="106">
+      <c r="V54" s="103">
         <f>SUM(C54:T54)</f>
         <v/>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="134" t="inlineStr">
+      <c r="A55" s="131" t="inlineStr">
         <is>
           <t>Total de pasivos no corrientes</t>
         </is>
       </c>
-      <c r="B55" s="99" t="n"/>
-      <c r="C55" s="133">
+      <c r="B55" s="96" t="n"/>
+      <c r="C55" s="130">
         <f>SUM(C48:C54)</f>
         <v/>
       </c>
-      <c r="D55" s="133">
+      <c r="D55" s="130">
         <f>SUM(D48:D54)</f>
         <v/>
       </c>
-      <c r="E55" s="133">
+      <c r="E55" s="130">
         <f>SUM(E48:E54)</f>
         <v/>
       </c>
-      <c r="F55" s="133">
+      <c r="F55" s="130">
         <f>SUM(F48:F54)</f>
         <v/>
       </c>
-      <c r="G55" s="133">
+      <c r="G55" s="130">
         <f>SUM(G48:G54)</f>
         <v/>
       </c>
-      <c r="H55" s="133">
+      <c r="H55" s="130">
         <f>SUM(H48:H54)</f>
         <v/>
       </c>
-      <c r="I55" s="133">
+      <c r="I55" s="130">
         <f>SUM(I48:I54)</f>
         <v/>
       </c>
-      <c r="J55" s="133">
+      <c r="J55" s="130">
         <f>SUM(J48:J54)</f>
         <v/>
       </c>
       <c r="K55" s="77" t="n"/>
-      <c r="L55" s="155">
+      <c r="L55" s="146">
         <f>SUM(L48:L54)</f>
         <v/>
       </c>
-      <c r="M55" s="155">
+      <c r="M55" s="146">
         <f>SUM(M48:M54)</f>
         <v/>
       </c>
-      <c r="N55" s="155">
+      <c r="N55" s="146">
         <f>SUM(N48:N54)</f>
         <v/>
       </c>
-      <c r="O55" s="155">
+      <c r="O55" s="146">
         <f>SUM(O48:O54)</f>
         <v/>
       </c>
-      <c r="P55" s="155">
+      <c r="P55" s="146">
         <f>SUM(P48:P54)</f>
         <v/>
       </c>
-      <c r="Q55" s="155">
+      <c r="Q55" s="146">
         <f>SUM(Q48:Q54)</f>
         <v/>
       </c>
-      <c r="R55" s="155">
+      <c r="R55" s="146">
         <f>SUM(R48:R54)</f>
         <v/>
       </c>
-      <c r="S55" s="155" t="n"/>
-      <c r="T55" s="155">
+      <c r="S55" s="146" t="n"/>
+      <c r="T55" s="146">
         <f>SUM(T48:T54)</f>
         <v/>
       </c>
       <c r="U55" s="77" t="n"/>
-      <c r="V55" s="133">
+      <c r="V55" s="130">
         <f>SUM(V48:V54)</f>
         <v/>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="138" t="inlineStr">
+      <c r="A56" s="135" t="inlineStr">
         <is>
           <t>Total pasivos</t>
         </is>
       </c>
-      <c r="B56" s="99" t="n"/>
-      <c r="C56" s="139">
+      <c r="B56" s="96" t="n"/>
+      <c r="C56" s="136">
         <f>+C46+C55</f>
         <v/>
       </c>
-      <c r="D56" s="139">
+      <c r="D56" s="136">
         <f>+D46+D55</f>
         <v/>
       </c>
-      <c r="E56" s="139">
+      <c r="E56" s="136">
         <f>+E46+E55</f>
         <v/>
       </c>
-      <c r="F56" s="139">
+      <c r="F56" s="136">
         <f>+F46+F55</f>
         <v/>
       </c>
-      <c r="G56" s="139">
+      <c r="G56" s="136">
         <f>+G46+G55</f>
         <v/>
       </c>
-      <c r="H56" s="139">
+      <c r="H56" s="136">
         <f>+H46+H55</f>
         <v/>
       </c>
-      <c r="I56" s="139">
+      <c r="I56" s="136">
         <f>+I46+I55</f>
         <v/>
       </c>
-      <c r="J56" s="139">
+      <c r="J56" s="136">
         <f>+J46+J55</f>
         <v/>
       </c>
       <c r="K56" s="77" t="n"/>
-      <c r="L56" s="139">
+      <c r="L56" s="136">
         <f>+L46+L55</f>
         <v/>
       </c>
-      <c r="M56" s="139">
+      <c r="M56" s="136">
         <f>+M46+M55</f>
         <v/>
       </c>
-      <c r="N56" s="139">
+      <c r="N56" s="136">
         <f>+N46+N55</f>
         <v/>
       </c>
-      <c r="O56" s="139">
+      <c r="O56" s="136">
         <f>+O46+O55</f>
         <v/>
       </c>
-      <c r="P56" s="139">
+      <c r="P56" s="136">
         <f>+P46+P55</f>
         <v/>
       </c>
-      <c r="Q56" s="139">
+      <c r="Q56" s="136">
         <f>+Q46+Q55</f>
         <v/>
       </c>
-      <c r="R56" s="139">
+      <c r="R56" s="136">
         <f>+R46+R55</f>
         <v/>
       </c>
-      <c r="S56" s="139" t="n"/>
-      <c r="T56" s="139">
+      <c r="S56" s="136" t="n"/>
+      <c r="T56" s="136">
         <f>+T46+T55</f>
         <v/>
       </c>
       <c r="U56" s="77" t="n"/>
-      <c r="V56" s="139">
+      <c r="V56" s="136">
         <f>+V46+V55</f>
         <v/>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="104" t="inlineStr">
+      <c r="A57" s="101" t="inlineStr">
         <is>
           <t>Patrimonio</t>
         </is>
       </c>
-      <c r="B57" s="99" t="n"/>
-      <c r="C57" s="103" t="n"/>
-      <c r="D57" s="103" t="n"/>
-      <c r="E57" s="103" t="n"/>
-      <c r="F57" s="103" t="n"/>
-      <c r="G57" s="103" t="n"/>
-      <c r="H57" s="103" t="n"/>
-      <c r="I57" s="103" t="n"/>
-      <c r="J57" s="103" t="n"/>
+      <c r="B57" s="96" t="n"/>
+      <c r="C57" s="100" t="n"/>
+      <c r="D57" s="100" t="n"/>
+      <c r="E57" s="100" t="n"/>
+      <c r="F57" s="100" t="n"/>
+      <c r="G57" s="100" t="n"/>
+      <c r="H57" s="100" t="n"/>
+      <c r="I57" s="100" t="n"/>
+      <c r="J57" s="100" t="n"/>
       <c r="K57" s="77" t="n"/>
-      <c r="L57" s="141" t="n"/>
-      <c r="M57" s="141" t="n"/>
-      <c r="N57" s="141" t="n"/>
-      <c r="O57" s="141" t="n"/>
-      <c r="P57" s="141" t="n"/>
-      <c r="Q57" s="141" t="n"/>
-      <c r="R57" s="141" t="n"/>
-      <c r="S57" s="141" t="n"/>
-      <c r="T57" s="141" t="n"/>
+      <c r="L57" s="138" t="n"/>
+      <c r="M57" s="138" t="n"/>
+      <c r="N57" s="138" t="n"/>
+      <c r="O57" s="138" t="n"/>
+      <c r="P57" s="138" t="n"/>
+      <c r="Q57" s="138" t="n"/>
+      <c r="R57" s="138" t="n"/>
+      <c r="S57" s="138" t="n"/>
+      <c r="T57" s="138" t="n"/>
       <c r="U57" s="77" t="n"/>
-      <c r="V57" s="103" t="n"/>
+      <c r="V57" s="100" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="117" t="inlineStr">
+      <c r="A58" s="114" t="inlineStr">
         <is>
           <t>Capital emitido</t>
         </is>
       </c>
-      <c r="B58" s="99" t="n"/>
-      <c r="C58" s="106" t="n">
+      <c r="B58" s="96" t="n"/>
+      <c r="C58" s="103" t="n">
         <v>28743629969</v>
       </c>
-      <c r="D58" s="106" t="n">
+      <c r="D58" s="103" t="n">
         <v>89385225</v>
       </c>
-      <c r="E58" s="106" t="n"/>
-      <c r="F58" s="106" t="n"/>
-      <c r="G58" s="106" t="n"/>
-      <c r="H58" s="106" t="n"/>
-      <c r="I58" s="106" t="n"/>
-      <c r="J58" s="106" t="n"/>
+      <c r="E58" s="103" t="n">
+        <v>1352480884</v>
+      </c>
+      <c r="F58" s="103" t="n">
+        <v>194722012</v>
+      </c>
+      <c r="G58" s="103" t="n">
+        <v>9406623059</v>
+      </c>
+      <c r="H58" s="103" t="n">
+        <v>1313272</v>
+      </c>
+      <c r="I58" s="103" t="n">
+        <v>1087339</v>
+      </c>
+      <c r="J58" s="103" t="n">
+        <v>32296318921</v>
+      </c>
       <c r="K58" s="77" t="n"/>
-      <c r="L58" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="106">
-        <f>-D58</f>
-        <v/>
-      </c>
-      <c r="N58" s="106">
-        <f>-E58</f>
-        <v/>
-      </c>
-      <c r="O58" s="106">
-        <f>-F58</f>
-        <v/>
-      </c>
-      <c r="P58" s="106">
-        <f>-G58</f>
-        <v/>
-      </c>
-      <c r="Q58" s="106">
-        <f>-H58</f>
-        <v/>
-      </c>
-      <c r="R58" s="106">
-        <f>-I58</f>
-        <v/>
-      </c>
-      <c r="S58" s="106">
-        <f>-J58</f>
-        <v/>
-      </c>
-      <c r="T58" s="106">
+      <c r="L58" s="103" t="n"/>
+      <c r="M58" s="103" t="n"/>
+      <c r="N58" s="103" t="n"/>
+      <c r="O58" s="103" t="n"/>
+      <c r="P58" s="103" t="n"/>
+      <c r="Q58" s="103" t="n"/>
+      <c r="R58" s="103" t="n"/>
+      <c r="S58" s="103" t="n"/>
+      <c r="T58" s="103">
         <f>-#REF!</f>
         <v/>
       </c>
       <c r="U58" s="77" t="n"/>
-      <c r="V58" s="106">
+      <c r="V58" s="103">
         <f>SUM(B58:S58)</f>
         <v/>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="117" t="inlineStr">
+      <c r="A59" s="114" t="inlineStr">
         <is>
           <t>Ganancias (pérdidas) acumuladas</t>
         </is>
       </c>
-      <c r="B59" s="99" t="n"/>
-      <c r="C59" s="106" t="n">
+      <c r="B59" s="96" t="n"/>
+      <c r="C59" s="103" t="n">
         <v>51023010062</v>
       </c>
-      <c r="D59" s="106" t="n">
+      <c r="D59" s="103" t="n">
         <v>98349992</v>
       </c>
-      <c r="E59" s="106" t="n"/>
-      <c r="F59" s="106" t="n"/>
-      <c r="G59" s="106" t="n"/>
-      <c r="H59" s="106" t="n"/>
-      <c r="I59" s="106" t="n"/>
-      <c r="J59" s="106" t="n"/>
+      <c r="E59" s="103" t="n">
+        <v>4653484162</v>
+      </c>
+      <c r="F59" s="103" t="n">
+        <v>1623081431</v>
+      </c>
+      <c r="G59" s="103" t="n">
+        <v>1508925219</v>
+      </c>
+      <c r="H59" s="103" t="n">
+        <v>91438527</v>
+      </c>
+      <c r="I59" s="103" t="n">
+        <v>160686140</v>
+      </c>
+      <c r="J59" s="103" t="n">
+        <v>7719195458</v>
+      </c>
       <c r="K59" s="77" t="n"/>
-      <c r="L59" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="106">
-        <f>-D59</f>
-        <v/>
-      </c>
-      <c r="N59" s="106">
-        <f>-E59</f>
-        <v/>
-      </c>
-      <c r="O59" s="106">
-        <f>-F59</f>
-        <v/>
-      </c>
-      <c r="P59" s="106">
-        <f>-G59</f>
-        <v/>
-      </c>
-      <c r="Q59" s="106">
-        <f>-H59</f>
-        <v/>
-      </c>
-      <c r="R59" s="106">
-        <f>-I59</f>
-        <v/>
-      </c>
-      <c r="S59" s="106">
-        <f>-J59</f>
-        <v/>
-      </c>
-      <c r="T59" s="106">
+      <c r="L59" s="103" t="n"/>
+      <c r="M59" s="103" t="n"/>
+      <c r="N59" s="103" t="n"/>
+      <c r="O59" s="103" t="n"/>
+      <c r="P59" s="103" t="n"/>
+      <c r="Q59" s="103" t="n"/>
+      <c r="R59" s="103" t="n"/>
+      <c r="S59" s="103" t="n"/>
+      <c r="T59" s="103">
         <f>-#REF!</f>
         <v/>
       </c>
       <c r="U59" s="77" t="n"/>
-      <c r="V59" s="106">
+      <c r="V59" s="103">
         <f>SUM(B59:S59)</f>
         <v/>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="117" t="inlineStr">
+      <c r="A60" s="114" t="inlineStr">
         <is>
           <t>Primas de emisión</t>
         </is>
       </c>
-      <c r="B60" s="99" t="n"/>
-      <c r="C60" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="106" t="n"/>
-      <c r="F60" s="106" t="n"/>
-      <c r="G60" s="106" t="n"/>
-      <c r="H60" s="106" t="n"/>
-      <c r="I60" s="106" t="n"/>
-      <c r="J60" s="106" t="n"/>
+      <c r="B60" s="96" t="n"/>
+      <c r="C60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" s="77" t="n"/>
-      <c r="L60" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" s="106">
-        <f>-D60</f>
-        <v/>
-      </c>
-      <c r="N60" s="106">
-        <f>-E60</f>
-        <v/>
-      </c>
-      <c r="O60" s="106">
-        <f>-F60</f>
-        <v/>
-      </c>
-      <c r="P60" s="106">
-        <f>-G60</f>
-        <v/>
-      </c>
-      <c r="Q60" s="106">
-        <f>-H60</f>
-        <v/>
-      </c>
-      <c r="R60" s="106">
-        <f>-I60</f>
-        <v/>
-      </c>
-      <c r="S60" s="106">
-        <f>-J60</f>
-        <v/>
-      </c>
-      <c r="T60" s="106">
+      <c r="L60" s="103" t="n"/>
+      <c r="M60" s="103" t="n"/>
+      <c r="N60" s="103" t="n"/>
+      <c r="O60" s="103" t="n"/>
+      <c r="P60" s="103" t="n"/>
+      <c r="Q60" s="103" t="n"/>
+      <c r="R60" s="103" t="n"/>
+      <c r="S60" s="103" t="n"/>
+      <c r="T60" s="103">
         <f>-#REF!</f>
         <v/>
       </c>
       <c r="U60" s="77" t="n"/>
-      <c r="V60" s="106">
+      <c r="V60" s="103">
         <f>SUM(B60:S60)</f>
         <v/>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="117" t="inlineStr">
+      <c r="A61" s="114" t="inlineStr">
         <is>
           <t>Acciones propias en cartera</t>
         </is>
       </c>
-      <c r="B61" s="99" t="n"/>
-      <c r="C61" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="106" t="n"/>
-      <c r="F61" s="106" t="n"/>
-      <c r="G61" s="106" t="n"/>
-      <c r="H61" s="106" t="n"/>
-      <c r="I61" s="106" t="n"/>
-      <c r="J61" s="106" t="n"/>
+      <c r="B61" s="96" t="n"/>
+      <c r="C61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" s="77" t="n"/>
-      <c r="L61" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="106">
-        <f>-D61</f>
-        <v/>
-      </c>
-      <c r="N61" s="106">
-        <f>-E61</f>
-        <v/>
-      </c>
-      <c r="O61" s="106">
-        <f>-F61</f>
-        <v/>
-      </c>
-      <c r="P61" s="106">
-        <f>-G61</f>
-        <v/>
-      </c>
-      <c r="Q61" s="106">
-        <f>-H61</f>
-        <v/>
-      </c>
-      <c r="R61" s="106">
-        <f>-I61</f>
-        <v/>
-      </c>
-      <c r="S61" s="106">
-        <f>-J61</f>
-        <v/>
-      </c>
-      <c r="T61" s="106">
+      <c r="L61" s="103" t="n"/>
+      <c r="M61" s="103" t="n"/>
+      <c r="N61" s="103" t="n"/>
+      <c r="O61" s="103" t="n"/>
+      <c r="P61" s="103" t="n"/>
+      <c r="Q61" s="103" t="n"/>
+      <c r="R61" s="103" t="n"/>
+      <c r="S61" s="103" t="n"/>
+      <c r="T61" s="103">
         <f>-#REF!</f>
         <v/>
       </c>
       <c r="U61" s="77" t="n"/>
-      <c r="V61" s="106">
+      <c r="V61" s="103">
         <f>SUM(B61:S61)</f>
         <v/>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="117" t="inlineStr">
+      <c r="A62" s="114" t="inlineStr">
         <is>
           <t>Otras participaciones en el patrimonio</t>
         </is>
       </c>
-      <c r="B62" s="99" t="n"/>
-      <c r="C62" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="106" t="n"/>
-      <c r="F62" s="106" t="n"/>
-      <c r="G62" s="106" t="n"/>
-      <c r="H62" s="106" t="n"/>
-      <c r="I62" s="106" t="n"/>
-      <c r="J62" s="106" t="n"/>
+      <c r="B62" s="96" t="n"/>
+      <c r="C62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" s="77" t="n"/>
-      <c r="L62" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" s="106">
-        <f>-D62</f>
-        <v/>
-      </c>
-      <c r="N62" s="106">
-        <f>-E62</f>
-        <v/>
-      </c>
-      <c r="O62" s="106">
-        <f>-F62</f>
-        <v/>
-      </c>
-      <c r="P62" s="106">
-        <f>-G62</f>
-        <v/>
-      </c>
-      <c r="Q62" s="106">
-        <f>-H62</f>
-        <v/>
-      </c>
-      <c r="R62" s="106">
-        <f>-I62</f>
-        <v/>
-      </c>
-      <c r="S62" s="106">
-        <f>-J62</f>
-        <v/>
-      </c>
-      <c r="T62" s="106">
+      <c r="L62" s="103" t="n"/>
+      <c r="M62" s="103" t="n"/>
+      <c r="N62" s="103" t="n"/>
+      <c r="O62" s="103" t="n"/>
+      <c r="P62" s="103" t="n"/>
+      <c r="Q62" s="103" t="n"/>
+      <c r="R62" s="103" t="n"/>
+      <c r="S62" s="103" t="n"/>
+      <c r="T62" s="103">
         <f>-#REF!</f>
         <v/>
       </c>
       <c r="U62" s="77" t="n"/>
-      <c r="V62" s="106">
+      <c r="V62" s="103">
         <f>SUM(B62:S62)</f>
         <v/>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="117" t="inlineStr">
+      <c r="A63" s="114" t="inlineStr">
         <is>
           <t>Otras reservas</t>
         </is>
       </c>
-      <c r="B63" s="99" t="n"/>
-      <c r="C63" s="106" t="n">
+      <c r="B63" s="96" t="n"/>
+      <c r="C63" s="103" t="n">
         <v>2411552424</v>
       </c>
-      <c r="D63" s="106" t="n">
+      <c r="D63" s="103" t="n">
         <v>36574573</v>
       </c>
-      <c r="E63" s="106" t="n"/>
-      <c r="F63" s="106" t="n"/>
-      <c r="G63" s="106" t="n"/>
-      <c r="H63" s="106" t="n"/>
-      <c r="I63" s="106" t="n"/>
-      <c r="J63" s="106" t="n"/>
+      <c r="E63" s="103" t="n">
+        <v>1217740780</v>
+      </c>
+      <c r="F63" s="103" t="n">
+        <v>-112412498</v>
+      </c>
+      <c r="G63" s="103" t="n">
+        <v>988753254</v>
+      </c>
+      <c r="H63" s="103" t="n">
+        <v>-27011</v>
+      </c>
+      <c r="I63" s="103" t="n">
+        <v>-22364</v>
+      </c>
+      <c r="J63" s="103" t="n">
+        <v>2488253058</v>
+      </c>
       <c r="K63" s="77" t="n"/>
-      <c r="L63" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="106">
-        <f>-D63</f>
-        <v/>
-      </c>
-      <c r="N63" s="106">
-        <f>-E63</f>
-        <v/>
-      </c>
-      <c r="O63" s="106">
-        <f>-F63</f>
-        <v/>
-      </c>
-      <c r="P63" s="106">
-        <f>-G63</f>
-        <v/>
-      </c>
-      <c r="Q63" s="106">
-        <f>-H63</f>
-        <v/>
-      </c>
-      <c r="R63" s="106">
-        <f>-I63</f>
-        <v/>
-      </c>
-      <c r="S63" s="106">
-        <f>-J63</f>
-        <v/>
-      </c>
-      <c r="T63" s="106">
+      <c r="L63" s="103" t="n"/>
+      <c r="M63" s="103" t="n"/>
+      <c r="N63" s="103" t="n"/>
+      <c r="O63" s="103" t="n"/>
+      <c r="P63" s="103" t="n"/>
+      <c r="Q63" s="103" t="n"/>
+      <c r="R63" s="103" t="n"/>
+      <c r="S63" s="103" t="n"/>
+      <c r="T63" s="103">
         <f>-#REF!</f>
         <v/>
       </c>
       <c r="U63" s="77" t="n"/>
-      <c r="V63" s="106">
+      <c r="V63" s="103">
         <f>SUM(B63:S63)</f>
         <v/>
       </c>
     </row>
     <row r="64" ht="24" customHeight="1">
-      <c r="A64" s="125" t="inlineStr">
+      <c r="A64" s="122" t="inlineStr">
         <is>
           <t>Patrimonio atribuible a los propietarios de la controladora</t>
         </is>
       </c>
-      <c r="B64" s="99" t="n"/>
-      <c r="C64" s="133">
+      <c r="B64" s="96" t="n"/>
+      <c r="C64" s="130">
         <f>SUM(C58:C63)</f>
         <v/>
       </c>
-      <c r="D64" s="133">
+      <c r="D64" s="130">
         <f>SUM(D58:D63)</f>
         <v/>
       </c>
-      <c r="E64" s="133">
+      <c r="E64" s="130">
         <f>SUM(E58:E63)</f>
         <v/>
       </c>
-      <c r="F64" s="133">
+      <c r="F64" s="130">
         <f>SUM(F58:F63)</f>
         <v/>
       </c>
-      <c r="G64" s="133">
+      <c r="G64" s="130">
         <f>SUM(G58:G63)</f>
         <v/>
       </c>
-      <c r="H64" s="133">
+      <c r="H64" s="130">
         <f>SUM(H58:H63)</f>
         <v/>
       </c>
-      <c r="I64" s="133">
+      <c r="I64" s="130">
         <f>SUM(I58:I63)</f>
         <v/>
       </c>
-      <c r="J64" s="133">
+      <c r="J64" s="130">
         <f>SUM(J58:J63)</f>
         <v/>
       </c>
       <c r="K64" s="77" t="n"/>
-      <c r="L64" s="155">
+      <c r="L64" s="146">
         <f>SUM(L58:L63)</f>
         <v/>
       </c>
-      <c r="M64" s="155">
+      <c r="M64" s="146">
         <f>SUM(M58:M63)</f>
         <v/>
       </c>
-      <c r="N64" s="155">
+      <c r="N64" s="146">
         <f>SUM(N58:N63)</f>
         <v/>
       </c>
-      <c r="O64" s="155">
+      <c r="O64" s="146">
         <f>SUM(O58:O63)</f>
         <v/>
       </c>
-      <c r="P64" s="155">
+      <c r="P64" s="146">
         <f>SUM(P58:P63)</f>
         <v/>
       </c>
-      <c r="Q64" s="155">
+      <c r="Q64" s="146">
         <f>SUM(Q58:Q63)</f>
         <v/>
       </c>
-      <c r="R64" s="155">
+      <c r="R64" s="146">
         <f>SUM(R58:R63)</f>
         <v/>
       </c>
-      <c r="S64" s="155">
+      <c r="S64" s="146">
         <f>SUM(S58:S63)</f>
         <v/>
       </c>
-      <c r="T64" s="155">
+      <c r="T64" s="146">
         <f>SUM(T58:T63)</f>
         <v/>
       </c>
       <c r="U64" s="77" t="n"/>
-      <c r="V64" s="133">
+      <c r="V64" s="130">
         <f>SUM(V58:V63)</f>
         <v/>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="117" t="inlineStr">
+      <c r="A65" s="114" t="inlineStr">
         <is>
           <t>Participaciones no controladoras</t>
         </is>
       </c>
-      <c r="B65" s="99" t="n"/>
-      <c r="C65" s="106" t="n"/>
-      <c r="D65" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="106" t="n"/>
-      <c r="F65" s="106" t="n"/>
-      <c r="G65" s="106" t="n"/>
-      <c r="H65" s="106" t="n"/>
-      <c r="I65" s="106" t="n"/>
-      <c r="J65" s="106" t="n"/>
+      <c r="B65" s="96" t="n"/>
+      <c r="C65" s="103" t="n"/>
+      <c r="D65" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="103" t="n">
+        <v>4809958419</v>
+      </c>
+      <c r="F65" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="103" t="n">
+        <v>18467224.74000001</v>
+      </c>
+      <c r="H65" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="103" t="n">
+        <v>4515701</v>
+      </c>
       <c r="K65" s="77" t="n"/>
-      <c r="L65" s="181" t="n"/>
-      <c r="M65" s="182" t="n"/>
-      <c r="N65" s="182">
-        <f>-[6]Estado!$AH$65</f>
-        <v/>
-      </c>
-      <c r="O65" s="182" t="n"/>
-      <c r="P65" s="182">
-        <f>+G87-G65</f>
-        <v/>
-      </c>
-      <c r="Q65" s="182" t="n"/>
-      <c r="R65" s="182" t="n"/>
-      <c r="S65" s="182">
-        <f>-'[7]Estado$'!$AG$65-'[7]Estado$'!$AJ$65-'[7]Estado$'!$AN$65</f>
-        <v/>
-      </c>
-      <c r="T65" s="182">
+      <c r="L65" s="180" t="n"/>
+      <c r="M65" s="181" t="n"/>
+      <c r="N65" s="181" t="n"/>
+      <c r="O65" s="181" t="n"/>
+      <c r="P65" s="181" t="n"/>
+      <c r="Q65" s="181" t="n"/>
+      <c r="R65" s="181" t="n"/>
+      <c r="S65" s="181" t="n"/>
+      <c r="T65" s="181">
         <f>+#REF!</f>
         <v/>
       </c>
       <c r="U65" s="77" t="n"/>
-      <c r="V65" s="106">
+      <c r="V65" s="103">
         <f>SUM(B65:S65)</f>
         <v/>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="125" t="inlineStr">
+      <c r="A66" s="122" t="inlineStr">
         <is>
           <t>Patrimonio total</t>
         </is>
       </c>
-      <c r="B66" s="99" t="n"/>
-      <c r="C66" s="133">
+      <c r="B66" s="96" t="n"/>
+      <c r="C66" s="130">
         <f>+C64+C65</f>
         <v/>
       </c>
-      <c r="D66" s="133">
+      <c r="D66" s="130">
         <f>+D64+D65</f>
         <v/>
       </c>
-      <c r="E66" s="133">
+      <c r="E66" s="130">
         <f>+E64+E65</f>
         <v/>
       </c>
-      <c r="F66" s="133">
+      <c r="F66" s="130">
         <f>+F64+F65</f>
         <v/>
       </c>
-      <c r="G66" s="133">
+      <c r="G66" s="130">
         <f>+G64+G65</f>
         <v/>
       </c>
-      <c r="H66" s="133">
+      <c r="H66" s="130">
         <f>+H64+H65</f>
         <v/>
       </c>
-      <c r="I66" s="133">
+      <c r="I66" s="130">
         <f>+I64+I65</f>
         <v/>
       </c>
-      <c r="J66" s="133">
+      <c r="J66" s="130">
         <f>+J64+J65</f>
         <v/>
       </c>
-      <c r="K66" s="133">
+      <c r="K66" s="130">
         <f>+K64+K65</f>
         <v/>
       </c>
-      <c r="L66" s="155">
+      <c r="L66" s="146">
         <f>+L64+L65</f>
         <v/>
       </c>
-      <c r="M66" s="155">
+      <c r="M66" s="146">
         <f>+M64+M65</f>
         <v/>
       </c>
-      <c r="N66" s="155">
+      <c r="N66" s="146">
         <f>+N64+N65</f>
         <v/>
       </c>
-      <c r="O66" s="155">
+      <c r="O66" s="146">
         <f>+O64+O65</f>
         <v/>
       </c>
-      <c r="P66" s="155">
+      <c r="P66" s="146">
         <f>+P64+P65</f>
         <v/>
       </c>
-      <c r="Q66" s="155">
+      <c r="Q66" s="146">
         <f>+Q64+Q65</f>
         <v/>
       </c>
-      <c r="R66" s="155">
+      <c r="R66" s="146">
         <f>+R64+R65</f>
         <v/>
       </c>
-      <c r="S66" s="155">
+      <c r="S66" s="146">
         <f>+S64+S65</f>
         <v/>
       </c>
-      <c r="T66" s="155">
+      <c r="T66" s="146">
         <f>+T64+T65</f>
         <v/>
       </c>
       <c r="U66" s="77" t="n"/>
-      <c r="V66" s="133">
+      <c r="V66" s="130">
         <f>+V64+V65</f>
         <v/>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="161" t="inlineStr">
+      <c r="A67" s="160" t="inlineStr">
         <is>
           <t>Total de patrimonio y pasivos</t>
         </is>
       </c>
-      <c r="B67" s="99" t="n"/>
-      <c r="C67" s="139">
+      <c r="B67" s="96" t="n"/>
+      <c r="C67" s="136">
         <f>+C56+C66</f>
         <v/>
       </c>
-      <c r="D67" s="139">
+      <c r="D67" s="136">
         <f>+D56+D66</f>
         <v/>
       </c>
-      <c r="E67" s="139">
+      <c r="E67" s="136">
         <f>+E56+E66</f>
         <v/>
       </c>
-      <c r="F67" s="139">
+      <c r="F67" s="136">
         <f>+F56+F66</f>
         <v/>
       </c>
-      <c r="G67" s="139">
+      <c r="G67" s="136">
         <f>+G56+G66</f>
         <v/>
       </c>
-      <c r="H67" s="139">
+      <c r="H67" s="136">
         <f>+H56+H66</f>
         <v/>
       </c>
-      <c r="I67" s="139">
+      <c r="I67" s="136">
         <f>+I56+I66</f>
         <v/>
       </c>
-      <c r="J67" s="139">
+      <c r="J67" s="136">
         <f>+J56+J66</f>
         <v/>
       </c>
       <c r="K67" s="77" t="n"/>
-      <c r="L67" s="139">
+      <c r="L67" s="136">
         <f>+L56+L66</f>
         <v/>
       </c>
-      <c r="M67" s="139">
+      <c r="M67" s="136">
         <f>+M56+M66</f>
         <v/>
       </c>
-      <c r="N67" s="139">
+      <c r="N67" s="136">
         <f>+N56+N66</f>
         <v/>
       </c>
-      <c r="O67" s="139">
+      <c r="O67" s="136">
         <f>+O56+O66</f>
         <v/>
       </c>
-      <c r="P67" s="139">
+      <c r="P67" s="136">
         <f>+P56+P66</f>
         <v/>
       </c>
-      <c r="Q67" s="139">
+      <c r="Q67" s="136">
         <f>+Q56+Q66</f>
         <v/>
       </c>
-      <c r="R67" s="139">
+      <c r="R67" s="136">
         <f>+R56+R66</f>
         <v/>
       </c>
-      <c r="S67" s="139">
+      <c r="S67" s="136">
         <f>+S56+S66</f>
         <v/>
       </c>
-      <c r="T67" s="139">
+      <c r="T67" s="136">
         <f>+T56+T66</f>
         <v/>
       </c>
       <c r="U67" s="77" t="n"/>
-      <c r="V67" s="139">
+      <c r="V67" s="136">
         <f>+V56+V66</f>
         <v/>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="162" t="n"/>
-      <c r="B68" s="99" t="n"/>
-      <c r="C68" s="163">
+      <c r="A68" s="161" t="n"/>
+      <c r="B68" s="96" t="n"/>
+      <c r="C68" s="162">
         <f>+C32-C67</f>
         <v/>
       </c>
-      <c r="D68" s="163">
+      <c r="D68" s="162">
         <f>+D32-D67</f>
         <v/>
       </c>
-      <c r="E68" s="163">
+      <c r="E68" s="162">
         <f>+E32-E67</f>
         <v/>
       </c>
-      <c r="F68" s="163">
+      <c r="F68" s="162">
         <f>+F32-F67</f>
         <v/>
       </c>
-      <c r="G68" s="163">
+      <c r="G68" s="162">
         <f>+G32-G67</f>
         <v/>
       </c>
-      <c r="H68" s="163">
+      <c r="H68" s="162">
         <f>+H32-H67</f>
         <v/>
       </c>
-      <c r="I68" s="163">
+      <c r="I68" s="162">
         <f>+I32-I67</f>
         <v/>
       </c>
-      <c r="J68" s="163">
+      <c r="J68" s="162">
         <f>+J32-J67</f>
         <v/>
       </c>
       <c r="K68" s="77" t="n"/>
-      <c r="L68" s="163">
+      <c r="L68" s="162">
         <f>+L32-L67</f>
         <v/>
       </c>
-      <c r="M68" s="163">
+      <c r="M68" s="162">
         <f>+M32-M67</f>
         <v/>
       </c>
-      <c r="N68" s="163">
+      <c r="N68" s="162">
         <f>+N32-N67</f>
         <v/>
       </c>
-      <c r="O68" s="163">
+      <c r="O68" s="162">
         <f>+O32-O67</f>
         <v/>
       </c>
-      <c r="P68" s="163">
+      <c r="P68" s="162">
         <f>+P32-P67</f>
         <v/>
       </c>
-      <c r="Q68" s="163">
+      <c r="Q68" s="162">
         <f>+Q32-Q67</f>
         <v/>
       </c>
-      <c r="R68" s="163">
+      <c r="R68" s="162">
         <f>+R32-R67</f>
         <v/>
       </c>
-      <c r="S68" s="163">
+      <c r="S68" s="162">
         <f>+S32-S67</f>
         <v/>
       </c>
-      <c r="T68" s="163">
+      <c r="T68" s="162">
         <f>+T32-T67</f>
         <v/>
       </c>
       <c r="U68" s="77" t="n"/>
-      <c r="V68" s="163">
+      <c r="V68" s="162">
         <f>+V32-V67</f>
         <v/>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="164" t="inlineStr">
+      <c r="A69" s="163" t="inlineStr">
         <is>
           <t>Porcentaje de Participacion</t>
         </is>
       </c>
-      <c r="B69" s="99" t="n"/>
-      <c r="C69" s="163" t="n"/>
-      <c r="D69" s="163" t="n"/>
-      <c r="E69" s="163" t="n"/>
-      <c r="F69" s="163" t="n"/>
-      <c r="G69" s="163" t="n"/>
-      <c r="H69" s="163" t="n"/>
-      <c r="I69" s="163" t="n"/>
-      <c r="J69" s="163" t="n"/>
+      <c r="B69" s="96" t="n"/>
+      <c r="C69" s="162" t="n"/>
+      <c r="D69" s="162" t="n"/>
+      <c r="E69" s="162" t="n"/>
+      <c r="F69" s="162" t="n"/>
+      <c r="G69" s="162" t="n"/>
+      <c r="H69" s="162" t="n"/>
+      <c r="I69" s="162" t="n"/>
+      <c r="J69" s="162" t="n"/>
       <c r="K69" s="77" t="n"/>
-      <c r="L69" s="163" t="n"/>
-      <c r="M69" s="163" t="n"/>
-      <c r="N69" s="163" t="n"/>
-      <c r="O69" s="163" t="n"/>
-      <c r="P69" s="163" t="n"/>
-      <c r="Q69" s="163" t="n"/>
-      <c r="R69" s="163" t="n"/>
-      <c r="S69" s="163" t="n"/>
-      <c r="T69" s="163" t="n"/>
+      <c r="L69" s="162" t="n"/>
+      <c r="M69" s="162" t="n"/>
+      <c r="N69" s="162" t="n"/>
+      <c r="O69" s="162" t="n"/>
+      <c r="P69" s="162" t="n"/>
+      <c r="Q69" s="162" t="n"/>
+      <c r="R69" s="162" t="n"/>
+      <c r="S69" s="162" t="n"/>
+      <c r="T69" s="162" t="n"/>
       <c r="U69" s="77" t="n"/>
-      <c r="V69" s="163" t="n"/>
+      <c r="V69" s="162" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="105" t="inlineStr">
+      <c r="A70" s="102" t="inlineStr">
         <is>
           <t>Porcentaje de Participacion propietarios de la controladora</t>
         </is>
       </c>
-      <c r="B70" s="99" t="n"/>
-      <c r="C70" s="165" t="n"/>
-      <c r="D70" s="243" t="n">
+      <c r="B70" s="96" t="n"/>
+      <c r="C70" s="164" t="n"/>
+      <c r="D70" s="245" t="n">
         <v>0.9954499999999999</v>
       </c>
-      <c r="E70" s="243" t="n">
+      <c r="E70" s="245" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="243" t="n">
+      <c r="F70" s="245" t="n">
         <v>0.8687</v>
       </c>
-      <c r="G70" s="243" t="n">
+      <c r="G70" s="245" t="n">
         <v>0.89997</v>
       </c>
-      <c r="H70" s="243" t="n">
+      <c r="H70" s="245" t="n">
         <v>0.999</v>
       </c>
-      <c r="I70" s="243" t="n">
+      <c r="I70" s="245" t="n">
         <v>0.99</v>
       </c>
-      <c r="J70" s="243" t="n">
+      <c r="J70" s="245" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="77" t="n"/>
       <c r="U70" s="77" t="n"/>
-      <c r="V70" s="244" t="n"/>
+      <c r="V70" s="246" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="105" t="inlineStr">
+      <c r="A71" s="102" t="inlineStr">
         <is>
           <t>Porcentaje de Participacion no controladora</t>
         </is>
       </c>
-      <c r="B71" s="99" t="n"/>
-      <c r="C71" s="165" t="n"/>
-      <c r="D71" s="243" t="n">
+      <c r="B71" s="96" t="n"/>
+      <c r="C71" s="164" t="n"/>
+      <c r="D71" s="245" t="n">
         <v>0.00455</v>
       </c>
-      <c r="E71" s="243" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="243" t="n">
+      <c r="E71" s="245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="245" t="n">
         <v>0.1313</v>
       </c>
-      <c r="G71" s="243" t="n">
+      <c r="G71" s="245" t="n">
         <v>0.10003</v>
       </c>
-      <c r="H71" s="243" t="n">
+      <c r="H71" s="245" t="n">
         <v>0.001</v>
       </c>
-      <c r="I71" s="243" t="n">
+      <c r="I71" s="245" t="n">
         <v>0.01</v>
       </c>
-      <c r="J71" s="243" t="n">
+      <c r="J71" s="245" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="77" t="n"/>
       <c r="U71" s="77" t="n"/>
-      <c r="V71" s="244" t="n"/>
+      <c r="V71" s="246" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="134" t="inlineStr">
+      <c r="A72" s="131" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B72" s="99" t="n"/>
-      <c r="C72" s="166" t="n"/>
-      <c r="D72" s="245">
+      <c r="B72" s="96" t="n"/>
+      <c r="C72" s="165" t="n"/>
+      <c r="D72" s="247">
         <f>+D70+D71</f>
         <v/>
       </c>
-      <c r="E72" s="245">
+      <c r="E72" s="247">
         <f>+E70+E71</f>
         <v/>
       </c>
-      <c r="F72" s="245">
+      <c r="F72" s="247">
         <f>+F70+F71</f>
         <v/>
       </c>
-      <c r="G72" s="245">
+      <c r="G72" s="247">
         <f>+G70+G71</f>
         <v/>
       </c>
-      <c r="H72" s="245">
+      <c r="H72" s="247">
         <f>+H70+H71</f>
         <v/>
       </c>
-      <c r="I72" s="245">
+      <c r="I72" s="247">
         <f>+I70+I71</f>
         <v/>
       </c>
-      <c r="J72" s="245">
+      <c r="J72" s="247">
         <f>+J70+J71</f>
         <v/>
       </c>
       <c r="K72" s="77" t="n"/>
-      <c r="L72" s="183">
+      <c r="L72" s="182">
         <f>+L66</f>
         <v/>
       </c>
-      <c r="M72" s="183">
+      <c r="M72" s="182">
         <f>+M66</f>
         <v/>
       </c>
-      <c r="N72" s="183">
+      <c r="N72" s="182">
         <f>+N66</f>
         <v/>
       </c>
-      <c r="O72" s="183">
+      <c r="O72" s="182">
         <f>+O66</f>
         <v/>
       </c>
-      <c r="P72" s="183">
+      <c r="P72" s="182">
         <f>+P66</f>
         <v/>
       </c>
-      <c r="Q72" s="183">
+      <c r="Q72" s="182">
         <f>+Q66</f>
         <v/>
       </c>
-      <c r="R72" s="183">
+      <c r="R72" s="182">
         <f>+R66</f>
         <v/>
       </c>
-      <c r="S72" s="183">
+      <c r="S72" s="182">
         <f>+S66</f>
         <v/>
       </c>
-      <c r="T72" s="190" t="n"/>
+      <c r="T72" s="189" t="n"/>
       <c r="U72" s="77" t="n"/>
-      <c r="V72" s="191">
+      <c r="V72" s="190">
         <f>SUM(M72:S72)</f>
         <v/>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="164" t="inlineStr">
+      <c r="A73" s="163" t="inlineStr">
         <is>
           <t>Valores de Participacion</t>
         </is>
       </c>
-      <c r="B73" s="99" t="n"/>
+      <c r="B73" s="96" t="n"/>
       <c r="K73" s="77" t="n"/>
-      <c r="L73" s="184">
+      <c r="L73" s="183">
         <f>+L24</f>
         <v/>
       </c>
-      <c r="M73" s="163">
+      <c r="M73" s="162">
         <f>+M24</f>
         <v/>
       </c>
-      <c r="N73" s="163">
+      <c r="N73" s="162">
         <f>+N24</f>
         <v/>
       </c>
-      <c r="O73" s="163">
+      <c r="O73" s="162">
         <f>+O24</f>
         <v/>
       </c>
-      <c r="P73" s="163">
+      <c r="P73" s="162">
         <f>+P24</f>
         <v/>
       </c>
-      <c r="Q73" s="163">
+      <c r="Q73" s="162">
         <f>+Q24</f>
         <v/>
       </c>
-      <c r="R73" s="163">
+      <c r="R73" s="162">
         <f>+R24</f>
         <v/>
       </c>
-      <c r="S73" s="163">
+      <c r="S73" s="162">
         <f>+S24</f>
         <v/>
       </c>
       <c r="U73" s="77" t="n"/>
-      <c r="V73" s="192">
+      <c r="V73" s="191">
         <f>SUM(L73:U73)</f>
         <v/>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="168" t="inlineStr">
+      <c r="A74" s="167" t="inlineStr">
         <is>
           <t>Valores de Participacion propietarios de la controladora</t>
         </is>
       </c>
-      <c r="B74" s="99" t="n"/>
-      <c r="C74" s="169" t="n"/>
-      <c r="D74" s="170">
+      <c r="B74" s="96" t="n"/>
+      <c r="C74" s="168" t="n"/>
+      <c r="D74" s="169">
         <f>+ROUND(D64*D70,0)+2</f>
         <v/>
       </c>
-      <c r="E74" s="170">
+      <c r="E74" s="169">
         <f>+ROUND(E64*E70,0)</f>
         <v/>
       </c>
-      <c r="F74" s="170">
+      <c r="F74" s="169">
         <f>+ROUND(F64*F70,0)+1</f>
         <v/>
       </c>
-      <c r="G74" s="246">
+      <c r="G74" s="248">
         <f>+ROUND(G64*G70,0)+1</f>
         <v/>
       </c>
-      <c r="H74" s="170">
+      <c r="H74" s="169">
         <f>+ROUND(H64*H70,0)-2</f>
         <v/>
       </c>
-      <c r="I74" s="170">
+      <c r="I74" s="169">
         <f>+ROUND(I64*I70,0)</f>
         <v/>
       </c>
-      <c r="J74" s="170">
+      <c r="J74" s="169">
         <f>+ROUND(J64*J70,0)</f>
         <v/>
       </c>
       <c r="K74" s="77" t="n"/>
-      <c r="L74" s="247">
+      <c r="L74" s="249">
         <f>+L72-L73</f>
         <v/>
       </c>
-      <c r="M74" s="248">
+      <c r="M74" s="250">
         <f>+M72-M73</f>
         <v/>
       </c>
-      <c r="N74" s="249">
+      <c r="N74" s="251">
         <f>+N72-N73</f>
         <v/>
       </c>
-      <c r="O74" s="248">
+      <c r="O74" s="250">
         <f>+O72-O73</f>
         <v/>
       </c>
-      <c r="P74" s="249">
+      <c r="P74" s="251">
         <f>+P72-P73</f>
         <v/>
       </c>
-      <c r="Q74" s="248">
+      <c r="Q74" s="250">
         <f>+Q72-Q73</f>
         <v/>
       </c>
-      <c r="R74" s="248">
+      <c r="R74" s="250">
         <f>+R72-R73</f>
         <v/>
       </c>
-      <c r="S74" s="249">
+      <c r="S74" s="251">
         <f>+S72-S73</f>
         <v/>
       </c>
-      <c r="T74" s="193" t="n"/>
-      <c r="U74" s="194" t="n"/>
-      <c r="V74" s="195">
+      <c r="T74" s="192" t="n"/>
+      <c r="U74" s="193" t="n"/>
+      <c r="V74" s="194">
         <f>+V72-V73</f>
         <v/>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="172" t="inlineStr">
+      <c r="A75" s="171" t="inlineStr">
         <is>
           <t>Valores de Participacion no controladora</t>
         </is>
       </c>
-      <c r="B75" s="99" t="n"/>
-      <c r="C75" s="173" t="n"/>
-      <c r="D75" s="173">
+      <c r="B75" s="96" t="n"/>
+      <c r="C75" s="172" t="n"/>
+      <c r="D75" s="172">
         <f>+D64-D74</f>
         <v/>
       </c>
-      <c r="E75" s="173">
+      <c r="E75" s="172">
         <f>+E64-E74</f>
         <v/>
       </c>
-      <c r="F75" s="173">
+      <c r="F75" s="172">
         <f>+F64-F74</f>
         <v/>
       </c>
-      <c r="G75" s="173">
+      <c r="G75" s="172">
         <f>+G64-G74</f>
         <v/>
       </c>
-      <c r="H75" s="173">
+      <c r="H75" s="172">
         <f>+H64-H74</f>
         <v/>
       </c>
-      <c r="I75" s="173">
+      <c r="I75" s="172">
         <f>+I64-I74</f>
         <v/>
       </c>
-      <c r="J75" s="173">
+      <c r="J75" s="172">
         <f>+J64-J74</f>
         <v/>
       </c>
-      <c r="K75" s="173">
+      <c r="K75" s="172">
         <f>+K64-K74</f>
         <v/>
       </c>
-      <c r="L75" s="176" t="n"/>
-      <c r="M75" s="176" t="n"/>
-      <c r="N75" s="176">
-        <f>+'[8]Inversione  (Acumuladas Consol)'!$D$39</f>
-        <v/>
-      </c>
-      <c r="U75" s="196" t="n"/>
+      <c r="L75" s="175" t="n"/>
+      <c r="M75" s="175" t="n"/>
+      <c r="N75" s="175">
+        <f>+'[13]Inversione  (Acumuladas Consol)'!$D$39</f>
+        <v/>
+      </c>
+      <c r="U75" s="195" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="174" t="inlineStr">
+      <c r="A76" s="173" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B76" s="99" t="n"/>
-      <c r="C76" s="175" t="n"/>
-      <c r="D76" s="175">
+      <c r="B76" s="96" t="n"/>
+      <c r="C76" s="174" t="n"/>
+      <c r="D76" s="174">
         <f>+D74+D75</f>
         <v/>
       </c>
-      <c r="E76" s="175">
+      <c r="E76" s="174">
         <f>+E74+E75</f>
         <v/>
       </c>
-      <c r="F76" s="175">
+      <c r="F76" s="174">
         <f>+F74+F75</f>
         <v/>
       </c>
-      <c r="G76" s="175">
+      <c r="G76" s="174">
         <f>+G74+G75</f>
         <v/>
       </c>
-      <c r="H76" s="175">
+      <c r="H76" s="174">
         <f>+H74+H75</f>
         <v/>
       </c>
-      <c r="I76" s="175">
+      <c r="I76" s="174">
         <f>+I74+I75</f>
         <v/>
       </c>
-      <c r="J76" s="175">
+      <c r="J76" s="174">
         <f>+J74+J75</f>
         <v/>
       </c>
       <c r="K76" s="77" t="n"/>
-      <c r="L76" s="176" t="n"/>
-      <c r="M76" s="176" t="n"/>
-      <c r="N76" s="176">
+      <c r="L76" s="175" t="n"/>
+      <c r="M76" s="175" t="n"/>
+      <c r="N76" s="175">
         <f>+N73+N75</f>
         <v/>
       </c>
       <c r="U76" s="77" t="n"/>
-      <c r="V76" s="96" t="n"/>
+      <c r="V76" s="93" t="n"/>
     </row>
     <row r="77">
-      <c r="B77" s="99" t="n"/>
-      <c r="D77" s="163" t="n"/>
-      <c r="E77" s="163" t="n"/>
-      <c r="F77" s="163" t="n"/>
-      <c r="G77" s="163" t="n"/>
-      <c r="H77" s="163" t="n"/>
-      <c r="I77" s="163" t="n"/>
-      <c r="J77" s="163" t="n"/>
+      <c r="B77" s="96" t="n"/>
+      <c r="D77" s="162" t="n"/>
+      <c r="E77" s="162" t="n"/>
+      <c r="F77" s="162" t="n"/>
+      <c r="G77" s="162" t="n"/>
+      <c r="H77" s="162" t="n"/>
+      <c r="I77" s="162" t="n"/>
+      <c r="J77" s="162" t="n"/>
       <c r="K77" s="77" t="n"/>
-      <c r="L77" s="176" t="n"/>
-      <c r="M77" s="176" t="n"/>
-      <c r="N77" s="176" t="n"/>
+      <c r="L77" s="175" t="n"/>
+      <c r="M77" s="175" t="n"/>
+      <c r="N77" s="175" t="n"/>
       <c r="U77" s="77" t="n"/>
     </row>
     <row r="78">
@@ -8126,63 +8921,63 @@
           <t>Valores de Participacion segun contabilidad</t>
         </is>
       </c>
-      <c r="B78" s="99" t="n"/>
-      <c r="D78" s="175">
-        <f>+[4]Ctas!$D$238</f>
-        <v/>
-      </c>
-      <c r="E78" s="175">
-        <f>+[4]Ctas!$D$239</f>
-        <v/>
-      </c>
-      <c r="F78" s="175">
-        <f>+[4]Ctas!$D$245</f>
-        <v/>
-      </c>
-      <c r="G78" s="175">
-        <f>+[4]Ctas!$D$242</f>
-        <v/>
-      </c>
-      <c r="H78" s="175">
-        <f>+[4]Ctas!$D$247</f>
-        <v/>
-      </c>
-      <c r="I78" s="175">
-        <f>+[4]Ctas!$D$253</f>
-        <v/>
-      </c>
-      <c r="J78" s="175">
-        <f>+[4]Ctas!$D$246</f>
+      <c r="B78" s="96" t="n"/>
+      <c r="D78" s="174">
+        <f>+[5]Ctas!$D$238</f>
+        <v/>
+      </c>
+      <c r="E78" s="174">
+        <f>+[5]Ctas!$D$239</f>
+        <v/>
+      </c>
+      <c r="F78" s="174">
+        <f>+[5]Ctas!$D$245</f>
+        <v/>
+      </c>
+      <c r="G78" s="174">
+        <f>+[5]Ctas!$D$242</f>
+        <v/>
+      </c>
+      <c r="H78" s="174">
+        <f>+[5]Ctas!$D$247</f>
+        <v/>
+      </c>
+      <c r="I78" s="174">
+        <f>+[5]Ctas!$D$253</f>
+        <v/>
+      </c>
+      <c r="J78" s="174">
+        <f>+[5]Ctas!$D$246</f>
         <v/>
       </c>
       <c r="K78" s="77" t="n"/>
-      <c r="L78" s="176">
+      <c r="L78" s="175">
         <f>SUM(D78:J78)</f>
         <v/>
       </c>
-      <c r="M78" s="176">
+      <c r="M78" s="175">
         <f>+C24</f>
         <v/>
       </c>
-      <c r="N78" s="250">
+      <c r="N78" s="252">
         <f>+L78-M78</f>
         <v/>
       </c>
       <c r="U78" s="77" t="n"/>
     </row>
     <row r="79">
-      <c r="B79" s="99" t="n"/>
-      <c r="D79" s="176" t="n"/>
-      <c r="E79" s="176" t="n"/>
-      <c r="F79" s="176" t="n"/>
-      <c r="G79" s="176" t="n"/>
-      <c r="H79" s="176" t="n"/>
-      <c r="I79" s="176" t="n"/>
-      <c r="J79" s="176" t="n"/>
+      <c r="B79" s="96" t="n"/>
+      <c r="D79" s="175" t="n"/>
+      <c r="E79" s="175" t="n"/>
+      <c r="F79" s="175" t="n"/>
+      <c r="G79" s="175" t="n"/>
+      <c r="H79" s="175" t="n"/>
+      <c r="I79" s="175" t="n"/>
+      <c r="J79" s="175" t="n"/>
       <c r="K79" s="77" t="n"/>
-      <c r="L79" s="176" t="n"/>
-      <c r="M79" s="176" t="n"/>
-      <c r="N79" s="250" t="n">
+      <c r="L79" s="175" t="n"/>
+      <c r="M79" s="175" t="n"/>
+      <c r="N79" s="252" t="n">
         <v>4528747665</v>
       </c>
       <c r="U79" s="77" t="n"/>
@@ -8193,60 +8988,60 @@
           <t>Diferencias de Participacion segun contabilidad</t>
         </is>
       </c>
-      <c r="B80" s="99" t="n"/>
-      <c r="D80" s="251">
+      <c r="B80" s="96" t="n"/>
+      <c r="D80" s="253">
         <f>+D78-D74</f>
         <v/>
       </c>
-      <c r="E80" s="178">
+      <c r="E80" s="177">
         <f>+E78-E74</f>
         <v/>
       </c>
-      <c r="F80" s="178">
+      <c r="F80" s="177">
         <f>+F78-F74</f>
         <v/>
       </c>
-      <c r="G80" s="175">
+      <c r="G80" s="174">
         <f>+G78-G74</f>
         <v/>
       </c>
-      <c r="H80" s="179">
+      <c r="H80" s="178">
         <f>+H78-H74</f>
         <v/>
       </c>
-      <c r="I80" s="178">
+      <c r="I80" s="177">
         <f>+I78-I74</f>
         <v/>
       </c>
-      <c r="J80" s="178">
+      <c r="J80" s="177">
         <f>+J78-J74</f>
         <v/>
       </c>
       <c r="K80" s="77" t="n"/>
-      <c r="L80" s="176">
+      <c r="L80" s="175">
         <f>SUM(D80:J80)</f>
         <v/>
       </c>
-      <c r="M80" s="176" t="n"/>
-      <c r="N80" s="250">
+      <c r="M80" s="175" t="n"/>
+      <c r="N80" s="252">
         <f>-(+N78+N79)</f>
         <v/>
       </c>
       <c r="U80" s="77" t="n"/>
     </row>
     <row r="81">
-      <c r="B81" s="99" t="n"/>
-      <c r="D81" s="176" t="n"/>
-      <c r="E81" s="176" t="n"/>
-      <c r="F81" s="176" t="n"/>
-      <c r="G81" s="176" t="n"/>
-      <c r="H81" s="176" t="n"/>
-      <c r="I81" s="176" t="n"/>
-      <c r="J81" s="176" t="n"/>
+      <c r="B81" s="96" t="n"/>
+      <c r="D81" s="175" t="n"/>
+      <c r="E81" s="175" t="n"/>
+      <c r="F81" s="175" t="n"/>
+      <c r="G81" s="175" t="n"/>
+      <c r="H81" s="175" t="n"/>
+      <c r="I81" s="175" t="n"/>
+      <c r="J81" s="175" t="n"/>
       <c r="K81" s="77" t="n"/>
-      <c r="L81" s="176" t="n"/>
-      <c r="M81" s="176" t="n"/>
-      <c r="N81" s="176" t="n"/>
+      <c r="L81" s="175" t="n"/>
+      <c r="M81" s="175" t="n"/>
+      <c r="N81" s="175" t="n"/>
       <c r="U81" s="77" t="n"/>
     </row>
     <row r="82">
@@ -8255,18 +9050,18 @@
           <t>Valores Participacion no controladoras contabilidad</t>
         </is>
       </c>
-      <c r="B82" s="99" t="n"/>
-      <c r="D82" s="176" t="n"/>
-      <c r="E82" s="176" t="n"/>
-      <c r="F82" s="176" t="n"/>
-      <c r="G82" s="176" t="n"/>
-      <c r="H82" s="176" t="n"/>
-      <c r="I82" s="176" t="n"/>
-      <c r="J82" s="176" t="n"/>
+      <c r="B82" s="96" t="n"/>
+      <c r="D82" s="175" t="n"/>
+      <c r="E82" s="175" t="n"/>
+      <c r="F82" s="175" t="n"/>
+      <c r="G82" s="175" t="n"/>
+      <c r="H82" s="175" t="n"/>
+      <c r="I82" s="175" t="n"/>
+      <c r="J82" s="175" t="n"/>
       <c r="K82" s="77" t="n"/>
-      <c r="L82" s="176" t="n"/>
-      <c r="M82" s="176" t="n"/>
-      <c r="N82" s="176" t="n"/>
+      <c r="L82" s="175" t="n"/>
+      <c r="M82" s="175" t="n"/>
+      <c r="N82" s="175" t="n"/>
       <c r="U82" s="77" t="n"/>
     </row>
     <row r="83">
@@ -8275,35 +9070,35 @@
           <t>Valores Participacion no controladoras contabilidad</t>
         </is>
       </c>
-      <c r="B83" s="99" t="n"/>
-      <c r="D83" s="163">
-        <f>+[5]Ctas!$D$209</f>
-        <v/>
-      </c>
-      <c r="E83" s="163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="163">
-        <f>+[5]Ctas!$D$216</f>
-        <v/>
-      </c>
-      <c r="G83" s="163">
+      <c r="B83" s="96" t="n"/>
+      <c r="D83" s="162">
+        <f>+[6]Ctas!$D$209</f>
+        <v/>
+      </c>
+      <c r="E83" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="162">
+        <f>+[6]Ctas!$D$216</f>
+        <v/>
+      </c>
+      <c r="G83" s="162">
         <f>+G87+G88+G89</f>
         <v/>
       </c>
-      <c r="H83" s="163">
-        <f>+[5]Ctas!$D$218</f>
-        <v/>
-      </c>
-      <c r="I83" s="163">
-        <f>+[5]Ctas!$D$223</f>
-        <v/>
-      </c>
-      <c r="J83" s="176" t="n"/>
+      <c r="H83" s="162">
+        <f>+[6]Ctas!$D$218</f>
+        <v/>
+      </c>
+      <c r="I83" s="162">
+        <f>+[6]Ctas!$D$223</f>
+        <v/>
+      </c>
+      <c r="J83" s="175" t="n"/>
       <c r="K83" s="77" t="n"/>
-      <c r="L83" s="176" t="n"/>
-      <c r="M83" s="176" t="n"/>
-      <c r="N83" s="176" t="n"/>
+      <c r="L83" s="175" t="n"/>
+      <c r="M83" s="175" t="n"/>
+      <c r="N83" s="175" t="n"/>
       <c r="U83" s="77" t="n"/>
     </row>
     <row r="84">
@@ -8312,33 +9107,33 @@
           <t>Diferencias de Participacion segun contabilidad</t>
         </is>
       </c>
-      <c r="B84" s="99" t="n"/>
-      <c r="D84" s="176">
+      <c r="B84" s="96" t="n"/>
+      <c r="D84" s="175">
         <f>+D75-D83</f>
         <v/>
       </c>
-      <c r="E84" s="176" t="n"/>
-      <c r="F84" s="176">
+      <c r="E84" s="175" t="n"/>
+      <c r="F84" s="175">
         <f>+F75-F83</f>
         <v/>
       </c>
-      <c r="G84" s="176">
+      <c r="G84" s="175">
         <f>+G75-G83</f>
         <v/>
       </c>
-      <c r="H84" s="176">
+      <c r="H84" s="175">
         <f>+H75-H83</f>
         <v/>
       </c>
-      <c r="I84" s="176">
+      <c r="I84" s="175">
         <f>+I75-I83</f>
         <v/>
       </c>
-      <c r="J84" s="176" t="n"/>
+      <c r="J84" s="175" t="n"/>
       <c r="K84" s="77" t="n"/>
-      <c r="L84" s="176" t="n"/>
-      <c r="M84" s="176" t="n"/>
-      <c r="N84" s="176" t="n"/>
+      <c r="L84" s="175" t="n"/>
+      <c r="M84" s="175" t="n"/>
+      <c r="N84" s="175" t="n"/>
       <c r="U84" s="77" t="n"/>
     </row>
     <row r="85">
@@ -8347,18 +9142,18 @@
           <t>Diferencias de Participacion segun contabilidad</t>
         </is>
       </c>
-      <c r="B85" s="99" t="n"/>
-      <c r="D85" s="176" t="n"/>
-      <c r="E85" s="176" t="n"/>
-      <c r="F85" s="176" t="n"/>
-      <c r="G85" s="176" t="n"/>
-      <c r="H85" s="176" t="n"/>
-      <c r="I85" s="176" t="n"/>
-      <c r="J85" s="176" t="n"/>
-      <c r="K85" s="176" t="n"/>
-      <c r="L85" s="176" t="n"/>
-      <c r="M85" s="176" t="n"/>
-      <c r="N85" s="176" t="n"/>
+      <c r="B85" s="96" t="n"/>
+      <c r="D85" s="175" t="n"/>
+      <c r="E85" s="175" t="n"/>
+      <c r="F85" s="175" t="n"/>
+      <c r="G85" s="175" t="n"/>
+      <c r="H85" s="175" t="n"/>
+      <c r="I85" s="175" t="n"/>
+      <c r="J85" s="175" t="n"/>
+      <c r="K85" s="175" t="n"/>
+      <c r="L85" s="175" t="n"/>
+      <c r="M85" s="175" t="n"/>
+      <c r="N85" s="175" t="n"/>
       <c r="U85" s="77" t="n"/>
     </row>
     <row r="87">
@@ -8367,11 +9162,11 @@
           <t>Cine y color Internc, Mex.</t>
         </is>
       </c>
-      <c r="G87" s="252">
+      <c r="G87" s="254">
         <f>+G64*9.504%</f>
         <v/>
       </c>
-      <c r="H87" s="163" t="n"/>
+      <c r="H87" s="162" t="n"/>
     </row>
     <row r="88">
       <c r="F88" s="23" t="inlineStr">
@@ -8379,7 +9174,7 @@
           <t>Aud. Colomb</t>
         </is>
       </c>
-      <c r="G88" s="252">
+      <c r="G88" s="254">
         <f>+G64*0.496%</f>
         <v/>
       </c>
@@ -8390,7 +9185,7 @@
           <t>Conate</t>
         </is>
       </c>
-      <c r="G89" s="252">
+      <c r="G89" s="254">
         <f>+G64*0.003%</f>
         <v/>
       </c>
@@ -8401,13 +9196,13 @@
           <t>Chilefilms</t>
         </is>
       </c>
-      <c r="G90" s="253">
+      <c r="G90" s="255">
         <f>+G64*G70</f>
         <v/>
       </c>
     </row>
     <row r="91">
-      <c r="G91" s="254">
+      <c r="G91" s="256">
         <f>SUM(G87:G90)</f>
         <v/>
       </c>
@@ -8416,7 +9211,7 @@
   <pageMargins left="0.31496062992126" right="0" top="0.354330708661417" bottom="0" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup orientation="landscape" paperSize="1" scale="75" horizontalDpi="600" verticalDpi="600"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="33" min="0" max="225" man="1"/>
+    <brk id="33" min="0" max="237" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
@@ -8428,12 +9223,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF64"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.4571428571429" defaultRowHeight="11.25"/>
@@ -8458,9 +9253,7 @@
     <col width="13.5428571428571" customWidth="1" style="23" min="19" max="19"/>
     <col width="1.18095238095238" customWidth="1" style="23" min="20" max="20"/>
     <col width="16.4571428571429" customWidth="1" style="24" min="21" max="21"/>
-    <col width="12.4571428571429" customWidth="1" style="25" min="22" max="22"/>
-    <col width="11.4571428571429" customWidth="1" style="25" min="23" max="16372"/>
-    <col width="11.4571428571429" customWidth="1" style="25" min="16373" max="16384"/>
+    <col width="11.4571428571429" customWidth="1" style="25" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1">
@@ -8754,12 +9547,24 @@
       <c r="D5" s="40" t="n">
         <v>895107642</v>
       </c>
-      <c r="E5" s="40" t="n"/>
-      <c r="F5" s="40" t="n"/>
-      <c r="G5" s="40" t="n"/>
-      <c r="H5" s="40" t="n"/>
-      <c r="I5" s="40" t="n"/>
-      <c r="J5" s="40" t="n"/>
+      <c r="E5" s="40" t="n">
+        <v>612690564</v>
+      </c>
+      <c r="F5" s="40" t="n">
+        <v>10202391175</v>
+      </c>
+      <c r="G5" s="40" t="n">
+        <v>15434677941.34</v>
+      </c>
+      <c r="H5" s="40" t="n">
+        <v>2091465649</v>
+      </c>
+      <c r="I5" s="40" t="n">
+        <v>350308178</v>
+      </c>
+      <c r="J5" s="40" t="n">
+        <v>50714285158</v>
+      </c>
       <c r="K5" s="85" t="n"/>
       <c r="L5" s="48" t="n"/>
       <c r="M5" s="40" t="n"/>
@@ -8810,12 +9615,24 @@
       <c r="D7" s="40" t="n">
         <v>879039950</v>
       </c>
-      <c r="E7" s="40" t="n"/>
-      <c r="F7" s="40" t="n"/>
-      <c r="G7" s="40" t="n"/>
-      <c r="H7" s="40" t="n"/>
-      <c r="I7" s="40" t="n"/>
-      <c r="J7" s="40" t="n"/>
+      <c r="E7" s="40" t="n">
+        <v>1589567208</v>
+      </c>
+      <c r="F7" s="40" t="n">
+        <v>8863877124</v>
+      </c>
+      <c r="G7" s="40" t="n">
+        <v>12092000160.48</v>
+      </c>
+      <c r="H7" s="40" t="n">
+        <v>2046407600</v>
+      </c>
+      <c r="I7" s="40" t="n">
+        <v>342756080</v>
+      </c>
+      <c r="J7" s="40" t="n">
+        <v>41429705942</v>
+      </c>
       <c r="K7" s="85" t="n"/>
       <c r="M7" s="40" t="n"/>
       <c r="N7" s="48" t="n"/>
@@ -8967,12 +9784,24 @@
       <c r="D11" s="40" t="n">
         <v>-329604</v>
       </c>
-      <c r="E11" s="40" t="n"/>
-      <c r="F11" s="40" t="n"/>
-      <c r="G11" s="40" t="n"/>
-      <c r="H11" s="40" t="n"/>
-      <c r="I11" s="40" t="n"/>
-      <c r="J11" s="40" t="n"/>
+      <c r="E11" s="40" t="n">
+        <v>43482362</v>
+      </c>
+      <c r="F11" s="40" t="n">
+        <v>404451725</v>
+      </c>
+      <c r="G11" s="40" t="n">
+        <v>1258286956.1</v>
+      </c>
+      <c r="H11" s="40" t="n">
+        <v>-68045794</v>
+      </c>
+      <c r="I11" s="40" t="n">
+        <v>-1447932</v>
+      </c>
+      <c r="J11" s="40" t="n">
+        <v>3730151964</v>
+      </c>
       <c r="K11" s="85" t="n"/>
       <c r="L11" s="40" t="n"/>
       <c r="M11" s="40" t="n"/>
@@ -8999,12 +9828,20 @@
         <v>-387177979</v>
       </c>
       <c r="D12" s="40" t="n"/>
-      <c r="E12" s="40" t="n"/>
-      <c r="F12" s="40" t="n"/>
-      <c r="G12" s="40" t="n"/>
+      <c r="E12" s="40" t="n">
+        <v>644867403</v>
+      </c>
+      <c r="F12" s="40" t="n">
+        <v>6192039</v>
+      </c>
+      <c r="G12" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" s="40" t="n"/>
       <c r="I12" s="40" t="n"/>
-      <c r="J12" s="40" t="n"/>
+      <c r="J12" s="40" t="n">
+        <v>469371307</v>
+      </c>
       <c r="K12" s="85" t="n"/>
       <c r="L12" s="40" t="n"/>
       <c r="M12" s="40" t="n"/>
@@ -9134,12 +9971,24 @@
       <c r="D15" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="40" t="n"/>
-      <c r="F15" s="40" t="n"/>
-      <c r="G15" s="40" t="n"/>
-      <c r="H15" s="40" t="n"/>
-      <c r="I15" s="40" t="n"/>
-      <c r="J15" s="40" t="n"/>
+      <c r="E15" s="40" t="n">
+        <v>145127299</v>
+      </c>
+      <c r="F15" s="40" t="n">
+        <v>107379955</v>
+      </c>
+      <c r="G15" s="40" t="n">
+        <v>93677362.14000002</v>
+      </c>
+      <c r="H15" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="40" t="n">
+        <v>617063613</v>
+      </c>
       <c r="K15" s="85" t="n"/>
       <c r="L15" s="40" t="n"/>
       <c r="M15" s="40" t="n"/>
@@ -9191,12 +10040,24 @@
       <c r="D17" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="40" t="n"/>
-      <c r="F17" s="40" t="n"/>
-      <c r="G17" s="40" t="n"/>
-      <c r="H17" s="40" t="n"/>
-      <c r="I17" s="40" t="n"/>
-      <c r="J17" s="40" t="n"/>
+      <c r="E17" s="40" t="n">
+        <v>-514454578</v>
+      </c>
+      <c r="F17" s="40" t="n">
+        <v>-17279115</v>
+      </c>
+      <c r="G17" s="40" t="n">
+        <v>-25555123.74</v>
+      </c>
+      <c r="H17" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="40" t="n">
+        <v>-234082768</v>
+      </c>
       <c r="K17" s="85" t="n"/>
       <c r="L17" s="40" t="n"/>
       <c r="M17" s="40" t="n"/>
@@ -9248,12 +10109,24 @@
       <c r="D19" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="48" t="n"/>
-      <c r="F19" s="48" t="n"/>
-      <c r="G19" s="48" t="n"/>
-      <c r="H19" s="48" t="n"/>
-      <c r="I19" s="48" t="n"/>
-      <c r="J19" s="48" t="n"/>
+      <c r="E19" s="48" t="n">
+        <v>144654596</v>
+      </c>
+      <c r="F19" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="48" t="n">
+        <v>-577378134</v>
+      </c>
+      <c r="H19" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="48" t="n">
+        <v>-193717202</v>
+      </c>
       <c r="K19" s="85" t="n"/>
       <c r="L19" s="48" t="n"/>
       <c r="M19" s="48" t="n"/>
@@ -9268,7 +10141,6 @@
         <f>SUM(C19:S19)</f>
         <v/>
       </c>
-      <c r="V19" s="24" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="49" t="n"/>
@@ -9306,12 +10178,24 @@
       <c r="D21" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="40" t="n"/>
-      <c r="F21" s="40" t="n"/>
-      <c r="G21" s="40" t="n"/>
-      <c r="H21" s="40" t="n"/>
-      <c r="I21" s="40" t="n"/>
-      <c r="J21" s="40" t="n"/>
+      <c r="E21" s="40" t="n">
+        <v>850716119</v>
+      </c>
+      <c r="F21" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="40" t="n">
+        <v>101569629</v>
+      </c>
+      <c r="H21" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="40" t="n">
+        <v>2766310728</v>
+      </c>
       <c r="K21" s="85" t="n"/>
       <c r="L21" s="40" t="n"/>
       <c r="M21" s="40" t="n"/>
@@ -9363,12 +10247,24 @@
       <c r="D23" s="40" t="n">
         <v>4175429</v>
       </c>
-      <c r="E23" s="40" t="n"/>
-      <c r="F23" s="40" t="n"/>
-      <c r="G23" s="40" t="n"/>
-      <c r="H23" s="40" t="n"/>
-      <c r="I23" s="40" t="n"/>
-      <c r="J23" s="40" t="n"/>
+      <c r="E23" s="40" t="n">
+        <v>247456793</v>
+      </c>
+      <c r="F23" s="40" t="n">
+        <v>153102815</v>
+      </c>
+      <c r="G23" s="40" t="n">
+        <v>-101589682</v>
+      </c>
+      <c r="H23" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="40" t="n">
+        <v>-54492</v>
+      </c>
+      <c r="J23" s="40" t="n">
+        <v>-1556799018</v>
+      </c>
       <c r="K23" s="85" t="n"/>
       <c r="M23" s="40" t="n"/>
       <c r="O23" s="40" t="n"/>
@@ -9418,12 +10314,24 @@
       <c r="D25" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="40" t="n"/>
-      <c r="F25" s="40" t="n"/>
-      <c r="G25" s="40" t="n"/>
-      <c r="H25" s="40" t="n"/>
-      <c r="I25" s="40" t="n"/>
-      <c r="J25" s="40" t="n"/>
+      <c r="E25" s="40" t="n">
+        <v>7538071</v>
+      </c>
+      <c r="F25" s="40" t="n">
+        <v>25579789</v>
+      </c>
+      <c r="G25" s="40" t="n">
+        <v>-373670706.14</v>
+      </c>
+      <c r="H25" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="40" t="n">
+        <v>-937542378.48</v>
+      </c>
       <c r="K25" s="85" t="n"/>
       <c r="L25" s="48" t="n"/>
       <c r="M25" s="40" t="n"/>
@@ -9475,12 +10383,24 @@
       <c r="D27" s="40" t="n">
         <v>20770</v>
       </c>
-      <c r="E27" s="40" t="n"/>
-      <c r="F27" s="40" t="n"/>
-      <c r="G27" s="40" t="n"/>
-      <c r="H27" s="40" t="n"/>
-      <c r="I27" s="40" t="n"/>
-      <c r="J27" s="40" t="n"/>
+      <c r="E27" s="40" t="n">
+        <v>8761</v>
+      </c>
+      <c r="F27" s="40" t="n">
+        <v>-6201765</v>
+      </c>
+      <c r="G27" s="40" t="n">
+        <v>9510883</v>
+      </c>
+      <c r="H27" s="40" t="n">
+        <v>7473415</v>
+      </c>
+      <c r="I27" s="40" t="n">
+        <v>943999</v>
+      </c>
+      <c r="J27" s="40" t="n">
+        <v>-4634988441.5228</v>
+      </c>
       <c r="K27" s="85" t="n"/>
       <c r="L27" s="40" t="n"/>
       <c r="M27" s="40" t="n"/>
@@ -9633,12 +10553,24 @@
       <c r="D31" s="40" t="n">
         <v>4125394</v>
       </c>
-      <c r="E31" s="40" t="n"/>
-      <c r="F31" s="40" t="n"/>
-      <c r="G31" s="40" t="n"/>
-      <c r="H31" s="40" t="n"/>
-      <c r="I31" s="40" t="n"/>
-      <c r="J31" s="40" t="n"/>
+      <c r="E31" s="40" t="n">
+        <v>-60750912</v>
+      </c>
+      <c r="F31" s="40" t="n">
+        <v>-165835498</v>
+      </c>
+      <c r="G31" s="40" t="n">
+        <v>-143328805.42</v>
+      </c>
+      <c r="H31" s="40" t="n">
+        <v>12823917</v>
+      </c>
+      <c r="I31" s="40" t="n">
+        <v>3682218</v>
+      </c>
+      <c r="J31" s="40" t="n">
+        <v>-1470118469</v>
+      </c>
       <c r="K31" s="85" t="n"/>
       <c r="L31" s="40" t="n"/>
       <c r="M31" s="40" t="n"/>
@@ -9785,23 +10717,70 @@
         </is>
       </c>
       <c r="B35" s="44" t="n"/>
-      <c r="C35" s="56" t="n"/>
-      <c r="D35" s="40" t="n"/>
-      <c r="E35" s="40" t="n"/>
-      <c r="F35" s="40" t="n"/>
-      <c r="G35" s="40" t="n"/>
-      <c r="H35" s="40" t="n"/>
-      <c r="I35" s="40" t="n"/>
-      <c r="J35" s="40" t="n"/>
+      <c r="C35" s="56">
+        <f>+C33</f>
+        <v/>
+      </c>
+      <c r="D35" s="40">
+        <f>+D33</f>
+        <v/>
+      </c>
+      <c r="E35" s="40">
+        <f>+[10]Resultado!Y35</f>
+        <v/>
+      </c>
+      <c r="F35" s="40">
+        <f>+[7]Resultado!$C$33</f>
+        <v/>
+      </c>
+      <c r="G35" s="40">
+        <f>+[8]Resultado!$Y$35</f>
+        <v/>
+      </c>
+      <c r="H35" s="40">
+        <f>+H33</f>
+        <v/>
+      </c>
+      <c r="I35" s="40">
+        <f>+I33</f>
+        <v/>
+      </c>
+      <c r="J35" s="40">
+        <f>+'[9]Resultado$'!$AC$35</f>
+        <v/>
+      </c>
       <c r="K35" s="88" t="n"/>
-      <c r="L35" s="40" t="n"/>
-      <c r="M35" s="40" t="n"/>
-      <c r="N35" s="40" t="n"/>
-      <c r="O35" s="40" t="n"/>
-      <c r="P35" s="40" t="n"/>
-      <c r="Q35" s="40" t="n"/>
-      <c r="R35" s="40" t="n"/>
-      <c r="S35" s="40" t="n"/>
+      <c r="L35" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="40">
+        <f>-D35</f>
+        <v/>
+      </c>
+      <c r="N35" s="40">
+        <f>-E35</f>
+        <v/>
+      </c>
+      <c r="O35" s="40">
+        <f>-F35</f>
+        <v/>
+      </c>
+      <c r="P35" s="40">
+        <f>-G35</f>
+        <v/>
+      </c>
+      <c r="Q35" s="40">
+        <f>-H35</f>
+        <v/>
+      </c>
+      <c r="R35" s="40">
+        <f>-I35</f>
+        <v/>
+      </c>
+      <c r="S35" s="40">
+        <f>-J35</f>
+        <v/>
+      </c>
       <c r="T35" s="88" t="n"/>
       <c r="U35" s="40">
         <f>SUM(C35:S35)</f>
@@ -9815,7 +10794,9 @@
       <c r="D36" s="54" t="n"/>
       <c r="E36" s="54" t="n"/>
       <c r="F36" s="54" t="n"/>
-      <c r="G36" s="54" t="n"/>
+      <c r="G36" s="54" t="n">
+        <v>0</v>
+      </c>
       <c r="H36" s="54" t="n"/>
       <c r="I36" s="54" t="n"/>
       <c r="J36" s="54" t="n"/>
@@ -9830,11 +10811,6 @@
       <c r="S36" s="54" t="n"/>
       <c r="T36" s="87" t="n"/>
       <c r="U36" s="54" t="n"/>
-      <c r="V36" s="90" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="55" t="inlineStr">
@@ -9843,30 +10819,59 @@
         </is>
       </c>
       <c r="B37" s="44" t="n"/>
-      <c r="C37" s="40" t="n"/>
-      <c r="D37" s="40" t="n"/>
-      <c r="E37" s="40" t="n"/>
-      <c r="F37" s="40" t="n"/>
-      <c r="G37" s="40" t="n"/>
-      <c r="H37" s="40" t="n"/>
-      <c r="I37" s="40" t="n"/>
-      <c r="J37" s="40" t="n"/>
+      <c r="C37" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="40">
+        <f>+[10]Resultado!Y37</f>
+        <v/>
+      </c>
+      <c r="F37" s="40">
+        <f>+[2]Resultado!Y37</f>
+        <v/>
+      </c>
+      <c r="G37" s="40">
+        <f>+[8]Resultado!$Y$37</f>
+        <v/>
+      </c>
+      <c r="H37" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="40">
+        <f>+'[9]Resultado$'!$AC$37</f>
+        <v/>
+      </c>
       <c r="K37" s="87" t="n"/>
-      <c r="L37" s="40" t="n"/>
+      <c r="L37" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="M37" s="48" t="n"/>
-      <c r="N37" s="48" t="n"/>
+      <c r="N37" s="48">
+        <f>-[10]Resultado!$AH$37</f>
+        <v/>
+      </c>
       <c r="O37" s="48" t="n"/>
-      <c r="P37" s="48" t="n"/>
+      <c r="P37" s="48">
+        <f>-G37+G58</f>
+        <v/>
+      </c>
       <c r="Q37" s="48" t="n"/>
       <c r="R37" s="48" t="n"/>
-      <c r="S37" s="48" t="n"/>
+      <c r="S37" s="48">
+        <f>-J37+'[9]Resultado$'!$AD$37</f>
+        <v/>
+      </c>
       <c r="T37" s="87" t="n"/>
       <c r="U37" s="40">
         <f>SUM(C37:S37)</f>
         <v/>
       </c>
-      <c r="V37" s="255" t="n"/>
-      <c r="W37" s="92" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="53" t="n"/>
@@ -10036,28 +11041,28 @@
         </is>
       </c>
       <c r="C42" s="61" t="n"/>
-      <c r="D42" s="256" t="n">
+      <c r="D42" s="257" t="n">
         <v>0.9954499999999999</v>
       </c>
-      <c r="E42" s="256" t="n">
+      <c r="E42" s="257" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="256" t="n">
+      <c r="F42" s="257" t="n">
         <v>0.8687</v>
       </c>
-      <c r="G42" s="256" t="n">
+      <c r="G42" s="257" t="n">
         <v>0.89997</v>
       </c>
-      <c r="H42" s="243" t="n">
+      <c r="H42" s="245" t="n">
         <v>0.999</v>
       </c>
-      <c r="I42" s="243" t="n">
+      <c r="I42" s="245" t="n">
         <v>0.99</v>
       </c>
-      <c r="J42" s="243" t="n">
+      <c r="J42" s="245" t="n">
         <v>1</v>
       </c>
-      <c r="K42" s="243" t="n">
+      <c r="K42" s="245" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -10068,28 +11073,28 @@
         </is>
       </c>
       <c r="C43" s="61" t="n"/>
-      <c r="D43" s="256" t="n">
+      <c r="D43" s="257" t="n">
         <v>0.00455</v>
       </c>
-      <c r="E43" s="256" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="256" t="n">
+      <c r="E43" s="257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="257" t="n">
         <v>0.1313</v>
       </c>
-      <c r="G43" s="256" t="n">
+      <c r="G43" s="257" t="n">
         <v>0.10003</v>
       </c>
-      <c r="H43" s="243" t="n">
+      <c r="H43" s="245" t="n">
         <v>0.001</v>
       </c>
-      <c r="I43" s="243" t="n">
+      <c r="I43" s="245" t="n">
         <v>0.01</v>
       </c>
-      <c r="J43" s="243" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="243" t="n">
+      <c r="J43" s="245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="245" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -10100,36 +11105,36 @@
         </is>
       </c>
       <c r="B44" s="64" t="n"/>
-      <c r="C44" s="257" t="n"/>
-      <c r="D44" s="257">
+      <c r="C44" s="258" t="n"/>
+      <c r="D44" s="258">
         <f>+D42+D43</f>
         <v/>
       </c>
-      <c r="E44" s="257">
+      <c r="E44" s="258">
         <f>+E42+E43</f>
         <v/>
       </c>
-      <c r="F44" s="257">
+      <c r="F44" s="258">
         <f>+F42+F43</f>
         <v/>
       </c>
-      <c r="G44" s="257">
+      <c r="G44" s="258">
         <f>+G42+G43</f>
         <v/>
       </c>
-      <c r="H44" s="257">
+      <c r="H44" s="258">
         <f>+H42+H43</f>
         <v/>
       </c>
-      <c r="I44" s="257">
+      <c r="I44" s="258">
         <f>+I42+I43</f>
         <v/>
       </c>
-      <c r="J44" s="257">
+      <c r="J44" s="258">
         <f>+J42+J43</f>
         <v/>
       </c>
-      <c r="K44" s="257">
+      <c r="K44" s="258">
         <f>+K42+K43</f>
         <v/>
       </c>
@@ -10302,13 +11307,34 @@
           <t>Valores de Participacion segun contabilidad</t>
         </is>
       </c>
-      <c r="D50" s="72" t="n"/>
-      <c r="E50" s="72" t="n"/>
-      <c r="F50" s="72" t="n"/>
-      <c r="G50" s="72" t="n"/>
-      <c r="H50" s="72" t="n"/>
-      <c r="I50" s="72" t="n"/>
-      <c r="J50" s="72" t="n"/>
+      <c r="D50" s="72">
+        <f>+'[14]6220001 Utilidades empresas rel'!$N$13</f>
+        <v/>
+      </c>
+      <c r="E50" s="72">
+        <f>-'[15]5220001 Perdidas empresas relac'!$M$13</f>
+        <v/>
+      </c>
+      <c r="F50" s="72">
+        <f>+'[14]6220001 Utilidades empresas rel'!$N$14</f>
+        <v/>
+      </c>
+      <c r="G50" s="72">
+        <f>+'[14]6220001 Utilidades empresas rel'!$N$15</f>
+        <v/>
+      </c>
+      <c r="H50" s="72">
+        <f>-'[15]5220001 Perdidas empresas relac'!$M$12</f>
+        <v/>
+      </c>
+      <c r="I50" s="72">
+        <f>+'[14]6220001 Utilidades empresas rel'!$N$12</f>
+        <v/>
+      </c>
+      <c r="J50" s="72">
+        <f>-'[15]5220001 Perdidas empresas relac'!$M$14</f>
+        <v/>
+      </c>
       <c r="L50" s="37">
         <f>SUM(D50:J50)</f>
         <v/>
@@ -10321,7 +11347,7 @@
         <f>+M50-L50</f>
         <v/>
       </c>
-      <c r="O50" s="253" t="n"/>
+      <c r="O50" s="255" t="n"/>
       <c r="P50" s="37" t="n"/>
     </row>
     <row r="51">
@@ -10339,13 +11365,34 @@
           <t>Diferencias de Participacion segun contabilidad</t>
         </is>
       </c>
-      <c r="D52" s="72" t="n"/>
-      <c r="E52" s="72" t="n"/>
-      <c r="F52" s="72" t="n"/>
-      <c r="G52" s="72" t="n"/>
-      <c r="H52" s="72" t="n"/>
-      <c r="I52" s="72" t="n"/>
-      <c r="J52" s="72" t="n"/>
+      <c r="D52" s="72">
+        <f>+D50-D46</f>
+        <v/>
+      </c>
+      <c r="E52" s="72">
+        <f>+E50-E46</f>
+        <v/>
+      </c>
+      <c r="F52" s="72">
+        <f>+F50-F46</f>
+        <v/>
+      </c>
+      <c r="G52" s="72">
+        <f>+G50-G46</f>
+        <v/>
+      </c>
+      <c r="H52" s="72">
+        <f>+H50-H46</f>
+        <v/>
+      </c>
+      <c r="I52" s="72">
+        <f>+I50-I46</f>
+        <v/>
+      </c>
+      <c r="J52" s="72">
+        <f>+J50-J46</f>
+        <v/>
+      </c>
       <c r="L52" s="37">
         <f>SUM(D52:J52)</f>
         <v/>
@@ -10355,12 +11402,26 @@
         <v/>
       </c>
     </row>
-    <row r="53"/>
     <row r="54">
-      <c r="D54" s="37" t="n"/>
-      <c r="F54" s="37" t="n"/>
-      <c r="H54" s="37" t="n"/>
-      <c r="I54" s="37" t="n"/>
+      <c r="D54" s="37">
+        <f>+[10]Resultado!$AG$20</f>
+        <v/>
+      </c>
+      <c r="F54" s="37">
+        <f>+[10]Resultado!$Z$20</f>
+        <v/>
+      </c>
+      <c r="G54" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="37">
+        <f>+[10]Resultado!$AD$20</f>
+        <v/>
+      </c>
+      <c r="I54" s="37">
+        <f>+[10]Resultado!$AE$20</f>
+        <v/>
+      </c>
       <c r="L54" s="37">
         <f>SUM(D54:I54)</f>
         <v/>
@@ -10372,12 +11433,29 @@
       <c r="L55" s="37" t="n"/>
     </row>
     <row r="56">
-      <c r="D56" s="37" t="n"/>
-      <c r="E56" s="37" t="n"/>
-      <c r="F56" s="37" t="n"/>
-      <c r="G56" s="37" t="n"/>
-      <c r="H56" s="37" t="n"/>
-      <c r="I56" s="37" t="n"/>
+      <c r="D56" s="37">
+        <f>+D47-D54</f>
+        <v/>
+      </c>
+      <c r="E56" s="37">
+        <f>+E47-E54</f>
+        <v/>
+      </c>
+      <c r="F56" s="37">
+        <f>+F47-F54</f>
+        <v/>
+      </c>
+      <c r="G56" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="37">
+        <f>+H47-H54</f>
+        <v/>
+      </c>
+      <c r="I56" s="37">
+        <f>+I47-I54</f>
+        <v/>
+      </c>
       <c r="L56" s="37">
         <f>SUM(D56:K56)</f>
         <v/>
@@ -10394,7 +11472,7 @@
           <t>Cine y color Internc, Mex.</t>
         </is>
       </c>
-      <c r="G58" s="252">
+      <c r="G58" s="254">
         <f>+G35*9.504%</f>
         <v/>
       </c>
@@ -10405,7 +11483,7 @@
           <t>Aud. Colomb</t>
         </is>
       </c>
-      <c r="G59" s="252">
+      <c r="G59" s="254">
         <f>+G35*0.496%</f>
         <v/>
       </c>
@@ -10416,7 +11494,7 @@
           <t>Conate</t>
         </is>
       </c>
-      <c r="G60" s="252">
+      <c r="G60" s="254">
         <f>+G35*0.003%</f>
         <v/>
       </c>
@@ -10427,13 +11505,11 @@
           <t>Chilefilms</t>
         </is>
       </c>
-      <c r="G61" s="253">
+      <c r="G61" s="255">
         <f>+G35*G42</f>
         <v/>
       </c>
     </row>
-    <row r="62"/>
-    <row r="64"/>
   </sheetData>
   <pageMargins left="0.31496062992126" right="0" top="0.354330708661417" bottom="0" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup orientation="landscape" paperSize="1" scale="76" horizontalDpi="600" verticalDpi="600"/>
@@ -10870,7 +11946,7 @@
           <t>1.1.071.46</t>
         </is>
       </c>
-      <c r="B12" s="258" t="inlineStr">
+      <c r="B12" s="259" t="inlineStr">
         <is>
           <t>CTA CTE INM PLAZA EL ALBA</t>
         </is>
@@ -11038,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="8">
-        <f>+'[7]Estado$'!$D$215</f>
+        <f>+'[11]Estado$'!$D$215</f>
         <v/>
       </c>
       <c r="E17" s="8">
@@ -11066,7 +12142,7 @@
           <t>1.1.071.71</t>
         </is>
       </c>
-      <c r="B18" s="258" t="inlineStr">
+      <c r="B18" s="259" t="inlineStr">
         <is>
           <t>CTACTE COSTA SUR INVERSIONES SPA</t>
         </is>
@@ -11098,7 +12174,7 @@
           <t>1.1.071.73</t>
         </is>
       </c>
-      <c r="B19" s="258" t="inlineStr">
+      <c r="B19" s="259" t="inlineStr">
         <is>
           <t>CTACTE MAGIC LICENSING S.A.S.</t>
         </is>
@@ -11126,7 +12202,7 @@
           <t>1.1.071.74</t>
         </is>
       </c>
-      <c r="B20" s="258" t="inlineStr">
+      <c r="B20" s="259" t="inlineStr">
         <is>
           <t>CTA CTE CINECOLOR ENTERTAINMEN</t>
         </is>
@@ -11151,7 +12227,7 @@
           <t>1.1.071.75</t>
         </is>
       </c>
-      <c r="B21" s="258" t="inlineStr">
+      <c r="B21" s="259" t="inlineStr">
         <is>
           <t>CTA CTE MEDIAPROMOVILES CHILE SPA</t>
         </is>
@@ -11179,7 +12255,7 @@
           <t>1.1.071.76</t>
         </is>
       </c>
-      <c r="B22" s="258" t="inlineStr">
+      <c r="B22" s="259" t="inlineStr">
         <is>
           <t>Cta.Cte. CN Inv. Financ.</t>
         </is>
@@ -11207,7 +12283,7 @@
           <t>1.1.071.77</t>
         </is>
       </c>
-      <c r="B23" s="258" t="inlineStr">
+      <c r="B23" s="259" t="inlineStr">
         <is>
           <t>CTA CTE CINECOLORCHF INVERSIONES SPA</t>
         </is>
@@ -11235,7 +12311,7 @@
           <t>1.1.071.78</t>
         </is>
       </c>
-      <c r="B24" s="258" t="inlineStr">
+      <c r="B24" s="259" t="inlineStr">
         <is>
           <t>CTA CTE CINECOLOR LIC.PERU SAC</t>
         </is>
@@ -11358,7 +12434,7 @@
           <t>1.1.071.68</t>
         </is>
       </c>
-      <c r="B28" s="258" t="inlineStr">
+      <c r="B28" s="259" t="inlineStr">
         <is>
           <t>CTACTE COSTA NORTE HOLDING</t>
         </is>
@@ -11384,7 +12460,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="n"/>
-      <c r="B29" s="258" t="n"/>
+      <c r="B29" s="259" t="n"/>
       <c r="C29" s="8">
         <f>+[1]Ctas!$D$225</f>
         <v/>
@@ -11406,7 +12482,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="n"/>
-      <c r="B30" s="258" t="n"/>
+      <c r="B30" s="259" t="n"/>
       <c r="C30" s="8">
         <f>+[1]Ctas!$D$226</f>
         <v/>
@@ -11428,7 +12504,7 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="n"/>
-      <c r="B31" s="258" t="n"/>
+      <c r="B31" s="259" t="n"/>
       <c r="C31" s="8" t="n"/>
       <c r="D31" s="8" t="n"/>
       <c r="E31" s="8" t="n"/>
@@ -11447,7 +12523,7 @@
     </row>
     <row r="32">
       <c r="A32" s="20" t="n"/>
-      <c r="B32" s="258" t="n"/>
+      <c r="B32" s="259" t="n"/>
       <c r="C32" s="8" t="n"/>
       <c r="D32" s="8" t="n"/>
       <c r="E32" s="8" t="n"/>
@@ -11508,7 +12584,7 @@
       <c r="N34" s="8" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="258" t="n"/>
+      <c r="B35" s="259" t="n"/>
       <c r="C35" s="8" t="n"/>
       <c r="D35" s="8" t="n"/>
       <c r="E35" s="8" t="n"/>
@@ -11591,11 +12667,11 @@
         <v/>
       </c>
       <c r="E37" s="8">
-        <f>+Estado!#REF!</f>
+        <f>+Estado!AA23</f>
         <v/>
       </c>
       <c r="F37" s="8">
-        <f>+Estado!#REF!</f>
+        <f>+Estado!AB23</f>
         <v/>
       </c>
       <c r="G37" s="8">
@@ -11648,7 +12724,7 @@
       <c r="M38" s="8" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="258" t="n"/>
+      <c r="B39" s="259" t="n"/>
       <c r="C39" s="8" t="n"/>
       <c r="M39" s="8">
         <f>SUM(C39:L39)</f>
@@ -12650,7 +13726,7 @@
           <t>1.1.071.46</t>
         </is>
       </c>
-      <c r="B69" s="258" t="inlineStr">
+      <c r="B69" s="259" t="inlineStr">
         <is>
           <t>CTA CTE INM PLAZA EL ALBA</t>
         </is>
@@ -12986,7 +14062,7 @@
           <t>1.1.071.71</t>
         </is>
       </c>
-      <c r="B75" s="258" t="inlineStr">
+      <c r="B75" s="259" t="inlineStr">
         <is>
           <t>CTACTE COSTA SUR INVERSIONES SPA</t>
         </is>
@@ -13042,7 +14118,7 @@
           <t>1.1.071.73</t>
         </is>
       </c>
-      <c r="B76" s="258" t="inlineStr">
+      <c r="B76" s="259" t="inlineStr">
         <is>
           <t>CTACTE MAGIC LICENSING S.A.S.</t>
         </is>
@@ -13098,7 +14174,7 @@
           <t>1.1.071.74</t>
         </is>
       </c>
-      <c r="B77" s="258" t="inlineStr">
+      <c r="B77" s="259" t="inlineStr">
         <is>
           <t>CTA CTE CINECOLOR ENTERTAINMEN</t>
         </is>
@@ -13154,7 +14230,7 @@
           <t>1.1.071.75</t>
         </is>
       </c>
-      <c r="B78" s="258" t="inlineStr">
+      <c r="B78" s="259" t="inlineStr">
         <is>
           <t>CTA CTE MEDIAPROMOVILES CHILE SPA</t>
         </is>
@@ -13210,7 +14286,7 @@
           <t>1.1.071.76</t>
         </is>
       </c>
-      <c r="B79" s="258" t="inlineStr">
+      <c r="B79" s="259" t="inlineStr">
         <is>
           <t>Cta.Cte. CN Inv. Financ.</t>
         </is>
@@ -13266,7 +14342,7 @@
           <t>1.1.071.77</t>
         </is>
       </c>
-      <c r="B80" s="258" t="inlineStr">
+      <c r="B80" s="259" t="inlineStr">
         <is>
           <t>CTA CTE CINECOLORCHF INVERSIONES SPA</t>
         </is>
@@ -13322,7 +14398,7 @@
           <t>1.1.071.78</t>
         </is>
       </c>
-      <c r="B81" s="258" t="inlineStr">
+      <c r="B81" s="259" t="inlineStr">
         <is>
           <t>CTA CTE CINECOLOR LIC.PERU SAC</t>
         </is>
@@ -13456,7 +14532,7 @@
           <t>1.1.071.68</t>
         </is>
       </c>
-      <c r="B85" s="258" t="inlineStr">
+      <c r="B85" s="259" t="inlineStr">
         <is>
           <t>CTACTE COSTA NORTE HOLDING</t>
         </is>
@@ -13477,7 +14553,7 @@
       <c r="M85" s="8" t="n"/>
     </row>
     <row r="86">
-      <c r="B86" s="258" t="n"/>
+      <c r="B86" s="259" t="n"/>
       <c r="C86" s="8" t="n"/>
       <c r="D86" s="8" t="n"/>
       <c r="E86" s="8" t="n"/>

--- a/recursos/planilla_standard.xlsx
+++ b/recursos/planilla_standard.xlsx
@@ -5051,7 +5051,7 @@
       <c r="I5" s="100" t="n"/>
       <c r="J5" s="100" t="n"/>
       <c r="K5" s="77" t="n"/>
-      <c r="L5" s="138" t="n"/>
+      <c r="L5" s="138" t="inlineStr"/>
       <c r="M5" s="138" t="n"/>
       <c r="N5" s="138" t="n"/>
       <c r="O5" s="138" t="n"/>
@@ -7268,14 +7268,30 @@
         </is>
       </c>
       <c r="B58" s="96" t="n"/>
-      <c r="C58" s="103" t="n"/>
-      <c r="D58" s="103" t="n"/>
-      <c r="E58" s="103" t="n"/>
-      <c r="F58" s="103" t="n"/>
-      <c r="G58" s="103" t="n"/>
-      <c r="H58" s="103" t="n"/>
-      <c r="I58" s="103" t="n"/>
-      <c r="J58" s="103" t="n"/>
+      <c r="C58" s="103" t="n">
+        <v>28743629969</v>
+      </c>
+      <c r="D58" s="103" t="n">
+        <v>89385225</v>
+      </c>
+      <c r="E58" s="103" t="n">
+        <v>1352480884</v>
+      </c>
+      <c r="F58" s="103" t="n">
+        <v>194722012</v>
+      </c>
+      <c r="G58" s="103" t="n">
+        <v>9406623059</v>
+      </c>
+      <c r="H58" s="103" t="n">
+        <v>1313272</v>
+      </c>
+      <c r="I58" s="103" t="n">
+        <v>1087339</v>
+      </c>
+      <c r="J58" s="103" t="n">
+        <v>31874813204</v>
+      </c>
       <c r="K58" s="77" t="n"/>
       <c r="L58" s="103" t="n"/>
       <c r="M58" s="147">
@@ -7323,14 +7339,30 @@
         </is>
       </c>
       <c r="B59" s="96" t="n"/>
-      <c r="C59" s="103" t="n"/>
-      <c r="D59" s="103" t="n"/>
-      <c r="E59" s="103" t="n"/>
-      <c r="F59" s="103" t="n"/>
-      <c r="G59" s="103" t="n"/>
-      <c r="H59" s="103" t="n"/>
-      <c r="I59" s="103" t="n"/>
-      <c r="J59" s="103" t="n"/>
+      <c r="C59" s="103" t="n">
+        <v>51023010062</v>
+      </c>
+      <c r="D59" s="103" t="n">
+        <v>98349992</v>
+      </c>
+      <c r="E59" s="103" t="n">
+        <v>4653484162</v>
+      </c>
+      <c r="F59" s="103" t="n">
+        <v>1623081431</v>
+      </c>
+      <c r="G59" s="103" t="n">
+        <v>1508925219</v>
+      </c>
+      <c r="H59" s="103" t="n">
+        <v>91438527</v>
+      </c>
+      <c r="I59" s="103" t="n">
+        <v>160686140</v>
+      </c>
+      <c r="J59" s="103" t="n">
+        <v>17624160659</v>
+      </c>
       <c r="K59" s="77" t="n"/>
       <c r="L59" s="103" t="n"/>
       <c r="M59" s="147">
@@ -7378,14 +7410,30 @@
         </is>
       </c>
       <c r="B60" s="96" t="n"/>
-      <c r="C60" s="103" t="n"/>
-      <c r="D60" s="103" t="n"/>
-      <c r="E60" s="103" t="n"/>
-      <c r="F60" s="103" t="n"/>
-      <c r="G60" s="103" t="n"/>
-      <c r="H60" s="103" t="n"/>
-      <c r="I60" s="103" t="n"/>
-      <c r="J60" s="103" t="n"/>
+      <c r="C60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" s="77" t="n"/>
       <c r="L60" s="103" t="n"/>
       <c r="M60" s="147">
@@ -7433,14 +7481,30 @@
         </is>
       </c>
       <c r="B61" s="96" t="n"/>
-      <c r="C61" s="103" t="n"/>
-      <c r="D61" s="103" t="n"/>
-      <c r="E61" s="103" t="n"/>
-      <c r="F61" s="103" t="n"/>
-      <c r="G61" s="103" t="n"/>
-      <c r="H61" s="103" t="n"/>
-      <c r="I61" s="103" t="n"/>
-      <c r="J61" s="103" t="n"/>
+      <c r="C61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" s="77" t="n"/>
       <c r="L61" s="103" t="n"/>
       <c r="M61" s="147">
@@ -7488,14 +7552,30 @@
         </is>
       </c>
       <c r="B62" s="96" t="n"/>
-      <c r="C62" s="103" t="n"/>
-      <c r="D62" s="103" t="n"/>
-      <c r="E62" s="103" t="n"/>
-      <c r="F62" s="103" t="n"/>
-      <c r="G62" s="103" t="n"/>
-      <c r="H62" s="103" t="n"/>
-      <c r="I62" s="103" t="n"/>
-      <c r="J62" s="103" t="n"/>
+      <c r="C62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="103" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" s="77" t="n"/>
       <c r="L62" s="103" t="n"/>
       <c r="M62" s="147">
@@ -7543,14 +7623,30 @@
         </is>
       </c>
       <c r="B63" s="96" t="n"/>
-      <c r="C63" s="103" t="n"/>
-      <c r="D63" s="103" t="n"/>
-      <c r="E63" s="103" t="n"/>
-      <c r="F63" s="103" t="n"/>
-      <c r="G63" s="103" t="n"/>
-      <c r="H63" s="103" t="n"/>
-      <c r="I63" s="103" t="n"/>
-      <c r="J63" s="103" t="n"/>
+      <c r="C63" s="103" t="n">
+        <v>2411552424</v>
+      </c>
+      <c r="D63" s="103" t="n">
+        <v>36574573</v>
+      </c>
+      <c r="E63" s="103" t="n">
+        <v>1217740780</v>
+      </c>
+      <c r="F63" s="103" t="n">
+        <v>-112412498</v>
+      </c>
+      <c r="G63" s="103" t="n">
+        <v>988753254</v>
+      </c>
+      <c r="H63" s="103" t="n">
+        <v>-27011</v>
+      </c>
+      <c r="I63" s="103" t="n">
+        <v>-22364</v>
+      </c>
+      <c r="J63" s="103" t="n">
+        <v>14467766</v>
+      </c>
       <c r="K63" s="77" t="n"/>
       <c r="L63" s="103" t="n"/>
       <c r="M63" s="147">
@@ -7681,13 +7777,27 @@
       </c>
       <c r="B65" s="96" t="n"/>
       <c r="C65" s="103" t="n"/>
-      <c r="D65" s="103" t="n"/>
-      <c r="E65" s="103" t="n"/>
-      <c r="F65" s="103" t="n"/>
-      <c r="G65" s="103" t="n"/>
-      <c r="H65" s="103" t="n"/>
-      <c r="I65" s="103" t="n"/>
-      <c r="J65" s="103" t="n"/>
+      <c r="D65" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="103" t="n">
+        <v>4809958419</v>
+      </c>
+      <c r="F65" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="103" t="n">
+        <v>18467224.74000001</v>
+      </c>
+      <c r="H65" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="103" t="n">
+        <v>2944370383</v>
+      </c>
       <c r="K65" s="77" t="n"/>
       <c r="L65" s="181" t="n"/>
       <c r="M65" s="182" t="n"/>
